--- a/gc.xlsx
+++ b/gc.xlsx
@@ -7515,10 +7515,10 @@
         <v>40</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -7752,7 +7752,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -8321,7 +8321,7 @@
         <v>175</v>
       </c>
       <c r="G40" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="H40" s="1">
         <v>0.0</v>
@@ -8347,7 +8347,7 @@
         <v>179</v>
       </c>
       <c r="G41" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="H41" s="1">
         <v>0.0</v>
@@ -8454,7 +8454,7 @@
         <v>1.0</v>
       </c>
       <c r="H45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -8714,7 +8714,7 @@
         <v>1.0</v>
       </c>
       <c r="H55" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -8815,7 +8815,7 @@
         <v>263</v>
       </c>
       <c r="G59" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H59" s="1">
         <v>0.0</v>
@@ -9179,7 +9179,7 @@
         <v>328</v>
       </c>
       <c r="G73" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H73" s="1">
         <v>0.0</v>
@@ -9543,7 +9543,7 @@
         <v>393</v>
       </c>
       <c r="G87" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H87" s="1">
         <v>0.0</v>
@@ -10167,10 +10167,10 @@
         <v>504</v>
       </c>
       <c r="G111" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="H111" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="112">
@@ -10557,7 +10557,7 @@
         <v>572</v>
       </c>
       <c r="G126" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H126" s="1">
         <v>4.0</v>
@@ -11028,7 +11028,7 @@
         <v>11.0</v>
       </c>
       <c r="H144" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="145">
@@ -11415,10 +11415,10 @@
         <v>717</v>
       </c>
       <c r="G159" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H159" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="160">
@@ -11496,7 +11496,7 @@
         <v>2.0</v>
       </c>
       <c r="H162" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="163">
@@ -11522,7 +11522,7 @@
         <v>1.0</v>
       </c>
       <c r="H163" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
@@ -11597,7 +11597,7 @@
         <v>747</v>
       </c>
       <c r="G166" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H166" s="1">
         <v>0.0</v>
@@ -12042,7 +12042,7 @@
         <v>11.0</v>
       </c>
       <c r="H183" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="184">
@@ -12091,10 +12091,10 @@
         <v>837</v>
       </c>
       <c r="G185" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H185" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H185" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -12585,7 +12585,7 @@
         <v>923</v>
       </c>
       <c r="G204" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H204" s="1">
         <v>0.0</v>
@@ -12637,7 +12637,7 @@
         <v>932</v>
       </c>
       <c r="G206" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H206" s="1">
         <v>0.0</v>
@@ -12819,7 +12819,7 @@
         <v>960</v>
       </c>
       <c r="G213" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H213" s="1">
         <v>1.0</v>
@@ -13784,7 +13784,7 @@
         <v>3.0</v>
       </c>
       <c r="H250" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="251">
@@ -14405,7 +14405,7 @@
         <v>1227</v>
       </c>
       <c r="G274" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H274" s="1">
         <v>0.0</v>
@@ -14512,7 +14512,7 @@
         <v>1.0</v>
       </c>
       <c r="H278" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="279">
@@ -14769,7 +14769,7 @@
         <v>1287</v>
       </c>
       <c r="G288" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H288" s="1">
         <v>0.0</v>
@@ -15084,7 +15084,7 @@
         <v>7.0</v>
       </c>
       <c r="H300" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="301">
@@ -15211,10 +15211,10 @@
         <v>1363</v>
       </c>
       <c r="G305" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H305" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="306">
@@ -16797,10 +16797,10 @@
         <v>1641</v>
       </c>
       <c r="G366" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H366" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="367">
@@ -18175,7 +18175,7 @@
         <v>1869</v>
       </c>
       <c r="G419" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H419" s="1">
         <v>0.0</v>
@@ -18305,7 +18305,7 @@
         <v>1890</v>
       </c>
       <c r="G424" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H424" s="1">
         <v>0.0</v>
@@ -19163,7 +19163,7 @@
         <v>2041</v>
       </c>
       <c r="G457" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H457" s="1">
         <v>0.0</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -7437,7 +7437,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
@@ -7463,7 +7463,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H7" s="1">
         <v>0.0</v>
@@ -7489,7 +7489,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H8" s="1">
         <v>0.0</v>
@@ -7593,10 +7593,10 @@
         <v>52</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -7697,7 +7697,7 @@
         <v>70</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" s="1">
         <v>0.0</v>
@@ -7804,7 +7804,7 @@
         <v>4.0</v>
       </c>
       <c r="H20" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -8087,7 +8087,7 @@
         <v>136</v>
       </c>
       <c r="G31" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" s="1">
         <v>0.0</v>
@@ -8217,7 +8217,7 @@
         <v>159</v>
       </c>
       <c r="G36" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H36" s="1">
         <v>0.0</v>
@@ -8321,7 +8321,7 @@
         <v>175</v>
       </c>
       <c r="G40" s="1">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H40" s="1">
         <v>0.0</v>
@@ -8347,7 +8347,7 @@
         <v>179</v>
       </c>
       <c r="G41" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H41" s="1">
         <v>0.0</v>
@@ -8399,10 +8399,10 @@
         <v>187</v>
       </c>
       <c r="G43" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H43" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -8477,7 +8477,7 @@
         <v>199</v>
       </c>
       <c r="G46" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H46" s="1">
         <v>0.0</v>
@@ -8711,10 +8711,10 @@
         <v>243</v>
       </c>
       <c r="G55" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H55" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -8971,7 +8971,7 @@
         <v>291</v>
       </c>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H65" s="1">
         <v>0.0</v>
@@ -9182,7 +9182,7 @@
         <v>2.0</v>
       </c>
       <c r="H73" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -9231,7 +9231,7 @@
         <v>338</v>
       </c>
       <c r="G75" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H75" s="1">
         <v>4.0</v>
@@ -9543,10 +9543,10 @@
         <v>393</v>
       </c>
       <c r="G87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H87" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -10167,10 +10167,10 @@
         <v>504</v>
       </c>
       <c r="G111" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H111" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="112">
@@ -10245,7 +10245,7 @@
         <v>518</v>
       </c>
       <c r="G114" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H114" s="1">
         <v>3.0</v>
@@ -10297,7 +10297,7 @@
         <v>526</v>
       </c>
       <c r="G116" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H116" s="1">
         <v>0.0</v>
@@ -10349,7 +10349,7 @@
         <v>535</v>
       </c>
       <c r="G118" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H118" s="1">
         <v>0.0</v>
@@ -10375,7 +10375,7 @@
         <v>540</v>
       </c>
       <c r="G119" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="H119" s="1">
         <v>0.0</v>
@@ -10404,7 +10404,7 @@
         <v>5.0</v>
       </c>
       <c r="H120" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="121">
@@ -10557,7 +10557,7 @@
         <v>572</v>
       </c>
       <c r="G126" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H126" s="1">
         <v>4.0</v>
@@ -11025,10 +11025,10 @@
         <v>650</v>
       </c>
       <c r="G144" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H144" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="145">
@@ -11259,7 +11259,7 @@
         <v>690</v>
       </c>
       <c r="G153" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H153" s="1">
         <v>0.0</v>
@@ -11519,7 +11519,7 @@
         <v>735</v>
       </c>
       <c r="G163" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H163" s="1">
         <v>1.0</v>
@@ -11597,7 +11597,7 @@
         <v>747</v>
       </c>
       <c r="G166" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H166" s="1">
         <v>0.0</v>
@@ -11857,7 +11857,7 @@
         <v>794</v>
       </c>
       <c r="G176" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H176" s="1">
         <v>0.0</v>
@@ -12039,10 +12039,10 @@
         <v>827</v>
       </c>
       <c r="G183" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H183" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="184">
@@ -12065,7 +12065,7 @@
         <v>832</v>
       </c>
       <c r="G184" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H184" s="1">
         <v>0.0</v>
@@ -12094,7 +12094,7 @@
         <v>2.0</v>
       </c>
       <c r="H185" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="186">
@@ -12146,7 +12146,7 @@
         <v>2.0</v>
       </c>
       <c r="H187" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="188">
@@ -12559,7 +12559,7 @@
         <v>919</v>
       </c>
       <c r="G203" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H203" s="1">
         <v>0.0</v>
@@ -12975,7 +12975,7 @@
         <v>985</v>
       </c>
       <c r="G219" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H219" s="1">
         <v>0.0</v>
@@ -13781,10 +13781,10 @@
         <v>1123</v>
       </c>
       <c r="G250" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H250" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="251">
@@ -14509,10 +14509,10 @@
         <v>1242</v>
       </c>
       <c r="G278" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H278" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="279">
@@ -14665,10 +14665,10 @@
         <v>1268</v>
       </c>
       <c r="G284" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H284" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="285">
@@ -14691,10 +14691,10 @@
         <v>1272</v>
       </c>
       <c r="G285" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H285" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="286">
@@ -14772,7 +14772,7 @@
         <v>1.0</v>
       </c>
       <c r="H288" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="289">
@@ -14977,10 +14977,10 @@
         <v>1322</v>
       </c>
       <c r="G296" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H296" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H296" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="297">
@@ -15289,7 +15289,7 @@
         <v>1375</v>
       </c>
       <c r="G308" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H308" s="1">
         <v>0.0</v>
@@ -16407,7 +16407,7 @@
         <v>1572</v>
       </c>
       <c r="G351" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H351" s="1">
         <v>0.0</v>
@@ -17317,7 +17317,7 @@
         <v>1726</v>
       </c>
       <c r="G386" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H386" s="1">
         <v>0.0</v>
@@ -18071,7 +18071,7 @@
         <v>1853</v>
       </c>
       <c r="G415" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H415" s="1">
         <v>0.0</v>
@@ -19319,7 +19319,7 @@
         <v>2065</v>
       </c>
       <c r="G463" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H463" s="1">
         <v>0.0</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -7437,7 +7437,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="1">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
@@ -7463,7 +7463,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H7" s="1">
         <v>0.0</v>
@@ -7489,7 +7489,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="1">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H8" s="1">
         <v>0.0</v>
@@ -7567,10 +7567,10 @@
         <v>48</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -7593,10 +7593,10 @@
         <v>52</v>
       </c>
       <c r="G12" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H12" s="1">
         <v>2.0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -7804,7 +7804,7 @@
         <v>4.0</v>
       </c>
       <c r="H20" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -8347,7 +8347,7 @@
         <v>179</v>
       </c>
       <c r="G41" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H41" s="1">
         <v>0.0</v>
@@ -8399,10 +8399,10 @@
         <v>187</v>
       </c>
       <c r="G43" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H43" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="44">
@@ -8737,10 +8737,10 @@
         <v>248</v>
       </c>
       <c r="G56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H56" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -9832,7 +9832,7 @@
         <v>1.0</v>
       </c>
       <c r="H98" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -10248,7 +10248,7 @@
         <v>4.0</v>
       </c>
       <c r="H114" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="115">
@@ -10401,7 +10401,7 @@
         <v>543</v>
       </c>
       <c r="G120" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H120" s="1">
         <v>5.0</v>
@@ -10557,7 +10557,7 @@
         <v>572</v>
       </c>
       <c r="G126" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H126" s="1">
         <v>4.0</v>
@@ -11025,10 +11025,10 @@
         <v>650</v>
       </c>
       <c r="G144" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H144" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="145">
@@ -11522,7 +11522,7 @@
         <v>2.0</v>
       </c>
       <c r="H163" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="164">
@@ -11597,7 +11597,7 @@
         <v>747</v>
       </c>
       <c r="G166" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H166" s="1">
         <v>0.0</v>
@@ -12039,10 +12039,10 @@
         <v>827</v>
       </c>
       <c r="G183" s="1">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H183" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="184">
@@ -12637,7 +12637,7 @@
         <v>932</v>
       </c>
       <c r="G206" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H206" s="1">
         <v>0.0</v>
@@ -12978,7 +12978,7 @@
         <v>1.0</v>
       </c>
       <c r="H219" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
@@ -13157,7 +13157,7 @@
         <v>1016</v>
       </c>
       <c r="G226" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H226" s="1">
         <v>0.0</v>
@@ -13391,10 +13391,10 @@
         <v>1054</v>
       </c>
       <c r="G235" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H235" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="236">
@@ -13469,7 +13469,7 @@
         <v>1068</v>
       </c>
       <c r="G238" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H238" s="1">
         <v>0.0</v>
@@ -13911,7 +13911,7 @@
         <v>1147</v>
       </c>
       <c r="G255" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H255" s="1">
         <v>0.0</v>
@@ -14171,7 +14171,7 @@
         <v>1191</v>
       </c>
       <c r="G265" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H265" s="1">
         <v>0.0</v>
@@ -14405,7 +14405,7 @@
         <v>1227</v>
       </c>
       <c r="G274" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H274" s="1">
         <v>0.0</v>
@@ -14431,10 +14431,10 @@
         <v>1230</v>
       </c>
       <c r="G275" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H275" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="276">
@@ -14665,10 +14665,10 @@
         <v>1268</v>
       </c>
       <c r="G284" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H284" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="285">
@@ -14691,10 +14691,10 @@
         <v>1272</v>
       </c>
       <c r="G285" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H285" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="286">
@@ -14980,7 +14980,7 @@
         <v>2.0</v>
       </c>
       <c r="H296" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="297">
@@ -15289,7 +15289,7 @@
         <v>1375</v>
       </c>
       <c r="G308" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H308" s="1">
         <v>0.0</v>
@@ -16407,7 +16407,7 @@
         <v>1572</v>
       </c>
       <c r="G351" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H351" s="1">
         <v>0.0</v>
@@ -16485,7 +16485,7 @@
         <v>1586</v>
       </c>
       <c r="G354" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H354" s="1">
         <v>0.0</v>
@@ -18643,10 +18643,10 @@
         <v>1951</v>
       </c>
       <c r="G437" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H437" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="438">
@@ -18698,7 +18698,7 @@
         <v>0.0</v>
       </c>
       <c r="H439" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="440">
@@ -18773,10 +18773,10 @@
         <v>1972</v>
       </c>
       <c r="G442" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H442" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="443">
@@ -19631,7 +19631,7 @@
         <v>2119</v>
       </c>
       <c r="G475" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H475" s="1">
         <v>0.0</v>
@@ -20567,7 +20567,7 @@
         <v>2268</v>
       </c>
       <c r="G511" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H511" s="1">
         <v>0.0</v>
@@ -21139,7 +21139,7 @@
         <v>2360</v>
       </c>
       <c r="G533" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H533" s="1">
         <v>0.0</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -7601,10 +7601,10 @@
         <v>77</v>
       </c>
       <c r="G16" s="1">
-        <v>60.0</v>
+        <v>8.0</v>
       </c>
       <c r="H16" s="1">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -7210,7 +7210,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="H2" s="1">
         <v>4.0</v>
@@ -7239,7 +7239,7 @@
         <v>24.0</v>
       </c>
       <c r="H3" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -7288,7 +7288,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H5" s="1">
         <v>2.0</v>
@@ -7314,10 +7314,10 @@
         <v>32</v>
       </c>
       <c r="G6" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H6" s="1">
         <v>12.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -7340,7 +7340,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H7" s="1">
         <v>4.0</v>
@@ -8019,7 +8019,7 @@
         <v>16.0</v>
       </c>
       <c r="H33" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -8042,7 +8042,7 @@
         <v>154</v>
       </c>
       <c r="G34" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H34" s="1">
         <v>1.0</v>
@@ -8120,7 +8120,7 @@
         <v>166</v>
       </c>
       <c r="G37" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H37" s="1">
         <v>2.0</v>
@@ -8198,7 +8198,7 @@
         <v>180</v>
       </c>
       <c r="G40" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" s="1">
         <v>0.0</v>
@@ -8357,7 +8357,7 @@
         <v>4.0</v>
       </c>
       <c r="H46" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -8822,7 +8822,7 @@
         <v>294</v>
       </c>
       <c r="G64" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H64" s="1">
         <v>5.0</v>
@@ -9004,7 +9004,7 @@
         <v>328</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H71" s="1">
         <v>0.0</v>
@@ -9085,7 +9085,7 @@
         <v>3.0</v>
       </c>
       <c r="H74" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -9160,7 +9160,7 @@
         <v>355</v>
       </c>
       <c r="G77" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H77" s="1">
         <v>0.0</v>
@@ -9342,7 +9342,7 @@
         <v>387</v>
       </c>
       <c r="G84" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H84" s="1">
         <v>0.0</v>
@@ -9472,7 +9472,7 @@
         <v>412</v>
       </c>
       <c r="G89" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H89" s="1">
         <v>1.0</v>
@@ -9605,7 +9605,7 @@
         <v>1.0</v>
       </c>
       <c r="H94" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="95">
@@ -9888,10 +9888,10 @@
         <v>485</v>
       </c>
       <c r="G105" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H105" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="106">
@@ -10044,7 +10044,7 @@
         <v>510</v>
       </c>
       <c r="G111" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H111" s="1">
         <v>6.0</v>
@@ -10200,7 +10200,7 @@
         <v>539</v>
       </c>
       <c r="G117" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H117" s="1">
         <v>10.0</v>
@@ -10278,7 +10278,7 @@
         <v>551</v>
       </c>
       <c r="G120" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H120" s="1">
         <v>0.0</v>
@@ -10434,10 +10434,10 @@
         <v>578</v>
       </c>
       <c r="G126" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H126" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="127">
@@ -10460,10 +10460,10 @@
         <v>583</v>
       </c>
       <c r="G127" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H127" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
@@ -11292,10 +11292,10 @@
         <v>727</v>
       </c>
       <c r="G159" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H159" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="160">
@@ -11373,7 +11373,7 @@
         <v>2.0</v>
       </c>
       <c r="H162" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="163">
@@ -11396,10 +11396,10 @@
         <v>746</v>
       </c>
       <c r="G163" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H163" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="164">
@@ -11682,10 +11682,10 @@
         <v>797</v>
       </c>
       <c r="G174" s="1">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="H174" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="175">
@@ -11734,10 +11734,10 @@
         <v>807</v>
       </c>
       <c r="G176" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H176" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="177">
@@ -11786,10 +11786,10 @@
         <v>816</v>
       </c>
       <c r="G178" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H178" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="179">
@@ -11812,7 +11812,7 @@
         <v>821</v>
       </c>
       <c r="G179" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H179" s="1">
         <v>0.0</v>
@@ -12228,10 +12228,10 @@
         <v>893</v>
       </c>
       <c r="G195" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H195" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="196">
@@ -12254,7 +12254,7 @@
         <v>897</v>
       </c>
       <c r="G196" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H196" s="1">
         <v>0.0</v>
@@ -12670,7 +12670,7 @@
         <v>966</v>
       </c>
       <c r="G212" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H212" s="1">
         <v>0.0</v>
@@ -13034,7 +13034,7 @@
         <v>1025</v>
       </c>
       <c r="G226" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H226" s="1">
         <v>3.0</v>
@@ -13112,7 +13112,7 @@
         <v>1039</v>
       </c>
       <c r="G229" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H229" s="1">
         <v>0.0</v>
@@ -13814,10 +13814,10 @@
         <v>1162</v>
       </c>
       <c r="G256" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H256" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="257">
@@ -13892,10 +13892,10 @@
         <v>1175</v>
       </c>
       <c r="G259" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H259" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="260">
@@ -14308,7 +14308,7 @@
         <v>1239</v>
       </c>
       <c r="G275" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H275" s="1">
         <v>3.0</v>
@@ -14334,7 +14334,7 @@
         <v>1243</v>
       </c>
       <c r="G276" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H276" s="1">
         <v>3.0</v>
@@ -14698,10 +14698,10 @@
         <v>1308</v>
       </c>
       <c r="G290" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H290" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="291">
@@ -14906,10 +14906,10 @@
         <v>1343</v>
       </c>
       <c r="G298" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H298" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="299">
@@ -15452,10 +15452,10 @@
         <v>1438</v>
       </c>
       <c r="G319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H319" s="1">
         <v>1.0</v>
-      </c>
-      <c r="H319" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="320">
@@ -15582,7 +15582,7 @@
         <v>1462</v>
       </c>
       <c r="G324" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H324" s="1">
         <v>0.0</v>
@@ -15686,7 +15686,7 @@
         <v>1480</v>
       </c>
       <c r="G328" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H328" s="1">
         <v>0.0</v>
@@ -15868,10 +15868,10 @@
         <v>1512</v>
       </c>
       <c r="G335" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H335" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="336">
@@ -16908,10 +16908,10 @@
         <v>1691</v>
       </c>
       <c r="G375" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H375" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="376">
@@ -17350,7 +17350,7 @@
         <v>1764</v>
       </c>
       <c r="G392" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H392" s="1">
         <v>0.0</v>
@@ -18338,7 +18338,7 @@
         <v>1934</v>
       </c>
       <c r="G430" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H430" s="1">
         <v>4.0</v>
@@ -18676,7 +18676,7 @@
         <v>1993</v>
       </c>
       <c r="G443" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H443" s="1">
         <v>2.0</v>
@@ -19248,7 +19248,7 @@
         <v>2090</v>
       </c>
       <c r="G465" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H465" s="1">
         <v>0.0</v>
@@ -20109,7 +20109,7 @@
         <v>2.0</v>
       </c>
       <c r="H498" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="499">

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -169,6 +169,36 @@
     <t>https://google.qwiklabs.com/public_profiles/2c915a5f-a868-4dbe-bbe5-8eff68124015</t>
   </si>
   <si>
+    <t>Pushkar Nath Singh</t>
+  </si>
+  <si>
+    <t>pushkarnsingh@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] FUTURE INSTITUTE OF ENGINEERING AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 16:50:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/29fa6101-a9a0-4238-8cf5-af18eb95d488</t>
+  </si>
+  <si>
+    <t>Tanmoyee Roy</t>
+  </si>
+  <si>
+    <t>tanmoyeeroy041999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Institute of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:43:56 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
+  </si>
+  <si>
     <t>Kishan Biswakarma</t>
   </si>
   <si>
@@ -196,21 +226,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
-    <t>Pushkar Nath Singh</t>
-  </si>
-  <si>
-    <t>pushkarnsingh@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] FUTURE INSTITUTE OF ENGINEERING AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 16:50:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/29fa6101-a9a0-4238-8cf5-af18eb95d488</t>
-  </si>
-  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -226,19 +241,31 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>Tanmoyee Roy</t>
-  </si>
-  <si>
-    <t>tanmoyeeroy041999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Institute of Engineering &amp; Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:43:56 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
+    <t>Prateek Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Prateeksharma0112@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Mahavir Swami Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
+  </si>
+  <si>
+    <t>Sourav Bhunia</t>
+  </si>
+  <si>
+    <t>bhunia.1606@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 21:39:53 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ef902ebd-299d-473e-8e98-a7e65f7bbc2d</t>
   </si>
   <si>
     <t>Shubham Tribedi</t>
@@ -268,21 +295,6 @@
     <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
   </si>
   <si>
-    <t>Prateek Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Prateeksharma0112@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Mahavir Swami Institute Of Technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
-  </si>
-  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -298,16 +310,16 @@
     <t>https://google.qwiklabs.com/public_profiles/ec0ca601-10f8-41e4-8774-fc4397dfe664</t>
   </si>
   <si>
-    <t>Sourav Bhunia</t>
-  </si>
-  <si>
-    <t>bhunia.1606@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 21:39:53 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ef902ebd-299d-473e-8e98-a7e65f7bbc2d</t>
+    <t>Hritik Kumar Singh</t>
+  </si>
+  <si>
+    <t>singhhritik978@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 22:31:56 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
     <t>Prachi Kumari</t>
@@ -322,6 +334,33 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
+    <t>Arunima Maiti</t>
+  </si>
+  <si>
+    <t>arunimamaity190@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:16:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
+  </si>
+  <si>
+    <t>Saurav Kumar</t>
+  </si>
+  <si>
+    <t>ms2004101009@iiti.ac.in</t>
+  </si>
+  <si>
+    <t>[Referred] Indian Institute Of Technology Indore</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 12:27:53 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
+  </si>
+  <si>
     <t>Subhayu Kumar Bala</t>
   </si>
   <si>
@@ -352,19 +391,31 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Saurav Kumar</t>
-  </si>
-  <si>
-    <t>ms2004101009@iiti.ac.in</t>
-  </si>
-  <si>
-    <t>[Referred] Indian Institute Of Technology Indore</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 12:27:53 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
+    <t>SUDIPTA ROY</t>
+  </si>
+  <si>
+    <t>sudipta01roy@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
+  </si>
+  <si>
+    <t>PRACHI PURVA</t>
+  </si>
+  <si>
+    <t>prachipurva7142@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
   </si>
   <si>
     <t>Kesher Gupta</t>
@@ -382,18 +433,6 @@
     <t>https://google.qwiklabs.com/public_profiles/544f9271-e34f-48ed-b8fd-905dfadfef2f</t>
   </si>
   <si>
-    <t>Hritik Kumar Singh</t>
-  </si>
-  <si>
-    <t>singhhritik978@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 22:31:56 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
-  </si>
-  <si>
     <t>Anom Chakravorty</t>
   </si>
   <si>
@@ -409,28 +448,31 @@
     <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
-    <t>SUDIPTA ROY</t>
-  </si>
-  <si>
-    <t>sudipta01roy@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
-  </si>
-  <si>
-    <t>Arunima Maiti</t>
-  </si>
-  <si>
-    <t>arunimamaity190@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:16:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
+    <t>Raktim Roy</t>
+  </si>
+  <si>
+    <t>deepjoydrx@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
   </si>
   <si>
     <t>Rohit Das</t>
@@ -478,21 +520,6 @@
     <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
   </si>
   <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
-  </si>
-  <si>
     <t>Gursharan Kaur</t>
   </si>
   <si>
@@ -508,21 +535,6 @@
     <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
   </si>
   <si>
-    <t>PRACHI PURVA</t>
-  </si>
-  <si>
-    <t>prachipurva7142@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
-  </si>
-  <si>
     <t>Rishav Chakraborty</t>
   </si>
   <si>
@@ -550,6 +562,18 @@
     <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
   </si>
   <si>
+    <t>Procheta Bhattacharyya</t>
+  </si>
+  <si>
+    <t>bhattacharyya.procheta1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 17:08:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
+  </si>
+  <si>
     <t>Arunima Dhar</t>
   </si>
   <si>
@@ -565,6 +589,36 @@
     <t>https://www.qwiklabs.com/public_profiles/ae69f93e-9ddf-4e52-97fe-1e942e6e76a2</t>
   </si>
   <si>
+    <t>Sayan Sengupta</t>
+  </si>
+  <si>
+    <t>sayansengupta2001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of engineering and management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+  </si>
+  <si>
+    <t>Manshi Shaw</t>
+  </si>
+  <si>
+    <t>manshishawknk@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Government College of Engineering and Leather Technology,Kolkata</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 11:55:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2061f808-65c0-4416-a21c-ce8f30ff65b8</t>
+  </si>
+  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -577,6 +631,33 @@
     <t>https://google.qwiklabs.com/public_profiles/58420e4b-15f7-4de6-9b63-e15da62f8406</t>
   </si>
   <si>
+    <t>Vivek Anand</t>
+  </si>
+  <si>
+    <t>anandvivek0208@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] St. Xavier's College, Ranchi</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 09:04:45 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
+  </si>
+  <si>
+    <t>Shiwangi Jaiswal</t>
+  </si>
+  <si>
+    <t>shiwajaiswal456@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 13:52:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
+  </si>
+  <si>
     <t>Rupankar Basak</t>
   </si>
   <si>
@@ -622,6 +703,21 @@
     <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
   </si>
   <si>
+    <t>Raunak Kumar Sah</t>
+  </si>
+  <si>
+    <t>itisraunak@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+  </si>
+  <si>
     <t>Trisha Naskar</t>
   </si>
   <si>
@@ -634,33 +730,6 @@
     <t>https://google.qwiklabs.com/public_profiles/0acf7345-9678-41ec-8cab-fa16b1427941</t>
   </si>
   <si>
-    <t>Raktim Roy</t>
-  </si>
-  <si>
-    <t>deepjoydrx@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
-  </si>
-  <si>
-    <t>Sayan Sengupta</t>
-  </si>
-  <si>
-    <t>sayansengupta2001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of engineering and management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
-  </si>
-  <si>
     <t>Sweta Upadhyay</t>
   </si>
   <si>
@@ -676,6 +745,18 @@
     <t>https://www.qwiklabs.com/public_profiles/2f22c574-3778-40bb-992f-0f35b5617ffd</t>
   </si>
   <si>
+    <t>Biswarup Roy</t>
+  </si>
+  <si>
+    <t>biswaruproy000@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 19:07:36 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
+  </si>
+  <si>
     <t>Vishwas Tyagi</t>
   </si>
   <si>
@@ -691,16 +772,19 @@
     <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
   </si>
   <si>
-    <t>Procheta Bhattacharyya</t>
-  </si>
-  <si>
-    <t>bhattacharyya.procheta1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 17:08:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
+    <t>Subhodeep Basak</t>
+  </si>
+  <si>
+    <t>subhodeepbasak14@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] St Paul's Cathedral Misson College</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 23:46:11 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
     <t>Ushasi Das</t>
@@ -730,18 +814,6 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>Shiwangi Jaiswal</t>
-  </si>
-  <si>
-    <t>shiwajaiswal456@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 13:52:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
-  </si>
-  <si>
     <t>Soham Saha</t>
   </si>
   <si>
@@ -796,21 +868,6 @@
     <t>https://www.qwiklabs.com/public_profiles/04f14754-9f45-4509-a219-de4961459eea</t>
   </si>
   <si>
-    <t>Raunak Kumar Sah</t>
-  </si>
-  <si>
-    <t>itisraunak@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
-  </si>
-  <si>
     <t>Anushka Mitra</t>
   </si>
   <si>
@@ -835,33 +892,6 @@
     <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
   </si>
   <si>
-    <t>Manshi Shaw</t>
-  </si>
-  <si>
-    <t>manshishawknk@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Government College of Engineering and Leather Technology,Kolkata</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 11:55:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2061f808-65c0-4416-a21c-ce8f30ff65b8</t>
-  </si>
-  <si>
-    <t>Biswarup Roy</t>
-  </si>
-  <si>
-    <t>biswaruproy000@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 19:07:36 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
-  </si>
-  <si>
     <t>SANDIP DAS</t>
   </si>
   <si>
@@ -877,6 +907,36 @@
     <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
   </si>
   <si>
+    <t>Ayan Pal</t>
+  </si>
+  <si>
+    <t>pal.ayan712304@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Narula Institute of Technology</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
+  </si>
+  <si>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+  </si>
+  <si>
     <t>Pralipto Ghosh</t>
   </si>
   <si>
@@ -919,21 +979,6 @@
     <t>https://google.qwiklabs.com/public_profiles/03d73df9-2c13-42c4-a68b-994507b72178</t>
   </si>
   <si>
-    <t>Subhodeep Basak</t>
-  </si>
-  <si>
-    <t>subhodeepbasak14@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] St Paul's Cathedral Misson College</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 23:46:11 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
-  </si>
-  <si>
     <t>Ankit Kumar Shaw</t>
   </si>
   <si>
@@ -976,21 +1021,6 @@
     <t>https://www.qwiklabs.com/public_profiles/b033bccb-e643-478f-9999-605b4390c8a6</t>
   </si>
   <si>
-    <t>Vivek Anand</t>
-  </si>
-  <si>
-    <t>anandvivek0208@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] St. Xavier's College, Ranchi</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 09:04:45 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
-  </si>
-  <si>
     <t>RAHUL LAHA</t>
   </si>
   <si>
@@ -1036,6 +1066,21 @@
     <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
   </si>
   <si>
+    <t>Arpan Kumar</t>
+  </si>
+  <si>
+    <t>kumararpan227@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Ramakrishna Mission Vidyamandira, Belur</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:52:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6acb6c50-0258-44a6-a363-2ecdbfe33c2c</t>
+  </si>
+  <si>
     <t>Daita sur</t>
   </si>
   <si>
@@ -1063,21 +1108,6 @@
     <t>https://google.qwiklabs.com/public_profiles/6572bc8d-dfd5-415c-a901-8d89b605b1fe</t>
   </si>
   <si>
-    <t>Ayan Pal</t>
-  </si>
-  <si>
-    <t>pal.ayan712304@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Narula Institute of Technology</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
-  </si>
-  <si>
     <t>subhabrata khara</t>
   </si>
   <si>
@@ -1102,19 +1132,19 @@
     <t>https://www.qwiklabs.com/public_profiles/277907ee-a444-4c1e-a089-66975fa5c78c</t>
   </si>
   <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
   </si>
   <si>
     <t>Samrat Ganguly</t>
@@ -1141,6 +1171,21 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
+    <t>Chirantan Basu</t>
+  </si>
+  <si>
+    <t>basuchirantan001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Bengal Institute of Technology</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 09:57:26 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/e6fa8039-1f69-41ef-98b7-9d8a6121c754</t>
+  </si>
+  <si>
     <t>Mufaddal Vadnagarwala</t>
   </si>
   <si>
@@ -1153,6 +1198,33 @@
     <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
   </si>
   <si>
+    <t>Srishti Pal</t>
+  </si>
+  <si>
+    <t>srishti.pal.11@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+  </si>
+  <si>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
+  </si>
+  <si>
     <t>Shashwat Pandey</t>
   </si>
   <si>
@@ -1207,21 +1279,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2fbf708a-7627-4a75-8328-f881b5908826</t>
   </si>
   <si>
-    <t>Arpan Kumar</t>
-  </si>
-  <si>
-    <t>kumararpan227@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Ramakrishna Mission Vidyamandira, Belur</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:52:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6acb6c50-0258-44a6-a363-2ecdbfe33c2c</t>
-  </si>
-  <si>
     <t>Rahul Debnath</t>
   </si>
   <si>
@@ -1237,6 +1294,18 @@
     <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
   </si>
   <si>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
+  </si>
+  <si>
     <t>Shadab Ahmad</t>
   </si>
   <si>
@@ -1264,21 +1333,6 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
-  </si>
-  <si>
     <t>ANUSHA CHATTERJEE</t>
   </si>
   <si>
@@ -1309,31 +1363,34 @@
     <t>https://google.qwiklabs.com/public_profiles/68d997a9-2ed7-4008-8472-7ba8f499ff23</t>
   </si>
   <si>
-    <t>Chirantan Basu</t>
-  </si>
-  <si>
-    <t>basuchirantan001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Bengal Institute of Technology</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 09:57:26 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/e6fa8039-1f69-41ef-98b7-9d8a6121c754</t>
-  </si>
-  <si>
-    <t>Srishti Pal</t>
-  </si>
-  <si>
-    <t>srishti.pal.11@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+    <t>Radadiya Mohit</t>
+  </si>
+  <si>
+    <t>radadiyamohit84695@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Parul University</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 09:01:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
+  </si>
+  <si>
+    <t>Harshit Parwal</t>
+  </si>
+  <si>
+    <t>harshitparwal1999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
   </si>
   <si>
     <t>Pratim Maji</t>
@@ -1366,21 +1423,6 @@
     <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
     <t>Chowdhury Faizal Ahammed</t>
   </si>
   <si>
@@ -1588,18 +1630,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a4e66ae5-4f29-4774-bbae-1cf7d2a6112c</t>
   </si>
   <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Geetika Sethi</t>
   </si>
   <si>
@@ -1615,6 +1645,33 @@
     <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
   </si>
   <si>
+    <t>Suvechha Mukherjee</t>
+  </si>
+  <si>
+    <t>suviie08@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 11:10:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1f905fe5-64c8-463d-bb94-71654427d7ec</t>
+  </si>
+  <si>
+    <t>Souvik Pal</t>
+  </si>
+  <si>
+    <t>mynamesouvikpal@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 13:17:30 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/b9d77904-17fe-476d-9b68-d165a59aa9d9</t>
+  </si>
+  <si>
     <t>SAGUN JAISWAL</t>
   </si>
   <si>
@@ -1675,9 +1732,6 @@
     <t>sachinyadav6511@gmail.com</t>
   </si>
   <si>
-    <t>[Referred] Meghnad Saha Institute Of Technology</t>
-  </si>
-  <si>
     <t>Thu Apr 08 2021 12:07:11 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
@@ -1738,21 +1792,6 @@
     <t>https://google.qwiklabs.com/public_profiles/fad5293e-12e5-4020-8479-41b4fb338226</t>
   </si>
   <si>
-    <t>Radadiya Mohit</t>
-  </si>
-  <si>
-    <t>radadiyamohit84695@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Parul University</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 09:01:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
-  </si>
-  <si>
     <t>Supriyo Sarkar</t>
   </si>
   <si>
@@ -1795,21 +1834,6 @@
     <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
-    <t>Harshit Parwal</t>
-  </si>
-  <si>
-    <t>harshitparwal1999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
-  </si>
-  <si>
     <t>Aman Malakar</t>
   </si>
   <si>
@@ -2164,6 +2188,18 @@
     <t>https://google.qwiklabs.com/public_profiles/4ee4a892-a907-4c26-b477-acd92964a209</t>
   </si>
   <si>
+    <t>Sayantan De</t>
+  </si>
+  <si>
+    <t>desayantan124@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:58:15 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/8720ad1f-6e33-4910-90e0-a18a8e9d6e30</t>
+  </si>
+  <si>
     <t>Abhineet Kumar</t>
   </si>
   <si>
@@ -2191,18 +2227,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2956f4e2-c1a1-4cb2-b553-702307ffe557</t>
   </si>
   <si>
-    <t>Suvechha Mukherjee</t>
-  </si>
-  <si>
-    <t>suviie08@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 11:10:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1f905fe5-64c8-463d-bb94-71654427d7ec</t>
-  </si>
-  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -2215,18 +2239,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d9903919-6296-40ce-99f4-0db8330263dc</t>
   </si>
   <si>
-    <t>Souvik Pal</t>
-  </si>
-  <si>
-    <t>mynamesouvikpal@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 13:17:30 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/b9d77904-17fe-476d-9b68-d165a59aa9d9</t>
-  </si>
-  <si>
     <t>Sayan Poddar</t>
   </si>
   <si>
@@ -3893,18 +3905,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/e142f670-9079-4d38-9599-c2d197a6fd85</t>
-  </si>
-  <si>
-    <t>Sayantan De</t>
-  </si>
-  <si>
-    <t>desayantan124@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:58:15 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/8720ad1f-6e33-4910-90e0-a18a8e9d6e30</t>
   </si>
   <si>
     <t>Gurupada Ghosh</t>
@@ -7228,7 +7228,7 @@
         <v>30.0</v>
       </c>
       <c r="H2" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
@@ -7459,10 +7459,10 @@
         <v>56</v>
       </c>
       <c r="G11" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H11" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -7473,19 +7473,19 @@
         <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H12" s="1">
         <v>8.0</v>
@@ -7493,39 +7493,39 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H13" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
@@ -7563,10 +7563,10 @@
         <v>75</v>
       </c>
       <c r="G15" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H15" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
@@ -7577,33 +7577,33 @@
         <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H16" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>83</v>
@@ -7629,59 +7629,59 @@
         <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G18" s="1">
         <v>14.0</v>
       </c>
       <c r="H18" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G19" s="1">
         <v>14.0</v>
       </c>
       <c r="H19" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>97</v>
@@ -7693,10 +7693,10 @@
         <v>98</v>
       </c>
       <c r="G20" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H20" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -7719,7 +7719,7 @@
         <v>102</v>
       </c>
       <c r="G21" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H21" s="1">
         <v>4.0</v>
@@ -7733,45 +7733,45 @@
         <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="G22" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H22" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="G23" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H23" s="1">
         <v>2.0</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G24" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H24" s="1">
         <v>4.0</v>
@@ -7805,77 +7805,77 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G25" s="1">
         <v>10.0</v>
       </c>
       <c r="H25" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G26" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H26" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G27" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H27" s="1">
         <v>6.0</v>
@@ -7883,39 +7883,39 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="G28" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H28" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>138</v>
@@ -7927,7 +7927,7 @@
         <v>139</v>
       </c>
       <c r="G29" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H29" s="1">
         <v>2.0</v>
@@ -7953,10 +7953,10 @@
         <v>144</v>
       </c>
       <c r="G30" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H30" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -7979,10 +7979,10 @@
         <v>149</v>
       </c>
       <c r="G31" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H31" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -7993,137 +7993,137 @@
         <v>151</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="G32" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H32" s="1">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="G33" s="1">
         <v>8.0</v>
       </c>
       <c r="H33" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="G34" s="1">
         <v>8.0</v>
       </c>
       <c r="H34" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G35" s="1">
         <v>8.0</v>
       </c>
       <c r="H35" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="G36" s="1">
         <v>8.0</v>
       </c>
       <c r="H36" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>177</v>
@@ -8149,163 +8149,163 @@
         <v>180</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="G38" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H38" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="G39" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="H39" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G40" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H40" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="G41" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H41" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="G42" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H42" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="G43" s="1">
         <v>6.0</v>
       </c>
       <c r="H43" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>209</v>
@@ -8320,7 +8320,7 @@
         <v>6.0</v>
       </c>
       <c r="H44" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -8331,42 +8331,42 @@
         <v>212</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
       </c>
       <c r="H45" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="G46" s="1">
         <v>6.0</v>
@@ -8377,39 +8377,39 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="G47" s="1">
         <v>6.0</v>
       </c>
       <c r="H47" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>228</v>
@@ -8435,33 +8435,33 @@
         <v>231</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G49" s="1">
         <v>6.0</v>
       </c>
       <c r="H49" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>237</v>
@@ -8476,7 +8476,7 @@
         <v>6.0</v>
       </c>
       <c r="H50" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -8487,33 +8487,33 @@
         <v>240</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G51" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H51" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>246</v>
@@ -8525,7 +8525,7 @@
         <v>247</v>
       </c>
       <c r="G52" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H52" s="1">
         <v>5.0</v>
@@ -8551,10 +8551,10 @@
         <v>252</v>
       </c>
       <c r="G53" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H53" s="1">
         <v>5.0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -8565,172 +8565,172 @@
         <v>254</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G54" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H54" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G55" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H55" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G56" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H56" s="1">
         <v>5.0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G57" s="1">
         <v>5.0</v>
       </c>
       <c r="H57" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G58" s="1">
         <v>5.0</v>
       </c>
       <c r="H58" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>276</v>
+        <v>118</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G59" s="1">
         <v>5.0</v>
       </c>
       <c r="H59" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G60" s="1">
         <v>5.0</v>
@@ -8741,39 +8741,39 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G61" s="1">
         <v>5.0</v>
       </c>
       <c r="H61" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>291</v>
@@ -8788,7 +8788,7 @@
         <v>5.0</v>
       </c>
       <c r="H62" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="63">
@@ -8799,94 +8799,94 @@
         <v>294</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G63" s="1">
         <v>5.0</v>
       </c>
       <c r="H63" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G64" s="1">
         <v>5.0</v>
       </c>
       <c r="H64" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G65" s="1">
         <v>5.0</v>
       </c>
       <c r="H65" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G66" s="1">
         <v>5.0</v>
@@ -8897,65 +8897,65 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G67" s="1">
         <v>5.0</v>
       </c>
       <c r="H67" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G68" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H68" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>323</v>
+        <v>36</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>324</v>
@@ -8967,10 +8967,10 @@
         <v>325</v>
       </c>
       <c r="G69" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H69" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -8993,10 +8993,10 @@
         <v>330</v>
       </c>
       <c r="G70" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H70" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -9022,7 +9022,7 @@
         <v>4.0</v>
       </c>
       <c r="H71" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -9059,279 +9059,279 @@
         <v>342</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
       </c>
       <c r="H73" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G74" s="1">
         <v>4.0</v>
       </c>
       <c r="H74" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G75" s="1">
         <v>4.0</v>
       </c>
       <c r="H75" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G76" s="1">
         <v>4.0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>362</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
       </c>
       <c r="H77" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G78" s="1">
         <v>4.0</v>
       </c>
       <c r="H78" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G79" s="1">
         <v>4.0</v>
       </c>
       <c r="H79" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G80" s="1">
         <v>4.0</v>
       </c>
       <c r="H80" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G81" s="1">
         <v>4.0</v>
       </c>
       <c r="H81" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G82" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H82" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G83" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H83" s="1">
         <v>3.0</v>
@@ -9339,74 +9339,74 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>391</v>
+        <v>264</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G84" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H84" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G85" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H85" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G86" s="1">
         <v>3.0</v>
@@ -9417,13 +9417,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>406</v>
@@ -9438,7 +9438,7 @@
         <v>3.0</v>
       </c>
       <c r="H87" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -9464,7 +9464,7 @@
         <v>3.0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="89">
@@ -9475,16 +9475,16 @@
         <v>414</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>415</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G89" s="1">
         <v>3.0</v>
@@ -9495,13 +9495,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>420</v>
@@ -9516,7 +9516,7 @@
         <v>3.0</v>
       </c>
       <c r="H90" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -9553,16 +9553,16 @@
         <v>428</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="G92" s="1">
         <v>3.0</v>
@@ -9573,48 +9573,48 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="G93" s="1">
         <v>3.0</v>
       </c>
       <c r="H93" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="G94" s="1">
         <v>3.0</v>
@@ -9625,77 +9625,77 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G95" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H95" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="G96" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H96" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="G97" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H97" s="1">
         <v>2.0</v>
@@ -9703,48 +9703,48 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="G98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H98" s="1">
         <v>2.0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="G99" s="1">
         <v>2.0</v>
@@ -9755,13 +9755,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>468</v>
@@ -9776,7 +9776,7 @@
         <v>2.0</v>
       </c>
       <c r="H100" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="101">
@@ -9787,16 +9787,16 @@
         <v>471</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>129</v>
+        <v>472</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G101" s="1">
         <v>2.0</v>
@@ -9807,22 +9807,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G102" s="1">
         <v>2.0</v>
@@ -9833,13 +9833,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>482</v>
@@ -9854,7 +9854,7 @@
         <v>2.0</v>
       </c>
       <c r="H103" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -9865,7 +9865,7 @@
         <v>485</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>486</v>
@@ -9880,7 +9880,7 @@
         <v>2.0</v>
       </c>
       <c r="H104" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -9891,42 +9891,42 @@
         <v>489</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G105" s="1">
         <v>2.0</v>
       </c>
       <c r="H105" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G106" s="1">
         <v>2.0</v>
@@ -9937,91 +9937,91 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G107" s="1">
         <v>2.0</v>
       </c>
       <c r="H107" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G108" s="1">
         <v>2.0</v>
       </c>
       <c r="H108" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G109" s="1">
         <v>2.0</v>
       </c>
       <c r="H109" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>512</v>
+        <v>36</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>513</v>
@@ -10036,7 +10036,7 @@
         <v>2.0</v>
       </c>
       <c r="H110" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -10047,42 +10047,42 @@
         <v>516</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="G111" s="1">
         <v>2.0</v>
       </c>
       <c r="H111" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="G112" s="1">
         <v>2.0</v>
@@ -10093,13 +10093,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>527</v>
@@ -10114,7 +10114,7 @@
         <v>2.0</v>
       </c>
       <c r="H113" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -10192,7 +10192,7 @@
         <v>2.0</v>
       </c>
       <c r="H116" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -10203,7 +10203,7 @@
         <v>545</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>495</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>546</v>
@@ -10229,94 +10229,94 @@
         <v>549</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>36</v>
+        <v>550</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G118" s="1">
         <v>2.0</v>
       </c>
       <c r="H118" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G119" s="1">
         <v>2.0</v>
       </c>
       <c r="H119" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G120" s="1">
         <v>2.0</v>
       </c>
       <c r="H120" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G121" s="1">
         <v>2.0</v>
@@ -10327,13 +10327,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>568</v>
+        <v>36</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>569</v>
@@ -10348,7 +10348,7 @@
         <v>2.0</v>
       </c>
       <c r="H122" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -10359,7 +10359,7 @@
         <v>572</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>16</v>
+        <v>550</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>573</v>
@@ -10374,7 +10374,7 @@
         <v>2.0</v>
       </c>
       <c r="H123" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="124">
@@ -10400,7 +10400,7 @@
         <v>2.0</v>
       </c>
       <c r="H124" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
@@ -10463,94 +10463,94 @@
         <v>590</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="G127" s="1">
         <v>2.0</v>
       </c>
       <c r="H127" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="E128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="G128" s="1">
         <v>2.0</v>
       </c>
       <c r="H128" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="G129" s="1">
         <v>2.0</v>
       </c>
       <c r="H129" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="G130" s="1">
         <v>2.0</v>
@@ -10561,25 +10561,25 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="G131" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H131" s="1">
         <v>0.0</v>
@@ -10587,13 +10587,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>614</v>
@@ -10605,10 +10605,10 @@
         <v>615</v>
       </c>
       <c r="G132" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H132" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="133">
@@ -10665,22 +10665,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>359</v>
+        <v>624</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G135" s="1">
         <v>1.0</v>
@@ -10691,13 +10691,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>629</v>
+        <v>16</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>630</v>
@@ -10717,22 +10717,22 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="G137" s="1">
         <v>1.0</v>
@@ -10743,22 +10743,22 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="G138" s="1">
         <v>1.0</v>
@@ -10769,22 +10769,22 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="G139" s="1">
         <v>1.0</v>
@@ -10795,74 +10795,74 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="G140" s="1">
         <v>1.0</v>
       </c>
       <c r="H140" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="E141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="G141" s="1">
         <v>1.0</v>
       </c>
       <c r="H141" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="G142" s="1">
         <v>1.0</v>
@@ -10873,13 +10873,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>663</v>
@@ -10894,7 +10894,7 @@
         <v>1.0</v>
       </c>
       <c r="H143" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
@@ -10905,68 +10905,68 @@
         <v>666</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="G144" s="1">
         <v>1.0</v>
       </c>
       <c r="H144" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="E145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="G145" s="1">
         <v>1.0</v>
       </c>
       <c r="H145" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="G146" s="1">
         <v>1.0</v>
@@ -10977,48 +10977,48 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="G147" s="1">
         <v>1.0</v>
       </c>
       <c r="H147" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="G148" s="1">
         <v>1.0</v>
@@ -11029,13 +11029,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>690</v>
@@ -11061,16 +11061,16 @@
         <v>693</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="G150" s="1">
         <v>1.0</v>
@@ -11081,22 +11081,22 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="G151" s="1">
         <v>1.0</v>
@@ -11107,22 +11107,22 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="E152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="G152" s="1">
         <v>1.0</v>
@@ -11133,22 +11133,22 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="E153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="G153" s="1">
         <v>1.0</v>
@@ -11159,22 +11159,22 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="E154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="G154" s="1">
         <v>1.0</v>
@@ -11185,48 +11185,48 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="G155" s="1">
         <v>1.0</v>
       </c>
       <c r="H155" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="G156" s="1">
         <v>1.0</v>
@@ -11237,22 +11237,22 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="G157" s="1">
         <v>1.0</v>
@@ -11263,39 +11263,39 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="G158" s="1">
         <v>1.0</v>
       </c>
       <c r="H158" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>736</v>
@@ -11310,7 +11310,7 @@
         <v>1.0</v>
       </c>
       <c r="H159" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -11321,42 +11321,42 @@
         <v>739</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="G160" s="1">
         <v>1.0</v>
       </c>
       <c r="H160" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="G161" s="1">
         <v>1.0</v>
@@ -11367,13 +11367,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>750</v>
@@ -11399,42 +11399,42 @@
         <v>753</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="G163" s="1">
         <v>1.0</v>
       </c>
       <c r="H163" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="G164" s="1">
         <v>1.0</v>
@@ -11445,22 +11445,22 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="G165" s="1">
         <v>1.0</v>
@@ -11471,13 +11471,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>769</v>
@@ -11503,7 +11503,7 @@
         <v>772</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>152</v>
+        <v>447</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>773</v>
@@ -11518,7 +11518,7 @@
         <v>1.0</v>
       </c>
       <c r="H167" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -11529,85 +11529,85 @@
         <v>776</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="G168" s="1">
         <v>1.0</v>
       </c>
       <c r="H168" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="G169" s="1">
         <v>1.0</v>
       </c>
       <c r="H169" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="G170" s="1">
         <v>1.0</v>
       </c>
       <c r="H170" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>792</v>
@@ -11633,33 +11633,33 @@
         <v>795</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="G172" s="1">
         <v>1.0</v>
       </c>
       <c r="H172" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>801</v>
@@ -11685,33 +11685,33 @@
         <v>804</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="G174" s="1">
         <v>1.0</v>
       </c>
       <c r="H174" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>810</v>
@@ -11726,7 +11726,7 @@
         <v>1.0</v>
       </c>
       <c r="H175" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -11737,16 +11737,16 @@
         <v>813</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="G176" s="1">
         <v>1.0</v>
@@ -11757,39 +11757,39 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="G177" s="1">
         <v>1.0</v>
       </c>
       <c r="H177" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>824</v>
@@ -11804,7 +11804,7 @@
         <v>1.0</v>
       </c>
       <c r="H178" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -11815,42 +11815,42 @@
         <v>827</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="G179" s="1">
         <v>1.0</v>
       </c>
       <c r="H179" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="G180" s="1">
         <v>1.0</v>
@@ -11861,22 +11861,22 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="G181" s="1">
         <v>1.0</v>
@@ -11887,13 +11887,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>843</v>
@@ -11945,7 +11945,7 @@
         <v>850</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>453</v>
+        <v>16</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>851</v>
@@ -11960,7 +11960,7 @@
         <v>1.0</v>
       </c>
       <c r="H184" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
@@ -11971,7 +11971,7 @@
         <v>854</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>855</v>
@@ -11983,10 +11983,10 @@
         <v>856</v>
       </c>
       <c r="G185" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H185" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -11997,16 +11997,16 @@
         <v>858</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="G186" s="1">
         <v>0.0</v>
@@ -12017,22 +12017,22 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="G187" s="1">
         <v>0.0</v>
@@ -12043,13 +12043,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>869</v>
@@ -12075,7 +12075,7 @@
         <v>872</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>873</v>
@@ -12147,22 +12147,22 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G192" s="1">
         <v>0.0</v>
@@ -12173,13 +12173,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>819</v>
+        <v>16</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>888</v>
@@ -12205,7 +12205,7 @@
         <v>891</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>16</v>
+        <v>823</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>892</v>
@@ -12283,16 +12283,16 @@
         <v>903</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="G197" s="1">
         <v>0.0</v>
@@ -12303,13 +12303,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>909</v>
@@ -12329,22 +12329,22 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>118</v>
+        <v>911</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>681</v>
+        <v>16</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G199" s="1">
         <v>0.0</v>
@@ -12355,22 +12355,22 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>914</v>
+        <v>135</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>915</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="G200" s="1">
         <v>0.0</v>
@@ -12381,22 +12381,22 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="G201" s="1">
         <v>0.0</v>
@@ -12407,22 +12407,22 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="G202" s="1">
         <v>0.0</v>
@@ -12433,22 +12433,22 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="G203" s="1">
         <v>0.0</v>
@@ -12459,22 +12459,22 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="G204" s="1">
         <v>0.0</v>
@@ -12485,22 +12485,22 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="G205" s="1">
         <v>0.0</v>
@@ -12511,13 +12511,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>946</v>
@@ -12543,7 +12543,7 @@
         <v>949</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>476</v>
+        <v>642</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>950</v>
@@ -12569,7 +12569,7 @@
         <v>953</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>954</v>
@@ -12621,16 +12621,16 @@
         <v>961</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="G210" s="1">
         <v>0.0</v>
@@ -12641,22 +12641,22 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="G211" s="1">
         <v>0.0</v>
@@ -12667,13 +12667,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>972</v>
@@ -12699,16 +12699,16 @@
         <v>975</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="G213" s="1">
         <v>0.0</v>
@@ -12719,13 +12719,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>981</v>
@@ -12745,22 +12745,22 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>484</v>
+        <v>983</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>639</v>
+        <v>295</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G215" s="1">
         <v>0.0</v>
@@ -12771,22 +12771,22 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>986</v>
+        <v>498</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>987</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="G216" s="1">
         <v>0.0</v>
@@ -12797,22 +12797,22 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="G217" s="1">
         <v>0.0</v>
@@ -12823,22 +12823,22 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="G218" s="1">
         <v>0.0</v>
@@ -12849,13 +12849,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1003</v>
@@ -12881,16 +12881,16 @@
         <v>1006</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>1009</v>
       </c>
       <c r="G220" s="1">
         <v>0.0</v>
@@ -12901,13 +12901,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>1012</v>
@@ -12933,16 +12933,16 @@
         <v>1015</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="G222" s="1">
         <v>0.0</v>
@@ -12953,22 +12953,22 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="G223" s="1">
         <v>0.0</v>
@@ -12979,22 +12979,22 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>1027</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>1028</v>
       </c>
       <c r="G224" s="1">
         <v>0.0</v>
@@ -13005,22 +13005,22 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="G225" s="1">
         <v>0.0</v>
@@ -13031,13 +13031,13 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>1036</v>
@@ -13063,16 +13063,16 @@
         <v>1039</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>1042</v>
       </c>
       <c r="G227" s="1">
         <v>0.0</v>
@@ -13083,22 +13083,22 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>71</v>
+        <v>1042</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1043</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>73</v>
+        <v>1044</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G228" s="1">
         <v>0.0</v>
@@ -13109,13 +13109,13 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>1046</v>
+        <v>57</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>639</v>
+        <v>59</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1048</v>
@@ -13141,16 +13141,16 @@
         <v>1051</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>1054</v>
       </c>
       <c r="G230" s="1">
         <v>0.0</v>
@@ -13161,19 +13161,19 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>1058</v>
@@ -13193,7 +13193,7 @@
         <v>1060</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>16</v>
+        <v>657</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1061</v>
@@ -13219,13 +13219,13 @@
         <v>1064</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1053</v>
+        <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>1066</v>
@@ -13245,13 +13245,13 @@
         <v>1068</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>1069</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>12</v>
+        <v>1057</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>1070</v>
@@ -13271,16 +13271,16 @@
         <v>1072</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="G235" s="1">
         <v>0.0</v>
@@ -13291,22 +13291,22 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="G236" s="1">
         <v>0.0</v>
@@ -13317,13 +13317,13 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1083</v>
@@ -13349,16 +13349,16 @@
         <v>1086</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="G238" s="1">
         <v>0.0</v>
@@ -13369,13 +13369,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1092</v>
@@ -13401,7 +13401,7 @@
         <v>1095</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>105</v>
+        <v>689</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1096</v>
@@ -13427,16 +13427,16 @@
         <v>1099</v>
       </c>
       <c r="C241" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="G241" s="1">
         <v>0.0</v>
@@ -13447,13 +13447,13 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1105</v>
@@ -13479,16 +13479,16 @@
         <v>1108</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="G243" s="1">
         <v>0.0</v>
@@ -13499,22 +13499,22 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="G244" s="1">
         <v>0.0</v>
@@ -13525,19 +13525,19 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1053</v>
+        <v>12</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>1120</v>
@@ -13551,22 +13551,22 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>1076</v>
+        <v>1121</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G246" s="1">
         <v>0.0</v>
@@ -13577,22 +13577,22 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>1124</v>
+        <v>1080</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="G247" s="1">
         <v>0.0</v>
@@ -13603,22 +13603,22 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>1133</v>
       </c>
       <c r="G248" s="1">
         <v>0.0</v>
@@ -13629,13 +13629,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1136</v>
@@ -13661,7 +13661,7 @@
         <v>1139</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>819</v>
+        <v>16</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1140</v>
@@ -13687,7 +13687,7 @@
         <v>1143</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>16</v>
+        <v>823</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1144</v>
@@ -13713,16 +13713,16 @@
         <v>1147</v>
       </c>
       <c r="C252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="G252" s="1">
         <v>0.0</v>
@@ -13733,22 +13733,22 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="G253" s="1">
         <v>0.0</v>
@@ -13759,13 +13759,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1158</v>
@@ -13843,16 +13843,16 @@
         <v>1169</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>1172</v>
       </c>
       <c r="G257" s="1">
         <v>0.0</v>
@@ -13863,13 +13863,13 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1175</v>
@@ -13895,16 +13895,16 @@
         <v>1178</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="G259" s="1">
         <v>0.0</v>
@@ -13921,16 +13921,16 @@
         <v>1182</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>16</v>
+        <v>1183</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>12</v>
+        <v>1057</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>1184</v>
+        <v>1124</v>
       </c>
       <c r="G260" s="1">
         <v>0.0</v>
@@ -13947,16 +13947,16 @@
         <v>1186</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="2" t="s">
         <v>1188</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>1189</v>
       </c>
       <c r="G261" s="1">
         <v>0.0</v>
@@ -13967,13 +13967,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1192</v>
@@ -13999,7 +13999,7 @@
         <v>1195</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1196</v>
@@ -14025,16 +14025,16 @@
         <v>1199</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="G264" s="1">
         <v>0.0</v>
@@ -14045,22 +14045,22 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>1207</v>
       </c>
       <c r="G265" s="1">
         <v>0.0</v>
@@ -14071,13 +14071,13 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1210</v>
@@ -14129,16 +14129,16 @@
         <v>1217</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="G268" s="1">
         <v>0.0</v>
@@ -14149,19 +14149,19 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>12</v>
+        <v>1057</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>1224</v>
@@ -14181,7 +14181,7 @@
         <v>1226</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>723</v>
+        <v>16</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1227</v>
@@ -14207,16 +14207,16 @@
         <v>1230</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>1233</v>
       </c>
       <c r="G271" s="1">
         <v>0.0</v>
@@ -14227,13 +14227,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1236</v>
@@ -14259,7 +14259,7 @@
         <v>1239</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>105</v>
+        <v>415</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1240</v>
@@ -14279,22 +14279,22 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>740</v>
+        <v>118</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G274" s="1">
         <v>0.0</v>
@@ -14305,22 +14305,22 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>1245</v>
+        <v>742</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="G275" s="1">
         <v>0.0</v>
@@ -14331,13 +14331,13 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1252</v>
@@ -14363,16 +14363,16 @@
         <v>1255</v>
       </c>
       <c r="C277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>1257</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>1258</v>
       </c>
       <c r="G277" s="1">
         <v>0.0</v>
@@ -14383,22 +14383,22 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="G278" s="1">
         <v>0.0</v>
@@ -14409,22 +14409,22 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>1268</v>
       </c>
       <c r="G279" s="1">
         <v>0.0</v>
@@ -14435,13 +14435,13 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1271</v>
@@ -14467,16 +14467,16 @@
         <v>1274</v>
       </c>
       <c r="C281" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="G281" s="1">
         <v>0.0</v>
@@ -14487,13 +14487,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1280</v>
@@ -14513,22 +14513,22 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1275</v>
+        <v>36</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G283" s="1">
         <v>0.0</v>
@@ -14539,13 +14539,13 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1040</v>
+        <v>1279</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1287</v>
@@ -14571,16 +14571,16 @@
         <v>1290</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>1293</v>
       </c>
       <c r="G285" s="1">
         <v>0.0</v>
@@ -14591,13 +14591,13 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1296</v>
@@ -14733,7 +14733,7 @@
         <v>1317</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>1318</v>
@@ -14753,7 +14753,7 @@
         <v>1320</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1321</v>
@@ -14779,7 +14779,7 @@
         <v>1324</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1325</v>
@@ -14805,7 +14805,7 @@
         <v>1328</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>1329</v>
@@ -14883,7 +14883,7 @@
         <v>1341</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1342</v>
@@ -14935,7 +14935,7 @@
         <v>1349</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1350</v>
@@ -15143,7 +15143,7 @@
         <v>1384</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>1385</v>
@@ -15195,7 +15195,7 @@
         <v>1393</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>1394</v>
@@ -15293,13 +15293,13 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1410</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1411</v>
@@ -15377,7 +15377,7 @@
         <v>1424</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1425</v>
@@ -15481,7 +15481,7 @@
         <v>1443</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>1444</v>
@@ -15643,7 +15643,7 @@
         <v>1471</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>1472</v>
@@ -15787,7 +15787,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1495</v>
@@ -15897,7 +15897,7 @@
         <v>1512</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>1513</v>
@@ -15975,7 +15975,7 @@
         <v>1524</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>1525</v>
@@ -16079,7 +16079,7 @@
         <v>1543</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1544</v>
@@ -16131,7 +16131,7 @@
         <v>1551</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>1552</v>
@@ -16333,13 +16333,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1588</v>
@@ -16677,7 +16677,7 @@
         <v>1648</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>1649</v>
@@ -16703,7 +16703,7 @@
         <v>1652</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>1653</v>
@@ -16807,7 +16807,7 @@
         <v>1670</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>1671</v>
@@ -16911,7 +16911,7 @@
         <v>1688</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>1689</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>1691</v>
@@ -17009,13 +17009,13 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>1705</v>
@@ -17067,7 +17067,7 @@
         <v>1713</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1714</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>1721</v>
@@ -17255,7 +17255,7 @@
         <v>1747</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>1748</v>
@@ -17353,7 +17353,7 @@
         <v>1764</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1765</v>
@@ -17431,7 +17431,7 @@
         <v>1778</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>1779</v>
@@ -17451,13 +17451,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1781</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1782</v>
@@ -17535,7 +17535,7 @@
         <v>1794</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>1795</v>
@@ -17619,7 +17619,7 @@
         <v>1809</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>1810</v>
@@ -17697,7 +17697,7 @@
         <v>1823</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>1824</v>
@@ -17717,7 +17717,7 @@
         <v>1826</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1827</v>
@@ -17977,7 +17977,7 @@
         <v>1868</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>1869</v>
@@ -18023,13 +18023,13 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>1875</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1876</v>
@@ -18367,7 +18367,7 @@
         <v>1932</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1933</v>
@@ -18425,7 +18425,7 @@
         <v>1942</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>1943</v>
@@ -18471,7 +18471,7 @@
         <v>1949</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>1950</v>
@@ -18575,7 +18575,7 @@
         <v>1967</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>1968</v>
@@ -19147,7 +19147,7 @@
         <v>2070</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>2071</v>
@@ -19225,7 +19225,7 @@
         <v>2083</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>2084</v>
@@ -19303,7 +19303,7 @@
         <v>2095</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>2096</v>
@@ -19407,7 +19407,7 @@
         <v>2113</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>2114</v>
@@ -19433,7 +19433,7 @@
         <v>2117</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2118</v>
@@ -19485,7 +19485,7 @@
         <v>2126</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>2127</v>
@@ -19563,7 +19563,7 @@
         <v>2138</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>2139</v>
@@ -19609,13 +19609,13 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19719,7 +19719,7 @@
         <v>2164</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2165</v>
@@ -19745,7 +19745,7 @@
         <v>2168</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>2169</v>
@@ -19777,7 +19777,7 @@
         <v>2174</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>2175</v>
@@ -19803,7 +19803,7 @@
         <v>2178</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>2179</v>
@@ -19843,7 +19843,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>2184</v>
@@ -20083,7 +20083,7 @@
         <v>2222</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>2223</v>
@@ -20109,7 +20109,7 @@
         <v>2226</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>2227</v>
@@ -20187,7 +20187,7 @@
         <v>2239</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>2240</v>
@@ -20265,7 +20265,7 @@
         <v>2251</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>2252</v>
@@ -20349,7 +20349,7 @@
         <v>2265</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>2266</v>
@@ -20395,7 +20395,7 @@
         <v>2273</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2274</v>
@@ -20499,7 +20499,7 @@
         <v>2291</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>2292</v>
@@ -20545,7 +20545,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>2298</v>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>2302</v>
@@ -20603,7 +20603,7 @@
         <v>2306</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>2307</v>
@@ -20707,7 +20707,7 @@
         <v>2322</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>2323</v>
@@ -20791,7 +20791,7 @@
         <v>2336</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>2337</v>
@@ -20837,7 +20837,7 @@
         <v>2343</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>2344</v>
@@ -20947,10 +20947,10 @@
         <v>2363</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G530" s="1">
         <v>0.0</v>
@@ -21253,8 +21253,8 @@
     <hyperlink r:id="rId264" ref="F265"/>
     <hyperlink r:id="rId265" ref="F266"/>
     <hyperlink r:id="rId266" ref="F267"/>
-    <hyperlink r:id="rId267" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F268"/>
-    <hyperlink r:id="rId268" ref="F269"/>
+    <hyperlink r:id="rId267" ref="F268"/>
+    <hyperlink r:id="rId268" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F269"/>
     <hyperlink r:id="rId269" ref="F270"/>
     <hyperlink r:id="rId270" ref="F271"/>
     <hyperlink r:id="rId271" ref="F272"/>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -55,7 +55,7 @@
     <t>https://google.qwiklabs.com/public_profiles/e74ad896-e486-43c3-9b18-a7eb0adf370d</t>
   </si>
   <si>
-    <t>EQURAM ANSARI</t>
+    <t>MD EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -115,15 +115,27 @@
     <t>https://google.qwiklabs.com/public_profiles/7382acdb-11d5-497d-b4d4-802ebb589e74</t>
   </si>
   <si>
+    <t>DEBOSMITA BOSE</t>
+  </si>
+  <si>
+    <t>bdb459@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 10:27:27 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
+  </si>
+  <si>
     <t>SRINJOY PAL</t>
   </si>
   <si>
     <t>2000srinjoy.pal@gmail.com</t>
   </si>
   <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE</t>
-  </si>
-  <si>
     <t>Fri Apr 02 2021 21:33:42 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
@@ -157,18 +169,6 @@
     <t>https://www.qwiklabs.com/public_profiles/151fbf5b-403e-4027-8dc6-32e5de62e688</t>
   </si>
   <si>
-    <t>DEBOSMITA BOSE</t>
-  </si>
-  <si>
-    <t>bdb459@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 10:27:27 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
-  </si>
-  <si>
     <t>Tayan Sinha</t>
   </si>
   <si>
@@ -199,6 +199,21 @@
     <t>https://google.qwiklabs.com/public_profiles/a4e66ae5-4f29-4774-bbae-1cf7d2a6112c</t>
   </si>
   <si>
+    <t>Vishwas Tyagi</t>
+  </si>
+  <si>
+    <t>vishwast8126@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meerut College, Meerut</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 14:04:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
+  </si>
+  <si>
     <t>Tanmoyee Roy</t>
   </si>
   <si>
@@ -256,21 +271,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>Vishwas Tyagi</t>
-  </si>
-  <si>
-    <t>vishwast8126@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meerut College, Meerut</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 14:04:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
-  </si>
-  <si>
     <t>Arunima Maiti</t>
   </si>
   <si>
@@ -310,6 +310,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
+    <t>Rohit Das</t>
+  </si>
+  <si>
+    <t>rohitdas2k@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India Saltlake</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
+  </si>
+  <si>
     <t>Harshit Goyal</t>
   </si>
   <si>
@@ -340,6 +355,21 @@
     <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
+    <t>Ayan Pal</t>
+  </si>
+  <si>
+    <t>pal.ayan712304@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Narula Institute of Technology</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
+  </si>
+  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -355,36 +385,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ec0ca601-10f8-41e4-8774-fc4397dfe664</t>
   </si>
   <si>
-    <t>Rohit Das</t>
-  </si>
-  <si>
-    <t>rohitdas2k@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India Saltlake</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
-  </si>
-  <si>
-    <t>Ayan Pal</t>
-  </si>
-  <si>
-    <t>pal.ayan712304@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Narula Institute of Technology</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
-  </si>
-  <si>
     <t>Manan Hemani</t>
   </si>
   <si>
@@ -400,6 +400,33 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
+    <t>SUDIPTA ROY</t>
+  </si>
+  <si>
+    <t>sudipta01roy@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
+  </si>
+  <si>
+    <t>PRACHI PURVA</t>
+  </si>
+  <si>
+    <t>prachipurva7142@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
+  </si>
+  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -451,33 +478,6 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
-    <t>SUDIPTA ROY</t>
-  </si>
-  <si>
-    <t>sudipta01roy@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
-  </si>
-  <si>
-    <t>PRACHI PURVA</t>
-  </si>
-  <si>
-    <t>prachipurva7142@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
-  </si>
-  <si>
     <t>Hritik Kumar Singh</t>
   </si>
   <si>
@@ -607,6 +607,18 @@
     <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
   </si>
   <si>
+    <t>Sandipa Jana</t>
+  </si>
+  <si>
+    <t>janasandipa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+  </si>
+  <si>
     <t>Kesher Gupta</t>
   </si>
   <si>
@@ -634,6 +646,21 @@
     <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
   </si>
   <si>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
+  </si>
+  <si>
     <t>Anom Chakravorty</t>
   </si>
   <si>
@@ -649,6 +676,36 @@
     <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
+    <t>Akhil C Padmanabhan</t>
+  </si>
+  <si>
+    <t>techakhilc47@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NHPS</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
+  </si>
+  <si>
+    <t>Raunak Kumar Sah</t>
+  </si>
+  <si>
+    <t>itisraunak@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+  </si>
+  <si>
     <t>Rishav Chakraborty</t>
   </si>
   <si>
@@ -664,16 +721,19 @@
     <t>https://google.qwiklabs.com/public_profiles/38e00ff8-2326-4f33-b3db-a4cf928dd157</t>
   </si>
   <si>
-    <t>Sandipa Jana</t>
-  </si>
-  <si>
-    <t>janasandipa@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+    <t>Subhodeep Basak</t>
+  </si>
+  <si>
+    <t>subhodeepbasak14@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] St Paul's Cathedral Misson College</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 23:46:11 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
     <t>Rajesh Paswan</t>
@@ -763,21 +823,6 @@
     <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
   </si>
   <si>
-    <t>Raunak Kumar Sah</t>
-  </si>
-  <si>
-    <t>itisraunak@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
-  </si>
-  <si>
     <t>Manshi Shaw</t>
   </si>
   <si>
@@ -820,21 +865,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
-    <t>Subhodeep Basak</t>
-  </si>
-  <si>
-    <t>subhodeepbasak14@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] St Paul's Cathedral Misson College</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 23:46:11 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
-  </si>
-  <si>
     <t>Radadiya Mohit</t>
   </si>
   <si>
@@ -862,34 +892,28 @@
     <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
-    <t>Akhil C Padmanabhan</t>
-  </si>
-  <si>
-    <t>techakhilc47@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NHPS</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
+    <t>Mufaddal Vadnagarwala</t>
+  </si>
+  <si>
+    <t>mufaddalv@live.in</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:20:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
+  </si>
+  <si>
+    <t>Shiwangi Jaiswal</t>
+  </si>
+  <si>
+    <t>shiwajaiswal456@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 13:52:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
     <t>Arunima Dhar</t>
@@ -994,18 +1018,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
-    <t>Mufaddal Vadnagarwala</t>
-  </si>
-  <si>
-    <t>mufaddalv@live.in</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:20:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1033,18 +1045,6 @@
     <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
   </si>
   <si>
-    <t>Shiwangi Jaiswal</t>
-  </si>
-  <si>
-    <t>shiwajaiswal456@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 13:52:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
-  </si>
-  <si>
     <t>Arkarup Saha</t>
   </si>
   <si>
@@ -1099,6 +1099,18 @@
     <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
   </si>
   <si>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
+  </si>
+  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -1192,18 +1204,6 @@
     <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
   </si>
   <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Riju Sharma</t>
   </si>
   <si>
@@ -1423,6 +1423,30 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
+    <t>Anwesha Ghosh</t>
+  </si>
+  <si>
+    <t>anweshaghosh515@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
+  </si>
+  <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
     <t>Rishabh Shrivastava</t>
   </si>
   <si>
@@ -1519,16 +1543,19 @@
     <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
-    <t>Anwesha Ghosh</t>
-  </si>
-  <si>
-    <t>anweshaghosh515@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
+    <t>MEGHADRI KOLEY</t>
+  </si>
+  <si>
+    <t>meghadrikoley9@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] TECHNO MAIN SALT LAKE</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 14:39:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
     <t>ROHIT DEY</t>
@@ -1573,18 +1600,6 @@
     <t>https://www.qwiklabs.com/public_profiles/e0b92533-a725-4f14-8ace-0261e5fc8587</t>
   </si>
   <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
     <t>Debasmita Samadder</t>
   </si>
   <si>
@@ -1750,6 +1765,18 @@
     <t>https://google.qwiklabs.com/public_profiles/e6f89737-b8a5-438e-aa30-3f30f4a6d6ff</t>
   </si>
   <si>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+  </si>
+  <si>
     <t>Abhinay Singh</t>
   </si>
   <si>
@@ -1936,6 +1963,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ceec95f4-9bda-490d-8234-7def7c6995ac</t>
   </si>
   <si>
+    <t>Vidhi Vijayvergiya</t>
+  </si>
+  <si>
+    <t>vidhivijay@ymail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Poornima University</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 14:59:56 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/f4f96cd3-5f53-47fc-9fdc-c35ceaede604</t>
+  </si>
+  <si>
     <t>Shubhayu Majumdar</t>
   </si>
   <si>
@@ -2029,6 +2071,33 @@
     <t>https://google.qwiklabs.com/public_profiles/fad5293e-12e5-4020-8479-41b4fb338226</t>
   </si>
   <si>
+    <t>Neel Gajiwala</t>
+  </si>
+  <si>
+    <t>neelgajiwala79@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] SRMIST</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 01:00:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8019512f-cc87-4f36-976a-4db95da9439d</t>
+  </si>
+  <si>
+    <t>Vishank Goel</t>
+  </si>
+  <si>
+    <t>vishankgoel11@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 01:38:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8322635b-7c50-43ee-b032-b60171f6d8e7</t>
+  </si>
+  <si>
     <t>Aditya Navya Shukla</t>
   </si>
   <si>
@@ -2071,21 +2140,6 @@
     <t>https://google.qwiklabs.com/public_profiles/73e580dd-401b-4954-98bd-7443d3fb3a9c</t>
   </si>
   <si>
-    <t>MEGHADRI KOLEY</t>
-  </si>
-  <si>
-    <t>meghadrikoley9@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] TECHNO MAIN SALT LAKE</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 14:39:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
-  </si>
-  <si>
     <t>Supriyo Sarkar</t>
   </si>
   <si>
@@ -2314,18 +2368,6 @@
     <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
   </si>
   <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
-  </si>
-  <si>
     <t>Shubhajit Chakraborty</t>
   </si>
   <si>
@@ -2353,6 +2395,21 @@
     <t>https://google.qwiklabs.com/public_profiles/897e065e-200c-4a5d-8e8d-075b0e2bf569</t>
   </si>
   <si>
+    <t>Sahib pratap singh</t>
+  </si>
+  <si>
+    <t>sahibpratap@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kurukshetra University</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 06:12:02 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
+  </si>
+  <si>
     <t>Raveena Bhasin</t>
   </si>
   <si>
@@ -2560,21 +2617,6 @@
     <t>https://google.qwiklabs.com/public_profiles/70c949e0-43ce-41ee-a6f4-2ee232f43747</t>
   </si>
   <si>
-    <t>Vidhi Vijayvergiya</t>
-  </si>
-  <si>
-    <t>vidhivijay@ymail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Poornima University</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 14:59:56 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/f4f96cd3-5f53-47fc-9fdc-c35ceaede604</t>
-  </si>
-  <si>
     <t>Soumava Banerjee</t>
   </si>
   <si>
@@ -2644,6 +2686,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ee39e23e-6ddf-4aaf-8ba3-68672fc603d5</t>
   </si>
   <si>
+    <t>Sukanya Bhattacharya</t>
+  </si>
+  <si>
+    <t>sukanyabhattacharya99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
+  </si>
+  <si>
     <t>Niladri Samanta</t>
   </si>
   <si>
@@ -2731,33 +2788,6 @@
     <t>https://google.qwiklabs.com/public_profiles/c7bb2758-f51b-4e8e-b000-919e2aa2e58b</t>
   </si>
   <si>
-    <t>Neel Gajiwala</t>
-  </si>
-  <si>
-    <t>neelgajiwala79@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] SRMIST</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 01:00:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8019512f-cc87-4f36-976a-4db95da9439d</t>
-  </si>
-  <si>
-    <t>Vishank Goel</t>
-  </si>
-  <si>
-    <t>vishankgoel11@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 01:38:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8322635b-7c50-43ee-b032-b60171f6d8e7</t>
-  </si>
-  <si>
     <t>Ritik Verma</t>
   </si>
   <si>
@@ -3325,21 +3355,6 @@
     <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
   </si>
   <si>
-    <t>Sahib pratap singh</t>
-  </si>
-  <si>
-    <t>sahibpratap@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kurukshetra University</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 06:12:02 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
-  </si>
-  <si>
     <t>DEBANJANA DOLAI</t>
   </si>
   <si>
@@ -5438,21 +5453,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/9b8bcd23-06fa-4446-b091-b93a97fbf718</t>
-  </si>
-  <si>
-    <t>Sukanya Bhattacharya</t>
-  </si>
-  <si>
-    <t>sukanyabhattacharya99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
   </si>
   <si>
     <t>Sayan Maity</t>
@@ -7295,7 +7295,7 @@
         <v>30.0</v>
       </c>
       <c r="H4" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -7370,7 +7370,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H7" s="1">
         <v>12.0</v>
@@ -7384,16 +7384,16 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="1">
         <v>24.0</v>
@@ -7404,13 +7404,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
@@ -7436,7 +7436,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>50</v>
@@ -7500,10 +7500,10 @@
         <v>61</v>
       </c>
       <c r="G12" s="1">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -7526,10 +7526,10 @@
         <v>66</v>
       </c>
       <c r="G13" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H13" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -7552,10 +7552,10 @@
         <v>71</v>
       </c>
       <c r="G14" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H14" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -7566,33 +7566,33 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H15" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>79</v>
@@ -7604,10 +7604,10 @@
         <v>80</v>
       </c>
       <c r="G16" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H16" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -7633,7 +7633,7 @@
         <v>17.0</v>
       </c>
       <c r="H17" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -7644,7 +7644,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>88</v>
@@ -7696,7 +7696,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>97</v>
@@ -7737,7 +7737,7 @@
         <v>16.0</v>
       </c>
       <c r="H21" s="1">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
@@ -7763,7 +7763,7 @@
         <v>16.0</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
@@ -7789,7 +7789,7 @@
         <v>16.0</v>
       </c>
       <c r="H23" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
@@ -7812,10 +7812,10 @@
         <v>118</v>
       </c>
       <c r="G24" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H24" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
@@ -7838,10 +7838,10 @@
         <v>123</v>
       </c>
       <c r="G25" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H25" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="26">
@@ -7864,7 +7864,7 @@
         <v>128</v>
       </c>
       <c r="G26" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H26" s="1">
         <v>8.0</v>
@@ -7878,7 +7878,7 @@
         <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>131</v>
@@ -7890,10 +7890,10 @@
         <v>132</v>
       </c>
       <c r="G27" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H27" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="28">
@@ -7904,59 +7904,59 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H28" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
       </c>
       <c r="H29" s="1">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>144</v>
@@ -7982,7 +7982,7 @@
         <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>148</v>
@@ -7997,7 +7997,7 @@
         <v>14.0</v>
       </c>
       <c r="H31" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="32">
@@ -8023,7 +8023,7 @@
         <v>14.0</v>
       </c>
       <c r="H32" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="33">
@@ -8268,33 +8268,33 @@
         <v>199</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="G42" s="1">
         <v>10.0</v>
       </c>
       <c r="H42" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>205</v>
@@ -8309,7 +8309,7 @@
         <v>10.0</v>
       </c>
       <c r="H43" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -8320,59 +8320,59 @@
         <v>208</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="G44" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H44" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="G45" s="1">
         <v>9.0</v>
       </c>
       <c r="H45" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>219</v>
@@ -8387,7 +8387,7 @@
         <v>9.0</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -8410,10 +8410,10 @@
         <v>225</v>
       </c>
       <c r="G47" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H47" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -8436,10 +8436,10 @@
         <v>230</v>
       </c>
       <c r="G48" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H48" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
@@ -8462,10 +8462,10 @@
         <v>235</v>
       </c>
       <c r="G49" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H49" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
@@ -8476,42 +8476,42 @@
         <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G50" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H50" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G51" s="1">
         <v>8.0</v>
@@ -8522,48 +8522,48 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G52" s="1">
         <v>8.0</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G53" s="1">
         <v>8.0</v>
@@ -8574,13 +8574,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>258</v>
@@ -8595,7 +8595,7 @@
         <v>8.0</v>
       </c>
       <c r="H54" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
@@ -8632,42 +8632,42 @@
         <v>266</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G56" s="1">
         <v>8.0</v>
       </c>
       <c r="H56" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1">
         <v>8.0</v>
@@ -8678,91 +8678,91 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G58" s="1">
         <v>8.0</v>
       </c>
       <c r="H58" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G59" s="1">
         <v>8.0</v>
       </c>
       <c r="H59" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G60" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H60" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>291</v>
@@ -8774,10 +8774,10 @@
         <v>292</v>
       </c>
       <c r="G61" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H61" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -8788,42 +8788,42 @@
         <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="G62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H62" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="G63" s="1">
         <v>7.0</v>
@@ -8834,100 +8834,100 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="G64" s="1">
         <v>7.0</v>
       </c>
       <c r="H64" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="G65" s="1">
         <v>7.0</v>
       </c>
       <c r="H65" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="G66" s="1">
         <v>7.0</v>
       </c>
       <c r="H66" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="G67" s="1">
         <v>7.0</v>
@@ -8938,65 +8938,65 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="G68" s="1">
         <v>7.0</v>
       </c>
       <c r="H68" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="G69" s="1">
         <v>7.0</v>
       </c>
       <c r="H69" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>333</v>
@@ -9008,10 +9008,10 @@
         <v>334</v>
       </c>
       <c r="G70" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H70" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -9022,33 +9022,33 @@
         <v>336</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="G71" s="1">
         <v>6.0</v>
       </c>
       <c r="H71" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>342</v>
@@ -9063,7 +9063,7 @@
         <v>6.0</v>
       </c>
       <c r="H72" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -9178,7 +9178,7 @@
         <v>363</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>364</v>
@@ -9204,45 +9204,45 @@
         <v>367</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="G78" s="1">
         <v>6.0</v>
       </c>
       <c r="H78" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="G79" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H79" s="1">
         <v>5.0</v>
@@ -9250,39 +9250,39 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="G80" s="1">
         <v>5.0</v>
       </c>
       <c r="H80" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>383</v>
@@ -9297,7 +9297,7 @@
         <v>5.0</v>
       </c>
       <c r="H81" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -9308,7 +9308,7 @@
         <v>386</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>387</v>
@@ -9323,7 +9323,7 @@
         <v>5.0</v>
       </c>
       <c r="H82" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -9349,7 +9349,7 @@
         <v>5.0</v>
       </c>
       <c r="H83" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="84">
@@ -9375,7 +9375,7 @@
         <v>5.0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="85">
@@ -9464,7 +9464,7 @@
         <v>412</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>413</v>
@@ -9568,7 +9568,7 @@
         <v>430</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>431</v>
@@ -9672,7 +9672,7 @@
         <v>449</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>450</v>
@@ -9713,7 +9713,7 @@
         <v>4.0</v>
       </c>
       <c r="H97" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="98">
@@ -9802,94 +9802,94 @@
         <v>471</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="G101" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H101" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="G102" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H102" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="G103" s="1">
         <v>3.0</v>
       </c>
       <c r="H103" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="G104" s="1">
         <v>3.0</v>
@@ -9900,126 +9900,126 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="G105" s="1">
         <v>3.0</v>
       </c>
       <c r="H105" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="G106" s="1">
         <v>3.0</v>
       </c>
       <c r="H106" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="G107" s="1">
         <v>3.0</v>
       </c>
       <c r="H107" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G108" s="1">
         <v>3.0</v>
       </c>
       <c r="H108" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="G109" s="1">
         <v>3.0</v>
@@ -10030,22 +10030,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -10056,7 +10056,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>516</v>
@@ -10077,7 +10077,7 @@
         <v>3.0</v>
       </c>
       <c r="H111" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
@@ -10088,59 +10088,59 @@
         <v>521</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G112" s="1">
         <v>3.0</v>
       </c>
       <c r="H112" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>524</v>
+        <v>366</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>526</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G113" s="1">
         <v>3.0</v>
       </c>
       <c r="H113" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>530</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>531</v>
@@ -10178,10 +10178,10 @@
         <v>537</v>
       </c>
       <c r="G115" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H115" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -10233,7 +10233,7 @@
         <v>2.0</v>
       </c>
       <c r="H117" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -10244,42 +10244,42 @@
         <v>549</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>285</v>
+        <v>550</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G118" s="1">
         <v>2.0</v>
       </c>
       <c r="H118" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G119" s="1">
         <v>2.0</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>558</v>
+        <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>559</v>
@@ -10337,7 +10337,7 @@
         <v>2.0</v>
       </c>
       <c r="H121" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -10363,7 +10363,7 @@
         <v>2.0</v>
       </c>
       <c r="H122" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
@@ -10374,42 +10374,42 @@
         <v>572</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>190</v>
+        <v>573</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G123" s="1">
         <v>2.0</v>
       </c>
       <c r="H123" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G124" s="1">
         <v>2.0</v>
@@ -10420,13 +10420,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>581</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>582</v>
@@ -10452,16 +10452,16 @@
         <v>585</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="G126" s="1">
         <v>2.0</v>
@@ -10472,13 +10472,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>591</v>
@@ -10493,7 +10493,7 @@
         <v>2.0</v>
       </c>
       <c r="H127" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -10530,7 +10530,7 @@
         <v>599</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>600</v>
@@ -10545,7 +10545,7 @@
         <v>2.0</v>
       </c>
       <c r="H129" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="130">
@@ -10571,7 +10571,7 @@
         <v>2.0</v>
       </c>
       <c r="H130" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -10582,16 +10582,16 @@
         <v>608</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="G131" s="1">
         <v>2.0</v>
@@ -10602,74 +10602,74 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="G132" s="1">
         <v>2.0</v>
       </c>
       <c r="H132" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="G133" s="1">
         <v>2.0</v>
       </c>
       <c r="H133" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="G134" s="1">
         <v>2.0</v>
@@ -10680,39 +10680,39 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="G135" s="1">
         <v>2.0</v>
       </c>
       <c r="H135" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>634</v>
@@ -10753,7 +10753,7 @@
         <v>2.0</v>
       </c>
       <c r="H137" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="138">
@@ -10764,33 +10764,33 @@
         <v>642</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
       </c>
       <c r="H138" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>648</v>
@@ -10805,7 +10805,7 @@
         <v>2.0</v>
       </c>
       <c r="H139" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
@@ -10816,85 +10816,85 @@
         <v>651</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>404</v>
+        <v>652</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G140" s="1">
         <v>2.0</v>
       </c>
       <c r="H140" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
       </c>
       <c r="H141" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
       </c>
       <c r="H142" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>665</v>
+        <v>404</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>666</v>
@@ -10920,16 +10920,16 @@
         <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>16</v>
+        <v>670</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G144" s="1">
         <v>2.0</v>
@@ -10940,65 +10940,65 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G145" s="1">
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G146" s="1">
         <v>2.0</v>
       </c>
       <c r="H146" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>683</v>
+        <v>16</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>684</v>
@@ -11039,7 +11039,7 @@
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -11050,7 +11050,7 @@
         <v>692</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>16</v>
+        <v>688</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>693</v>
@@ -11065,7 +11065,7 @@
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -11076,16 +11076,16 @@
         <v>696</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="G150" s="1">
         <v>2.0</v>
@@ -11096,22 +11096,22 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="G151" s="1">
         <v>2.0</v>
@@ -11122,13 +11122,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>707</v>
@@ -11166,7 +11166,7 @@
         <v>712</v>
       </c>
       <c r="G153" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H153" s="1">
         <v>0.0</v>
@@ -11180,45 +11180,45 @@
         <v>714</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>16</v>
+        <v>715</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G154" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H154" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>16</v>
+        <v>720</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G155" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H155" s="1">
         <v>0.0</v>
@@ -11226,25 +11226,25 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G156" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H156" s="1">
         <v>0.0</v>
@@ -11252,22 +11252,22 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>411</v>
+        <v>727</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G157" s="1">
         <v>1.0</v>
@@ -11278,22 +11278,22 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>730</v>
+        <v>16</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G158" s="1">
         <v>1.0</v>
@@ -11304,22 +11304,22 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>735</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G159" s="1">
         <v>1.0</v>
@@ -11330,13 +11330,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>740</v>
+        <v>16</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>741</v>
@@ -11356,48 +11356,48 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="G161" s="1">
         <v>1.0</v>
       </c>
       <c r="H161" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="E162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="G162" s="1">
         <v>1.0</v>
@@ -11408,74 +11408,74 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="E163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="G163" s="1">
         <v>1.0</v>
       </c>
       <c r="H163" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="G164" s="1">
         <v>1.0</v>
       </c>
       <c r="H164" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="G165" s="1">
         <v>1.0</v>
@@ -11486,13 +11486,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>769</v>
@@ -11518,33 +11518,33 @@
         <v>772</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>64</v>
+        <v>773</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G167" s="1">
         <v>1.0</v>
       </c>
       <c r="H167" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>778</v>
@@ -11559,7 +11559,7 @@
         <v>1.0</v>
       </c>
       <c r="H168" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
@@ -11585,7 +11585,7 @@
         <v>1.0</v>
       </c>
       <c r="H169" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="170">
@@ -11596,7 +11596,7 @@
         <v>786</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>595</v>
+        <v>69</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>787</v>
@@ -11648,16 +11648,16 @@
         <v>795</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>740</v>
+        <v>796</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G172" s="1">
         <v>1.0</v>
@@ -11668,39 +11668,39 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G173" s="1">
         <v>1.0</v>
       </c>
       <c r="H173" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>805</v>
+        <v>604</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>806</v>
@@ -11715,7 +11715,7 @@
         <v>1.0</v>
       </c>
       <c r="H174" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -11752,16 +11752,16 @@
         <v>814</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="G176" s="1">
         <v>1.0</v>
@@ -11772,22 +11772,22 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="G177" s="1">
         <v>1.0</v>
@@ -11798,13 +11798,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>825</v>
@@ -11819,7 +11819,7 @@
         <v>1.0</v>
       </c>
       <c r="H178" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="179">
@@ -11830,42 +11830,42 @@
         <v>828</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>16</v>
+        <v>829</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G179" s="1">
         <v>1.0</v>
       </c>
       <c r="H179" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>513</v>
+        <v>834</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G180" s="1">
         <v>1.0</v>
@@ -11876,22 +11876,22 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G181" s="1">
         <v>1.0</v>
@@ -11902,65 +11902,65 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>842</v>
+        <v>16</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G182" s="1">
         <v>1.0</v>
       </c>
       <c r="H182" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G183" s="1">
         <v>1.0</v>
       </c>
       <c r="H183" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>851</v>
+        <v>522</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>852</v>
@@ -11975,7 +11975,7 @@
         <v>1.0</v>
       </c>
       <c r="H184" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
@@ -11986,59 +11986,59 @@
         <v>855</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>740</v>
+        <v>856</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G185" s="1">
         <v>1.0</v>
       </c>
       <c r="H185" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G186" s="1">
         <v>1.0</v>
       </c>
       <c r="H186" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>865</v>
+        <v>16</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>866</v>
@@ -12064,33 +12064,33 @@
         <v>869</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="G188" s="1">
         <v>1.0</v>
       </c>
       <c r="H188" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>875</v>
@@ -12105,7 +12105,7 @@
         <v>1.0</v>
       </c>
       <c r="H189" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -12168,16 +12168,16 @@
         <v>888</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="G192" s="1">
         <v>1.0</v>
@@ -12188,22 +12188,22 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="G193" s="1">
         <v>1.0</v>
@@ -12214,39 +12214,39 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="G194" s="1">
         <v>1.0</v>
       </c>
       <c r="H194" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>904</v>
@@ -12298,120 +12298,120 @@
         <v>912</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G197" s="1">
         <v>1.0</v>
       </c>
       <c r="H197" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G198" s="1">
         <v>1.0</v>
       </c>
       <c r="H198" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G199" s="1">
         <v>1.0</v>
       </c>
       <c r="H199" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G200" s="1">
         <v>1.0</v>
       </c>
       <c r="H200" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>435</v>
+        <v>16</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G201" s="1">
         <v>1.0</v>
@@ -12422,74 +12422,74 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G202" s="1">
         <v>1.0</v>
       </c>
       <c r="H202" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G203" s="1">
         <v>1.0</v>
       </c>
       <c r="H203" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>785</v>
+        <v>943</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>595</v>
+        <v>945</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="G204" s="1">
         <v>1.0</v>
@@ -12500,22 +12500,22 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="G205" s="1">
         <v>1.0</v>
@@ -12526,22 +12526,22 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>949</v>
+        <v>804</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>951</v>
+        <v>604</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G206" s="1">
         <v>1.0</v>
@@ -12552,51 +12552,51 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G207" s="1">
         <v>1.0</v>
       </c>
       <c r="H207" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>16</v>
+        <v>961</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G208" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H208" s="1">
         <v>0.0</v>
@@ -12604,39 +12604,39 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>964</v>
+        <v>213</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G209" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H209" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>969</v>
+        <v>16</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>970</v>
@@ -12662,16 +12662,16 @@
         <v>973</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>200</v>
+        <v>974</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G211" s="1">
         <v>0.0</v>
@@ -12682,22 +12682,22 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>16</v>
+        <v>979</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="G212" s="1">
         <v>0.0</v>
@@ -12708,22 +12708,22 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="G213" s="1">
         <v>0.0</v>
@@ -12734,22 +12734,22 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="G214" s="1">
         <v>0.0</v>
@@ -12760,22 +12760,22 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="G215" s="1">
         <v>0.0</v>
@@ -12786,22 +12786,22 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>678</v>
+        <v>16</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="G216" s="1">
         <v>0.0</v>
@@ -12812,22 +12812,22 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G217" s="1">
         <v>0.0</v>
@@ -12838,22 +12838,22 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>16</v>
+        <v>701</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G218" s="1">
         <v>0.0</v>
@@ -12864,22 +12864,22 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G219" s="1">
         <v>0.0</v>
@@ -12890,22 +12890,22 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1009</v>
+        <v>16</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G220" s="1">
         <v>0.0</v>
@@ -12916,22 +12916,22 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G221" s="1">
         <v>0.0</v>
@@ -12942,22 +12942,22 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>198</v>
+        <v>1017</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>791</v>
+        <v>1019</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G222" s="1">
         <v>0.0</v>
@@ -12968,22 +12968,22 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1021</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="G223" s="1">
         <v>0.0</v>
@@ -12994,13 +12994,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>1024</v>
+        <v>202</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1026</v>
+        <v>810</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>1027</v>
@@ -13078,16 +13078,16 @@
         <v>1040</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>619</v>
+        <v>1041</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G227" s="1">
         <v>0.0</v>
@@ -13098,22 +13098,22 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>740</v>
+        <v>1046</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G228" s="1">
         <v>0.0</v>
@@ -13124,22 +13124,22 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G229" s="1">
         <v>0.0</v>
@@ -13150,22 +13150,22 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>16</v>
+        <v>758</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G230" s="1">
         <v>0.0</v>
@@ -13176,22 +13176,22 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>16</v>
+        <v>563</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G231" s="1">
         <v>0.0</v>
@@ -13202,22 +13202,22 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1061</v>
+        <v>16</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G232" s="1">
         <v>0.0</v>
@@ -13228,13 +13228,13 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1066</v>
+        <v>16</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1067</v>
@@ -13260,16 +13260,16 @@
         <v>1070</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>185</v>
+        <v>1071</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G234" s="1">
         <v>0.0</v>
@@ -13280,22 +13280,22 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G235" s="1">
         <v>0.0</v>
@@ -13306,22 +13306,22 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G236" s="1">
         <v>0.0</v>
@@ -13332,22 +13332,22 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>571</v>
+        <v>1083</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>745</v>
+        <v>1085</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="G237" s="1">
         <v>0.0</v>
@@ -13358,22 +13358,22 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1087</v>
+        <v>277</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="G238" s="1">
         <v>0.0</v>
@@ -13384,13 +13384,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>1090</v>
+        <v>576</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1092</v>
+        <v>763</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1093</v>
@@ -13416,16 +13416,16 @@
         <v>1096</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>16</v>
+        <v>1097</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G240" s="1">
         <v>0.0</v>
@@ -13436,22 +13436,22 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G241" s="1">
         <v>0.0</v>
@@ -13462,13 +13462,13 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1106</v>
+        <v>16</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1107</v>
@@ -13572,16 +13572,16 @@
         <v>1125</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>190</v>
+        <v>1126</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G246" s="1">
         <v>0.0</v>
@@ -13592,22 +13592,22 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>62</v>
+        <v>1129</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G247" s="1">
         <v>0.0</v>
@@ -13618,22 +13618,22 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>1131</v>
+        <v>67</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>745</v>
+        <v>69</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G248" s="1">
         <v>0.0</v>
@@ -13644,19 +13644,19 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>1139</v>
@@ -13676,16 +13676,16 @@
         <v>1141</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1142</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G250" s="1">
         <v>0.0</v>
@@ -13696,22 +13696,22 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>16</v>
+        <v>773</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G251" s="1">
         <v>0.0</v>
@@ -13722,22 +13722,22 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G252" s="1">
         <v>0.0</v>
@@ -13748,22 +13748,22 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G253" s="1">
         <v>0.0</v>
@@ -13774,13 +13774,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1158</v>
+        <v>69</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1159</v>
@@ -13832,16 +13832,16 @@
         <v>1167</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>262</v>
+        <v>1168</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G256" s="1">
         <v>0.0</v>
@@ -13852,13 +13852,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1172</v>
+        <v>277</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1173</v>
@@ -13884,16 +13884,16 @@
         <v>1176</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>791</v>
+        <v>1177</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G258" s="1">
         <v>0.0</v>
@@ -13904,22 +13904,22 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>190</v>
+        <v>810</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G259" s="1">
         <v>0.0</v>
@@ -13930,13 +13930,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1185</v>
+        <v>190</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13962,16 +13962,16 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>777</v>
+        <v>1190</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G261" s="1">
         <v>0.0</v>
@@ -13982,19 +13982,19 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1194</v>
+        <v>791</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>1196</v>
@@ -14020,7 +14020,7 @@
         <v>1200</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>1201</v>
@@ -14040,16 +14040,16 @@
         <v>1203</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>16</v>
+        <v>1204</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G264" s="1">
         <v>0.0</v>
@@ -14060,22 +14060,22 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>1161</v>
+        <v>1207</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G265" s="1">
         <v>0.0</v>
@@ -14086,19 +14086,19 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>1209</v>
+        <v>1166</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1211</v>
+        <v>135</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1212</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>1213</v>
@@ -14144,16 +14144,16 @@
         <v>1220</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>16</v>
+        <v>1221</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G268" s="1">
         <v>0.0</v>
@@ -14164,22 +14164,22 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>678</v>
+        <v>16</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G269" s="1">
         <v>0.0</v>
@@ -14190,22 +14190,22 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>16</v>
+        <v>701</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G270" s="1">
         <v>0.0</v>
@@ -14216,13 +14216,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1233</v>
+        <v>16</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1234</v>
@@ -14274,16 +14274,16 @@
         <v>1242</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>16</v>
+        <v>1243</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G273" s="1">
         <v>0.0</v>
@@ -14294,22 +14294,22 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G274" s="1">
         <v>0.0</v>
@@ -14320,22 +14320,22 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G275" s="1">
         <v>0.0</v>
@@ -14346,22 +14346,22 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G276" s="1">
         <v>0.0</v>
@@ -14372,22 +14372,22 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1259</v>
+        <v>233</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1205</v>
+        <v>1261</v>
       </c>
       <c r="G277" s="1">
         <v>0.0</v>
@@ -14398,22 +14398,22 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>16</v>
+        <v>1264</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>1264</v>
+        <v>1210</v>
       </c>
       <c r="G278" s="1">
         <v>0.0</v>
@@ -14424,13 +14424,13 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1267</v>
+        <v>16</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1268</v>
@@ -14456,16 +14456,16 @@
         <v>1271</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>16</v>
+        <v>1272</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G280" s="1">
         <v>0.0</v>
@@ -14476,22 +14476,22 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G281" s="1">
         <v>0.0</v>
@@ -14502,13 +14502,13 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1280</v>
+        <v>267</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1281</v>
@@ -14560,16 +14560,16 @@
         <v>1289</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>16</v>
+        <v>1290</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="G284" s="1">
         <v>0.0</v>
@@ -14580,22 +14580,22 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G285" s="1">
         <v>0.0</v>
@@ -14606,19 +14606,19 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1298</v>
+        <v>16</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1299</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>1300</v>
@@ -14638,16 +14638,16 @@
         <v>1302</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>16</v>
+        <v>1303</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G287" s="1">
         <v>0.0</v>
@@ -14658,22 +14658,22 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>837</v>
+        <v>16</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G288" s="1">
         <v>0.0</v>
@@ -14684,13 +14684,13 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1311</v>
+        <v>856</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1312</v>
@@ -14716,16 +14716,16 @@
         <v>1315</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>481</v>
+        <v>1316</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G290" s="1">
         <v>0.0</v>
@@ -14736,22 +14736,22 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>190</v>
+        <v>489</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="G291" s="1">
         <v>0.0</v>
@@ -14762,22 +14762,22 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>312</v>
+        <v>1323</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G292" s="1">
         <v>0.0</v>
@@ -14788,22 +14788,22 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>1325</v>
+        <v>320</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>513</v>
+        <v>322</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G293" s="1">
         <v>0.0</v>
@@ -14814,22 +14814,22 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G294" s="1">
         <v>0.0</v>
@@ -14840,13 +14840,13 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1335</v>
+        <v>16</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>1336</v>
@@ -14924,16 +14924,16 @@
         <v>1349</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>41</v>
+        <v>1350</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G298" s="1">
         <v>0.0</v>
@@ -14944,22 +14944,22 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1345</v>
+        <v>45</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G299" s="1">
         <v>0.0</v>
@@ -14970,22 +14970,22 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>586</v>
+        <v>1350</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G300" s="1">
         <v>0.0</v>
@@ -14996,13 +14996,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1361</v>
+        <v>595</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1362</v>
@@ -15028,16 +15028,16 @@
         <v>1365</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>16</v>
+        <v>1366</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G302" s="1">
         <v>0.0</v>
@@ -15048,22 +15048,22 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G303" s="1">
         <v>0.0</v>
@@ -15074,22 +15074,22 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G304" s="1">
         <v>0.0</v>
@@ -15100,22 +15100,22 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G305" s="1">
         <v>0.0</v>
@@ -15126,19 +15126,19 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1382</v>
+        <v>16</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>1384</v>
@@ -15158,16 +15158,16 @@
         <v>1386</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>190</v>
+        <v>1387</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G307" s="1">
         <v>0.0</v>
@@ -15178,22 +15178,22 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G308" s="1">
         <v>0.0</v>
@@ -15204,22 +15204,22 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G309" s="1">
         <v>0.0</v>
@@ -15230,13 +15230,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1399</v>
+        <v>16</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1400</v>
@@ -15262,16 +15262,16 @@
         <v>1403</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>820</v>
+        <v>1404</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G311" s="1">
         <v>0.0</v>
@@ -15282,22 +15282,22 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>16</v>
+        <v>839</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G312" s="1">
         <v>0.0</v>
@@ -15308,22 +15308,22 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G313" s="1">
         <v>0.0</v>
@@ -15334,13 +15334,13 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1416</v>
+        <v>277</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1417</v>
@@ -15366,16 +15366,16 @@
         <v>1420</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>16</v>
+        <v>1421</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G315" s="1">
         <v>0.0</v>
@@ -15386,22 +15386,22 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G316" s="1">
         <v>0.0</v>
@@ -15412,22 +15412,22 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G317" s="1">
         <v>0.0</v>
@@ -15438,22 +15438,22 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G318" s="1">
         <v>0.0</v>
@@ -15464,13 +15464,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1437</v>
+        <v>16</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1438</v>
@@ -15496,16 +15496,16 @@
         <v>1441</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>166</v>
+        <v>1442</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G320" s="1">
         <v>0.0</v>
@@ -15516,13 +15516,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1446</v>
+        <v>166</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1447</v>
@@ -15548,16 +15548,16 @@
         <v>1450</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>121</v>
+        <v>1451</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G322" s="1">
         <v>0.0</v>
@@ -15568,22 +15568,22 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>688</v>
+        <v>116</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G323" s="1">
         <v>0.0</v>
@@ -15594,22 +15594,22 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="G324" s="1">
         <v>0.0</v>
@@ -15620,13 +15620,13 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1463</v>
+        <v>16</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>1464</v>
@@ -15646,22 +15646,22 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>303</v>
+        <v>1466</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>305</v>
+        <v>1468</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="G326" s="1">
         <v>0.0</v>
@@ -15672,13 +15672,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>1469</v>
+        <v>311</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1471</v>
+        <v>313</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1472</v>
@@ -15730,16 +15730,16 @@
         <v>1480</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>166</v>
+        <v>1481</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G329" s="1">
         <v>0.0</v>
@@ -15750,13 +15750,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1485</v>
+        <v>166</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1486</v>
@@ -15834,16 +15834,16 @@
         <v>1499</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>535</v>
+        <v>1500</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G333" s="1">
         <v>0.0</v>
@@ -15854,13 +15854,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1504</v>
+        <v>540</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1505</v>
@@ -15886,16 +15886,16 @@
         <v>1508</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>16</v>
+        <v>1509</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G335" s="1">
         <v>0.0</v>
@@ -15906,13 +15906,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1513</v>
+        <v>16</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>1514</v>
@@ -15938,16 +15938,16 @@
         <v>1517</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>16</v>
+        <v>1518</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G337" s="1">
         <v>0.0</v>
@@ -15958,13 +15958,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1522</v>
+        <v>16</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1523</v>
@@ -15990,16 +15990,16 @@
         <v>1526</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>16</v>
+        <v>1527</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="G339" s="1">
         <v>0.0</v>
@@ -16010,22 +16010,22 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G340" s="1">
         <v>0.0</v>
@@ -16036,13 +16036,13 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1535</v>
+        <v>16</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>1536</v>
@@ -16068,16 +16068,16 @@
         <v>1539</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>16</v>
+        <v>1540</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="G342" s="1">
         <v>0.0</v>
@@ -16088,13 +16088,13 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1544</v>
+        <v>16</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>1545</v>
@@ -16120,16 +16120,16 @@
         <v>1548</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>16</v>
+        <v>1549</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G344" s="1">
         <v>0.0</v>
@@ -16140,22 +16140,22 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>976</v>
+        <v>1552</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="G345" s="1">
         <v>0.0</v>
@@ -16166,22 +16166,22 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>1554</v>
+        <v>986</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1556</v>
+        <v>16</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="G346" s="1">
         <v>0.0</v>
@@ -16192,22 +16192,22 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>16</v>
+        <v>1561</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G347" s="1">
         <v>0.0</v>
@@ -16218,13 +16218,13 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1564</v>
+        <v>16</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1565</v>
@@ -16250,16 +16250,16 @@
         <v>1568</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>740</v>
+        <v>1569</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="G349" s="1">
         <v>0.0</v>
@@ -16270,22 +16270,22 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>26</v>
+        <v>758</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="G350" s="1">
         <v>0.0</v>
@@ -16296,22 +16296,22 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="G351" s="1">
         <v>0.0</v>
@@ -16322,22 +16322,22 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G352" s="1">
         <v>0.0</v>
@@ -16348,13 +16348,13 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1585</v>
+        <v>69</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1586</v>
@@ -16432,16 +16432,16 @@
         <v>1599</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="G356" s="1">
         <v>0.0</v>
@@ -16452,22 +16452,22 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="G357" s="1">
         <v>0.0</v>
@@ -16478,22 +16478,22 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="G358" s="1">
         <v>0.0</v>
@@ -16504,22 +16504,22 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="G359" s="1">
         <v>0.0</v>
@@ -16530,13 +16530,13 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1616</v>
+        <v>16</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1617</v>
@@ -16634,22 +16634,22 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>1135</v>
+        <v>1634</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>92</v>
+        <v>1636</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="G364" s="1">
         <v>0.0</v>
@@ -16660,13 +16660,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>1637</v>
+        <v>1140</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1639</v>
+        <v>92</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>1640</v>
@@ -16718,16 +16718,16 @@
         <v>1648</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G367" s="1">
         <v>0.0</v>
@@ -16738,13 +16738,13 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>1654</v>
@@ -16770,16 +16770,16 @@
         <v>1657</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1639</v>
+        <v>1658</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="G369" s="1">
         <v>0.0</v>
@@ -16790,13 +16790,13 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1662</v>
+        <v>1644</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>1663</v>
@@ -16926,16 +16926,16 @@
         <v>1686</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>16</v>
+        <v>1687</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="G375" s="1">
         <v>0.0</v>
@@ -16946,13 +16946,13 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1691</v>
+        <v>16</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>1692</v>
@@ -16978,16 +16978,16 @@
         <v>1695</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>305</v>
+        <v>1696</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="G377" s="1">
         <v>0.0</v>
@@ -16998,22 +16998,22 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>586</v>
+        <v>313</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="G378" s="1">
         <v>0.0</v>
@@ -17024,22 +17024,22 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>16</v>
+        <v>595</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="G379" s="1">
         <v>0.0</v>
@@ -17050,13 +17050,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1708</v>
+        <v>16</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1709</v>
@@ -17108,16 +17108,16 @@
         <v>1717</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>378</v>
+        <v>1718</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="G382" s="1">
         <v>0.0</v>
@@ -17128,13 +17128,13 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1722</v>
+        <v>382</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1723</v>
@@ -17160,16 +17160,16 @@
         <v>1726</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1626</v>
+        <v>1727</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="G384" s="1">
         <v>0.0</v>
@@ -17180,13 +17180,13 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1731</v>
+        <v>1631</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>1732</v>
@@ -17212,16 +17212,16 @@
         <v>1735</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>200</v>
+        <v>1736</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="G386" s="1">
         <v>0.0</v>
@@ -17232,22 +17232,22 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>448</v>
+        <v>1739</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="G387" s="1">
         <v>0.0</v>
@@ -17258,13 +17258,13 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>1741</v>
+        <v>448</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1743</v>
+        <v>45</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>1744</v>
@@ -17284,22 +17284,22 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>911</v>
+        <v>1746</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>908</v>
+        <v>1748</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="G389" s="1">
         <v>0.0</v>
@@ -17310,13 +17310,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>1749</v>
+        <v>691</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1751</v>
+        <v>688</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1752</v>
@@ -17342,16 +17342,16 @@
         <v>1755</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>740</v>
+        <v>1756</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="G391" s="1">
         <v>0.0</v>
@@ -17362,13 +17362,13 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1760</v>
+        <v>758</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1761</v>
@@ -17388,22 +17388,22 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>691</v>
+        <v>1763</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="G393" s="1">
         <v>0.0</v>
@@ -17414,7 +17414,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>1767</v>
+        <v>709</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1768</v>
@@ -17498,16 +17498,16 @@
         <v>1783</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="G397" s="1">
         <v>0.0</v>
@@ -17518,19 +17518,19 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>1789</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>1790</v>
@@ -17556,7 +17556,7 @@
         <v>1794</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>12</v>
+        <v>1143</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>1795</v>
@@ -17576,16 +17576,16 @@
         <v>1797</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>16</v>
+        <v>1798</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="G400" s="1">
         <v>0.0</v>
@@ -17596,13 +17596,13 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1802</v>
+        <v>16</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>1803</v>
@@ -17628,16 +17628,16 @@
         <v>1806</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>935</v>
+        <v>1807</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="G402" s="1">
         <v>0.0</v>
@@ -17648,13 +17648,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1811</v>
+        <v>945</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>1812</v>
@@ -17706,7 +17706,7 @@
         <v>1820</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1821</v>
@@ -17726,13 +17726,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1823</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1824</v>
@@ -17810,7 +17810,7 @@
         <v>1836</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>1837</v>
@@ -17894,7 +17894,7 @@
         <v>1851</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>1852</v>
@@ -17972,7 +17972,7 @@
         <v>1865</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>1866</v>
@@ -17992,7 +17992,7 @@
         <v>1868</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>1869</v>
@@ -18226,7 +18226,7 @@
         <v>1905</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>1906</v>
@@ -18330,7 +18330,7 @@
         <v>1921</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1922</v>
@@ -18460,7 +18460,7 @@
         <v>1942</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1943</v>
@@ -18616,7 +18616,7 @@
         <v>1969</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1970</v>
@@ -18674,7 +18674,7 @@
         <v>1979</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>1980</v>
@@ -18694,7 +18694,7 @@
         <v>1982</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>1983</v>
@@ -18824,7 +18824,7 @@
         <v>2004</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>2005</v>
@@ -19136,7 +19136,7 @@
         <v>2061</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>688</v>
+        <v>512</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>2062</v>
@@ -19370,7 +19370,7 @@
         <v>2103</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>2104</v>
@@ -19422,7 +19422,7 @@
         <v>2112</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>2113</v>
@@ -19448,7 +19448,7 @@
         <v>2116</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2117</v>
@@ -19474,7 +19474,7 @@
         <v>2120</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>2121</v>
@@ -19552,7 +19552,7 @@
         <v>2134</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2135</v>
@@ -19578,7 +19578,7 @@
         <v>2138</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>2139</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19656,7 +19656,7 @@
         <v>2151</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>2152</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>688</v>
+        <v>512</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19890,7 +19890,7 @@
         <v>2190</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2191</v>
@@ -19922,7 +19922,7 @@
         <v>2196</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>2197</v>
@@ -19948,7 +19948,7 @@
         <v>2200</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>2201</v>
@@ -19968,7 +19968,7 @@
         <v>2203</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>2204</v>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>2206</v>
@@ -20202,7 +20202,7 @@
         <v>2239</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>2240</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20306,7 +20306,7 @@
         <v>2256</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>2257</v>
@@ -20384,7 +20384,7 @@
         <v>2268</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>2269</v>
@@ -20468,7 +20468,7 @@
         <v>2282</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>2283</v>
@@ -20514,7 +20514,7 @@
         <v>2290</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>2291</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20832,7 +20832,7 @@
         <v>2341</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>2342</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>
@@ -20988,10 +20988,10 @@
         <v>2368</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="G531" s="1">
         <v>0.0</v>
@@ -21312,8 +21312,8 @@
     <hyperlink r:id="rId282" ref="F283"/>
     <hyperlink r:id="rId283" ref="F284"/>
     <hyperlink r:id="rId284" ref="F285"/>
-    <hyperlink r:id="rId285" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F286"/>
-    <hyperlink r:id="rId286" ref="F287"/>
+    <hyperlink r:id="rId285" ref="F286"/>
+    <hyperlink r:id="rId286" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F287"/>
     <hyperlink r:id="rId287" ref="F288"/>
     <hyperlink r:id="rId288" ref="F289"/>
     <hyperlink r:id="rId289" ref="F290"/>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -55,7 +55,7 @@
     <t>https://google.qwiklabs.com/public_profiles/e74ad896-e486-43c3-9b18-a7eb0adf370d</t>
   </si>
   <si>
-    <t>MD EQURAM ANSARI</t>
+    <t>EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -199,6 +199,21 @@
     <t>https://google.qwiklabs.com/public_profiles/a4e66ae5-4f29-4774-bbae-1cf7d2a6112c</t>
   </si>
   <si>
+    <t>Gursharan Kaur</t>
+  </si>
+  <si>
+    <t>gursharankaur8031@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MAIT</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
+  </si>
+  <si>
     <t>Vishwas Tyagi</t>
   </si>
   <si>
@@ -229,21 +244,6 @@
     <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
   </si>
   <si>
-    <t>Gursharan Kaur</t>
-  </si>
-  <si>
-    <t>gursharankaur8031@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MAIT</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
-  </si>
-  <si>
     <t>Prachi Kumari</t>
   </si>
   <si>
@@ -271,6 +271,21 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
+    <t>Ayan Pal</t>
+  </si>
+  <si>
+    <t>pal.ayan712304@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Narula Institute of Technology</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
+  </si>
+  <si>
     <t>Arunima Maiti</t>
   </si>
   <si>
@@ -355,21 +370,6 @@
     <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
-    <t>Ayan Pal</t>
-  </si>
-  <si>
-    <t>pal.ayan712304@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Narula Institute of Technology</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
-  </si>
-  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -400,6 +400,18 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
+    <t>Raktim Roy</t>
+  </si>
+  <si>
+    <t>deepjoydrx@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
+  </si>
+  <si>
     <t>SUDIPTA ROY</t>
   </si>
   <si>
@@ -451,18 +463,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
-    <t>Raktim Roy</t>
-  </si>
-  <si>
-    <t>deepjoydrx@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
-  </si>
-  <si>
     <t>Saurav Kumar</t>
   </si>
   <si>
@@ -478,6 +478,21 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
+    <t>Debarghya Chowdhury</t>
+  </si>
+  <si>
+    <t>joshchowdhury204@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
+  </si>
+  <si>
     <t>Hritik Kumar Singh</t>
   </si>
   <si>
@@ -490,19 +505,31 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Debarghya Chowdhury</t>
-  </si>
-  <si>
-    <t>joshchowdhury204@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
+    <t>Akhil C Padmanabhan</t>
+  </si>
+  <si>
+    <t>techakhilc47@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NHPS</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
+  </si>
+  <si>
+    <t>Utsav Vora</t>
+  </si>
+  <si>
+    <t>utsavvora2407@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
   </si>
   <si>
     <t>Swarnali Saha</t>
@@ -535,16 +562,19 @@
     <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
   </si>
   <si>
-    <t>Utsav Vora</t>
-  </si>
-  <si>
-    <t>utsavvora2407@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
   </si>
   <si>
     <t>Soham Saha</t>
@@ -646,21 +676,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
     <t>Anom Chakravorty</t>
   </si>
   <si>
@@ -676,21 +691,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
-    <t>Akhil C Padmanabhan</t>
-  </si>
-  <si>
-    <t>techakhilc47@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NHPS</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
-  </si>
-  <si>
     <t>Raunak Kumar Sah</t>
   </si>
   <si>
@@ -823,6 +823,21 @@
     <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
   </si>
   <si>
+    <t>Arpan Kumar</t>
+  </si>
+  <si>
+    <t>kumararpan227@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Ramakrishna Mission Vidyamandira, Belur</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:52:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6acb6c50-0258-44a6-a363-2ecdbfe33c2c</t>
+  </si>
+  <si>
     <t>Manshi Shaw</t>
   </si>
   <si>
@@ -916,6 +931,21 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
+    <t>Arkarup Saha</t>
+  </si>
+  <si>
+    <t>arkarups01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] RCC INSTITUE OF INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:04:26 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
+  </si>
+  <si>
     <t>Arunima Dhar</t>
   </si>
   <si>
@@ -931,19 +961,31 @@
     <t>https://www.qwiklabs.com/public_profiles/ae69f93e-9ddf-4e52-97fe-1e942e6e76a2</t>
   </si>
   <si>
-    <t>Arpan Kumar</t>
-  </si>
-  <si>
-    <t>kumararpan227@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Ramakrishna Mission Vidyamandira, Belur</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:52:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6acb6c50-0258-44a6-a363-2ecdbfe33c2c</t>
+    <t>Rahul Debnath</t>
+  </si>
+  <si>
+    <t>mtemporary7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
+  </si>
+  <si>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
   </si>
   <si>
     <t>Sweta Upadhyay</t>
@@ -1018,6 +1060,21 @@
     <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
+    <t>Harshit Parwal</t>
+  </si>
+  <si>
+    <t>harshitparwal1999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
+  </si>
+  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1045,21 +1102,6 @@
     <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
   </si>
   <si>
-    <t>Arkarup Saha</t>
-  </si>
-  <si>
-    <t>arkarups01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] RCC INSTITUE OF INFORMATION TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:04:26 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
-  </si>
-  <si>
     <t>Praneet Chakraborty</t>
   </si>
   <si>
@@ -1084,33 +1126,6 @@
     <t>https://google.qwiklabs.com/public_profiles/0acf7345-9678-41ec-8cab-fa16b1427941</t>
   </si>
   <si>
-    <t>Rahul Debnath</t>
-  </si>
-  <si>
-    <t>mtemporary7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
-  </si>
-  <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -1123,19 +1138,34 @@
     <t>https://google.qwiklabs.com/public_profiles/d9903919-6296-40ce-99f4-0db8330263dc</t>
   </si>
   <si>
-    <t>Harshit Parwal</t>
-  </si>
-  <si>
-    <t>harshitparwal1999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+  </si>
+  <si>
+    <t>MEGHADRI KOLEY</t>
+  </si>
+  <si>
+    <t>meghadrikoley9@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] TECHNO MAIN SALT LAKE</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 14:39:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
     <t>RAHUL LAHA</t>
@@ -1192,6 +1222,21 @@
     <t>https://google.qwiklabs.com/public_profiles/03b213db-e327-4a96-8f1e-be17b689997b</t>
   </si>
   <si>
+    <t>Santanu Majee</t>
+  </si>
+  <si>
+    <t>santanumajee2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering &amp; Management Kolkata</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:19:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/0e0cd2f2-ed67-4c64-95ff-259699b273ce</t>
+  </si>
+  <si>
     <t>Atreyo Mandal</t>
   </si>
   <si>
@@ -1273,21 +1318,6 @@
     <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
-  </si>
-  <si>
     <t>Samrat Ganguly</t>
   </si>
   <si>
@@ -1342,6 +1372,18 @@
     <t>https://google.qwiklabs.com/public_profiles/03d73df9-2c13-42c4-a68b-994507b72178</t>
   </si>
   <si>
+    <t>Anwesha Ghosh</t>
+  </si>
+  <si>
+    <t>anweshaghosh515@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
+  </si>
+  <si>
     <t>Chirantan Basu</t>
   </si>
   <si>
@@ -1369,6 +1411,30 @@
     <t>https://google.qwiklabs.com/public_profiles/0673429e-9f55-4010-862d-7d4c76862e61</t>
   </si>
   <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
     <t>Adarsh Kumar</t>
   </si>
   <si>
@@ -1396,6 +1462,21 @@
     <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
   </si>
   <si>
+    <t>ANUVAB DUTTA</t>
+  </si>
+  <si>
+    <t>anuvabduttaatwork@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] VIT Vellore</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
+  </si>
+  <si>
     <t>ANUSHA CHATTERJEE</t>
   </si>
   <si>
@@ -1423,28 +1504,19 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
-    <t>Anwesha Ghosh</t>
-  </si>
-  <si>
-    <t>anweshaghosh515@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
-  </si>
-  <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
     <t>Rishabh Shrivastava</t>
@@ -1528,51 +1600,6 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
-    <t>ANUVAB DUTTA</t>
-  </si>
-  <si>
-    <t>anuvabduttaatwork@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] VIT Vellore</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
-  </si>
-  <si>
-    <t>MEGHADRI KOLEY</t>
-  </si>
-  <si>
-    <t>meghadrikoley9@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] TECHNO MAIN SALT LAKE</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 14:39:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
-  </si>
-  <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
     <t>Jayprakash Shadanan Bhure</t>
   </si>
   <si>
@@ -1600,18 +1627,6 @@
     <t>https://www.qwiklabs.com/public_profiles/e0b92533-a725-4f14-8ace-0261e5fc8587</t>
   </si>
   <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
     <t>Vishnu P</t>
   </si>
   <si>
@@ -1765,6 +1780,21 @@
     <t>https://google.qwiklabs.com/public_profiles/e6f89737-b8a5-438e-aa30-3f30f4a6d6ff</t>
   </si>
   <si>
+    <t>Supritha Ravishankar</t>
+  </si>
+  <si>
+    <t>supri161@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.AIT</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
+  </si>
+  <si>
     <t>ARNAB DEB</t>
   </si>
   <si>
@@ -1777,6 +1807,36 @@
     <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
   </si>
   <si>
+    <t>Sahib pratap singh</t>
+  </si>
+  <si>
+    <t>sahibpratap@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kurukshetra University</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 06:12:02 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
+  </si>
+  <si>
+    <t>Raveena Bhasin</t>
+  </si>
+  <si>
+    <t>raveenabhasin15@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Jabalpur Engineering College</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
+  </si>
+  <si>
     <t>Abhinay Singh</t>
   </si>
   <si>
@@ -1861,6 +1921,21 @@
     <t>https://google.qwiklabs.com/public_profiles/b228079e-de0f-462b-ade0-fc43a0e240b1</t>
   </si>
   <si>
+    <t>Omeshwar Chowdhury</t>
+  </si>
+  <si>
+    <t>iamomeshwar0811@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Ramakrishna Mission Vidyamandira</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:38:54 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7b30ec0b-fb86-4433-b426-050124e8979d</t>
+  </si>
+  <si>
     <t>PRONAY GUHA</t>
   </si>
   <si>
@@ -1891,21 +1966,6 @@
     <t>https://www.qwiklabs.com/public_profiles/34eefee9-8a16-4d44-839c-856010874af8</t>
   </si>
   <si>
-    <t>Santanu Majee</t>
-  </si>
-  <si>
-    <t>santanumajee2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering &amp; Management Kolkata</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:19:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/0e0cd2f2-ed67-4c64-95ff-259699b273ce</t>
-  </si>
-  <si>
     <t>Geetika Sethi</t>
   </si>
   <si>
@@ -2005,6 +2065,18 @@
     <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
   </si>
   <si>
+    <t>Amitrajit Das</t>
+  </si>
+  <si>
+    <t>amitrajitdas31@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 11:29:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ee39e23e-6ddf-4aaf-8ba3-68672fc603d5</t>
+  </si>
+  <si>
     <t>Sachin Yadav</t>
   </si>
   <si>
@@ -2098,6 +2170,18 @@
     <t>https://google.qwiklabs.com/public_profiles/8322635b-7c50-43ee-b032-b60171f6d8e7</t>
   </si>
   <si>
+    <t>Mrinmoy Polley</t>
+  </si>
+  <si>
+    <t>mrinmoypolley35@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 08:35:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
+  </si>
+  <si>
     <t>Aditya Navya Shukla</t>
   </si>
   <si>
@@ -2353,19 +2437,19 @@
     <t>https://www.qwiklabs.com/public_profiles/48655e4e-78af-474c-82b1-55497c7dfc9e</t>
   </si>
   <si>
-    <t>Supritha Ravishankar</t>
-  </si>
-  <si>
-    <t>supri161@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.AIT</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
+    <t>AVULA ANIL KUMAR</t>
+  </si>
+  <si>
+    <t>anilavulaowk@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Rajiv Gandhi University of Knowledge Technologies - IIIT RK Valley,</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 15:13:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
   </si>
   <si>
     <t>Shubhajit Chakraborty</t>
@@ -2395,36 +2479,6 @@
     <t>https://google.qwiklabs.com/public_profiles/897e065e-200c-4a5d-8e8d-075b0e2bf569</t>
   </si>
   <si>
-    <t>Sahib pratap singh</t>
-  </si>
-  <si>
-    <t>sahibpratap@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kurukshetra University</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 06:12:02 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
-  </si>
-  <si>
-    <t>Raveena Bhasin</t>
-  </si>
-  <si>
-    <t>raveenabhasin15@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Jabalpur Engineering College</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
-  </si>
-  <si>
     <t>Neelesh Biswas</t>
   </si>
   <si>
@@ -2452,6 +2506,21 @@
     <t>https://www.qwiklabs.com/public_profiles/277593df-8d7a-4227-94a7-9508c1e8e367</t>
   </si>
   <si>
+    <t>Palash Das</t>
+  </si>
+  <si>
+    <t>palashdas0076@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute Of Technology,Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:53:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/87e44214-6324-41b2-829c-addaf097b1c1</t>
+  </si>
+  <si>
     <t>Deeptendu Chiki</t>
   </si>
   <si>
@@ -2479,21 +2548,6 @@
     <t>https://google.qwiklabs.com/public_profiles/fbdd1a65-2a36-4438-a20b-85b623c46d64</t>
   </si>
   <si>
-    <t>Omeshwar Chowdhury</t>
-  </si>
-  <si>
-    <t>iamomeshwar0811@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Ramakrishna Mission Vidyamandira</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:38:54 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7b30ec0b-fb86-4433-b426-050124e8979d</t>
-  </si>
-  <si>
     <t>Sudeshna Bandyopadhyay</t>
   </si>
   <si>
@@ -2590,6 +2644,18 @@
     <t>https://google.qwiklabs.com/public_profiles/2956f4e2-c1a1-4cb2-b553-702307ffe557</t>
   </si>
   <si>
+    <t>Waseem ud din Wani</t>
+  </si>
+  <si>
+    <t>waseemuddinwani@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 12:16:28 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/85a645ff-5094-49df-907a-5f09e384b788</t>
+  </si>
+  <si>
     <t>Swaraj Khan</t>
   </si>
   <si>
@@ -2674,18 +2740,6 @@
     <t>https://www.qwiklabs.com/public_profiles/a2d3731d-861b-4278-b1e0-40569ae5f4b2</t>
   </si>
   <si>
-    <t>Amitrajit Das</t>
-  </si>
-  <si>
-    <t>amitrajitdas31@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 11:29:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ee39e23e-6ddf-4aaf-8ba3-68672fc603d5</t>
-  </si>
-  <si>
     <t>Sukanya Bhattacharya</t>
   </si>
   <si>
@@ -2803,18 +2857,6 @@
     <t>https://google.qwiklabs.com/public_profiles/74b517a5-d472-4828-acd2-74fe6a1c2ea0</t>
   </si>
   <si>
-    <t>Mrinmoy Polley</t>
-  </si>
-  <si>
-    <t>mrinmoypolley35@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 08:35:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
-  </si>
-  <si>
     <t>NIKHIL ISAAC</t>
   </si>
   <si>
@@ -3340,21 +3382,6 @@
     <t>https://google.qwiklabs.com/public_profiles/45a71dd2-720d-4ca3-98bb-ef814f423c58</t>
   </si>
   <si>
-    <t>AVULA ANIL KUMAR</t>
-  </si>
-  <si>
-    <t>anilavulaowk@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Rajiv Gandhi University of Knowledge Technologies - IIIT RK Valley,</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 15:13:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
-  </si>
-  <si>
     <t>DEBANJANA DOLAI</t>
   </si>
   <si>
@@ -3511,21 +3538,6 @@
     <t>https://www.qwiklabs.com/public_profiles/14d92742-6ec0-49b9-8c04-d9f0b85bed13</t>
   </si>
   <si>
-    <t>Palash Das</t>
-  </si>
-  <si>
-    <t>palashdas0076@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute Of Technology,Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:53:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/87e44214-6324-41b2-829c-addaf097b1c1</t>
-  </si>
-  <si>
     <t>Debapriya Mukherjee</t>
   </si>
   <si>
@@ -4346,18 +4358,6 @@
   </si>
   <si>
     <t>https://www.qwiklabs.com/public_profiles/8fb75e86-84b1-4e7b-81ad-f67a4cb2cbea</t>
-  </si>
-  <si>
-    <t>Waseem ud din Wani</t>
-  </si>
-  <si>
-    <t>waseemuddinwani@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 12:16:28 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/85a645ff-5094-49df-907a-5f09e384b788</t>
   </si>
   <si>
     <t>ANIKET KUMAR DAS</t>
@@ -7503,7 +7503,7 @@
         <v>24.0</v>
       </c>
       <c r="H12" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -7526,10 +7526,10 @@
         <v>66</v>
       </c>
       <c r="G13" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H13" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
@@ -7552,10 +7552,10 @@
         <v>71</v>
       </c>
       <c r="G14" s="1">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H14" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -7581,7 +7581,7 @@
         <v>20.0</v>
       </c>
       <c r="H15" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
@@ -7644,33 +7644,33 @@
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1">
         <v>17.0</v>
       </c>
       <c r="H18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>93</v>
@@ -7685,7 +7685,7 @@
         <v>17.0</v>
       </c>
       <c r="H19" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
@@ -7696,33 +7696,33 @@
         <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H20" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>102</v>
@@ -7737,7 +7737,7 @@
         <v>16.0</v>
       </c>
       <c r="H21" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
@@ -7763,7 +7763,7 @@
         <v>16.0</v>
       </c>
       <c r="H22" s="1">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -7789,7 +7789,7 @@
         <v>16.0</v>
       </c>
       <c r="H23" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
@@ -7815,7 +7815,7 @@
         <v>16.0</v>
       </c>
       <c r="H24" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
@@ -7878,7 +7878,7 @@
         <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>131</v>
@@ -7893,7 +7893,7 @@
         <v>15.0</v>
       </c>
       <c r="H27" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="28">
@@ -7904,16 +7904,16 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G28" s="1">
         <v>15.0</v>
@@ -7924,13 +7924,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>140</v>
@@ -7942,10 +7942,10 @@
         <v>141</v>
       </c>
       <c r="G29" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H29" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="30">
@@ -7971,7 +7971,7 @@
         <v>14.0</v>
       </c>
       <c r="H30" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -7997,7 +7997,7 @@
         <v>14.0</v>
       </c>
       <c r="H31" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="32">
@@ -8034,33 +8034,33 @@
         <v>156</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H33" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>162</v>
@@ -8075,7 +8075,7 @@
         <v>12.0</v>
       </c>
       <c r="H34" s="1">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -8098,10 +8098,10 @@
         <v>168</v>
       </c>
       <c r="G35" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H35" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -8112,33 +8112,33 @@
         <v>170</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="G36" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H36" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>176</v>
@@ -8153,7 +8153,7 @@
         <v>11.0</v>
       </c>
       <c r="H37" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -8176,10 +8176,10 @@
         <v>182</v>
       </c>
       <c r="G38" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H38" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -8205,7 +8205,7 @@
         <v>10.0</v>
       </c>
       <c r="H39" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
@@ -8231,7 +8231,7 @@
         <v>10.0</v>
       </c>
       <c r="H40" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="41">
@@ -8257,7 +8257,7 @@
         <v>10.0</v>
       </c>
       <c r="H41" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="42">
@@ -8268,68 +8268,68 @@
         <v>199</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G42" s="1">
         <v>10.0</v>
       </c>
       <c r="H42" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G43" s="1">
         <v>10.0</v>
       </c>
       <c r="H43" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G44" s="1">
         <v>10.0</v>
@@ -8340,39 +8340,39 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G45" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H45" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>219</v>
@@ -8384,10 +8384,10 @@
         <v>220</v>
       </c>
       <c r="G46" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H46" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -8673,7 +8673,7 @@
         <v>8.0</v>
       </c>
       <c r="H57" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -8699,7 +8699,7 @@
         <v>8.0</v>
       </c>
       <c r="H58" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
@@ -8710,33 +8710,33 @@
         <v>281</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G59" s="1">
         <v>8.0</v>
       </c>
       <c r="H59" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>287</v>
@@ -8751,7 +8751,7 @@
         <v>8.0</v>
       </c>
       <c r="H60" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -8762,85 +8762,85 @@
         <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G61" s="1">
         <v>8.0</v>
       </c>
       <c r="H61" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G62" s="1">
         <v>8.0</v>
       </c>
       <c r="H62" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G63" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H63" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>304</v>
@@ -8855,7 +8855,7 @@
         <v>7.0</v>
       </c>
       <c r="H64" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -8881,7 +8881,7 @@
         <v>7.0</v>
       </c>
       <c r="H65" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -8907,7 +8907,7 @@
         <v>7.0</v>
       </c>
       <c r="H66" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -8918,16 +8918,16 @@
         <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G67" s="1">
         <v>7.0</v>
@@ -8938,13 +8938,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>323</v>
@@ -8959,7 +8959,7 @@
         <v>7.0</v>
       </c>
       <c r="H68" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -8996,33 +8996,33 @@
         <v>331</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G70" s="1">
         <v>7.0</v>
       </c>
       <c r="H70" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>337</v>
@@ -9034,10 +9034,10 @@
         <v>338</v>
       </c>
       <c r="G71" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H71" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -9060,10 +9060,10 @@
         <v>343</v>
       </c>
       <c r="G72" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H72" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -9086,10 +9086,10 @@
         <v>348</v>
       </c>
       <c r="G73" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H73" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -9100,120 +9100,120 @@
         <v>350</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G74" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H74" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H74" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G75" s="1">
         <v>6.0</v>
       </c>
       <c r="H75" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G76" s="1">
         <v>6.0</v>
       </c>
       <c r="H76" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G77" s="1">
         <v>6.0</v>
       </c>
       <c r="H77" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G78" s="1">
         <v>6.0</v>
@@ -9224,13 +9224,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>373</v>
@@ -9245,7 +9245,7 @@
         <v>6.0</v>
       </c>
       <c r="H79" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -9268,7 +9268,7 @@
         <v>379</v>
       </c>
       <c r="G80" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H80" s="1">
         <v>5.0</v>
@@ -9294,7 +9294,7 @@
         <v>384</v>
       </c>
       <c r="G81" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H81" s="1">
         <v>0.0</v>
@@ -9308,172 +9308,172 @@
         <v>386</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>190</v>
+        <v>387</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G82" s="1">
         <v>5.0</v>
       </c>
       <c r="H82" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
+        <v>392</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G83" s="1">
         <v>5.0</v>
       </c>
       <c r="H83" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
       </c>
       <c r="H84" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>399</v>
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G85" s="1">
         <v>5.0</v>
       </c>
       <c r="H85" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G86" s="1">
         <v>5.0</v>
       </c>
       <c r="H86" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G87" s="1">
         <v>5.0</v>
       </c>
       <c r="H87" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>414</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G88" s="1">
         <v>5.0</v>
@@ -9484,22 +9484,22 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G89" s="1">
         <v>5.0</v>
@@ -9510,117 +9510,117 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>422</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G90" s="1">
         <v>5.0</v>
       </c>
       <c r="H90" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G91" s="1">
         <v>5.0</v>
       </c>
       <c r="H91" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G92" s="1">
         <v>5.0</v>
       </c>
       <c r="H92" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>435</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G93" s="1">
         <v>5.0</v>
       </c>
       <c r="H93" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>441</v>
@@ -9635,7 +9635,7 @@
         <v>5.0</v>
       </c>
       <c r="H94" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -9672,33 +9672,33 @@
         <v>449</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G96" s="1">
         <v>5.0</v>
       </c>
       <c r="H96" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>455</v>
@@ -9710,10 +9710,10 @@
         <v>456</v>
       </c>
       <c r="G97" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H97" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -9724,19 +9724,19 @@
         <v>458</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>459</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G98" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H98" s="1">
         <v>3.0</v>
@@ -9744,13 +9744,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>464</v>
@@ -9762,10 +9762,10 @@
         <v>465</v>
       </c>
       <c r="G99" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H99" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -9788,10 +9788,10 @@
         <v>469</v>
       </c>
       <c r="G100" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H100" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="101">
@@ -9802,7 +9802,7 @@
         <v>471</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>472</v>
@@ -9814,10 +9814,10 @@
         <v>473</v>
       </c>
       <c r="G101" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H101" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="102">
@@ -9828,16 +9828,16 @@
         <v>475</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G102" s="1">
         <v>4.0</v>
@@ -9848,13 +9848,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>481</v>
@@ -9866,10 +9866,10 @@
         <v>482</v>
       </c>
       <c r="G103" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H103" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="104">
@@ -9880,45 +9880,45 @@
         <v>484</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>16</v>
+        <v>485</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G104" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H104" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G105" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H105" s="1">
         <v>3.0</v>
@@ -9926,74 +9926,74 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G106" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H106" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G107" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H107" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>504</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G108" s="1">
         <v>3.0</v>
@@ -10004,65 +10004,65 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>507</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G109" s="1">
         <v>3.0</v>
       </c>
       <c r="H109" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
       </c>
       <c r="H110" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>517</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>518</v>
@@ -10077,7 +10077,7 @@
         <v>3.0</v>
       </c>
       <c r="H111" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="112">
@@ -10108,13 +10108,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>366</v>
+        <v>525</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>526</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>527</v>
@@ -10129,7 +10129,7 @@
         <v>3.0</v>
       </c>
       <c r="H113" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="114">
@@ -10140,27 +10140,27 @@
         <v>530</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G114" s="1">
         <v>3.0</v>
       </c>
       <c r="H114" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>533</v>
+        <v>371</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>534</v>
@@ -10181,7 +10181,7 @@
         <v>3.0</v>
       </c>
       <c r="H115" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
@@ -10204,10 +10204,10 @@
         <v>542</v>
       </c>
       <c r="G116" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H116" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
@@ -10259,7 +10259,7 @@
         <v>2.0</v>
       </c>
       <c r="H118" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -10270,42 +10270,42 @@
         <v>554</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>213</v>
+        <v>555</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G119" s="1">
         <v>2.0</v>
       </c>
       <c r="H119" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G120" s="1">
         <v>2.0</v>
@@ -10316,13 +10316,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>563</v>
+        <v>223</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>564</v>
@@ -10363,7 +10363,7 @@
         <v>2.0</v>
       </c>
       <c r="H122" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -10389,7 +10389,7 @@
         <v>2.0</v>
       </c>
       <c r="H123" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -10400,42 +10400,42 @@
         <v>577</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>190</v>
+        <v>578</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G124" s="1">
         <v>2.0</v>
       </c>
       <c r="H124" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G125" s="1">
         <v>2.0</v>
@@ -10446,48 +10446,48 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G126" s="1">
         <v>2.0</v>
       </c>
       <c r="H126" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G127" s="1">
         <v>2.0</v>
@@ -10498,13 +10498,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>595</v>
+        <v>126</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>596</v>
@@ -10530,146 +10530,146 @@
         <v>599</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>313</v>
+        <v>600</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G129" s="1">
         <v>2.0</v>
       </c>
       <c r="H129" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G130" s="1">
         <v>2.0</v>
       </c>
       <c r="H130" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>16</v>
+        <v>610</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G131" s="1">
         <v>2.0</v>
       </c>
       <c r="H131" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G132" s="1">
         <v>2.0</v>
       </c>
       <c r="H132" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>618</v>
+        <v>327</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G133" s="1">
         <v>2.0</v>
       </c>
       <c r="H133" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G134" s="1">
         <v>2.0</v>
@@ -10680,13 +10680,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>628</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>629</v>
@@ -10701,7 +10701,7 @@
         <v>2.0</v>
       </c>
       <c r="H135" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -10727,7 +10727,7 @@
         <v>2.0</v>
       </c>
       <c r="H136" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="137">
@@ -10753,7 +10753,7 @@
         <v>2.0</v>
       </c>
       <c r="H137" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -10764,16 +10764,16 @@
         <v>642</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
@@ -10784,22 +10784,22 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G139" s="1">
         <v>2.0</v>
@@ -10810,48 +10810,48 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G140" s="1">
         <v>2.0</v>
       </c>
       <c r="H140" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
@@ -10862,282 +10862,282 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>435</v>
+        <v>573</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
       </c>
       <c r="H142" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>404</v>
+        <v>667</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G143" s="1">
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G144" s="1">
         <v>2.0</v>
       </c>
       <c r="H144" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>16</v>
+        <v>677</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G145" s="1">
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>679</v>
+        <v>445</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G146" s="1">
         <v>2.0</v>
       </c>
       <c r="H146" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G147" s="1">
         <v>2.0</v>
       </c>
       <c r="H147" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>688</v>
+        <v>419</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G149" s="1">
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G150" s="1">
         <v>2.0</v>
       </c>
       <c r="H150" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G151" s="1">
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>706</v>
+        <v>16</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G152" s="1">
         <v>2.0</v>
@@ -11148,48 +11148,48 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>16</v>
+        <v>712</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G153" s="1">
         <v>2.0</v>
       </c>
       <c r="H153" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G154" s="1">
         <v>2.0</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>720</v>
+        <v>16</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>721</v>
@@ -11221,7 +11221,7 @@
         <v>2.0</v>
       </c>
       <c r="H155" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="156">
@@ -11232,7 +11232,7 @@
         <v>724</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>725</v>
@@ -11247,7 +11247,7 @@
         <v>2.0</v>
       </c>
       <c r="H156" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="157">
@@ -11258,19 +11258,19 @@
         <v>728</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>16</v>
+        <v>729</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G157" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H157" s="1">
         <v>0.0</v>
@@ -11278,25 +11278,25 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>16</v>
+        <v>734</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G158" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H158" s="1">
         <v>0.0</v>
@@ -11304,25 +11304,25 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G159" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H159" s="1">
         <v>0.0</v>
@@ -11330,51 +11330,51 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>16</v>
+        <v>743</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="G160" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H160" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>411</v>
+        <v>746</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>204</v>
+        <v>748</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G161" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H161" s="1">
         <v>0.0</v>
@@ -11382,25 +11382,25 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>748</v>
+        <v>126</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G162" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H162" s="1">
         <v>0.0</v>
@@ -11408,22 +11408,22 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G163" s="1">
         <v>1.0</v>
@@ -11434,22 +11434,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>758</v>
+        <v>16</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G164" s="1">
         <v>1.0</v>
@@ -11460,39 +11460,39 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>763</v>
+        <v>16</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G165" s="1">
         <v>1.0</v>
       </c>
       <c r="H165" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>768</v>
+        <v>16</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>769</v>
@@ -11512,91 +11512,91 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="E167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="G167" s="1">
         <v>1.0</v>
       </c>
       <c r="H167" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="G168" s="1">
         <v>1.0</v>
       </c>
       <c r="H168" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="G169" s="1">
         <v>1.0</v>
       </c>
       <c r="H169" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>787</v>
@@ -11637,7 +11637,7 @@
         <v>1.0</v>
       </c>
       <c r="H171" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="172">
@@ -11689,7 +11689,7 @@
         <v>1.0</v>
       </c>
       <c r="H173" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="174">
@@ -11700,7 +11700,7 @@
         <v>805</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>604</v>
+        <v>786</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>806</v>
@@ -11715,7 +11715,7 @@
         <v>1.0</v>
       </c>
       <c r="H174" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
@@ -11752,7 +11752,7 @@
         <v>814</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>758</v>
+        <v>74</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>815</v>
@@ -11804,42 +11804,42 @@
         <v>823</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="G178" s="1">
         <v>1.0</v>
       </c>
       <c r="H178" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="G179" s="1">
         <v>1.0</v>
@@ -11850,48 +11850,48 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="G180" s="1">
         <v>1.0</v>
       </c>
       <c r="H180" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="E181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="G181" s="1">
         <v>1.0</v>
@@ -11902,22 +11902,22 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="G182" s="1">
         <v>1.0</v>
@@ -11928,13 +11928,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>848</v>
@@ -11949,7 +11949,7 @@
         <v>1.0</v>
       </c>
       <c r="H183" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -11960,16 +11960,16 @@
         <v>851</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>522</v>
+        <v>852</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G184" s="1">
         <v>1.0</v>
@@ -11980,22 +11980,22 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G185" s="1">
         <v>1.0</v>
@@ -12006,13 +12006,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>861</v>
+        <v>16</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>862</v>
@@ -12027,7 +12027,7 @@
         <v>1.0</v>
       </c>
       <c r="H186" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -12053,7 +12053,7 @@
         <v>1.0</v>
       </c>
       <c r="H187" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="188">
@@ -12064,7 +12064,7 @@
         <v>869</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>758</v>
+        <v>531</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>870</v>
@@ -12079,7 +12079,7 @@
         <v>1.0</v>
       </c>
       <c r="H188" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
@@ -12116,120 +12116,120 @@
         <v>878</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="G190" s="1">
         <v>1.0</v>
       </c>
       <c r="H190" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="G191" s="1">
         <v>1.0</v>
       </c>
       <c r="H191" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="G192" s="1">
         <v>1.0</v>
       </c>
       <c r="H192" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="G193" s="1">
         <v>1.0</v>
       </c>
       <c r="H193" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="E194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="G194" s="1">
         <v>1.0</v>
@@ -12240,22 +12240,22 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="E195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="G195" s="1">
         <v>1.0</v>
@@ -12266,48 +12266,48 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="E196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="G196" s="1">
         <v>1.0</v>
       </c>
       <c r="H196" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="E197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="G197" s="1">
         <v>1.0</v>
@@ -12318,48 +12318,48 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="G198" s="1">
         <v>1.0</v>
       </c>
       <c r="H198" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="G199" s="1">
         <v>1.0</v>
@@ -12370,39 +12370,39 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="G200" s="1">
         <v>1.0</v>
       </c>
       <c r="H200" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>932</v>
@@ -12417,7 +12417,7 @@
         <v>1.0</v>
       </c>
       <c r="H201" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
@@ -12443,7 +12443,7 @@
         <v>1.0</v>
       </c>
       <c r="H202" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="203">
@@ -12454,7 +12454,7 @@
         <v>940</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>941</v>
@@ -12469,7 +12469,7 @@
         <v>1.0</v>
       </c>
       <c r="H203" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -12506,68 +12506,68 @@
         <v>949</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>16</v>
+        <v>950</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G205" s="1">
         <v>1.0</v>
       </c>
       <c r="H205" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>804</v>
+        <v>953</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>604</v>
+        <v>445</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G206" s="1">
         <v>1.0</v>
       </c>
       <c r="H206" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>16</v>
+        <v>959</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="G207" s="1">
         <v>1.0</v>
@@ -12578,22 +12578,22 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>961</v>
+        <v>16</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G208" s="1">
         <v>1.0</v>
@@ -12604,51 +12604,51 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>964</v>
+        <v>822</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>213</v>
+        <v>624</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G209" s="1">
         <v>1.0</v>
       </c>
       <c r="H209" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G210" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H210" s="1">
         <v>0.0</v>
@@ -12656,25 +12656,25 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G211" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H211" s="1">
         <v>0.0</v>
@@ -12682,13 +12682,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>979</v>
+        <v>185</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>980</v>
@@ -12700,10 +12700,10 @@
         <v>981</v>
       </c>
       <c r="G212" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H212" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="213">
@@ -12714,7 +12714,7 @@
         <v>983</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>984</v>
@@ -12740,16 +12740,16 @@
         <v>987</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>16</v>
+        <v>988</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G214" s="1">
         <v>0.0</v>
@@ -12760,22 +12760,22 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>16</v>
+        <v>993</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G215" s="1">
         <v>0.0</v>
@@ -12786,22 +12786,22 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G216" s="1">
         <v>0.0</v>
@@ -12812,22 +12812,22 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="G217" s="1">
         <v>0.0</v>
@@ -12838,22 +12838,22 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>701</v>
+        <v>16</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="G218" s="1">
         <v>0.0</v>
@@ -12864,22 +12864,22 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G219" s="1">
         <v>0.0</v>
@@ -12890,22 +12890,22 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G220" s="1">
         <v>0.0</v>
@@ -12916,22 +12916,22 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>16</v>
+        <v>729</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G221" s="1">
         <v>0.0</v>
@@ -12942,22 +12942,22 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1019</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G222" s="1">
         <v>0.0</v>
@@ -12968,22 +12968,22 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G223" s="1">
         <v>0.0</v>
@@ -12994,22 +12994,22 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>202</v>
+        <v>1027</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>810</v>
+        <v>16</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G224" s="1">
         <v>0.0</v>
@@ -13020,22 +13020,22 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="G225" s="1">
         <v>0.0</v>
@@ -13046,22 +13046,22 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1036</v>
+        <v>16</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G226" s="1">
         <v>0.0</v>
@@ -13072,22 +13072,22 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>1039</v>
+        <v>212</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="G227" s="1">
         <v>0.0</v>
@@ -13098,22 +13098,22 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="G228" s="1">
         <v>0.0</v>
@@ -13124,13 +13124,13 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1051</v>
@@ -13156,16 +13156,16 @@
         <v>1054</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>758</v>
+        <v>1055</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G230" s="1">
         <v>0.0</v>
@@ -13176,22 +13176,22 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>563</v>
+        <v>1060</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G231" s="1">
         <v>0.0</v>
@@ -13202,22 +13202,22 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G232" s="1">
         <v>0.0</v>
@@ -13228,22 +13228,22 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>16</v>
+        <v>786</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G233" s="1">
         <v>0.0</v>
@@ -13254,22 +13254,22 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1071</v>
+        <v>568</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G234" s="1">
         <v>0.0</v>
@@ -13280,13 +13280,13 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1076</v>
+        <v>16</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>1077</v>
@@ -13312,7 +13312,7 @@
         <v>1080</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1081</v>
@@ -13364,16 +13364,16 @@
         <v>1089</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>277</v>
+        <v>1090</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G238" s="1">
         <v>0.0</v>
@@ -13384,22 +13384,22 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>576</v>
+        <v>1093</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>763</v>
+        <v>195</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G239" s="1">
         <v>0.0</v>
@@ -13410,22 +13410,22 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="G240" s="1">
         <v>0.0</v>
@@ -13436,22 +13436,22 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1102</v>
+        <v>282</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="G241" s="1">
         <v>0.0</v>
@@ -13462,13 +13462,13 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>1105</v>
+        <v>581</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>16</v>
+        <v>791</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1107</v>
@@ -13546,16 +13546,16 @@
         <v>1120</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="G245" s="1">
         <v>0.0</v>
@@ -13566,22 +13566,22 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="G246" s="1">
         <v>0.0</v>
@@ -13592,13 +13592,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1131</v>
@@ -13618,22 +13618,22 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>67</v>
+        <v>1133</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>69</v>
+        <v>1135</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G248" s="1">
         <v>0.0</v>
@@ -13644,22 +13644,22 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>763</v>
+        <v>200</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G249" s="1">
         <v>0.0</v>
@@ -13670,19 +13670,19 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>1140</v>
+        <v>72</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>810</v>
+        <v>74</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1143</v>
+        <v>12</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>1144</v>
@@ -13702,7 +13702,7 @@
         <v>1146</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1147</v>
@@ -13728,16 +13728,16 @@
         <v>1150</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>16</v>
+        <v>828</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>12</v>
+        <v>1152</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G252" s="1">
         <v>0.0</v>
@@ -13748,22 +13748,22 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>166</v>
+        <v>801</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1143</v>
+        <v>12</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="G253" s="1">
         <v>0.0</v>
@@ -13774,22 +13774,22 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G254" s="1">
         <v>0.0</v>
@@ -13800,19 +13800,19 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1163</v>
+        <v>175</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>12</v>
+        <v>1152</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>1165</v>
@@ -13832,16 +13832,16 @@
         <v>1167</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="2" t="s">
         <v>1169</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>1170</v>
       </c>
       <c r="G256" s="1">
         <v>0.0</v>
@@ -13852,13 +13852,13 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1173</v>
@@ -13884,16 +13884,16 @@
         <v>1176</v>
       </c>
       <c r="C258" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="G258" s="1">
         <v>0.0</v>
@@ -13904,13 +13904,13 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1182</v>
@@ -13936,7 +13936,7 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>190</v>
+        <v>828</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13962,16 +13962,16 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>1192</v>
       </c>
       <c r="G261" s="1">
         <v>0.0</v>
@@ -13982,13 +13982,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1195</v>
@@ -14014,16 +14014,16 @@
         <v>1198</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="G263" s="1">
         <v>0.0</v>
@@ -14034,22 +14034,22 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>1205</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>1206</v>
       </c>
       <c r="G264" s="1">
         <v>0.0</v>
@@ -14060,19 +14060,19 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1143</v>
+        <v>12</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>1210</v>
@@ -14086,22 +14086,22 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>1166</v>
+        <v>1211</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G266" s="1">
         <v>0.0</v>
@@ -14112,22 +14112,22 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>1214</v>
+        <v>831</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C267" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>1218</v>
       </c>
       <c r="G267" s="1">
         <v>0.0</v>
@@ -14138,22 +14138,22 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="G268" s="1">
         <v>0.0</v>
@@ -14164,13 +14164,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1226</v>
@@ -14196,7 +14196,7 @@
         <v>1229</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>701</v>
+        <v>16</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1230</v>
@@ -14222,7 +14222,7 @@
         <v>1233</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>16</v>
+        <v>729</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1234</v>
@@ -14248,16 +14248,16 @@
         <v>1237</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272" s="2" t="s">
         <v>1239</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>1240</v>
       </c>
       <c r="G272" s="1">
         <v>0.0</v>
@@ -14268,22 +14268,22 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="G273" s="1">
         <v>0.0</v>
@@ -14294,13 +14294,13 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1248</v>
@@ -14378,7 +14378,7 @@
         <v>1259</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1260</v>
@@ -14404,16 +14404,16 @@
         <v>1263</v>
       </c>
       <c r="C278" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>1265</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>1210</v>
       </c>
       <c r="G278" s="1">
         <v>0.0</v>
@@ -14430,16 +14430,16 @@
         <v>1267</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>16</v>
+        <v>1268</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>12</v>
+        <v>1152</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1269</v>
+        <v>1214</v>
       </c>
       <c r="G279" s="1">
         <v>0.0</v>
@@ -14456,16 +14456,16 @@
         <v>1271</v>
       </c>
       <c r="C280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" s="2" t="s">
         <v>1273</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>1274</v>
       </c>
       <c r="G280" s="1">
         <v>0.0</v>
@@ -14476,13 +14476,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1277</v>
@@ -14508,7 +14508,7 @@
         <v>1280</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1281</v>
@@ -14534,16 +14534,16 @@
         <v>1284</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>1287</v>
       </c>
       <c r="G283" s="1">
         <v>0.0</v>
@@ -14554,22 +14554,22 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="2" t="s">
         <v>1291</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>1292</v>
       </c>
       <c r="G284" s="1">
         <v>0.0</v>
@@ -14580,13 +14580,13 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1295</v>
@@ -14638,16 +14638,16 @@
         <v>1302</v>
       </c>
       <c r="C287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>1304</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>1305</v>
       </c>
       <c r="G287" s="1">
         <v>0.0</v>
@@ -14658,19 +14658,19 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>12</v>
+        <v>1152</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>1309</v>
@@ -14690,7 +14690,7 @@
         <v>1311</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>856</v>
+        <v>16</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1312</v>
@@ -14716,16 +14716,16 @@
         <v>1315</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>1318</v>
       </c>
       <c r="G290" s="1">
         <v>0.0</v>
@@ -14736,13 +14736,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>1320</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1321</v>
@@ -14768,7 +14768,7 @@
         <v>1324</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>190</v>
+        <v>513</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1325</v>
@@ -14788,22 +14788,22 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>320</v>
+        <v>1327</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>322</v>
+        <v>200</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G293" s="1">
         <v>0.0</v>
@@ -14814,13 +14814,13 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>1330</v>
+        <v>334</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>1331</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>522</v>
+        <v>336</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>1332</v>
@@ -14846,7 +14846,7 @@
         <v>1335</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>16</v>
+        <v>531</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>1336</v>
@@ -14872,16 +14872,16 @@
         <v>1339</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" s="2" t="s">
         <v>1341</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>1342</v>
       </c>
       <c r="G296" s="1">
         <v>0.0</v>
@@ -14892,22 +14892,22 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" s="2" t="s">
         <v>1346</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>1347</v>
       </c>
       <c r="G297" s="1">
         <v>0.0</v>
@@ -14918,22 +14918,22 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>1352</v>
       </c>
       <c r="G298" s="1">
         <v>0.0</v>
@@ -14944,13 +14944,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1355</v>
@@ -14970,22 +14970,22 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1350</v>
+        <v>45</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G300" s="1">
         <v>0.0</v>
@@ -14996,13 +14996,13 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>1361</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>595</v>
+        <v>1354</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1362</v>
@@ -15028,16 +15028,16 @@
         <v>1365</v>
       </c>
       <c r="C302" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>1368</v>
       </c>
       <c r="G302" s="1">
         <v>0.0</v>
@@ -15048,13 +15048,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1371</v>
@@ -15158,16 +15158,16 @@
         <v>1386</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" s="2" t="s">
         <v>1388</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>1389</v>
       </c>
       <c r="G307" s="1">
         <v>0.0</v>
@@ -15178,19 +15178,19 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>12</v>
+        <v>1152</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>1393</v>
@@ -15210,7 +15210,7 @@
         <v>1395</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>1396</v>
@@ -15236,7 +15236,7 @@
         <v>1399</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1400</v>
@@ -15262,16 +15262,16 @@
         <v>1403</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" s="2" t="s">
         <v>1405</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>1406</v>
       </c>
       <c r="G311" s="1">
         <v>0.0</v>
@@ -15282,13 +15282,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>1408</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1409</v>
@@ -15314,7 +15314,7 @@
         <v>1412</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>16</v>
+        <v>857</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1413</v>
@@ -15340,7 +15340,7 @@
         <v>1416</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1417</v>
@@ -15366,16 +15366,16 @@
         <v>1420</v>
       </c>
       <c r="C315" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315" s="2" t="s">
         <v>1422</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>1423</v>
       </c>
       <c r="G315" s="1">
         <v>0.0</v>
@@ -15386,13 +15386,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1426</v>
@@ -15496,16 +15496,16 @@
         <v>1441</v>
       </c>
       <c r="C320" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="2" t="s">
         <v>1443</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>1444</v>
       </c>
       <c r="G320" s="1">
         <v>0.0</v>
@@ -15516,13 +15516,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1447</v>
@@ -15574,7 +15574,7 @@
         <v>1455</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>1456</v>
@@ -15600,7 +15600,7 @@
         <v>1459</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>512</v>
+        <v>382</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>1460</v>
@@ -15672,13 +15672,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1472</v>
@@ -15756,7 +15756,7 @@
         <v>1485</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1486</v>
@@ -15860,7 +15860,7 @@
         <v>1504</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1505</v>
@@ -16022,7 +16022,7 @@
         <v>1532</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>1533</v>
@@ -16166,7 +16166,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1556</v>
@@ -16276,7 +16276,7 @@
         <v>1573</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>1574</v>
@@ -16354,7 +16354,7 @@
         <v>1585</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1586</v>
@@ -16458,7 +16458,7 @@
         <v>1604</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1605</v>
@@ -16510,7 +16510,7 @@
         <v>1612</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>1613</v>
@@ -16660,13 +16660,13 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>1639</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>1640</v>
@@ -17004,7 +17004,7 @@
         <v>1700</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>1701</v>
@@ -17030,7 +17030,7 @@
         <v>1704</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>1705</v>
@@ -17134,7 +17134,7 @@
         <v>1722</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1723</v>
@@ -17238,7 +17238,7 @@
         <v>1740</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1741</v>
@@ -17258,7 +17258,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>1743</v>
@@ -17310,13 +17310,13 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1752</v>
@@ -17368,7 +17368,7 @@
         <v>1760</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1761</v>
@@ -17414,7 +17414,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1768</v>
@@ -17556,7 +17556,7 @@
         <v>1794</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>1795</v>
@@ -17654,7 +17654,7 @@
         <v>1811</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>1812</v>
@@ -17706,7 +17706,7 @@
         <v>1820</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1821</v>
@@ -17726,13 +17726,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1823</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1824</v>
@@ -17810,7 +17810,7 @@
         <v>1836</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>1837</v>
@@ -17894,7 +17894,7 @@
         <v>1851</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>1852</v>
@@ -17972,7 +17972,7 @@
         <v>1865</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>1866</v>
@@ -17992,7 +17992,7 @@
         <v>1868</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>1869</v>
@@ -18226,7 +18226,7 @@
         <v>1905</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>1906</v>
@@ -18272,13 +18272,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1912</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1913</v>
@@ -18330,7 +18330,7 @@
         <v>1921</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1922</v>
@@ -18616,7 +18616,7 @@
         <v>1969</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1970</v>
@@ -18674,7 +18674,7 @@
         <v>1979</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>1980</v>
@@ -18824,7 +18824,7 @@
         <v>2004</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>2005</v>
@@ -19136,7 +19136,7 @@
         <v>2061</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>512</v>
+        <v>382</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>2062</v>
@@ -19422,7 +19422,7 @@
         <v>2112</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>2113</v>
@@ -19448,7 +19448,7 @@
         <v>2116</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2117</v>
@@ -19474,7 +19474,7 @@
         <v>2120</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>2121</v>
@@ -19552,7 +19552,7 @@
         <v>2134</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2135</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>512</v>
+        <v>382</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19864,7 +19864,7 @@
         <v>2186</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>2187</v>
@@ -19922,7 +19922,7 @@
         <v>2196</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>2197</v>
@@ -19948,7 +19948,7 @@
         <v>2200</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>2201</v>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>2206</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20306,7 +20306,7 @@
         <v>2256</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>2257</v>
@@ -20468,7 +20468,7 @@
         <v>2282</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>2283</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20832,7 +20832,7 @@
         <v>2341</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>2342</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>
@@ -20988,10 +20988,10 @@
         <v>2368</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="G531" s="1">
         <v>0.0</v>
@@ -21313,8 +21313,8 @@
     <hyperlink r:id="rId283" ref="F284"/>
     <hyperlink r:id="rId284" ref="F285"/>
     <hyperlink r:id="rId285" ref="F286"/>
-    <hyperlink r:id="rId286" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F287"/>
-    <hyperlink r:id="rId287" ref="F288"/>
+    <hyperlink r:id="rId286" ref="F287"/>
+    <hyperlink r:id="rId287" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F288"/>
     <hyperlink r:id="rId288" ref="F289"/>
     <hyperlink r:id="rId289" ref="F290"/>
     <hyperlink r:id="rId290" ref="F291"/>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -115,6 +115,21 @@
     <t>https://google.qwiklabs.com/public_profiles/7382acdb-11d5-497d-b4d4-802ebb589e74</t>
   </si>
   <si>
+    <t>KAUSIK PAL</t>
+  </si>
+  <si>
+    <t>palkausik603@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] b.p.poddar institute of management and technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:06:05 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a4e66ae5-4f29-4774-bbae-1cf7d2a6112c</t>
+  </si>
+  <si>
     <t>DEBOSMITA BOSE</t>
   </si>
   <si>
@@ -130,6 +145,21 @@
     <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
   </si>
   <si>
+    <t>Vishwas Tyagi</t>
+  </si>
+  <si>
+    <t>vishwast8126@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meerut College, Meerut</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 14:04:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
+  </si>
+  <si>
     <t>SRINJOY PAL</t>
   </si>
   <si>
@@ -184,21 +214,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2c915a5f-a868-4dbe-bbe5-8eff68124015</t>
   </si>
   <si>
-    <t>KAUSIK PAL</t>
-  </si>
-  <si>
-    <t>palkausik603@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] b.p.poddar institute of management and technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:06:05 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a4e66ae5-4f29-4774-bbae-1cf7d2a6112c</t>
-  </si>
-  <si>
     <t>Gursharan Kaur</t>
   </si>
   <si>
@@ -214,21 +229,6 @@
     <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
   </si>
   <si>
-    <t>Vishwas Tyagi</t>
-  </si>
-  <si>
-    <t>vishwast8126@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meerut College, Meerut</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 14:04:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
-  </si>
-  <si>
     <t>Tanmoyee Roy</t>
   </si>
   <si>
@@ -256,6 +256,33 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
+    <t>Rohit Das</t>
+  </si>
+  <si>
+    <t>rohitdas2k@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India Saltlake</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
+  </si>
+  <si>
+    <t>Arunima Maiti</t>
+  </si>
+  <si>
+    <t>arunimamaity190@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:16:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
+  </si>
+  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -271,6 +298,18 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
+    <t>Raktim Roy</t>
+  </si>
+  <si>
+    <t>deepjoydrx@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
+  </si>
+  <si>
     <t>Ayan Pal</t>
   </si>
   <si>
@@ -286,18 +325,6 @@
     <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
   </si>
   <si>
-    <t>Arunima Maiti</t>
-  </si>
-  <si>
-    <t>arunimamaity190@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:16:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
-  </si>
-  <si>
     <t>Kishan Biswakarma</t>
   </si>
   <si>
@@ -325,21 +352,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
-    <t>Rohit Das</t>
-  </si>
-  <si>
-    <t>rohitdas2k@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India Saltlake</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
-  </si>
-  <si>
     <t>Harshit Goyal</t>
   </si>
   <si>
@@ -400,16 +412,19 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>Raktim Roy</t>
-  </si>
-  <si>
-    <t>deepjoydrx@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
+    <t>Akhil C Padmanabhan</t>
+  </si>
+  <si>
+    <t>techakhilc47@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NHPS</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
   </si>
   <si>
     <t>SUDIPTA ROY</t>
@@ -493,6 +508,33 @@
     <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
   </si>
   <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
+    <t>Utsav Vora</t>
+  </si>
+  <si>
+    <t>utsavvora2407@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+  </si>
+  <si>
     <t>Hritik Kumar Singh</t>
   </si>
   <si>
@@ -505,31 +547,19 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Akhil C Padmanabhan</t>
-  </si>
-  <si>
-    <t>techakhilc47@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NHPS</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
-  </si>
-  <si>
-    <t>Utsav Vora</t>
-  </si>
-  <si>
-    <t>utsavvora2407@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+    <t>Soham Saha</t>
+  </si>
+  <si>
+    <t>sahasoham01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
   </si>
   <si>
     <t>Swarnali Saha</t>
@@ -547,21 +577,6 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
-  </si>
-  <si>
     <t>Rohit Tewari</t>
   </si>
   <si>
@@ -577,21 +592,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
   </si>
   <si>
-    <t>Soham Saha</t>
-  </si>
-  <si>
-    <t>sahasoham01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
-  </si>
-  <si>
     <t>Rupankar Basak</t>
   </si>
   <si>
@@ -691,6 +691,36 @@
     <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
+    <t>Arkarup Saha</t>
+  </si>
+  <si>
+    <t>arkarups01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] RCC INSTITUE OF INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:04:26 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
+  </si>
+  <si>
+    <t>Anuja Singh</t>
+  </si>
+  <si>
+    <t>anujasingh2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
+  </si>
+  <si>
     <t>Raunak Kumar Sah</t>
   </si>
   <si>
@@ -736,6 +766,30 @@
     <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
+    <t>Ushasi Das</t>
+  </si>
+  <si>
+    <t>ushasidas05@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 21:15:30 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
+  </si>
+  <si>
+    <t>Mufaddal Vadnagarwala</t>
+  </si>
+  <si>
+    <t>mufaddalv@live.in</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:20:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
+  </si>
+  <si>
     <t>Rajesh Paswan</t>
   </si>
   <si>
@@ -793,21 +847,6 @@
     <t>https://www.qwiklabs.com/public_profiles/2b1dd0e2-5573-46cf-a0b2-ec8ae8ea1e7b</t>
   </si>
   <si>
-    <t>Anuja Singh</t>
-  </si>
-  <si>
-    <t>anujasingh2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
-  </si>
-  <si>
     <t>Manisha Bhowmik</t>
   </si>
   <si>
@@ -838,6 +877,48 @@
     <t>https://google.qwiklabs.com/public_profiles/6acb6c50-0258-44a6-a363-2ecdbfe33c2c</t>
   </si>
   <si>
+    <t>Adarsh Kumar</t>
+  </si>
+  <si>
+    <t>ak47adarsh01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Coochbehar Government Engineering College</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+  </si>
+  <si>
+    <t>Santanu Majee</t>
+  </si>
+  <si>
+    <t>santanumajee2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering &amp; Management Kolkata</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:19:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/0e0cd2f2-ed67-4c64-95ff-259699b273ce</t>
+  </si>
+  <si>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
+  </si>
+  <si>
     <t>Manshi Shaw</t>
   </si>
   <si>
@@ -895,28 +976,43 @@
     <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
-    <t>Ushasi Das</t>
-  </si>
-  <si>
-    <t>ushasidas05@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 21:15:30 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
-  </si>
-  <si>
-    <t>Mufaddal Vadnagarwala</t>
-  </si>
-  <si>
-    <t>mufaddalv@live.in</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:20:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
+    <t>Harshit Parwal</t>
+  </si>
+  <si>
+    <t>harshitparwal1999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
+  </si>
+  <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
   </si>
   <si>
     <t>Shiwangi Jaiswal</t>
@@ -931,21 +1027,6 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
-    <t>Arkarup Saha</t>
-  </si>
-  <si>
-    <t>arkarups01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] RCC INSTITUE OF INFORMATION TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:04:26 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
-  </si>
-  <si>
     <t>Arunima Dhar</t>
   </si>
   <si>
@@ -976,18 +1057,6 @@
     <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
   </si>
   <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Sweta Upadhyay</t>
   </si>
   <si>
@@ -1060,21 +1129,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
-    <t>Harshit Parwal</t>
-  </si>
-  <si>
-    <t>harshitparwal1999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1126,6 +1180,18 @@
     <t>https://google.qwiklabs.com/public_profiles/0acf7345-9678-41ec-8cab-fa16b1427941</t>
   </si>
   <si>
+    <t>Atreyo Mandal</t>
+  </si>
+  <si>
+    <t>atreyoarka1235@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:51:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
+  </si>
+  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -1138,6 +1204,21 @@
     <t>https://google.qwiklabs.com/public_profiles/d9903919-6296-40ce-99f4-0db8330263dc</t>
   </si>
   <si>
+    <t>Pralipto Ghosh</t>
+  </si>
+  <si>
+    <t>deep29.4.99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute Of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:55:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
+  </si>
+  <si>
     <t>Tanmoy Das</t>
   </si>
   <si>
@@ -1222,33 +1303,6 @@
     <t>https://google.qwiklabs.com/public_profiles/03b213db-e327-4a96-8f1e-be17b689997b</t>
   </si>
   <si>
-    <t>Santanu Majee</t>
-  </si>
-  <si>
-    <t>santanumajee2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering &amp; Management Kolkata</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:19:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/0e0cd2f2-ed67-4c64-95ff-259699b273ce</t>
-  </si>
-  <si>
-    <t>Atreyo Mandal</t>
-  </si>
-  <si>
-    <t>atreyoarka1235@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:51:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
-  </si>
-  <si>
     <t>Riju Sharma</t>
   </si>
   <si>
@@ -1303,19 +1357,19 @@
     <t>https://www.qwiklabs.com/public_profiles/277907ee-a444-4c1e-a089-66975fa5c78c</t>
   </si>
   <si>
-    <t>Pralipto Ghosh</t>
-  </si>
-  <si>
-    <t>deep29.4.99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute Of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:55:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
+    <t>ANUVAB DUTTA</t>
+  </si>
+  <si>
+    <t>anuvabduttaatwork@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] VIT Vellore</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
     <t>Samrat Ganguly</t>
@@ -1411,43 +1465,19 @@
     <t>https://google.qwiklabs.com/public_profiles/0673429e-9f55-4010-862d-7d4c76862e61</t>
   </si>
   <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
-    <t>Adarsh Kumar</t>
-  </si>
-  <si>
-    <t>ak47adarsh01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Coochbehar Government Engineering College</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
     <t>Daita sur</t>
@@ -1462,21 +1492,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
   </si>
   <si>
-    <t>ANUVAB DUTTA</t>
-  </si>
-  <si>
-    <t>anuvabduttaatwork@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] VIT Vellore</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
-  </si>
-  <si>
     <t>ANUSHA CHATTERJEE</t>
   </si>
   <si>
@@ -1504,21 +1519,6 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
     <t>Rishabh Shrivastava</t>
   </si>
   <si>
@@ -1534,6 +1534,36 @@
     <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
   </si>
   <si>
+    <t>Sneha M</t>
+  </si>
+  <si>
+    <t>sneha24102000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management , Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 16:19:45 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
+  </si>
+  <si>
+    <t>Subhasis Das</t>
+  </si>
+  <si>
+    <t>subhasis.dnt2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Aditya College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
+  </si>
+  <si>
     <t>Shashwat Pandey</t>
   </si>
   <si>
@@ -1546,6 +1576,48 @@
     <t>https://google.qwiklabs.com/public_profiles/789dc16a-62df-4489-96ba-f8a0139cdfc8</t>
   </si>
   <si>
+    <t>Supritha Ravishankar</t>
+  </si>
+  <si>
+    <t>supri161@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.AIT</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
+  </si>
+  <si>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+  </si>
+  <si>
+    <t>Sahib pratap singh</t>
+  </si>
+  <si>
+    <t>sahibpratap@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kurukshetra University</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 06:12:02 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
+  </si>
+  <si>
     <t>Riya Teri</t>
   </si>
   <si>
@@ -1561,6 +1633,21 @@
     <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
   </si>
   <si>
+    <t>Aman Chowdhury</t>
+  </si>
+  <si>
+    <t>amanchowdhury046@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
+  </si>
+  <si>
     <t>SHAMS TABREZ</t>
   </si>
   <si>
@@ -1600,6 +1687,30 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
+    <t>PRIYAM CHATTORAJ</t>
+  </si>
+  <si>
+    <t>priyamchattoraj1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
+  </si>
+  <si>
+    <t>Mrinmoy Polley</t>
+  </si>
+  <si>
+    <t>mrinmoypolley35@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 08:35:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
+  </si>
+  <si>
     <t>Jayprakash Shadanan Bhure</t>
   </si>
   <si>
@@ -1672,21 +1783,6 @@
     <t>https://www.qwiklabs.com/public_profiles/5c0a0f6b-1d54-43fa-ac7f-95e5c5f29008</t>
   </si>
   <si>
-    <t>Sneha M</t>
-  </si>
-  <si>
-    <t>sneha24102000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management , Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 16:19:45 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
-  </si>
-  <si>
     <t>Aritri Dey</t>
   </si>
   <si>
@@ -1741,21 +1837,6 @@
     <t>https://google.qwiklabs.com/public_profiles/cce3aee2-73c9-4f55-bdd1-06bf43d50bdb</t>
   </si>
   <si>
-    <t>Subhasis Das</t>
-  </si>
-  <si>
-    <t>subhasis.dnt2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Aditya College of Engineering and Technology</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
-  </si>
-  <si>
     <t>Hasibul Islam</t>
   </si>
   <si>
@@ -1780,48 +1861,6 @@
     <t>https://google.qwiklabs.com/public_profiles/e6f89737-b8a5-438e-aa30-3f30f4a6d6ff</t>
   </si>
   <si>
-    <t>Supritha Ravishankar</t>
-  </si>
-  <si>
-    <t>supri161@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.AIT</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
-  </si>
-  <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
-  </si>
-  <si>
-    <t>Sahib pratap singh</t>
-  </si>
-  <si>
-    <t>sahibpratap@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kurukshetra University</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 06:12:02 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
-  </si>
-  <si>
     <t>Raveena Bhasin</t>
   </si>
   <si>
@@ -1852,21 +1891,6 @@
     <t>https://google.qwiklabs.com/public_profiles/21703a9a-6cb5-4ac3-85f6-9c4b7d494bd2</t>
   </si>
   <si>
-    <t>Aman Chowdhury</t>
-  </si>
-  <si>
-    <t>amanchowdhury046@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute of Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
-  </si>
-  <si>
     <t>Arkya Santra</t>
   </si>
   <si>
@@ -2053,18 +2077,6 @@
     <t>https://google.qwiklabs.com/public_profiles/63320b31-705b-46ad-a46c-604acec81529</t>
   </si>
   <si>
-    <t>PRIYAM CHATTORAJ</t>
-  </si>
-  <si>
-    <t>priyamchattoraj1234@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
-  </si>
-  <si>
     <t>Amitrajit Das</t>
   </si>
   <si>
@@ -2170,18 +2182,6 @@
     <t>https://google.qwiklabs.com/public_profiles/8322635b-7c50-43ee-b032-b60171f6d8e7</t>
   </si>
   <si>
-    <t>Mrinmoy Polley</t>
-  </si>
-  <si>
-    <t>mrinmoypolley35@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 08:35:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
-  </si>
-  <si>
     <t>Aditya Navya Shukla</t>
   </si>
   <si>
@@ -2578,6 +2578,18 @@
     <t>https://www.qwiklabs.com/public_profiles/21772d60-6ac2-49a6-b329-7bdb2df99c32</t>
   </si>
   <si>
+    <t>Vinayak Binod Dhyani</t>
+  </si>
+  <si>
+    <t>vinay1d314@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:18:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7b09658e-396d-4d90-9026-40ce192f7c5a</t>
+  </si>
+  <si>
     <t>Tanisha Singh</t>
   </si>
   <si>
@@ -2740,6 +2752,21 @@
     <t>https://www.qwiklabs.com/public_profiles/a2d3731d-861b-4278-b1e0-40569ae5f4b2</t>
   </si>
   <si>
+    <t>Monalika</t>
+  </si>
+  <si>
+    <t>likamona16@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Maharaja Surajmal Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 00:37:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ce672e09-0a5f-4fe6-8777-3fc9a0b55f43</t>
+  </si>
+  <si>
     <t>Sukanya Bhattacharya</t>
   </si>
   <si>
@@ -4015,18 +4042,6 @@
     <t>https://www.qwiklabs.com/public_profiles/62884236-2695-4c55-927a-24ffeb9a131d</t>
   </si>
   <si>
-    <t>Vinayak Binod Dhyani</t>
-  </si>
-  <si>
-    <t>vinay1d314@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:18:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7b09658e-396d-4d90-9026-40ce192f7c5a</t>
-  </si>
-  <si>
     <t>Ayush Chowdhury</t>
   </si>
   <si>
@@ -5273,21 +5288,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/4fcf514c-531b-4082-bd85-179c205e5f84</t>
-  </si>
-  <si>
-    <t>Monalika</t>
-  </si>
-  <si>
-    <t>likamona16@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Maharaja Surajmal Institute Of Technology</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 00:37:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ce672e09-0a5f-4fe6-8777-3fc9a0b55f43</t>
   </si>
   <si>
     <t>Ayan Acharyya</t>
@@ -7370,10 +7370,10 @@
         <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="H7" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
@@ -7384,19 +7384,19 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H8" s="1">
         <v>12.0</v>
@@ -7404,48 +7404,48 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H9" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1">
         <v>24.0</v>
@@ -7456,22 +7456,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1">
         <v>24.0</v>
@@ -7482,13 +7482,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>60</v>
@@ -7503,7 +7503,7 @@
         <v>24.0</v>
       </c>
       <c r="H12" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
@@ -7526,10 +7526,10 @@
         <v>66</v>
       </c>
       <c r="G13" s="1">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="H13" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
@@ -7555,7 +7555,7 @@
         <v>22.0</v>
       </c>
       <c r="H14" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
@@ -7604,7 +7604,7 @@
         <v>80</v>
       </c>
       <c r="G16" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H16" s="1">
         <v>8.0</v>
@@ -7630,10 +7630,10 @@
         <v>85</v>
       </c>
       <c r="G17" s="1">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H17" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
@@ -7644,33 +7644,33 @@
         <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G18" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H18" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>93</v>
@@ -7685,7 +7685,7 @@
         <v>17.0</v>
       </c>
       <c r="H19" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -7696,33 +7696,33 @@
         <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G20" s="1">
         <v>17.0</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>102</v>
@@ -7734,10 +7734,10 @@
         <v>103</v>
       </c>
       <c r="G21" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H21" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
@@ -7760,10 +7760,10 @@
         <v>108</v>
       </c>
       <c r="G22" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H22" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
@@ -7774,16 +7774,16 @@
         <v>110</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G23" s="1">
         <v>16.0</v>
@@ -7794,74 +7794,74 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G24" s="1">
         <v>16.0</v>
       </c>
       <c r="H24" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G25" s="1">
         <v>16.0</v>
       </c>
       <c r="H25" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G26" s="1">
         <v>16.0</v>
@@ -7872,13 +7872,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>131</v>
@@ -7890,10 +7890,10 @@
         <v>132</v>
       </c>
       <c r="G27" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H27" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="28">
@@ -7904,33 +7904,33 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1">
         <v>15.0</v>
       </c>
       <c r="H28" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>140</v>
@@ -7956,59 +7956,59 @@
         <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G30" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H30" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31" s="1">
         <v>14.0</v>
       </c>
       <c r="H31" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>153</v>
@@ -8046,10 +8046,10 @@
         <v>159</v>
       </c>
       <c r="G33" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
@@ -8060,71 +8060,71 @@
         <v>161</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G34" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H34" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G35" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H35" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G36" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H36" s="1">
         <v>5.0</v>
@@ -8132,13 +8132,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>176</v>
@@ -8150,10 +8150,10 @@
         <v>177</v>
       </c>
       <c r="G37" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H37" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
@@ -8176,7 +8176,7 @@
         <v>182</v>
       </c>
       <c r="G38" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H38" s="1">
         <v>8.0</v>
@@ -8202,10 +8202,10 @@
         <v>187</v>
       </c>
       <c r="G39" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H39" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -8335,7 +8335,7 @@
         <v>10.0</v>
       </c>
       <c r="H44" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -8439,7 +8439,7 @@
         <v>9.0</v>
       </c>
       <c r="H48" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -8465,7 +8465,7 @@
         <v>9.0</v>
       </c>
       <c r="H49" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
@@ -8491,7 +8491,7 @@
         <v>9.0</v>
       </c>
       <c r="H50" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -8514,10 +8514,10 @@
         <v>245</v>
       </c>
       <c r="G51" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H51" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
@@ -8540,10 +8540,10 @@
         <v>250</v>
       </c>
       <c r="G52" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H52" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
@@ -8554,45 +8554,45 @@
         <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="G53" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H53" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="G54" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H54" s="1">
         <v>7.0</v>
@@ -8600,22 +8600,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="G55" s="1">
         <v>8.0</v>
@@ -8626,169 +8626,169 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="G56" s="1">
         <v>8.0</v>
       </c>
       <c r="H56" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="G57" s="1">
         <v>8.0</v>
       </c>
       <c r="H57" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="G58" s="1">
         <v>8.0</v>
       </c>
       <c r="H58" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G59" s="1">
         <v>8.0</v>
       </c>
       <c r="H59" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="G60" s="1">
         <v>8.0</v>
       </c>
       <c r="H60" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="G61" s="1">
         <v>8.0</v>
       </c>
       <c r="H61" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>296</v>
@@ -8814,7 +8814,7 @@
         <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>300</v>
@@ -8829,7 +8829,7 @@
         <v>8.0</v>
       </c>
       <c r="H63" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -8840,59 +8840,59 @@
         <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G64" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H64" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G65" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H65" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>314</v>
@@ -8904,10 +8904,10 @@
         <v>315</v>
       </c>
       <c r="G66" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H66" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -8930,7 +8930,7 @@
         <v>320</v>
       </c>
       <c r="G67" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H67" s="1">
         <v>6.0</v>
@@ -8944,33 +8944,33 @@
         <v>322</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G68" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H68" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>327</v>
+        <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>328</v>
@@ -8982,10 +8982,10 @@
         <v>329</v>
       </c>
       <c r="G69" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H69" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>6.0</v>
       </c>
     </row>
     <row r="70">
@@ -9008,7 +9008,7 @@
         <v>333</v>
       </c>
       <c r="G70" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H70" s="1">
         <v>6.0</v>
@@ -9022,94 +9022,94 @@
         <v>335</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="G71" s="1">
         <v>7.0</v>
       </c>
       <c r="H71" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="G72" s="1">
         <v>7.0</v>
       </c>
       <c r="H72" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="G73" s="1">
         <v>7.0</v>
       </c>
       <c r="H73" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="G74" s="1">
         <v>7.0</v>
@@ -9120,65 +9120,65 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="G75" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H75" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="G76" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>365</v>
@@ -9190,10 +9190,10 @@
         <v>366</v>
       </c>
       <c r="G77" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H77" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="78">
@@ -9204,85 +9204,85 @@
         <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G78" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H78" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
       </c>
       <c r="H79" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G80" s="1">
         <v>6.0</v>
       </c>
       <c r="H80" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>383</v>
@@ -9297,7 +9297,7 @@
         <v>6.0</v>
       </c>
       <c r="H81" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="82">
@@ -9308,97 +9308,97 @@
         <v>386</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="G82" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H82" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="G83" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H83" s="1">
         <v>5.0</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="G84" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H84" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="G85" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H85" s="1">
         <v>4.0</v>
@@ -9406,39 +9406,39 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="G86" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H86" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>410</v>
@@ -9450,10 +9450,10 @@
         <v>411</v>
       </c>
       <c r="G87" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H87" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -9505,7 +9505,7 @@
         <v>5.0</v>
       </c>
       <c r="H89" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -9516,7 +9516,7 @@
         <v>423</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>424</v>
@@ -9531,7 +9531,7 @@
         <v>5.0</v>
       </c>
       <c r="H90" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -9542,7 +9542,7 @@
         <v>427</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>428</v>
@@ -9557,7 +9557,7 @@
         <v>5.0</v>
       </c>
       <c r="H91" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="92">
@@ -9583,7 +9583,7 @@
         <v>5.0</v>
       </c>
       <c r="H92" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="93">
@@ -9594,16 +9594,16 @@
         <v>436</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G93" s="1">
         <v>5.0</v>
@@ -9614,22 +9614,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G94" s="1">
         <v>5.0</v>
@@ -9640,13 +9640,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>446</v>
@@ -9661,7 +9661,7 @@
         <v>5.0</v>
       </c>
       <c r="H95" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="96">
@@ -9687,7 +9687,7 @@
         <v>5.0</v>
       </c>
       <c r="H96" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="97">
@@ -9698,7 +9698,7 @@
         <v>454</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>455</v>
@@ -9713,7 +9713,7 @@
         <v>5.0</v>
       </c>
       <c r="H97" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="98">
@@ -9724,33 +9724,33 @@
         <v>458</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="G98" s="1">
         <v>5.0</v>
       </c>
       <c r="H98" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>464</v>
@@ -9765,7 +9765,7 @@
         <v>5.0</v>
       </c>
       <c r="H99" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -9776,137 +9776,137 @@
         <v>467</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G100" s="1">
         <v>5.0</v>
       </c>
       <c r="H100" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
       </c>
       <c r="H101" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G102" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H102" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G103" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H103" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G104" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H104" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>491</v>
@@ -9932,33 +9932,33 @@
         <v>494</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>495</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G106" s="1">
         <v>4.0</v>
       </c>
       <c r="H106" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>499</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>500</v>
@@ -9973,7 +9973,7 @@
         <v>4.0</v>
       </c>
       <c r="H107" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -9999,7 +9999,7 @@
         <v>3.0</v>
       </c>
       <c r="H108" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="109">
@@ -10010,68 +10010,68 @@
         <v>508</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G109" s="1">
         <v>3.0</v>
       </c>
       <c r="H109" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
       </c>
       <c r="H110" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G111" s="1">
         <v>3.0</v>
@@ -10082,74 +10082,74 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G112" s="1">
         <v>3.0</v>
       </c>
       <c r="H112" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G113" s="1">
         <v>3.0</v>
       </c>
       <c r="H113" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G114" s="1">
         <v>3.0</v>
@@ -10160,48 +10160,48 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>371</v>
+        <v>535</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G115" s="1">
         <v>3.0</v>
       </c>
       <c r="H115" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G116" s="1">
         <v>3.0</v>
@@ -10212,51 +10212,51 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>545</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G117" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H117" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G118" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H118" s="1">
         <v>0.0</v>
@@ -10264,13 +10264,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>556</v>
@@ -10282,10 +10282,10 @@
         <v>557</v>
       </c>
       <c r="G119" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H119" s="1">
         <v>2.0</v>
-      </c>
-      <c r="H119" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="120">
@@ -10296,7 +10296,7 @@
         <v>559</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>560</v>
@@ -10308,10 +10308,10 @@
         <v>561</v>
       </c>
       <c r="G120" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H120" s="1">
         <v>2.0</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -10322,7 +10322,7 @@
         <v>563</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>564</v>
@@ -10334,10 +10334,10 @@
         <v>565</v>
       </c>
       <c r="G121" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H121" s="1">
         <v>2.0</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -10360,7 +10360,7 @@
         <v>570</v>
       </c>
       <c r="G122" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H122" s="1">
         <v>0.0</v>
@@ -10368,65 +10368,65 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="G123" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H123" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="G124" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H124" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>583</v>
@@ -10441,7 +10441,7 @@
         <v>2.0</v>
       </c>
       <c r="H125" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
@@ -10452,33 +10452,33 @@
         <v>586</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G126" s="1">
         <v>2.0</v>
       </c>
       <c r="H126" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>591</v>
+        <v>190</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>592</v>
@@ -10493,7 +10493,7 @@
         <v>2.0</v>
       </c>
       <c r="H127" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -10504,7 +10504,7 @@
         <v>595</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>596</v>
@@ -10571,7 +10571,7 @@
         <v>2.0</v>
       </c>
       <c r="H130" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -10582,16 +10582,16 @@
         <v>609</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="G131" s="1">
         <v>2.0</v>
@@ -10602,230 +10602,230 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="G132" s="1">
         <v>2.0</v>
       </c>
       <c r="H132" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="G133" s="1">
         <v>2.0</v>
       </c>
       <c r="H133" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="G134" s="1">
         <v>2.0</v>
       </c>
       <c r="H134" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="G135" s="1">
         <v>2.0</v>
       </c>
       <c r="H135" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="G136" s="1">
         <v>2.0</v>
       </c>
       <c r="H136" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="E137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="G137" s="1">
         <v>2.0</v>
       </c>
       <c r="H137" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
       </c>
       <c r="H138" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="G139" s="1">
         <v>2.0</v>
       </c>
       <c r="H139" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="G140" s="1">
         <v>2.0</v>
@@ -10836,48 +10836,48 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="E141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
       </c>
       <c r="H141" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
@@ -10888,117 +10888,117 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="G143" s="1">
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="E144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="G144" s="1">
         <v>2.0</v>
       </c>
       <c r="H144" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="E145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="G145" s="1">
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="G146" s="1">
         <v>2.0</v>
       </c>
       <c r="H146" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>686</v>
@@ -11024,7 +11024,7 @@
         <v>689</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>690</v>
@@ -11050,33 +11050,33 @@
         <v>693</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="G149" s="1">
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>699</v>
@@ -11102,33 +11102,33 @@
         <v>702</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="G151" s="1">
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>708</v>
@@ -11143,7 +11143,7 @@
         <v>2.0</v>
       </c>
       <c r="H152" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -11154,33 +11154,33 @@
         <v>711</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="G153" s="1">
         <v>2.0</v>
       </c>
       <c r="H153" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>717</v>
@@ -11206,7 +11206,7 @@
         <v>720</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>16</v>
+        <v>716</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>721</v>
@@ -11232,7 +11232,7 @@
         <v>724</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>725</v>
@@ -11388,7 +11388,7 @@
         <v>752</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>753</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>771</v>
@@ -11804,7 +11804,7 @@
         <v>823</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>824</v>
@@ -11986,16 +11986,16 @@
         <v>856</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="G185" s="1">
         <v>1.0</v>
@@ -12006,13 +12006,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>862</v>
@@ -12053,7 +12053,7 @@
         <v>1.0</v>
       </c>
       <c r="H187" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -12064,7 +12064,7 @@
         <v>869</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>531</v>
+        <v>16</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>870</v>
@@ -12079,7 +12079,7 @@
         <v>1.0</v>
       </c>
       <c r="H188" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="189">
@@ -12090,16 +12090,16 @@
         <v>873</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="G189" s="1">
         <v>1.0</v>
@@ -12110,13 +12110,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>879</v>
@@ -12131,7 +12131,7 @@
         <v>1.0</v>
       </c>
       <c r="H190" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -12142,16 +12142,16 @@
         <v>882</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="G191" s="1">
         <v>1.0</v>
@@ -12162,13 +12162,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>888</v>
@@ -12183,7 +12183,7 @@
         <v>1.0</v>
       </c>
       <c r="H192" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="193">
@@ -12194,7 +12194,7 @@
         <v>891</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>786</v>
+        <v>16</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>892</v>
@@ -12209,7 +12209,7 @@
         <v>1.0</v>
       </c>
       <c r="H193" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -12220,42 +12220,42 @@
         <v>895</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="G194" s="1">
         <v>1.0</v>
       </c>
       <c r="H194" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>903</v>
       </c>
       <c r="G195" s="1">
         <v>1.0</v>
@@ -12266,22 +12266,22 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="G196" s="1">
         <v>1.0</v>
@@ -12292,22 +12292,22 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="G197" s="1">
         <v>1.0</v>
@@ -12318,22 +12318,22 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="G198" s="1">
         <v>1.0</v>
@@ -12344,22 +12344,22 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="G199" s="1">
         <v>1.0</v>
@@ -12370,48 +12370,48 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="G200" s="1">
         <v>1.0</v>
       </c>
       <c r="H200" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="G201" s="1">
         <v>1.0</v>
@@ -12422,39 +12422,39 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="G202" s="1">
         <v>1.0</v>
       </c>
       <c r="H202" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>941</v>
@@ -12495,7 +12495,7 @@
         <v>1.0</v>
       </c>
       <c r="H204" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="205">
@@ -12506,33 +12506,33 @@
         <v>949</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="G205" s="1">
         <v>1.0</v>
       </c>
       <c r="H205" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>955</v>
@@ -12547,7 +12547,7 @@
         <v>1.0</v>
       </c>
       <c r="H206" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -12573,7 +12573,7 @@
         <v>1.0</v>
       </c>
       <c r="H207" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="208">
@@ -12584,7 +12584,7 @@
         <v>963</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>964</v>
@@ -12599,27 +12599,27 @@
         <v>1.0</v>
       </c>
       <c r="H208" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>822</v>
+        <v>966</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>624</v>
+        <v>968</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G209" s="1">
         <v>1.0</v>
@@ -12630,39 +12630,39 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G210" s="1">
         <v>1.0</v>
       </c>
       <c r="H210" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>973</v>
+        <v>822</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>975</v>
+        <v>632</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>976</v>
@@ -12688,7 +12688,7 @@
         <v>979</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>980</v>
@@ -12703,7 +12703,7 @@
         <v>1.0</v>
       </c>
       <c r="H212" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
@@ -12714,19 +12714,19 @@
         <v>983</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>16</v>
+        <v>984</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G213" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H213" s="1">
         <v>0.0</v>
@@ -12734,13 +12734,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>988</v>
+        <v>190</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>989</v>
@@ -12752,10 +12752,10 @@
         <v>990</v>
       </c>
       <c r="G214" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H214" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
@@ -12766,16 +12766,16 @@
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="G215" s="1">
         <v>0.0</v>
@@ -12786,13 +12786,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>998</v>
@@ -12818,16 +12818,16 @@
         <v>1001</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>16</v>
+        <v>1002</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G217" s="1">
         <v>0.0</v>
@@ -12838,22 +12838,22 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G218" s="1">
         <v>0.0</v>
@@ -12864,22 +12864,22 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G219" s="1">
         <v>0.0</v>
@@ -12890,22 +12890,22 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="G220" s="1">
         <v>0.0</v>
@@ -12916,22 +12916,22 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>729</v>
+        <v>16</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="G221" s="1">
         <v>0.0</v>
@@ -12942,22 +12942,22 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G222" s="1">
         <v>0.0</v>
@@ -12968,22 +12968,22 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>16</v>
+        <v>729</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G223" s="1">
         <v>0.0</v>
@@ -12994,22 +12994,22 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G224" s="1">
         <v>0.0</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1033</v>
+        <v>16</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>1034</v>
@@ -13072,22 +13072,22 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>212</v>
+        <v>1040</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>828</v>
+        <v>1042</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="G227" s="1">
         <v>0.0</v>
@@ -13098,22 +13098,22 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1045</v>
+        <v>16</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G228" s="1">
         <v>0.0</v>
@@ -13124,22 +13124,22 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>1048</v>
+        <v>212</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>1052</v>
       </c>
       <c r="G229" s="1">
         <v>0.0</v>
@@ -13150,22 +13150,22 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="G230" s="1">
         <v>0.0</v>
@@ -13176,22 +13176,22 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="G231" s="1">
         <v>0.0</v>
@@ -13202,13 +13202,13 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1065</v>
@@ -13234,16 +13234,16 @@
         <v>1068</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>786</v>
+        <v>1069</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G233" s="1">
         <v>0.0</v>
@@ -13254,22 +13254,22 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>568</v>
+        <v>295</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G234" s="1">
         <v>0.0</v>
@@ -13280,22 +13280,22 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>16</v>
+        <v>786</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G235" s="1">
         <v>0.0</v>
@@ -13306,22 +13306,22 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G236" s="1">
         <v>0.0</v>
@@ -13332,13 +13332,13 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1085</v>
+        <v>16</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1086</v>
@@ -13364,16 +13364,16 @@
         <v>1089</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="G238" s="1">
         <v>0.0</v>
@@ -13384,13 +13384,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1095</v>
@@ -13442,7 +13442,7 @@
         <v>1103</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1104</v>
@@ -13462,22 +13462,22 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>581</v>
+        <v>1106</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>791</v>
+        <v>1108</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G242" s="1">
         <v>0.0</v>
@@ -13488,22 +13488,22 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1111</v>
+        <v>309</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G243" s="1">
         <v>0.0</v>
@@ -13514,22 +13514,22 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>1114</v>
+        <v>608</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="C244" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="G244" s="1">
         <v>0.0</v>
@@ -13540,13 +13540,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1121</v>
@@ -13598,16 +13598,16 @@
         <v>1129</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>1131</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>1132</v>
       </c>
       <c r="G247" s="1">
         <v>0.0</v>
@@ -13618,22 +13618,22 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="G248" s="1">
         <v>0.0</v>
@@ -13644,13 +13644,13 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1140</v>
@@ -13670,22 +13670,22 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>72</v>
+        <v>1142</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>74</v>
+        <v>1144</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G250" s="1">
         <v>0.0</v>
@@ -13696,22 +13696,22 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>791</v>
+        <v>200</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G251" s="1">
         <v>0.0</v>
@@ -13722,19 +13722,19 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>1149</v>
+        <v>72</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>828</v>
+        <v>74</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>1153</v>
@@ -13754,7 +13754,7 @@
         <v>1155</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1156</v>
@@ -13780,16 +13780,16 @@
         <v>1159</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>16</v>
+        <v>828</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G254" s="1">
         <v>0.0</v>
@@ -13800,22 +13800,22 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>175</v>
+        <v>801</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G255" s="1">
         <v>0.0</v>
@@ -13826,22 +13826,22 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G256" s="1">
         <v>0.0</v>
@@ -13852,19 +13852,19 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1172</v>
+        <v>185</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>1174</v>
@@ -13884,7 +13884,7 @@
         <v>1176</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1177</v>
@@ -13936,7 +13936,7 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>828</v>
+        <v>309</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13962,16 +13962,16 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>200</v>
+        <v>1190</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G261" s="1">
         <v>0.0</v>
@@ -13982,13 +13982,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1194</v>
+        <v>828</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1195</v>
@@ -14014,7 +14014,7 @@
         <v>1198</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>819</v>
+        <v>200</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1199</v>
@@ -14046,7 +14046,7 @@
         <v>1204</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>1205</v>
@@ -14066,16 +14066,16 @@
         <v>1207</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>1210</v>
       </c>
       <c r="G265" s="1">
         <v>0.0</v>
@@ -14086,19 +14086,19 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>1214</v>
@@ -14112,22 +14112,22 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>831</v>
+        <v>1215</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>139</v>
+        <v>1217</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="G267" s="1">
         <v>0.0</v>
@@ -14138,22 +14138,22 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1220</v>
+        <v>16</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G268" s="1">
         <v>0.0</v>
@@ -14164,22 +14164,22 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>1223</v>
+        <v>831</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="C269" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="G269" s="1">
         <v>0.0</v>
@@ -14190,13 +14190,13 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1230</v>
@@ -14222,16 +14222,16 @@
         <v>1233</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>729</v>
+        <v>1234</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G271" s="1">
         <v>0.0</v>
@@ -14242,22 +14242,22 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G272" s="1">
         <v>0.0</v>
@@ -14268,13 +14268,13 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1242</v>
+        <v>729</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1243</v>
@@ -14300,16 +14300,16 @@
         <v>1246</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="G274" s="1">
         <v>0.0</v>
@@ -14320,13 +14320,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1252</v>
@@ -14352,16 +14352,16 @@
         <v>1255</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>16</v>
+        <v>1256</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G276" s="1">
         <v>0.0</v>
@@ -14372,22 +14372,22 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G277" s="1">
         <v>0.0</v>
@@ -14398,22 +14398,22 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="G278" s="1">
         <v>0.0</v>
@@ -14424,22 +14424,22 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1268</v>
+        <v>16</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1214</v>
+        <v>1270</v>
       </c>
       <c r="G279" s="1">
         <v>0.0</v>
@@ -14450,22 +14450,22 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G280" s="1">
         <v>0.0</v>
@@ -14476,22 +14476,22 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1278</v>
+        <v>1223</v>
       </c>
       <c r="G281" s="1">
         <v>0.0</v>
@@ -14534,16 +14534,16 @@
         <v>1284</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>267</v>
+        <v>1285</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="G283" s="1">
         <v>0.0</v>
@@ -14554,13 +14554,13 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1289</v>
+        <v>16</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1290</v>
@@ -14586,16 +14586,16 @@
         <v>1293</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="2" t="s">
         <v>1295</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>1296</v>
       </c>
       <c r="G285" s="1">
         <v>0.0</v>
@@ -14606,13 +14606,13 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1299</v>
@@ -14638,16 +14638,16 @@
         <v>1302</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>16</v>
+        <v>1303</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G287" s="1">
         <v>0.0</v>
@@ -14658,19 +14658,19 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1307</v>
+        <v>16</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>1309</v>
@@ -14716,16 +14716,16 @@
         <v>1315</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>874</v>
+        <v>1316</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G290" s="1">
         <v>0.0</v>
@@ -14736,13 +14736,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1320</v>
+        <v>16</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1321</v>
@@ -14768,7 +14768,7 @@
         <v>1324</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>513</v>
+        <v>878</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1325</v>
@@ -14794,16 +14794,16 @@
         <v>1328</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>200</v>
+        <v>1329</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G293" s="1">
         <v>0.0</v>
@@ -14814,22 +14814,22 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>334</v>
+        <v>1332</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>336</v>
+        <v>537</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G294" s="1">
         <v>0.0</v>
@@ -14840,22 +14840,22 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>531</v>
+        <v>200</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="G295" s="1">
         <v>0.0</v>
@@ -14866,22 +14866,22 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>1338</v>
+        <v>357</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G296" s="1">
         <v>0.0</v>
@@ -14892,13 +14892,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1344</v>
+        <v>16</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1345</v>
@@ -14976,16 +14976,16 @@
         <v>1358</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>45</v>
+        <v>1359</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G300" s="1">
         <v>0.0</v>
@@ -14996,22 +14996,22 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>1352</v>
+        <v>1362</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1354</v>
+        <v>55</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G301" s="1">
         <v>0.0</v>
@@ -15022,22 +15022,22 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>615</v>
+        <v>1359</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G302" s="1">
         <v>0.0</v>
@@ -15048,13 +15048,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1370</v>
+        <v>542</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1371</v>
@@ -15080,16 +15080,16 @@
         <v>1374</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>16</v>
+        <v>1375</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G304" s="1">
         <v>0.0</v>
@@ -15100,22 +15100,22 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G305" s="1">
         <v>0.0</v>
@@ -15126,22 +15126,22 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G306" s="1">
         <v>0.0</v>
@@ -15152,22 +15152,22 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G307" s="1">
         <v>0.0</v>
@@ -15178,19 +15178,19 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1391</v>
+        <v>16</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>1393</v>
@@ -15210,16 +15210,16 @@
         <v>1395</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>200</v>
+        <v>1396</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G309" s="1">
         <v>0.0</v>
@@ -15230,22 +15230,22 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G310" s="1">
         <v>0.0</v>
@@ -15256,22 +15256,22 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G311" s="1">
         <v>0.0</v>
@@ -15282,13 +15282,13 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1408</v>
+        <v>16</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1409</v>
@@ -15314,16 +15314,16 @@
         <v>1412</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>857</v>
+        <v>1413</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G313" s="1">
         <v>0.0</v>
@@ -15334,22 +15334,22 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>16</v>
+        <v>861</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G314" s="1">
         <v>0.0</v>
@@ -15360,22 +15360,22 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G315" s="1">
         <v>0.0</v>
@@ -15386,13 +15386,13 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1425</v>
+        <v>309</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1426</v>
@@ -15418,16 +15418,16 @@
         <v>1429</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>16</v>
+        <v>1430</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G317" s="1">
         <v>0.0</v>
@@ -15438,22 +15438,22 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G318" s="1">
         <v>0.0</v>
@@ -15464,22 +15464,22 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G319" s="1">
         <v>0.0</v>
@@ -15490,22 +15490,22 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G320" s="1">
         <v>0.0</v>
@@ -15516,13 +15516,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1446</v>
+        <v>16</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1447</v>
@@ -15574,16 +15574,16 @@
         <v>1455</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>88</v>
+        <v>1456</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G323" s="1">
         <v>0.0</v>
@@ -15594,22 +15594,22 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>382</v>
+        <v>101</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G324" s="1">
         <v>0.0</v>
@@ -15620,22 +15620,22 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>16</v>
+        <v>409</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="G325" s="1">
         <v>0.0</v>
@@ -15646,13 +15646,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1468</v>
+        <v>16</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>1469</v>
@@ -15672,22 +15672,22 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>325</v>
+        <v>1471</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>327</v>
+        <v>1473</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="G327" s="1">
         <v>0.0</v>
@@ -15698,13 +15698,13 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>1474</v>
+        <v>348</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1476</v>
+        <v>350</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1477</v>
@@ -15756,16 +15756,16 @@
         <v>1485</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>175</v>
+        <v>1486</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G330" s="1">
         <v>0.0</v>
@@ -15776,13 +15776,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1490</v>
+        <v>185</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1491</v>
@@ -15860,16 +15860,16 @@
         <v>1504</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>545</v>
+        <v>1505</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G334" s="1">
         <v>0.0</v>
@@ -15880,13 +15880,13 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1509</v>
+        <v>582</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>1510</v>
@@ -15912,16 +15912,16 @@
         <v>1513</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>16</v>
+        <v>1514</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="G336" s="1">
         <v>0.0</v>
@@ -15932,13 +15932,13 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1518</v>
+        <v>16</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1519</v>
@@ -15964,16 +15964,16 @@
         <v>1522</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>16</v>
+        <v>1523</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="G338" s="1">
         <v>0.0</v>
@@ -15984,13 +15984,13 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1527</v>
+        <v>16</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>1528</v>
@@ -16016,16 +16016,16 @@
         <v>1531</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>16</v>
+        <v>1532</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1152</v>
+        <v>12</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="G340" s="1">
         <v>0.0</v>
@@ -16036,22 +16036,22 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>12</v>
+        <v>1161</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="G341" s="1">
         <v>0.0</v>
@@ -16062,13 +16062,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1540</v>
+        <v>16</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1541</v>
@@ -16094,16 +16094,16 @@
         <v>1544</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>16</v>
+        <v>1545</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="G343" s="1">
         <v>0.0</v>
@@ -16114,13 +16114,13 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1549</v>
+        <v>16</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1550</v>
@@ -16146,16 +16146,16 @@
         <v>1553</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>16</v>
+        <v>1554</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="G345" s="1">
         <v>0.0</v>
@@ -16166,22 +16166,22 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>1000</v>
+        <v>1557</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="G346" s="1">
         <v>0.0</v>
@@ -16192,22 +16192,22 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>1559</v>
+        <v>1009</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1561</v>
+        <v>16</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="G347" s="1">
         <v>0.0</v>
@@ -16218,22 +16218,22 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>16</v>
+        <v>1566</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="G348" s="1">
         <v>0.0</v>
@@ -16244,13 +16244,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1569</v>
+        <v>16</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>1570</v>
@@ -16276,16 +16276,16 @@
         <v>1573</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>786</v>
+        <v>1574</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="G350" s="1">
         <v>0.0</v>
@@ -16296,22 +16296,22 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>26</v>
+        <v>786</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="G351" s="1">
         <v>0.0</v>
@@ -16322,22 +16322,22 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="G352" s="1">
         <v>0.0</v>
@@ -16348,22 +16348,22 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="G353" s="1">
         <v>0.0</v>
@@ -16374,13 +16374,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1590</v>
+        <v>74</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>1591</v>
@@ -16458,16 +16458,16 @@
         <v>1604</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>214</v>
+        <v>1605</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="G357" s="1">
         <v>0.0</v>
@@ -16478,22 +16478,22 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G358" s="1">
         <v>0.0</v>
@@ -16504,22 +16504,22 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="G359" s="1">
         <v>0.0</v>
@@ -16530,22 +16530,22 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="G360" s="1">
         <v>0.0</v>
@@ -16556,13 +16556,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1621</v>
+        <v>16</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1622</v>
@@ -16660,22 +16660,22 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>1149</v>
+        <v>1639</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>97</v>
+        <v>1641</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="G365" s="1">
         <v>0.0</v>
@@ -16686,13 +16686,13 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>1642</v>
+        <v>1158</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1644</v>
+        <v>106</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>1645</v>
@@ -16744,16 +16744,16 @@
         <v>1653</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G368" s="1">
         <v>0.0</v>
@@ -16764,13 +16764,13 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>1659</v>
@@ -16796,16 +16796,16 @@
         <v>1662</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1644</v>
+        <v>1663</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="G370" s="1">
         <v>0.0</v>
@@ -16816,13 +16816,13 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1667</v>
+        <v>1649</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>1668</v>
@@ -16952,16 +16952,16 @@
         <v>1691</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>16</v>
+        <v>1692</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="G376" s="1">
         <v>0.0</v>
@@ -16972,13 +16972,13 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1696</v>
+        <v>16</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>1697</v>
@@ -17004,16 +17004,16 @@
         <v>1700</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>327</v>
+        <v>1701</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="G378" s="1">
         <v>0.0</v>
@@ -17024,22 +17024,22 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>615</v>
+        <v>350</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="G379" s="1">
         <v>0.0</v>
@@ -17050,22 +17050,22 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>16</v>
+        <v>542</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="G380" s="1">
         <v>0.0</v>
@@ -17076,13 +17076,13 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1713</v>
+        <v>16</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1714</v>
@@ -17134,16 +17134,16 @@
         <v>1722</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>392</v>
+        <v>1723</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="G383" s="1">
         <v>0.0</v>
@@ -17154,13 +17154,13 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1727</v>
+        <v>419</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1728</v>
@@ -17186,16 +17186,16 @@
         <v>1731</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1631</v>
+        <v>1732</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="G385" s="1">
         <v>0.0</v>
@@ -17206,13 +17206,13 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1736</v>
+        <v>1636</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1737</v>
@@ -17238,16 +17238,16 @@
         <v>1740</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>214</v>
+        <v>1741</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="G387" s="1">
         <v>0.0</v>
@@ -17258,22 +17258,22 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>462</v>
+        <v>1744</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="G388" s="1">
         <v>0.0</v>
@@ -17284,13 +17284,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>1746</v>
+        <v>480</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1748</v>
+        <v>55</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>1749</v>
@@ -17310,22 +17310,22 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>715</v>
+        <v>1751</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>712</v>
+        <v>1753</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="G390" s="1">
         <v>0.0</v>
@@ -17336,13 +17336,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>1754</v>
+        <v>719</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1756</v>
+        <v>716</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1757</v>
@@ -17556,7 +17556,7 @@
         <v>1794</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>1795</v>
@@ -17654,7 +17654,7 @@
         <v>1811</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>1812</v>
@@ -17706,7 +17706,7 @@
         <v>1820</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1821</v>
@@ -17726,13 +17726,13 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1823</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1824</v>
@@ -17894,7 +17894,7 @@
         <v>1851</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>1852</v>
@@ -17972,7 +17972,7 @@
         <v>1865</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>1866</v>
@@ -18272,13 +18272,13 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1912</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1913</v>
@@ -18330,7 +18330,7 @@
         <v>1921</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1922</v>
@@ -18460,7 +18460,7 @@
         <v>1942</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1943</v>
@@ -18616,7 +18616,7 @@
         <v>1969</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1970</v>
@@ -18674,7 +18674,7 @@
         <v>1979</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>1980</v>
@@ -18694,7 +18694,7 @@
         <v>1982</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>1983</v>
@@ -18720,7 +18720,7 @@
         <v>1986</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1987</v>
@@ -18824,7 +18824,7 @@
         <v>2004</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>2005</v>
@@ -19136,7 +19136,7 @@
         <v>2061</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>2062</v>
@@ -19370,7 +19370,7 @@
         <v>2103</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>2104</v>
@@ -19422,7 +19422,7 @@
         <v>2112</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>2113</v>
@@ -19448,7 +19448,7 @@
         <v>2116</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2117</v>
@@ -19474,7 +19474,7 @@
         <v>2120</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>2121</v>
@@ -19552,7 +19552,7 @@
         <v>2134</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2135</v>
@@ -19578,7 +19578,7 @@
         <v>2138</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>2139</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19656,7 +19656,7 @@
         <v>2151</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>2152</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>545</v>
+        <v>582</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19786,7 +19786,7 @@
         <v>2172</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>2173</v>
@@ -19864,7 +19864,7 @@
         <v>2186</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>2187</v>
@@ -19890,7 +19890,7 @@
         <v>2190</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2191</v>
@@ -19922,7 +19922,7 @@
         <v>2196</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>2197</v>
@@ -19948,7 +19948,7 @@
         <v>2200</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>2201</v>
@@ -19968,7 +19968,7 @@
         <v>2203</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>2204</v>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>2206</v>
@@ -20202,7 +20202,7 @@
         <v>2239</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>2240</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20306,7 +20306,7 @@
         <v>2256</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>2257</v>
@@ -20384,7 +20384,7 @@
         <v>2268</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>2269</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20468,7 +20468,7 @@
         <v>2282</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>2283</v>
@@ -20514,7 +20514,7 @@
         <v>2290</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>2291</v>
@@ -20592,7 +20592,7 @@
         <v>2304</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>2305</v>
@@ -20618,7 +20618,7 @@
         <v>2308</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>2309</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20832,7 +20832,7 @@
         <v>2341</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>2342</v>
@@ -20988,10 +20988,10 @@
         <v>2368</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="G531" s="1">
         <v>0.0</v>
@@ -21314,9 +21314,9 @@
     <hyperlink r:id="rId284" ref="F285"/>
     <hyperlink r:id="rId285" ref="F286"/>
     <hyperlink r:id="rId286" ref="F287"/>
-    <hyperlink r:id="rId287" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F288"/>
+    <hyperlink r:id="rId287" ref="F288"/>
     <hyperlink r:id="rId288" ref="F289"/>
-    <hyperlink r:id="rId289" ref="F290"/>
+    <hyperlink r:id="rId289" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F290"/>
     <hyperlink r:id="rId290" ref="F291"/>
     <hyperlink r:id="rId291" ref="F292"/>
     <hyperlink r:id="rId292" ref="F293"/>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -214,6 +214,21 @@
     <t>https://www.qwiklabs.com/public_profiles/151fbf5b-403e-4027-8dc6-32e5de62e688</t>
   </si>
   <si>
+    <t>Akhil C Padmanabhan</t>
+  </si>
+  <si>
+    <t>techakhilc47@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NHPS</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
+  </si>
+  <si>
     <t>Gursharan Kaur</t>
   </si>
   <si>
@@ -259,19 +274,49 @@
     <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
   </si>
   <si>
-    <t>Akhil C Padmanabhan</t>
-  </si>
-  <si>
-    <t>techakhilc47@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NHPS</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:50:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
+    <t>Debjit Chatterjee</t>
+  </si>
+  <si>
+    <t>debjit.chatterjee@aot.edu.in</t>
+  </si>
+  <si>
+    <t>[Referred] Academy of technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:19:36 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
+  </si>
+  <si>
+    <t>Harshit Goyal</t>
+  </si>
+  <si>
+    <t>harshitgoyal923@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Bharati Vidyapeeth's Institute of Computer Applications and Management (BVICAM)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:28:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
+  </si>
+  <si>
+    <t>Prateek Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Prateeksharma0112@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Mahavir Swami Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
     <t>Prachi Kumari</t>
@@ -286,6 +331,33 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
+    <t>SUDIPTA ROY</t>
+  </si>
+  <si>
+    <t>sudipta01roy@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
+  </si>
+  <si>
+    <t>PRACHI PURVA</t>
+  </si>
+  <si>
+    <t>prachipurva7142@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
+  </si>
+  <si>
     <t>Ayan Pal</t>
   </si>
   <si>
@@ -313,36 +385,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
   </si>
   <si>
-    <t>Debjit Chatterjee</t>
-  </si>
-  <si>
-    <t>debjit.chatterjee@aot.edu.in</t>
-  </si>
-  <si>
-    <t>[Referred] Academy of technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:19:36 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
-  </si>
-  <si>
-    <t>Prateek Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Prateeksharma0112@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Mahavir Swami Institute Of Technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
-  </si>
-  <si>
     <t>Raktim Roy</t>
   </si>
   <si>
@@ -382,48 +424,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
-    <t>Harshit Goyal</t>
-  </si>
-  <si>
-    <t>harshitgoyal923@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Bharati Vidyapeeth's Institute of Computer Applications and Management (BVICAM)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:28:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
-  </si>
-  <si>
-    <t>SUDIPTA ROY</t>
-  </si>
-  <si>
-    <t>sudipta01roy@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
-  </si>
-  <si>
-    <t>PRACHI PURVA</t>
-  </si>
-  <si>
-    <t>prachipurva7142@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
-  </si>
-  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -454,6 +454,36 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
+    <t>Debarghya Chowdhury</t>
+  </si>
+  <si>
+    <t>joshchowdhury204@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
+  </si>
+  <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -478,34 +508,19 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
-    <t>Debarghya Chowdhury</t>
-  </si>
-  <si>
-    <t>joshchowdhury204@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
-  </si>
-  <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+    <t>Soham Saha</t>
+  </si>
+  <si>
+    <t>sahasoham01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
   </si>
   <si>
     <t>Saurav Kumar</t>
@@ -523,19 +538,31 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
-    <t>Soham Saha</t>
-  </si>
-  <si>
-    <t>sahasoham01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
+    <t>Utsav Vora</t>
+  </si>
+  <si>
+    <t>utsavvora2407@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+  </si>
+  <si>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
   </si>
   <si>
     <t>Anom Chakravorty</t>
@@ -553,16 +580,46 @@
     <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
-    <t>Utsav Vora</t>
-  </si>
-  <si>
-    <t>utsavvora2407@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+    <t>Adarsh Kumar</t>
+  </si>
+  <si>
+    <t>ak47adarsh01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Coochbehar Government Engineering College</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+  </si>
+  <si>
+    <t>Sandipa Jana</t>
+  </si>
+  <si>
+    <t>janasandipa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+  </si>
+  <si>
+    <t>Radadiya Mohit</t>
+  </si>
+  <si>
+    <t>radadiyamohit84695@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Parul University</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 09:01:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
     <t>Hritik Kumar Singh</t>
@@ -577,21 +634,6 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -607,6 +649,36 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
+    <t>Sayan Sengupta</t>
+  </si>
+  <si>
+    <t>sayansengupta2001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of engineering and management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+  </si>
+  <si>
+    <t>Srishti Pal</t>
+  </si>
+  <si>
+    <t>srishti.pal.11@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Siliguri Institute of Technology</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+  </si>
+  <si>
     <t>Rupankar Basak</t>
   </si>
   <si>
@@ -637,46 +709,19 @@
     <t>https://google.qwiklabs.com/public_profiles/341afaff-dcfc-43ec-b392-5096f4ff6fe6</t>
   </si>
   <si>
-    <t>Adarsh Kumar</t>
-  </si>
-  <si>
-    <t>ak47adarsh01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Coochbehar Government Engineering College</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
-  </si>
-  <si>
-    <t>Sayan Sengupta</t>
-  </si>
-  <si>
-    <t>sayansengupta2001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of engineering and management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
-  </si>
-  <si>
-    <t>Sandipa Jana</t>
-  </si>
-  <si>
-    <t>janasandipa@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
   </si>
   <si>
     <t>Kesher Gupta</t>
@@ -685,9 +730,6 @@
     <t>kesher9474@gmail.com</t>
   </si>
   <si>
-    <t>[Referred] Siliguri Institute of Technology</t>
-  </si>
-  <si>
     <t>Wed Apr 07 2021 16:07:09 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
@@ -706,21 +748,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
-    <t>Radadiya Mohit</t>
-  </si>
-  <si>
-    <t>radadiyamohit84695@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Parul University</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 09:01:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
-  </si>
-  <si>
     <t>Mufaddal Vadnagarwala</t>
   </si>
   <si>
@@ -733,16 +760,16 @@
     <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
   </si>
   <si>
-    <t>Srishti Pal</t>
-  </si>
-  <si>
-    <t>srishti.pal.11@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
   </si>
   <si>
     <t>Arkarup Saha</t>
@@ -790,6 +817,36 @@
     <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
   </si>
   <si>
+    <t>SANDIP DAS</t>
+  </si>
+  <si>
+    <t>das770515@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
+  </si>
+  <si>
+    <t>ANUVAB DUTTA</t>
+  </si>
+  <si>
+    <t>anuvabduttaatwork@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] VIT Vellore</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
+  </si>
+  <si>
     <t>Rishav Chakraborty</t>
   </si>
   <si>
@@ -820,6 +877,21 @@
     <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
+    <t>Harshit Parwal</t>
+  </si>
+  <si>
+    <t>harshitparwal1999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
+  </si>
+  <si>
     <t>Ushasi Das</t>
   </si>
   <si>
@@ -832,6 +904,18 @@
     <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
   </si>
   <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
     <t>Rajesh Paswan</t>
   </si>
   <si>
@@ -847,6 +931,18 @@
     <t>https://www.qwiklabs.com/public_profiles/b033bccb-e643-478f-9999-605b4390c8a6</t>
   </si>
   <si>
+    <t>Shiwangi Jaiswal</t>
+  </si>
+  <si>
+    <t>shiwajaiswal456@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 13:52:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
+  </si>
+  <si>
     <t>Sudipta Halder</t>
   </si>
   <si>
@@ -961,34 +1057,31 @@
     <t>https://google.qwiklabs.com/public_profiles/2061f808-65c0-4416-a21c-ce8f30ff65b8</t>
   </si>
   <si>
-    <t>SANDIP DAS</t>
-  </si>
-  <si>
-    <t>das770515@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
-  </si>
-  <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+    <t>Sayan Poddar</t>
+  </si>
+  <si>
+    <t>leosayan7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash engineering college</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:27:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
+  </si>
+  <si>
+    <t>Samrat Ganguly</t>
+  </si>
+  <si>
+    <t>samratganguly37@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
   </si>
   <si>
     <t>Sayantan Kuila</t>
@@ -1006,55 +1099,34 @@
     <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
-    <t>Harshit Parwal</t>
-  </si>
-  <si>
-    <t>harshitparwal1999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
-  </si>
-  <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
-    <t>Shiwangi Jaiswal</t>
-  </si>
-  <si>
-    <t>shiwajaiswal456@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 13:52:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
+  </si>
+  <si>
+    <t>Aman Chowdhury</t>
+  </si>
+  <si>
+    <t>amanchowdhury046@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
   </si>
   <si>
     <t>Arunima Dhar</t>
@@ -1114,21 +1186,6 @@
     <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
   </si>
   <si>
-    <t>Sayan Poddar</t>
-  </si>
-  <si>
-    <t>leosayan7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash engineering college</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:27:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
-  </si>
-  <si>
     <t>Tanmoy Das</t>
   </si>
   <si>
@@ -1144,6 +1201,18 @@
     <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
   </si>
   <si>
+    <t>Anwesha Ghosh</t>
+  </si>
+  <si>
+    <t>anweshaghosh515@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
+  </si>
+  <si>
     <t>MEGHADRI KOLEY</t>
   </si>
   <si>
@@ -1159,21 +1228,6 @@
     <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1201,21 +1255,6 @@
     <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
   </si>
   <si>
-    <t>Aman Chowdhury</t>
-  </si>
-  <si>
-    <t>amanchowdhury046@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute of Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
-  </si>
-  <si>
     <t>Praneet Chakraborty</t>
   </si>
   <si>
@@ -1264,21 +1303,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d9903919-6296-40ce-99f4-0db8330263dc</t>
   </si>
   <si>
-    <t>ANUVAB DUTTA</t>
-  </si>
-  <si>
-    <t>anuvabduttaatwork@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] VIT Vellore</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
-  </si>
-  <si>
     <t>Pralipto Ghosh</t>
   </si>
   <si>
@@ -1294,18 +1318,6 @@
     <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
   </si>
   <si>
-    <t>Samrat Ganguly</t>
-  </si>
-  <si>
-    <t>samratganguly37@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
-  </si>
-  <si>
     <t>RIDDHI CHAKRABORTY</t>
   </si>
   <si>
@@ -1336,6 +1348,21 @@
     <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
   </si>
   <si>
+    <t>Supritha Ravishankar</t>
+  </si>
+  <si>
+    <t>supri161@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.AIT</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
+  </si>
+  <si>
     <t>Abhinandan Patra</t>
   </si>
   <si>
@@ -1375,6 +1402,18 @@
     <t>https://google.qwiklabs.com/public_profiles/03b213db-e327-4a96-8f1e-be17b689997b</t>
   </si>
   <si>
+    <t>Daita sur</t>
+  </si>
+  <si>
+    <t>daitasur49078@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 09:00:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
+  </si>
+  <si>
     <t>Riju Sharma</t>
   </si>
   <si>
@@ -1456,18 +1495,6 @@
     <t>https://google.qwiklabs.com/public_profiles/03d73df9-2c13-42c4-a68b-994507b72178</t>
   </si>
   <si>
-    <t>Anwesha Ghosh</t>
-  </si>
-  <si>
-    <t>anweshaghosh515@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
-  </si>
-  <si>
     <t>Chirantan Basu</t>
   </si>
   <si>
@@ -1495,16 +1522,46 @@
     <t>https://google.qwiklabs.com/public_profiles/0673429e-9f55-4010-862d-7d4c76862e61</t>
   </si>
   <si>
-    <t>Daita sur</t>
-  </si>
-  <si>
-    <t>daitasur49078@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 09:00:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
+    <t>Sneha M</t>
+  </si>
+  <si>
+    <t>sneha24102000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management , Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 16:19:45 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
+  </si>
+  <si>
+    <t>Subhasis Das</t>
+  </si>
+  <si>
+    <t>subhasis.dnt2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Aditya College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
+  </si>
+  <si>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
   </si>
   <si>
     <t>ANUSHA CHATTERJEE</t>
@@ -1534,6 +1591,18 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
+    <t>PRIYAM CHATTORAJ</t>
+  </si>
+  <si>
+    <t>priyamchattoraj1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
+  </si>
+  <si>
     <t>Mrinmoy Polley</t>
   </si>
   <si>
@@ -1561,36 +1630,6 @@
     <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
   </si>
   <si>
-    <t>Sneha M</t>
-  </si>
-  <si>
-    <t>sneha24102000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management , Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 16:19:45 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
-  </si>
-  <si>
-    <t>Subhasis Das</t>
-  </si>
-  <si>
-    <t>subhasis.dnt2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Aditya College of Engineering and Technology</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
-  </si>
-  <si>
     <t>Shashwat Pandey</t>
   </si>
   <si>
@@ -1603,33 +1642,6 @@
     <t>https://google.qwiklabs.com/public_profiles/789dc16a-62df-4489-96ba-f8a0139cdfc8</t>
   </si>
   <si>
-    <t>Supritha Ravishankar</t>
-  </si>
-  <si>
-    <t>supri161@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.AIT</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
-  </si>
-  <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
-  </si>
-  <si>
     <t>Sahib pratap singh</t>
   </si>
   <si>
@@ -1714,16 +1726,16 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
-    <t>PRIYAM CHATTORAJ</t>
-  </si>
-  <si>
-    <t>priyamchattoraj1234@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
+    <t>Riddhith Banerjee</t>
+  </si>
+  <si>
+    <t>riddhith04@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 18:04:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
   </si>
   <si>
     <t>Jayprakash Shadanan Bhure</t>
@@ -1822,6 +1834,21 @@
     <t>https://google.qwiklabs.com/public_profiles/46dee9e3-85b5-4f6d-ae67-fc7352f5960b</t>
   </si>
   <si>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+  </si>
+  <si>
     <t>Shambashib Majumdar</t>
   </si>
   <si>
@@ -1852,6 +1879,21 @@
     <t>https://google.qwiklabs.com/public_profiles/cce3aee2-73c9-4f55-bdd1-06bf43d50bdb</t>
   </si>
   <si>
+    <t>Bihan Chakraborty</t>
+  </si>
+  <si>
+    <t>bhchakraborty001@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Referred] </t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 20:26:46 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7d092a43-f2aa-4b4a-aa13-b335fec3c304</t>
+  </si>
+  <si>
     <t>Hasibul Islam</t>
   </si>
   <si>
@@ -2197,6 +2239,21 @@
     <t>https://google.qwiklabs.com/public_profiles/8322635b-7c50-43ee-b032-b60171f6d8e7</t>
   </si>
   <si>
+    <t>Harini Dhanasekaran</t>
+  </si>
+  <si>
+    <t>harinirdhanasekaran@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Anna university</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 10:08:37 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/dd1c5508-f6b9-4aed-b7dc-c17f04743822</t>
+  </si>
+  <si>
     <t>Aditya Navya Shukla</t>
   </si>
   <si>
@@ -2251,18 +2308,6 @@
     <t>https://www.qwiklabs.com/public_profiles/7504b2e5-aeb5-4f46-91ca-7f14647f61d6</t>
   </si>
   <si>
-    <t>Riddhith Banerjee</t>
-  </si>
-  <si>
-    <t>riddhith04@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 18:04:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
-  </si>
-  <si>
     <t>Apurba Kumar Gorai</t>
   </si>
   <si>
@@ -2362,21 +2407,6 @@
     <t>https://www.qwiklabs.com/public_profiles/9a14e0da-e520-436f-96db-badb8aa9da0c</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
-  </si>
-  <si>
     <t>Sangbaran Sanyal</t>
   </si>
   <si>
@@ -2407,21 +2437,6 @@
     <t>https://google.qwiklabs.com/public_profiles/04c4e192-4add-4762-9bfb-518362f8834a</t>
   </si>
   <si>
-    <t>Bihan Chakraborty</t>
-  </si>
-  <si>
-    <t>bhchakraborty001@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Referred] </t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 20:26:46 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7d092a43-f2aa-4b4a-aa13-b335fec3c304</t>
-  </si>
-  <si>
     <t>Juhi Shivkumar Tomar</t>
   </si>
   <si>
@@ -2906,21 +2921,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/74b517a5-d472-4828-acd2-74fe6a1c2ea0</t>
-  </si>
-  <si>
-    <t>Harini Dhanasekaran</t>
-  </si>
-  <si>
-    <t>harinirdhanasekaran@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Anna university</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 10:08:37 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/dd1c5508-f6b9-4aed-b7dc-c17f04743822</t>
   </si>
   <si>
     <t>NIKHIL ISAAC</t>
@@ -7373,7 +7373,7 @@
         <v>30.0</v>
       </c>
       <c r="H7" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -7422,7 +7422,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H9" s="1">
         <v>12.0</v>
@@ -7555,7 +7555,7 @@
         <v>24.0</v>
       </c>
       <c r="H14" s="1">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -7578,10 +7578,10 @@
         <v>76</v>
       </c>
       <c r="G15" s="1">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H15" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
@@ -7604,10 +7604,10 @@
         <v>81</v>
       </c>
       <c r="G16" s="1">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H16" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -7630,10 +7630,10 @@
         <v>86</v>
       </c>
       <c r="G17" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H17" s="1">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
@@ -7644,45 +7644,45 @@
         <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H18" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H19" s="1">
         <v>8.0</v>
@@ -7690,65 +7690,65 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="H20" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="1">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H21" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>108</v>
@@ -7760,10 +7760,10 @@
         <v>109</v>
       </c>
       <c r="G22" s="1">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -7774,71 +7774,71 @@
         <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H23" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H24" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H25" s="1">
         <v>8.0</v>
@@ -7846,13 +7846,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>126</v>
@@ -7864,10 +7864,10 @@
         <v>127</v>
       </c>
       <c r="G26" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H26" s="1">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
@@ -7878,33 +7878,33 @@
         <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G27" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H27" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>135</v>
@@ -7919,7 +7919,7 @@
         <v>16.0</v>
       </c>
       <c r="H28" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="29">
@@ -7982,45 +7982,45 @@
         <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G31" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H31" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G32" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H32" s="1">
         <v>8.0</v>
@@ -8028,39 +8028,39 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G33" s="1">
         <v>14.0</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>163</v>
@@ -8101,7 +8101,7 @@
         <v>14.0</v>
       </c>
       <c r="H35" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="36">
@@ -8124,10 +8124,10 @@
         <v>174</v>
       </c>
       <c r="G36" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H36" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="37">
@@ -8138,33 +8138,33 @@
         <v>176</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="G37" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H37" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>182</v>
@@ -8179,7 +8179,7 @@
         <v>13.0</v>
       </c>
       <c r="H38" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
@@ -8190,59 +8190,59 @@
         <v>185</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H39" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G40" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H40" s="1">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>196</v>
@@ -8254,10 +8254,10 @@
         <v>197</v>
       </c>
       <c r="G41" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H41" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="42">
@@ -8280,10 +8280,10 @@
         <v>202</v>
       </c>
       <c r="G42" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="H42" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
@@ -8294,71 +8294,71 @@
         <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="G43" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H43" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="G44" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H44" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="G45" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H45" s="1">
         <v>7.0</v>
@@ -8366,13 +8366,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>220</v>
@@ -8384,10 +8384,10 @@
         <v>221</v>
       </c>
       <c r="G46" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H46" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -8413,7 +8413,7 @@
         <v>10.0</v>
       </c>
       <c r="H47" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="48">
@@ -8424,111 +8424,111 @@
         <v>228</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G48" s="1">
         <v>10.0</v>
       </c>
       <c r="H48" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G49" s="1">
         <v>10.0</v>
       </c>
       <c r="H49" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G50" s="1">
         <v>10.0</v>
       </c>
       <c r="H50" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G51" s="1">
         <v>10.0</v>
       </c>
       <c r="H51" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>247</v>
@@ -8540,10 +8540,10 @@
         <v>248</v>
       </c>
       <c r="G52" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="53">
@@ -8554,19 +8554,19 @@
         <v>250</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="G53" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H53" s="1">
         <v>7.0</v>
@@ -8574,91 +8574,91 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="G54" s="1">
         <v>9.0</v>
       </c>
       <c r="H54" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="G55" s="1">
         <v>9.0</v>
       </c>
       <c r="H55" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="G56" s="1">
         <v>9.0</v>
       </c>
       <c r="H56" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>271</v>
@@ -8673,7 +8673,7 @@
         <v>9.0</v>
       </c>
       <c r="H57" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
@@ -8696,10 +8696,10 @@
         <v>277</v>
       </c>
       <c r="G58" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H58" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
@@ -8722,10 +8722,10 @@
         <v>282</v>
       </c>
       <c r="G59" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H59" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
@@ -8748,10 +8748,10 @@
         <v>287</v>
       </c>
       <c r="G60" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H60" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
@@ -8762,33 +8762,33 @@
         <v>289</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G61" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="H61" s="1">
         <v>8.0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>295</v>
@@ -8800,10 +8800,10 @@
         <v>296</v>
       </c>
       <c r="G62" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H62" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
@@ -8814,68 +8814,68 @@
         <v>298</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="G63" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H63" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="G64" s="1">
         <v>8.0</v>
       </c>
       <c r="H64" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="G65" s="1">
         <v>8.0</v>
@@ -8886,195 +8886,195 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="G66" s="1">
         <v>8.0</v>
       </c>
       <c r="H66" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="G67" s="1">
         <v>8.0</v>
       </c>
       <c r="H67" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G68" s="1">
         <v>8.0</v>
       </c>
       <c r="H68" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="G69" s="1">
         <v>8.0</v>
       </c>
       <c r="H69" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="G70" s="1">
         <v>8.0</v>
       </c>
       <c r="H70" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
       </c>
       <c r="H71" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="G72" s="1">
         <v>8.0</v>
       </c>
       <c r="H72" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>346</v>
@@ -9086,10 +9086,10 @@
         <v>347</v>
       </c>
       <c r="G73" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H73" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
@@ -9112,10 +9112,10 @@
         <v>352</v>
       </c>
       <c r="G74" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H74" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -9126,59 +9126,59 @@
         <v>354</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="G75" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H75" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="G76" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H76" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>365</v>
@@ -9190,10 +9190,10 @@
         <v>366</v>
       </c>
       <c r="G77" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H77" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>6.0</v>
       </c>
     </row>
     <row r="78">
@@ -9219,7 +9219,7 @@
         <v>7.0</v>
       </c>
       <c r="H78" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="79">
@@ -9245,7 +9245,7 @@
         <v>7.0</v>
       </c>
       <c r="H79" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -9271,7 +9271,7 @@
         <v>7.0</v>
       </c>
       <c r="H80" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="81">
@@ -9297,7 +9297,7 @@
         <v>7.0</v>
       </c>
       <c r="H81" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="82">
@@ -9320,10 +9320,10 @@
         <v>390</v>
       </c>
       <c r="G82" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H82" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -9346,10 +9346,10 @@
         <v>395</v>
       </c>
       <c r="G83" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H83" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="84">
@@ -9360,33 +9360,33 @@
         <v>397</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="G84" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H84" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>403</v>
@@ -9398,10 +9398,10 @@
         <v>404</v>
       </c>
       <c r="G85" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H85" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -9427,7 +9427,7 @@
         <v>6.0</v>
       </c>
       <c r="H86" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -9438,59 +9438,59 @@
         <v>410</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>411</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G87" s="1">
         <v>6.0</v>
       </c>
       <c r="H87" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G88" s="1">
         <v>6.0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>420</v>
@@ -9505,7 +9505,7 @@
         <v>6.0</v>
       </c>
       <c r="H89" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -9516,16 +9516,16 @@
         <v>423</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="G90" s="1">
         <v>6.0</v>
@@ -9536,117 +9536,117 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="G91" s="1">
         <v>6.0</v>
       </c>
       <c r="H91" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="G92" s="1">
         <v>6.0</v>
       </c>
       <c r="H92" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="G93" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H93" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="G94" s="1">
         <v>5.0</v>
       </c>
       <c r="H94" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>448</v>
@@ -9661,7 +9661,7 @@
         <v>5.0</v>
       </c>
       <c r="H95" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
@@ -9672,33 +9672,33 @@
         <v>451</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>452</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G96" s="1">
         <v>5.0</v>
       </c>
       <c r="H96" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>456</v>
+        <v>229</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>457</v>
@@ -9713,7 +9713,7 @@
         <v>5.0</v>
       </c>
       <c r="H97" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
@@ -9724,16 +9724,16 @@
         <v>460</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="G98" s="1">
         <v>5.0</v>
@@ -9744,39 +9744,39 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="G99" s="1">
         <v>5.0</v>
       </c>
       <c r="H99" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>470</v>
@@ -9802,33 +9802,33 @@
         <v>473</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
       </c>
       <c r="H101" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>479</v>
@@ -9843,7 +9843,7 @@
         <v>5.0</v>
       </c>
       <c r="H102" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -9854,7 +9854,7 @@
         <v>482</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>483</v>
@@ -9869,7 +9869,7 @@
         <v>5.0</v>
       </c>
       <c r="H103" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="104">
@@ -9880,33 +9880,33 @@
         <v>486</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
       </c>
       <c r="H104" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>492</v>
@@ -9921,7 +9921,7 @@
         <v>5.0</v>
       </c>
       <c r="H105" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -9932,19 +9932,19 @@
         <v>495</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>496</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G106" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H106" s="1">
         <v>3.0</v>
@@ -9952,13 +9952,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>501</v>
@@ -9970,10 +9970,10 @@
         <v>502</v>
       </c>
       <c r="G107" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H107" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="108">
@@ -9984,97 +9984,97 @@
         <v>504</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G108" s="1">
         <v>4.0</v>
       </c>
       <c r="H108" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>510</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G109" s="1">
         <v>4.0</v>
       </c>
       <c r="H109" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>513</v>
+        <v>144</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G110" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H110" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G111" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H111" s="1">
         <v>3.0</v>
@@ -10082,13 +10082,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>523</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>524</v>
@@ -10100,10 +10100,10 @@
         <v>525</v>
       </c>
       <c r="G112" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H112" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -10114,7 +10114,7 @@
         <v>527</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>437</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>528</v>
@@ -10126,10 +10126,10 @@
         <v>529</v>
       </c>
       <c r="G113" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H113" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -10140,19 +10140,19 @@
         <v>531</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="G114" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H114" s="1">
         <v>3.0</v>
@@ -10160,13 +10160,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>537</v>
@@ -10181,7 +10181,7 @@
         <v>3.0</v>
       </c>
       <c r="H115" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -10192,59 +10192,59 @@
         <v>540</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="G116" s="1">
         <v>3.0</v>
       </c>
       <c r="H116" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="G117" s="1">
         <v>3.0</v>
       </c>
       <c r="H117" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>551</v>
@@ -10259,7 +10259,7 @@
         <v>3.0</v>
       </c>
       <c r="H118" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
@@ -10270,42 +10270,42 @@
         <v>554</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="G119" s="1">
         <v>3.0</v>
       </c>
       <c r="H119" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="G120" s="1">
         <v>3.0</v>
@@ -10316,13 +10316,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>565</v>
@@ -10337,7 +10337,7 @@
         <v>3.0</v>
       </c>
       <c r="H121" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -10348,7 +10348,7 @@
         <v>568</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>433</v>
+        <v>16</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>569</v>
@@ -10374,27 +10374,27 @@
         <v>572</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="G123" s="1">
         <v>3.0</v>
       </c>
       <c r="H123" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>413</v>
+        <v>575</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>576</v>
@@ -10420,74 +10420,74 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="G125" s="1">
         <v>3.0</v>
       </c>
       <c r="H125" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="G126" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H126" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="G127" s="1">
         <v>2.0</v>
@@ -10498,13 +10498,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>597</v>
@@ -10530,7 +10530,7 @@
         <v>600</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>601</v>
@@ -10556,16 +10556,16 @@
         <v>604</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="G130" s="1">
         <v>2.0</v>
@@ -10576,39 +10576,39 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="G131" s="1">
         <v>2.0</v>
       </c>
       <c r="H131" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>615</v>
@@ -10623,7 +10623,7 @@
         <v>2.0</v>
       </c>
       <c r="H132" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -10634,16 +10634,16 @@
         <v>618</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>16</v>
+        <v>619</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G133" s="1">
         <v>2.0</v>
@@ -10654,39 +10654,39 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G134" s="1">
         <v>2.0</v>
       </c>
       <c r="H134" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>628</v>
+        <v>229</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>629</v>
@@ -10712,7 +10712,7 @@
         <v>632</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>633</v>
@@ -10727,7 +10727,7 @@
         <v>2.0</v>
       </c>
       <c r="H136" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="137">
@@ -10753,7 +10753,7 @@
         <v>2.0</v>
       </c>
       <c r="H137" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="138">
@@ -10764,33 +10764,33 @@
         <v>641</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>16</v>
+        <v>642</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
       </c>
       <c r="H138" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>646</v>
+        <v>384</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>647</v>
@@ -10805,7 +10805,7 @@
         <v>2.0</v>
       </c>
       <c r="H139" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="140">
@@ -10831,7 +10831,7 @@
         <v>2.0</v>
       </c>
       <c r="H140" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -10842,16 +10842,16 @@
         <v>655</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
@@ -10862,91 +10862,91 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
       </c>
       <c r="H142" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="G143" s="1">
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="G144" s="1">
         <v>2.0</v>
       </c>
       <c r="H144" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>676</v>
@@ -11024,33 +11024,33 @@
         <v>689</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>695</v>
@@ -11065,7 +11065,7 @@
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -11076,16 +11076,16 @@
         <v>698</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G150" s="1">
         <v>2.0</v>
@@ -11096,65 +11096,65 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G151" s="1">
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G152" s="1">
         <v>2.0</v>
       </c>
       <c r="H152" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>712</v>
+        <v>474</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>713</v>
@@ -11180,16 +11180,16 @@
         <v>716</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>16</v>
+        <v>717</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G154" s="1">
         <v>2.0</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>721</v>
+        <v>16</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>722</v>
@@ -11221,7 +11221,7 @@
         <v>2.0</v>
       </c>
       <c r="H155" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -11232,16 +11232,16 @@
         <v>725</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G156" s="1">
         <v>2.0</v>
@@ -11252,65 +11252,65 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G157" s="1">
         <v>2.0</v>
       </c>
       <c r="H157" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G158" s="1">
         <v>2.0</v>
       </c>
       <c r="H158" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>740</v>
@@ -11325,7 +11325,7 @@
         <v>2.0</v>
       </c>
       <c r="H159" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="160">
@@ -11336,42 +11336,42 @@
         <v>743</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>16</v>
+        <v>744</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G160" s="1">
         <v>2.0</v>
       </c>
       <c r="H160" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G161" s="1">
         <v>2.0</v>
@@ -11382,48 +11382,48 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G162" s="1">
         <v>2.0</v>
       </c>
       <c r="H162" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G163" s="1">
         <v>2.0</v>
@@ -11434,22 +11434,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G164" s="1">
         <v>2.0</v>
@@ -11460,51 +11460,51 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>16</v>
+        <v>767</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G165" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H165" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>16</v>
+        <v>772</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G166" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H166" s="1">
         <v>0.0</v>
@@ -11512,25 +11512,25 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="G167" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H167" s="1">
         <v>0.0</v>
@@ -11538,22 +11538,22 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G168" s="1">
         <v>1.0</v>
@@ -11564,22 +11564,22 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>468</v>
+        <v>783</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="G169" s="1">
         <v>1.0</v>
@@ -11590,22 +11590,22 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>785</v>
+        <v>16</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="G170" s="1">
         <v>1.0</v>
@@ -11616,22 +11616,22 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>790</v>
+        <v>16</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G171" s="1">
         <v>1.0</v>
@@ -11642,13 +11642,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>793</v>
+        <v>481</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>795</v>
+        <v>219</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>796</v>
@@ -11689,7 +11689,7 @@
         <v>1.0</v>
       </c>
       <c r="H173" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
@@ -11741,7 +11741,7 @@
         <v>1.0</v>
       </c>
       <c r="H175" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -11752,16 +11752,16 @@
         <v>814</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G176" s="1">
         <v>1.0</v>
@@ -11772,13 +11772,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>820</v>
@@ -11793,7 +11793,7 @@
         <v>1.0</v>
       </c>
       <c r="H177" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="178">
@@ -11804,16 +11804,16 @@
         <v>823</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>74</v>
+        <v>824</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G178" s="1">
         <v>1.0</v>
@@ -11824,13 +11824,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>828</v>
+        <v>79</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>829</v>
@@ -11856,16 +11856,16 @@
         <v>832</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>637</v>
+        <v>833</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G180" s="1">
         <v>1.0</v>
@@ -11876,13 +11876,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>837</v>
+        <v>651</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>838</v>
@@ -11923,7 +11923,7 @@
         <v>1.0</v>
       </c>
       <c r="H182" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -11934,33 +11934,33 @@
         <v>846</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>795</v>
+        <v>847</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G183" s="1">
         <v>1.0</v>
       </c>
       <c r="H183" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>851</v>
+        <v>805</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>852</v>
@@ -12038,16 +12038,16 @@
         <v>865</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>573</v>
+        <v>866</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G187" s="1">
         <v>1.0</v>
@@ -12058,22 +12058,22 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>16</v>
+        <v>577</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G188" s="1">
         <v>1.0</v>
@@ -12084,65 +12084,65 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G189" s="1">
         <v>1.0</v>
       </c>
       <c r="H189" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>573</v>
+        <v>16</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G190" s="1">
         <v>1.0</v>
       </c>
       <c r="H190" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>882</v>
+        <v>577</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>883</v>
@@ -12168,33 +12168,33 @@
         <v>886</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>195</v>
+        <v>887</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G192" s="1">
         <v>1.0</v>
       </c>
       <c r="H192" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>891</v>
+        <v>209</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>892</v>
@@ -12220,59 +12220,59 @@
         <v>895</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>16</v>
+        <v>896</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G194" s="1">
         <v>1.0</v>
       </c>
       <c r="H194" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>795</v>
+        <v>16</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G195" s="1">
         <v>1.0</v>
       </c>
       <c r="H195" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>904</v>
+        <v>805</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>905</v>
@@ -12287,7 +12287,7 @@
         <v>1.0</v>
       </c>
       <c r="H196" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
@@ -12376,16 +12376,16 @@
         <v>923</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>795</v>
+        <v>924</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G200" s="1">
         <v>1.0</v>
@@ -12396,13 +12396,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>928</v>
+        <v>805</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>929</v>
@@ -12495,7 +12495,7 @@
         <v>1.0</v>
       </c>
       <c r="H204" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
@@ -12521,7 +12521,7 @@
         <v>1.0</v>
       </c>
       <c r="H205" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
@@ -12547,7 +12547,7 @@
         <v>1.0</v>
       </c>
       <c r="H206" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -12558,33 +12558,33 @@
         <v>957</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>456</v>
+        <v>958</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G207" s="1">
         <v>1.0</v>
       </c>
       <c r="H207" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>962</v>
+        <v>469</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>963</v>
@@ -12662,7 +12662,7 @@
         <v>976</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>977</v>
@@ -12708,13 +12708,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>984</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>985</v>
@@ -12792,7 +12792,7 @@
         <v>997</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>998</v>
@@ -12896,7 +12896,7 @@
         <v>1015</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>1016</v>
@@ -13026,7 +13026,7 @@
         <v>1034</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>1035</v>
@@ -13176,13 +13176,13 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>1059</v>
@@ -13312,7 +13312,7 @@
         <v>1082</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1083</v>
@@ -13338,7 +13338,7 @@
         <v>1086</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1087</v>
@@ -13364,7 +13364,7 @@
         <v>1090</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1091</v>
@@ -13494,7 +13494,7 @@
         <v>1112</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1113</v>
@@ -13546,7 +13546,7 @@
         <v>1121</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1122</v>
@@ -13566,13 +13566,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>800</v>
+        <v>624</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1125</v>
@@ -13754,7 +13754,7 @@
         <v>1157</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1158</v>
@@ -13774,13 +13774,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1161</v>
@@ -13806,7 +13806,7 @@
         <v>1164</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>800</v>
+        <v>624</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1165</v>
@@ -13832,7 +13832,7 @@
         <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1169</v>
@@ -13858,7 +13858,7 @@
         <v>1173</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1174</v>
@@ -13910,7 +13910,7 @@
         <v>1181</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1182</v>
@@ -13936,7 +13936,7 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13988,7 +13988,7 @@
         <v>1194</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1195</v>
@@ -14040,7 +14040,7 @@
         <v>1203</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1204</v>
@@ -14066,7 +14066,7 @@
         <v>1207</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1208</v>
@@ -14118,7 +14118,7 @@
         <v>1216</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1217</v>
@@ -14216,13 +14216,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1234</v>
@@ -14326,7 +14326,7 @@
         <v>1251</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1252</v>
@@ -14508,7 +14508,7 @@
         <v>1281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1282</v>
@@ -14638,7 +14638,7 @@
         <v>1302</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1303</v>
@@ -14820,7 +14820,7 @@
         <v>1333</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>1334</v>
@@ -14872,7 +14872,7 @@
         <v>1342</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>1343</v>
@@ -14898,7 +14898,7 @@
         <v>1346</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1347</v>
@@ -14918,13 +14918,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>1349</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1350</v>
@@ -15106,7 +15106,7 @@
         <v>1379</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>1380</v>
@@ -15288,7 +15288,7 @@
         <v>1409</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1410</v>
@@ -15314,7 +15314,7 @@
         <v>1413</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1414</v>
@@ -15392,7 +15392,7 @@
         <v>1426</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>1427</v>
@@ -15444,7 +15444,7 @@
         <v>1434</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1435</v>
@@ -15652,7 +15652,7 @@
         <v>1469</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>1470</v>
@@ -15678,7 +15678,7 @@
         <v>1473</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1474</v>
@@ -15750,13 +15750,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1486</v>
@@ -15834,7 +15834,7 @@
         <v>1499</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>1500</v>
@@ -15938,7 +15938,7 @@
         <v>1518</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1519</v>
@@ -16354,7 +16354,7 @@
         <v>1587</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>1588</v>
@@ -16432,7 +16432,7 @@
         <v>1599</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1600</v>
@@ -16536,7 +16536,7 @@
         <v>1618</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1619</v>
@@ -16588,7 +16588,7 @@
         <v>1626</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1627</v>
@@ -16744,7 +16744,7 @@
         <v>1653</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>1654</v>
@@ -17082,7 +17082,7 @@
         <v>1714</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1715</v>
@@ -17108,7 +17108,7 @@
         <v>1718</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1719</v>
@@ -17212,7 +17212,7 @@
         <v>1736</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1737</v>
@@ -17316,7 +17316,7 @@
         <v>1754</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1755</v>
@@ -17336,7 +17336,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>1757</v>
@@ -17388,13 +17388,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1765</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>1766</v>
@@ -17440,7 +17440,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1773</v>
@@ -17732,7 +17732,7 @@
         <v>1825</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>1826</v>
@@ -17836,7 +17836,7 @@
         <v>1841</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>1842</v>
@@ -18018,7 +18018,7 @@
         <v>1873</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>1874</v>
@@ -18252,7 +18252,7 @@
         <v>1910</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>1911</v>
@@ -18298,13 +18298,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1917</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1918</v>
@@ -18356,7 +18356,7 @@
         <v>1926</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>1927</v>
@@ -18850,7 +18850,7 @@
         <v>2009</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>2010</v>
@@ -19136,7 +19136,7 @@
         <v>2061</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>2062</v>
@@ -19448,7 +19448,7 @@
         <v>2116</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2117</v>
@@ -19474,7 +19474,7 @@
         <v>2120</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>2121</v>
@@ -19552,7 +19552,7 @@
         <v>2134</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2135</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19864,7 +19864,7 @@
         <v>2186</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>2187</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20306,7 +20306,7 @@
         <v>2256</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>2257</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>800</v>
+        <v>624</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -160,6 +160,21 @@
     <t>https://google.qwiklabs.com/public_profiles/2c915a5f-a868-4dbe-bbe5-8eff68124015</t>
   </si>
   <si>
+    <t>Gursharan Kaur</t>
+  </si>
+  <si>
+    <t>gursharankaur8031@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MAIT</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
+  </si>
+  <si>
     <t>DEBOSMITA BOSE</t>
   </si>
   <si>
@@ -214,6 +229,36 @@
     <t>https://www.qwiklabs.com/public_profiles/151fbf5b-403e-4027-8dc6-32e5de62e688</t>
   </si>
   <si>
+    <t>Rohit Das</t>
+  </si>
+  <si>
+    <t>rohitdas2k@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India Saltlake</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
+  </si>
+  <si>
+    <t>Harshit Goyal</t>
+  </si>
+  <si>
+    <t>harshitgoyal923@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Bharati Vidyapeeth's Institute of Computer Applications and Management (BVICAM)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:28:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
+  </si>
+  <si>
     <t>Akhil C Padmanabhan</t>
   </si>
   <si>
@@ -229,21 +274,6 @@
     <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
   </si>
   <si>
-    <t>Gursharan Kaur</t>
-  </si>
-  <si>
-    <t>gursharankaur8031@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MAIT</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
-  </si>
-  <si>
     <t>Tanmoyee Roy</t>
   </si>
   <si>
@@ -259,21 +289,6 @@
     <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
   </si>
   <si>
-    <t>Rohit Das</t>
-  </si>
-  <si>
-    <t>rohitdas2k@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India Saltlake</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
-  </si>
-  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -289,21 +304,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>Harshit Goyal</t>
-  </si>
-  <si>
-    <t>harshitgoyal923@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Bharati Vidyapeeth's Institute of Computer Applications and Management (BVICAM)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:28:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
-  </si>
-  <si>
     <t>Prateek Kumar Sharma</t>
   </si>
   <si>
@@ -319,6 +319,33 @@
     <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
+    <t>SUDIPTA ROY</t>
+  </si>
+  <si>
+    <t>sudipta01roy@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
+  </si>
+  <si>
+    <t>PRACHI PURVA</t>
+  </si>
+  <si>
+    <t>prachipurva7142@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
+  </si>
+  <si>
     <t>Prachi Kumari</t>
   </si>
   <si>
@@ -331,33 +358,6 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
-    <t>SUDIPTA ROY</t>
-  </si>
-  <si>
-    <t>sudipta01roy@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
-  </si>
-  <si>
-    <t>PRACHI PURVA</t>
-  </si>
-  <si>
-    <t>prachipurva7142@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
-  </si>
-  <si>
     <t>Ayan Pal</t>
   </si>
   <si>
@@ -424,6 +424,48 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
+    <t>Soham Saha</t>
+  </si>
+  <si>
+    <t>sahasoham01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
+  </si>
+  <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
+    <t>Utsav Vora</t>
+  </si>
+  <si>
+    <t>utsavvora2407@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+  </si>
+  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -454,6 +496,21 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
+  </si>
+  <si>
     <t>Debarghya Chowdhury</t>
   </si>
   <si>
@@ -469,21 +526,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
   </si>
   <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
-  </si>
-  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -508,21 +550,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
-    <t>Soham Saha</t>
-  </si>
-  <si>
-    <t>sahasoham01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
-  </si>
-  <si>
     <t>Saurav Kumar</t>
   </si>
   <si>
@@ -538,33 +565,6 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
-    <t>Utsav Vora</t>
-  </si>
-  <si>
-    <t>utsavvora2407@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
-  </si>
-  <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
     <t>Anom Chakravorty</t>
   </si>
   <si>
@@ -595,6 +595,21 @@
     <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
   </si>
   <si>
+    <t>Sayan Sengupta</t>
+  </si>
+  <si>
+    <t>sayansengupta2001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of engineering and management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+  </si>
+  <si>
     <t>Sandipa Jana</t>
   </si>
   <si>
@@ -634,6 +649,21 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
+    <t>Rupankar Basak</t>
+  </si>
+  <si>
+    <t>rblearning69@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
+  </si>
+  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -649,19 +679,19 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Sayan Sengupta</t>
-  </si>
-  <si>
-    <t>sayansengupta2001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of engineering and management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+    <t>ANUVAB DUTTA</t>
+  </si>
+  <si>
+    <t>anuvabduttaatwork@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] VIT Vellore</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
     <t>Srishti Pal</t>
@@ -679,21 +709,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
   </si>
   <si>
-    <t>Rupankar Basak</t>
-  </si>
-  <si>
-    <t>rblearning69@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
-  </si>
-  <si>
     <t>Subhayu Kumar Bala</t>
   </si>
   <si>
@@ -709,6 +724,21 @@
     <t>https://google.qwiklabs.com/public_profiles/341afaff-dcfc-43ec-b392-5096f4ff6fe6</t>
   </si>
   <si>
+    <t>Anuja Singh</t>
+  </si>
+  <si>
+    <t>anujasingh2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
+  </si>
+  <si>
     <t>AKANSHU KUMAR SINGH</t>
   </si>
   <si>
@@ -748,6 +778,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
+    <t>Harshit Parwal</t>
+  </si>
+  <si>
+    <t>harshitparwal1999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
+  </si>
+  <si>
     <t>Mufaddal Vadnagarwala</t>
   </si>
   <si>
@@ -772,6 +817,18 @@
     <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
   </si>
   <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
     <t>Arkarup Saha</t>
   </si>
   <si>
@@ -787,21 +844,6 @@
     <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
   </si>
   <si>
-    <t>Anuja Singh</t>
-  </si>
-  <si>
-    <t>anujasingh2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
-  </si>
-  <si>
     <t>Raunak Kumar Sah</t>
   </si>
   <si>
@@ -832,21 +874,6 @@
     <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
   </si>
   <si>
-    <t>ANUVAB DUTTA</t>
-  </si>
-  <si>
-    <t>anuvabduttaatwork@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] VIT Vellore</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
-  </si>
-  <si>
     <t>Rishav Chakraborty</t>
   </si>
   <si>
@@ -877,21 +904,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
-    <t>Harshit Parwal</t>
-  </si>
-  <si>
-    <t>harshitparwal1999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Arya Institute of Engineering and Technology, Jaipur</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 18:13:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
-  </si>
-  <si>
     <t>Ushasi Das</t>
   </si>
   <si>
@@ -904,18 +916,6 @@
     <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
   </si>
   <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
     <t>Rajesh Paswan</t>
   </si>
   <si>
@@ -958,6 +958,21 @@
     <t>https://google.qwiklabs.com/public_profiles/00551988-5a4e-4a7c-b2b1-bb33be2bd8bb</t>
   </si>
   <si>
+    <t>Aman Chowdhury</t>
+  </si>
+  <si>
+    <t>amanchowdhury046@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
+  </si>
+  <si>
     <t>Arya Shah</t>
   </si>
   <si>
@@ -1042,6 +1057,18 @@
     <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
   </si>
   <si>
+    <t>Daita sur</t>
+  </si>
+  <si>
+    <t>daitasur49078@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 09:00:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
+  </si>
+  <si>
     <t>Manshi Shaw</t>
   </si>
   <si>
@@ -1072,6 +1099,21 @@
     <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
   </si>
   <si>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+  </si>
+  <si>
     <t>Samrat Ganguly</t>
   </si>
   <si>
@@ -1099,6 +1141,21 @@
     <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
+    <t>MEGHADRI KOLEY</t>
+  </si>
+  <si>
+    <t>meghadrikoley9@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] TECHNO MAIN SALT LAKE</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 14:39:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
+  </si>
+  <si>
     <t>ROHIT DEY</t>
   </si>
   <si>
@@ -1114,19 +1171,16 @@
     <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
-    <t>Aman Chowdhury</t>
-  </si>
-  <si>
-    <t>amanchowdhury046@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute of Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
   </si>
   <si>
     <t>Arunima Dhar</t>
@@ -1186,21 +1240,6 @@
     <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
-  </si>
-  <si>
     <t>Anwesha Ghosh</t>
   </si>
   <si>
@@ -1213,21 +1252,6 @@
     <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
   </si>
   <si>
-    <t>MEGHADRI KOLEY</t>
-  </si>
-  <si>
-    <t>meghadrikoley9@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] TECHNO MAIN SALT LAKE</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 14:39:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1402,18 +1426,6 @@
     <t>https://google.qwiklabs.com/public_profiles/03b213db-e327-4a96-8f1e-be17b689997b</t>
   </si>
   <si>
-    <t>Daita sur</t>
-  </si>
-  <si>
-    <t>daitasur49078@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 09:00:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
-  </si>
-  <si>
     <t>Riju Sharma</t>
   </si>
   <si>
@@ -1552,16 +1564,19 @@
     <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
   </si>
   <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+    <t>Geetika Sethi</t>
+  </si>
+  <si>
+    <t>geetikasethi1723@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Banasthali Vidyapeeth</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:58:05 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
   </si>
   <si>
     <t>ANUSHA CHATTERJEE</t>
@@ -1684,21 +1699,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2fbf708a-7627-4a75-8328-f881b5908826</t>
   </si>
   <si>
-    <t>Geetika Sethi</t>
-  </si>
-  <si>
-    <t>geetikasethi1723@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Banasthali Vidyapeeth</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:58:05 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
-  </si>
-  <si>
     <t>Shadab Ahmad</t>
   </si>
   <si>
@@ -2437,6 +2437,18 @@
     <t>https://google.qwiklabs.com/public_profiles/04c4e192-4add-4762-9bfb-518362f8834a</t>
   </si>
   <si>
+    <t>Anirudh Jalan</t>
+  </si>
+  <si>
+    <t>anirudhjalan2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 20:17:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/edaabff6-9898-40aa-abdb-507e8ad519dc</t>
+  </si>
+  <si>
     <t>Juhi Shivkumar Tomar</t>
   </si>
   <si>
@@ -3290,18 +3302,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/c004db55-b0e0-416c-a598-00a2362ef675</t>
-  </si>
-  <si>
-    <t>Anirudh Jalan</t>
-  </si>
-  <si>
-    <t>anirudhjalan2001@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 20:17:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/edaabff6-9898-40aa-abdb-507e8ad519dc</t>
   </si>
   <si>
     <t>Sayan Samanta</t>
@@ -7448,7 +7448,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H10" s="1">
         <v>12.0</v>
@@ -7462,19 +7462,19 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H11" s="1">
         <v>12.0</v>
@@ -7482,13 +7482,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>61</v>
@@ -7514,16 +7514,16 @@
         <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1">
         <v>24.0</v>
@@ -7534,13 +7534,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>70</v>
@@ -7555,7 +7555,7 @@
         <v>24.0</v>
       </c>
       <c r="H14" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -7581,7 +7581,7 @@
         <v>24.0</v>
       </c>
       <c r="H15" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -7604,7 +7604,7 @@
         <v>81</v>
       </c>
       <c r="G16" s="1">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="H16" s="1">
         <v>8.0</v>
@@ -7630,7 +7630,7 @@
         <v>86</v>
       </c>
       <c r="G17" s="1">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H17" s="1">
         <v>12.0</v>
@@ -7656,10 +7656,10 @@
         <v>91</v>
       </c>
       <c r="G18" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H18" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
@@ -7682,10 +7682,10 @@
         <v>96</v>
       </c>
       <c r="G19" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H19" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
@@ -7708,10 +7708,10 @@
         <v>101</v>
       </c>
       <c r="G20" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
@@ -7722,7 +7722,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>104</v>
@@ -7734,10 +7734,10 @@
         <v>105</v>
       </c>
       <c r="G21" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H21" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
@@ -7748,33 +7748,33 @@
         <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H22" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>113</v>
@@ -7789,7 +7789,7 @@
         <v>19.0</v>
       </c>
       <c r="H23" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
@@ -7826,7 +7826,7 @@
         <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>122</v>
@@ -7904,7 +7904,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>135</v>
@@ -7945,7 +7945,7 @@
         <v>16.0</v>
       </c>
       <c r="H29" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30">
@@ -7982,45 +7982,45 @@
         <v>148</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="G31" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H31" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G32" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H32" s="1">
         <v>8.0</v>
@@ -8028,13 +8028,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>159</v>
@@ -8046,10 +8046,10 @@
         <v>160</v>
       </c>
       <c r="G33" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H33" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
@@ -8060,45 +8060,45 @@
         <v>162</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G34" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H34" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G35" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H35" s="1">
         <v>10.0</v>
@@ -8106,13 +8106,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>173</v>
@@ -8127,7 +8127,7 @@
         <v>14.0</v>
       </c>
       <c r="H36" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -8153,7 +8153,7 @@
         <v>14.0</v>
       </c>
       <c r="H37" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
@@ -8176,10 +8176,10 @@
         <v>183</v>
       </c>
       <c r="G38" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H38" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -8242,33 +8242,33 @@
         <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G41" s="1">
         <v>13.0</v>
       </c>
       <c r="H41" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>201</v>
@@ -8294,33 +8294,33 @@
         <v>204</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G43" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H43" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>210</v>
@@ -8332,10 +8332,10 @@
         <v>211</v>
       </c>
       <c r="G44" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H44" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -8358,10 +8358,10 @@
         <v>216</v>
       </c>
       <c r="G45" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H45" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="46">
@@ -8387,7 +8387,7 @@
         <v>11.0</v>
       </c>
       <c r="H46" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -8410,10 +8410,10 @@
         <v>226</v>
       </c>
       <c r="G47" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H47" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
@@ -8436,10 +8436,10 @@
         <v>231</v>
       </c>
       <c r="G48" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H48" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -8465,7 +8465,7 @@
         <v>10.0</v>
       </c>
       <c r="H49" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
@@ -8476,149 +8476,149 @@
         <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G50" s="1">
         <v>10.0</v>
       </c>
       <c r="H50" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G51" s="1">
         <v>10.0</v>
       </c>
       <c r="H51" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G52" s="1">
         <v>10.0</v>
       </c>
       <c r="H52" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G53" s="1">
         <v>10.0</v>
       </c>
       <c r="H53" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G54" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H54" s="1">
         <v>9.0</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G55" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H55" s="1">
         <v>7.0</v>
@@ -8626,13 +8626,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>266</v>
@@ -8644,10 +8644,10 @@
         <v>267</v>
       </c>
       <c r="G56" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H56" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
@@ -8658,137 +8658,137 @@
         <v>269</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="G57" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H57" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G58" s="1">
         <v>9.0</v>
       </c>
       <c r="H58" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G59" s="1">
         <v>9.0</v>
       </c>
       <c r="H59" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="G60" s="1">
         <v>9.0</v>
       </c>
       <c r="H60" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="G61" s="1">
         <v>9.0</v>
       </c>
       <c r="H61" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>295</v>
@@ -8829,7 +8829,7 @@
         <v>9.0</v>
       </c>
       <c r="H63" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
@@ -8933,7 +8933,7 @@
         <v>8.0</v>
       </c>
       <c r="H67" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="68">
@@ -8944,33 +8944,33 @@
         <v>321</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G68" s="1">
         <v>8.0</v>
       </c>
       <c r="H68" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>327</v>
@@ -8985,7 +8985,7 @@
         <v>8.0</v>
       </c>
       <c r="H69" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="70">
@@ -9011,7 +9011,7 @@
         <v>8.0</v>
       </c>
       <c r="H70" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -9048,16 +9048,16 @@
         <v>340</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G72" s="1">
         <v>8.0</v>
@@ -9068,13 +9068,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>346</v>
@@ -9100,33 +9100,33 @@
         <v>349</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="G74" s="1">
         <v>8.0</v>
       </c>
       <c r="H74" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>355</v>
@@ -9167,7 +9167,7 @@
         <v>8.0</v>
       </c>
       <c r="H76" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -9204,163 +9204,163 @@
         <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="G78" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H78" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="G79" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H79" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="G80" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H80" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="G81" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H81" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H81" s="1">
-        <v>6.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="G82" s="1">
         <v>7.0</v>
       </c>
       <c r="H82" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="G83" s="1">
         <v>7.0</v>
       </c>
       <c r="H83" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>398</v>
@@ -9375,7 +9375,7 @@
         <v>7.0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="85">
@@ -9401,7 +9401,7 @@
         <v>7.0</v>
       </c>
       <c r="H85" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="86">
@@ -9424,10 +9424,10 @@
         <v>408</v>
       </c>
       <c r="G86" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H86" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -9438,19 +9438,19 @@
         <v>410</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="G87" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H87" s="1">
         <v>0.0</v>
@@ -9458,39 +9458,39 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="G88" s="1">
         <v>6.0</v>
       </c>
       <c r="H88" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>420</v>
@@ -9542,7 +9542,7 @@
         <v>427</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>428</v>
@@ -9568,16 +9568,16 @@
         <v>431</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G92" s="1">
         <v>6.0</v>
@@ -9588,51 +9588,51 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="G93" s="1">
         <v>6.0</v>
       </c>
       <c r="H93" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="G94" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H94" s="1">
         <v>5.0</v>
@@ -9640,91 +9640,91 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="G95" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H95" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="G96" s="1">
         <v>5.0</v>
       </c>
       <c r="H96" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G97" s="1">
         <v>5.0</v>
       </c>
       <c r="H97" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>461</v>
@@ -9739,7 +9739,7 @@
         <v>5.0</v>
       </c>
       <c r="H98" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -9750,7 +9750,7 @@
         <v>464</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>465</v>
@@ -9765,7 +9765,7 @@
         <v>5.0</v>
       </c>
       <c r="H99" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -9776,59 +9776,59 @@
         <v>468</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="G100" s="1">
         <v>5.0</v>
       </c>
       <c r="H100" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
       </c>
       <c r="H101" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>479</v>
@@ -9843,7 +9843,7 @@
         <v>5.0</v>
       </c>
       <c r="H102" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="103">
@@ -9854,7 +9854,7 @@
         <v>482</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>483</v>
@@ -9869,7 +9869,7 @@
         <v>5.0</v>
       </c>
       <c r="H103" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -9880,7 +9880,7 @@
         <v>486</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>487</v>
@@ -9895,7 +9895,7 @@
         <v>5.0</v>
       </c>
       <c r="H104" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="105">
@@ -9906,59 +9906,59 @@
         <v>490</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="G105" s="1">
         <v>5.0</v>
       </c>
       <c r="H105" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="G106" s="1">
         <v>5.0</v>
       </c>
       <c r="H106" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>501</v>
@@ -9973,7 +9973,7 @@
         <v>5.0</v>
       </c>
       <c r="H107" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
@@ -9984,59 +9984,59 @@
         <v>504</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="G108" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H108" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H108" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="G109" s="1">
         <v>4.0</v>
       </c>
       <c r="H109" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>515</v>
@@ -10077,7 +10077,7 @@
         <v>4.0</v>
       </c>
       <c r="H111" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -10088,68 +10088,68 @@
         <v>523</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>524</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G112" s="1">
         <v>4.0</v>
       </c>
       <c r="H112" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>437</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G113" s="1">
         <v>4.0</v>
       </c>
       <c r="H113" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G114" s="1">
         <v>4.0</v>
@@ -10160,13 +10160,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>536</v>
+        <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>537</v>
@@ -10178,7 +10178,7 @@
         <v>538</v>
       </c>
       <c r="G115" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H115" s="1">
         <v>3.0</v>
@@ -10192,33 +10192,33 @@
         <v>540</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>16</v>
+        <v>541</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G116" s="1">
         <v>3.0</v>
       </c>
       <c r="H116" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>545</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>546</v>
@@ -10233,7 +10233,7 @@
         <v>3.0</v>
       </c>
       <c r="H117" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118">
@@ -10259,7 +10259,7 @@
         <v>3.0</v>
       </c>
       <c r="H118" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -10270,33 +10270,33 @@
         <v>554</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>555</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G119" s="1">
         <v>3.0</v>
       </c>
       <c r="H119" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>560</v>
@@ -10311,7 +10311,7 @@
         <v>3.0</v>
       </c>
       <c r="H120" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
@@ -10420,7 +10420,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>580</v>
@@ -10530,7 +10530,7 @@
         <v>600</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>601</v>
@@ -10686,7 +10686,7 @@
         <v>628</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>629</v>
@@ -10790,7 +10790,7 @@
         <v>646</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>647</v>
@@ -11128,7 +11128,7 @@
         <v>708</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>709</v>
@@ -11154,7 +11154,7 @@
         <v>712</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>713</v>
@@ -11362,7 +11362,7 @@
         <v>748</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>749</v>
@@ -11518,7 +11518,7 @@
         <v>776</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>777</v>
@@ -11642,13 +11642,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>795</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>796</v>
@@ -11726,16 +11726,16 @@
         <v>809</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="G175" s="1">
         <v>1.0</v>
@@ -11746,39 +11746,39 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="G176" s="1">
         <v>1.0</v>
       </c>
       <c r="H176" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>820</v>
@@ -11804,33 +11804,33 @@
         <v>823</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="G178" s="1">
         <v>1.0</v>
       </c>
       <c r="H178" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>829</v>
@@ -11856,16 +11856,16 @@
         <v>832</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="G180" s="1">
         <v>1.0</v>
@@ -11876,13 +11876,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>838</v>
@@ -11908,16 +11908,16 @@
         <v>841</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="G182" s="1">
         <v>1.0</v>
@@ -11928,39 +11928,39 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="G183" s="1">
         <v>1.0</v>
       </c>
       <c r="H183" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>852</v>
@@ -11975,7 +11975,7 @@
         <v>1.0</v>
       </c>
       <c r="H184" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="185">
@@ -11986,16 +11986,16 @@
         <v>855</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="G185" s="1">
         <v>1.0</v>
@@ -12006,22 +12006,22 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="G186" s="1">
         <v>1.0</v>
@@ -12032,22 +12032,22 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="G187" s="1">
         <v>1.0</v>
@@ -12058,13 +12058,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>871</v>
@@ -12090,7 +12090,7 @@
         <v>874</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>16</v>
+        <v>577</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>875</v>
@@ -12131,7 +12131,7 @@
         <v>1.0</v>
       </c>
       <c r="H190" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -12142,7 +12142,7 @@
         <v>882</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>577</v>
+        <v>16</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>883</v>
@@ -12157,7 +12157,7 @@
         <v>1.0</v>
       </c>
       <c r="H191" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="192">
@@ -12168,16 +12168,16 @@
         <v>886</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="G192" s="1">
         <v>1.0</v>
@@ -12188,13 +12188,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>892</v>
@@ -12209,7 +12209,7 @@
         <v>1.0</v>
       </c>
       <c r="H193" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -12220,16 +12220,16 @@
         <v>895</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="G194" s="1">
         <v>1.0</v>
@@ -12240,13 +12240,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>901</v>
@@ -12261,7 +12261,7 @@
         <v>1.0</v>
       </c>
       <c r="H195" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
@@ -12272,7 +12272,7 @@
         <v>904</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>805</v>
+        <v>16</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>905</v>
@@ -12287,7 +12287,7 @@
         <v>1.0</v>
       </c>
       <c r="H196" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -12298,42 +12298,42 @@
         <v>908</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="G197" s="1">
         <v>1.0</v>
       </c>
       <c r="H197" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="G198" s="1">
         <v>1.0</v>
@@ -12344,22 +12344,22 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>921</v>
       </c>
       <c r="G199" s="1">
         <v>1.0</v>
@@ -12370,22 +12370,22 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="G200" s="1">
         <v>1.0</v>
@@ -12396,13 +12396,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>929</v>
@@ -12428,16 +12428,16 @@
         <v>932</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="G202" s="1">
         <v>1.0</v>
@@ -12448,22 +12448,22 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="G203" s="1">
         <v>1.0</v>
@@ -12474,22 +12474,22 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="G204" s="1">
         <v>1.0</v>
@@ -12500,91 +12500,91 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="G205" s="1">
         <v>1.0</v>
       </c>
       <c r="H205" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="G206" s="1">
         <v>1.0</v>
       </c>
       <c r="H206" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="G207" s="1">
         <v>1.0</v>
       </c>
       <c r="H207" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>963</v>
@@ -12599,7 +12599,7 @@
         <v>1.0</v>
       </c>
       <c r="H208" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="209">
@@ -12610,16 +12610,16 @@
         <v>966</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="G209" s="1">
         <v>1.0</v>
@@ -12630,39 +12630,39 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="G210" s="1">
         <v>1.0</v>
       </c>
       <c r="H210" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>977</v>
@@ -12688,42 +12688,42 @@
         <v>980</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>983</v>
       </c>
       <c r="G212" s="1">
         <v>1.0</v>
       </c>
       <c r="H212" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>836</v>
+        <v>983</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>984</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>651</v>
+        <v>985</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G213" s="1">
         <v>1.0</v>
@@ -12734,13 +12734,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>987</v>
+        <v>840</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>988</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>16</v>
+        <v>651</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>989</v>
@@ -12766,16 +12766,16 @@
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="G215" s="1">
         <v>1.0</v>
@@ -12786,13 +12786,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>998</v>
@@ -12807,7 +12807,7 @@
         <v>1.0</v>
       </c>
       <c r="H216" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
@@ -12818,7 +12818,7 @@
         <v>1001</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1002</v>
@@ -12830,10 +12830,10 @@
         <v>1003</v>
       </c>
       <c r="G217" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H217" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="218">
@@ -12844,16 +12844,16 @@
         <v>1005</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="G218" s="1">
         <v>0.0</v>
@@ -12864,22 +12864,22 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>1013</v>
       </c>
       <c r="G219" s="1">
         <v>0.0</v>
@@ -12890,13 +12890,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>1016</v>
@@ -12922,7 +12922,7 @@
         <v>1019</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>1020</v>
@@ -12994,22 +12994,22 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G224" s="1">
         <v>0.0</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>1035</v>
@@ -13052,7 +13052,7 @@
         <v>1038</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>16</v>
+        <v>753</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>1039</v>
@@ -13130,16 +13130,16 @@
         <v>1050</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="G229" s="1">
         <v>0.0</v>
@@ -13150,13 +13150,13 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>1056</v>
@@ -13176,22 +13176,22 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>237</v>
+        <v>1058</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>842</v>
+        <v>16</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G231" s="1">
         <v>0.0</v>
@@ -13202,22 +13202,22 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>1061</v>
+        <v>247</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>1065</v>
       </c>
       <c r="G232" s="1">
         <v>0.0</v>
@@ -13228,22 +13228,22 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>1070</v>
       </c>
       <c r="G233" s="1">
         <v>0.0</v>
@@ -13254,22 +13254,22 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="G234" s="1">
         <v>0.0</v>
@@ -13280,22 +13280,22 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="G235" s="1">
         <v>0.0</v>
@@ -13306,13 +13306,13 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1083</v>
@@ -13338,7 +13338,7 @@
         <v>1086</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>805</v>
+        <v>341</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1087</v>
@@ -13364,7 +13364,7 @@
         <v>1090</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>614</v>
+        <v>805</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1091</v>
@@ -13390,7 +13390,7 @@
         <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>16</v>
+        <v>614</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1095</v>
@@ -13494,7 +13494,7 @@
         <v>1112</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1113</v>
@@ -13546,7 +13546,7 @@
         <v>1121</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1122</v>
@@ -13754,7 +13754,7 @@
         <v>1157</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1158</v>
@@ -13774,13 +13774,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1161</v>
@@ -13832,7 +13832,7 @@
         <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1169</v>
@@ -13858,7 +13858,7 @@
         <v>1173</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1174</v>
@@ -13910,7 +13910,7 @@
         <v>1181</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1182</v>
@@ -13936,7 +13936,7 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13988,7 +13988,7 @@
         <v>1194</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1195</v>
@@ -14040,7 +14040,7 @@
         <v>1203</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1204</v>
@@ -14066,7 +14066,7 @@
         <v>1207</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1208</v>
@@ -14118,7 +14118,7 @@
         <v>1216</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1217</v>
@@ -14216,13 +14216,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1234</v>
@@ -14508,7 +14508,7 @@
         <v>1281</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1282</v>
@@ -14638,7 +14638,7 @@
         <v>1302</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1303</v>
@@ -14820,7 +14820,7 @@
         <v>1333</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>1334</v>
@@ -14872,7 +14872,7 @@
         <v>1342</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>1343</v>
@@ -14898,7 +14898,7 @@
         <v>1346</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1347</v>
@@ -14918,13 +14918,13 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>1349</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1350</v>
@@ -15054,7 +15054,7 @@
         <v>1372</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1373</v>
@@ -15106,7 +15106,7 @@
         <v>1379</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>1380</v>
@@ -15288,7 +15288,7 @@
         <v>1409</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>1410</v>
@@ -15314,7 +15314,7 @@
         <v>1413</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1414</v>
@@ -15444,7 +15444,7 @@
         <v>1434</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1435</v>
@@ -15678,7 +15678,7 @@
         <v>1473</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1474</v>
@@ -15750,13 +15750,13 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1486</v>
@@ -15834,7 +15834,7 @@
         <v>1499</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>1500</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1570</v>
@@ -16432,7 +16432,7 @@
         <v>1599</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1600</v>
@@ -16536,7 +16536,7 @@
         <v>1618</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1619</v>
@@ -16588,7 +16588,7 @@
         <v>1626</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1627</v>
@@ -17082,7 +17082,7 @@
         <v>1714</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>1715</v>
@@ -17108,7 +17108,7 @@
         <v>1718</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1719</v>
@@ -17212,7 +17212,7 @@
         <v>1736</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>1737</v>
@@ -17316,7 +17316,7 @@
         <v>1754</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>1755</v>
@@ -17336,13 +17336,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>1757</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1758</v>
@@ -17680,7 +17680,7 @@
         <v>1816</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>1817</v>
@@ -18252,7 +18252,7 @@
         <v>1910</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>1911</v>
@@ -18298,13 +18298,13 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>1917</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1918</v>
@@ -18486,7 +18486,7 @@
         <v>1947</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>1948</v>
@@ -18642,7 +18642,7 @@
         <v>1974</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>1975</v>
@@ -18720,7 +18720,7 @@
         <v>1987</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1988</v>
@@ -18746,7 +18746,7 @@
         <v>1991</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>1992</v>
@@ -19136,7 +19136,7 @@
         <v>2061</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>2062</v>
@@ -19370,7 +19370,7 @@
         <v>2103</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>2104</v>
@@ -19422,7 +19422,7 @@
         <v>2112</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>2113</v>
@@ -19552,7 +19552,7 @@
         <v>2134</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2135</v>
@@ -19578,7 +19578,7 @@
         <v>2138</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>2139</v>
@@ -19656,7 +19656,7 @@
         <v>2151</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>2152</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19786,7 +19786,7 @@
         <v>2172</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>2173</v>
@@ -19864,7 +19864,7 @@
         <v>2186</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>2187</v>
@@ -19890,7 +19890,7 @@
         <v>2190</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2191</v>
@@ -19968,7 +19968,7 @@
         <v>2203</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>2204</v>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>2206</v>
@@ -20202,7 +20202,7 @@
         <v>2239</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>2240</v>
@@ -20306,7 +20306,7 @@
         <v>2256</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>2257</v>
@@ -20384,7 +20384,7 @@
         <v>2268</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>2269</v>
@@ -20514,7 +20514,7 @@
         <v>2290</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>2291</v>
@@ -20592,7 +20592,7 @@
         <v>2304</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>2305</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -55,7 +55,7 @@
     <t>https://google.qwiklabs.com/public_profiles/e74ad896-e486-43c3-9b18-a7eb0adf370d</t>
   </si>
   <si>
-    <t>EQURAM ANSARI</t>
+    <t>MD EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -145,6 +145,36 @@
     <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
   </si>
   <si>
+    <t>Gursharan Kaur</t>
+  </si>
+  <si>
+    <t>gursharankaur8031@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MAIT</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
+  </si>
+  <si>
+    <t>Rohit Das</t>
+  </si>
+  <si>
+    <t>rohitdas2k@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India Saltlake</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
+  </si>
+  <si>
     <t>Tayan Sinha</t>
   </si>
   <si>
@@ -160,36 +190,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2c915a5f-a868-4dbe-bbe5-8eff68124015</t>
   </si>
   <si>
-    <t>Gursharan Kaur</t>
-  </si>
-  <si>
-    <t>gursharankaur8031@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MAIT</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
-  </si>
-  <si>
-    <t>Rohit Das</t>
-  </si>
-  <si>
-    <t>rohitdas2k@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India Saltlake</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:08:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7c818047-5c25-4703-b9b5-881186b40762</t>
-  </si>
-  <si>
     <t>DEBOSMITA BOSE</t>
   </si>
   <si>
@@ -289,6 +289,21 @@
     <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
+    <t>Tanmoyee Roy</t>
+  </si>
+  <si>
+    <t>tanmoyeeroy041999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Institute of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:43:56 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
+  </si>
+  <si>
     <t>SUDIPTA ROY</t>
   </si>
   <si>
@@ -316,21 +331,6 @@
     <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
   </si>
   <si>
-    <t>Tanmoyee Roy</t>
-  </si>
-  <si>
-    <t>tanmoyeeroy041999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Institute of Engineering &amp; Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:43:56 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
-  </si>
-  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -346,6 +346,33 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
+    <t>Raktim Roy</t>
+  </si>
+  <si>
+    <t>deepjoydrx@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
+  </si>
+  <si>
+    <t>Ayan Pal</t>
+  </si>
+  <si>
+    <t>pal.ayan712304@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Narula Institute of Technology</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
+  </si>
+  <si>
     <t>Prachi Kumari</t>
   </si>
   <si>
@@ -358,31 +385,34 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
-    <t>Raktim Roy</t>
-  </si>
-  <si>
-    <t>deepjoydrx@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
-  </si>
-  <si>
-    <t>Ayan Pal</t>
-  </si>
-  <si>
-    <t>pal.ayan712304@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Narula Institute of Technology</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
+  </si>
+  <si>
+    <t>Soham Saha</t>
+  </si>
+  <si>
+    <t>sahasoham01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
   </si>
   <si>
     <t>Arunima Maiti</t>
@@ -397,19 +427,34 @@
     <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
+    <t>Debarghya Chowdhury</t>
+  </si>
+  <si>
+    <t>joshchowdhury204@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
+  </si>
+  <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
   </si>
   <si>
     <t>Kishan Biswakarma</t>
@@ -454,51 +499,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
-    <t>Soham Saha</t>
-  </si>
-  <si>
-    <t>sahasoham01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
-  </si>
-  <si>
-    <t>Debarghya Chowdhury</t>
-  </si>
-  <si>
-    <t>joshchowdhury204@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
-  </si>
-  <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
-  </si>
-  <si>
     <t>Utsav Vora</t>
   </si>
   <si>
@@ -526,6 +526,21 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
+    <t>Adarsh Kumar</t>
+  </si>
+  <si>
+    <t>ak47adarsh01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Coochbehar Government Engineering College</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+  </si>
+  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -622,19 +637,19 @@
     <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
   </si>
   <si>
-    <t>Adarsh Kumar</t>
-  </si>
-  <si>
-    <t>ak47adarsh01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Coochbehar Government Engineering College</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+    <t>ANUVAB DUTTA</t>
+  </si>
+  <si>
+    <t>anuvabduttaatwork@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] VIT Vellore</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
     <t>Radadiya Mohit</t>
@@ -652,6 +667,45 @@
     <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
+    <t>Srishti Pal</t>
+  </si>
+  <si>
+    <t>srishti.pal.11@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Siliguri Institute of Technology</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+  </si>
+  <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
     <t>Hritik Kumar Singh</t>
   </si>
   <si>
@@ -664,21 +718,6 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Srishti Pal</t>
-  </si>
-  <si>
-    <t>srishti.pal.11@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Siliguri Institute of Technology</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
-  </si>
-  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -709,6 +748,21 @@
     <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
   </si>
   <si>
+    <t>SANDIP DAS</t>
+  </si>
+  <si>
+    <t>das770515@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
+  </si>
+  <si>
     <t>Sayan Poddar</t>
   </si>
   <si>
@@ -724,19 +778,34 @@
     <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
   </si>
   <si>
-    <t>ANUVAB DUTTA</t>
-  </si>
-  <si>
-    <t>anuvabduttaatwork@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] VIT Vellore</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+  </si>
+  <si>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
     <t>Harshit Parwal</t>
@@ -754,30 +823,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
   </si>
   <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
     <t>Subhayu Kumar Bala</t>
   </si>
   <si>
@@ -793,34 +838,34 @@
     <t>https://google.qwiklabs.com/public_profiles/341afaff-dcfc-43ec-b392-5096f4ff6fe6</t>
   </si>
   <si>
-    <t>SANDIP DAS</t>
-  </si>
-  <si>
-    <t>das770515@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
-  </si>
-  <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+    <t>Raunak Kumar Sah</t>
+  </si>
+  <si>
+    <t>itisraunak@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+  </si>
+  <si>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
   </si>
   <si>
     <t>Kesher Gupta</t>
@@ -847,21 +892,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
     <t>Mufaddal Vadnagarwala</t>
   </si>
   <si>
@@ -874,6 +904,18 @@
     <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
   </si>
   <si>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+  </si>
+  <si>
     <t>Arkarup Saha</t>
   </si>
   <si>
@@ -889,19 +931,19 @@
     <t>https://google.qwiklabs.com/public_profiles/9bc422a8-89c4-4bb7-97b5-a0a462432d74</t>
   </si>
   <si>
-    <t>Raunak Kumar Sah</t>
-  </si>
-  <si>
-    <t>itisraunak@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+    <t>Arya Shah</t>
+  </si>
+  <si>
+    <t>arya.shah82@nmims.edu.in</t>
+  </si>
+  <si>
+    <t>[Referred] NMIMS University, Mukesh Patel School of Technology Management and Engineering, Mumbai</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 15:14:06 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/369db3ea-6e75-4f14-b861-4ee6f5738269</t>
   </si>
   <si>
     <t>Rahul Debnath</t>
@@ -1000,18 +1042,6 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
-  </si>
-  <si>
     <t>Sudipta Halder</t>
   </si>
   <si>
@@ -1042,21 +1072,6 @@
     <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
   </si>
   <si>
-    <t>Arya Shah</t>
-  </si>
-  <si>
-    <t>arya.shah82@nmims.edu.in</t>
-  </si>
-  <si>
-    <t>[Referred] NMIMS University, Mukesh Patel School of Technology Management and Engineering, Mumbai</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 15:14:06 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/369db3ea-6e75-4f14-b861-4ee6f5738269</t>
-  </si>
-  <si>
     <t>Sourjya Pal</t>
   </si>
   <si>
@@ -1141,21 +1156,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2061f808-65c0-4416-a21c-ce8f30ff65b8</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
-  </si>
-  <si>
     <t>Samrat Ganguly</t>
   </si>
   <si>
@@ -1168,6 +1168,18 @@
     <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
   </si>
   <si>
+    <t>Anwesha Ghosh</t>
+  </si>
+  <si>
+    <t>anweshaghosh515@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
+  </si>
+  <si>
     <t>Sayantan Kuila</t>
   </si>
   <si>
@@ -1213,6 +1225,21 @@
     <t>https://www.qwiklabs.com/public_profiles/ae69f93e-9ddf-4e52-97fe-1e942e6e76a2</t>
   </si>
   <si>
+    <t>Geetika Sethi</t>
+  </si>
+  <si>
+    <t>geetikasethi1723@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Banasthali Vidyapeeth</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:58:05 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
+  </si>
+  <si>
     <t>Sweta Upadhyay</t>
   </si>
   <si>
@@ -1240,18 +1267,6 @@
     <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
   </si>
   <si>
-    <t>Anwesha Ghosh</t>
-  </si>
-  <si>
-    <t>anweshaghosh515@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 09:02:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1279,6 +1294,21 @@
     <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
   </si>
   <si>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+  </si>
+  <si>
     <t>Supritha Ravishankar</t>
   </si>
   <si>
@@ -1294,6 +1324,21 @@
     <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
   </si>
   <si>
+    <t>Raveena Bhasin</t>
+  </si>
+  <si>
+    <t>raveenabhasin15@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Jabalpur Engineering College</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
+  </si>
+  <si>
     <t>Praneet Chakraborty</t>
   </si>
   <si>
@@ -1330,21 +1375,6 @@
     <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
   </si>
   <si>
-    <t>Geetika Sethi</t>
-  </si>
-  <si>
-    <t>geetikasethi1723@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Banasthali Vidyapeeth</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:58:05 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
-  </si>
-  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -1402,21 +1432,6 @@
     <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
   </si>
   <si>
-    <t>Raveena Bhasin</t>
-  </si>
-  <si>
-    <t>raveenabhasin15@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Jabalpur Engineering College</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
-  </si>
-  <si>
     <t>Abhinandan Patra</t>
   </si>
   <si>
@@ -1591,21 +1606,6 @@
     <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
-  </si>
-  <si>
     <t>Subhasis Das</t>
   </si>
   <si>
@@ -1660,6 +1660,30 @@
     <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
   </si>
   <si>
+    <t>Aditya Navya Shukla</t>
+  </si>
+  <si>
+    <t>adityanavya2@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 10:16:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/4f112305-5c13-449b-87d1-e44c2498a06c</t>
+  </si>
+  <si>
+    <t>Riddhith Banerjee</t>
+  </si>
+  <si>
+    <t>riddhith04@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 18:04:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
+  </si>
+  <si>
     <t>Rishabh Shrivastava</t>
   </si>
   <si>
@@ -1756,28 +1780,19 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
-    <t>Aditya Navya Shukla</t>
-  </si>
-  <si>
-    <t>adityanavya2@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 10:16:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/4f112305-5c13-449b-87d1-e44c2498a06c</t>
-  </si>
-  <si>
-    <t>Riddhith Banerjee</t>
-  </si>
-  <si>
-    <t>riddhith04@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 18:04:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
+    <t>Vidhi Vijayvergiya</t>
+  </si>
+  <si>
+    <t>vidhivijay@ymail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Poornima University</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 14:59:56 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/f4f96cd3-5f53-47fc-9fdc-c35ceaede604</t>
   </si>
   <si>
     <t>Jayprakash Shadanan Bhure</t>
@@ -2116,21 +2131,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ceec95f4-9bda-490d-8234-7def7c6995ac</t>
   </si>
   <si>
-    <t>Vidhi Vijayvergiya</t>
-  </si>
-  <si>
-    <t>vidhivijay@ymail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Poornima University</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 14:59:56 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/f4f96cd3-5f53-47fc-9fdc-c35ceaede604</t>
-  </si>
-  <si>
     <t>Shubhayu Majumdar</t>
   </si>
   <si>
@@ -2398,6 +2398,18 @@
     <t>https://google.qwiklabs.com/public_profiles/bad63398-074f-4b94-a789-47485d890aaf</t>
   </si>
   <si>
+    <t>PRITOM RAHAMAN</t>
+  </si>
+  <si>
+    <t>pritomrahaman69@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 09:19:43 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/c1c44025-0a5b-410c-80fb-662651743cbc</t>
+  </si>
+  <si>
     <t>aman.keshari.6131728@gmail.com</t>
   </si>
   <si>
@@ -3170,18 +3182,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/c48d5a2c-87bc-4a80-83c1-2c435c870699</t>
-  </si>
-  <si>
-    <t>PRITOM RAHAMAN</t>
-  </si>
-  <si>
-    <t>pritomrahaman69@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 09:19:43 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/c1c44025-0a5b-410c-80fb-662651743cbc</t>
   </si>
   <si>
     <t>Rohit Suryawanshi</t>
@@ -7422,10 +7422,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H9" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
@@ -7451,7 +7451,7 @@
         <v>27.0</v>
       </c>
       <c r="H10" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
@@ -7474,10 +7474,10 @@
         <v>58</v>
       </c>
       <c r="G11" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H11" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
@@ -7500,7 +7500,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H12" s="1">
         <v>12.0</v>
@@ -7670,33 +7670,33 @@
         <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1">
         <v>23.0</v>
       </c>
       <c r="H19" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
@@ -7711,7 +7711,7 @@
         <v>23.0</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
@@ -7734,10 +7734,10 @@
         <v>105</v>
       </c>
       <c r="G21" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H21" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
@@ -7786,10 +7786,10 @@
         <v>114</v>
       </c>
       <c r="G23" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H23" s="1">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
@@ -7800,33 +7800,33 @@
         <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H24" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>122</v>
@@ -7852,45 +7852,45 @@
         <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1">
         <v>18.0</v>
       </c>
       <c r="H26" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G27" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H27" s="1">
         <v>11.0</v>
@@ -7898,13 +7898,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>136</v>
@@ -7916,10 +7916,10 @@
         <v>137</v>
       </c>
       <c r="G28" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H28" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="29">
@@ -7945,7 +7945,7 @@
         <v>17.0</v>
       </c>
       <c r="H29" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30">
@@ -7956,85 +7956,85 @@
         <v>144</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G30" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H30" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G31" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H31" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G32" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H32" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>160</v>
@@ -8049,7 +8049,7 @@
         <v>16.0</v>
       </c>
       <c r="H33" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
@@ -8112,59 +8112,59 @@
         <v>172</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G36" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H36" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G37" s="1">
         <v>14.0</v>
       </c>
       <c r="H37" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>182</v>
@@ -8179,7 +8179,7 @@
         <v>14.0</v>
       </c>
       <c r="H38" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -8205,7 +8205,7 @@
         <v>14.0</v>
       </c>
       <c r="H39" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="40">
@@ -8216,33 +8216,33 @@
         <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G40" s="1">
         <v>14.0</v>
       </c>
       <c r="H40" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>196</v>
@@ -8254,7 +8254,7 @@
         <v>197</v>
       </c>
       <c r="G41" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H41" s="1">
         <v>7.0</v>
@@ -8283,7 +8283,7 @@
         <v>13.0</v>
       </c>
       <c r="H42" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
@@ -8309,7 +8309,7 @@
         <v>13.0</v>
       </c>
       <c r="H43" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
@@ -8335,7 +8335,7 @@
         <v>13.0</v>
       </c>
       <c r="H44" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
@@ -8346,45 +8346,45 @@
         <v>214</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G45" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H45" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G46" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H46" s="1">
         <v>7.0</v>
@@ -8392,13 +8392,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>225</v>
@@ -8410,10 +8410,10 @@
         <v>226</v>
       </c>
       <c r="G47" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H47" s="1">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
@@ -8424,120 +8424,120 @@
         <v>228</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="G48" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H48" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="G49" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H49" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="G50" s="1">
         <v>11.0</v>
       </c>
       <c r="H50" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="G51" s="1">
         <v>11.0</v>
       </c>
       <c r="H51" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="G52" s="1">
         <v>11.0</v>
@@ -8548,13 +8548,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>253</v>
@@ -8569,7 +8569,7 @@
         <v>11.0</v>
       </c>
       <c r="H53" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -8592,10 +8592,10 @@
         <v>259</v>
       </c>
       <c r="G54" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H54" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
@@ -8618,10 +8618,10 @@
         <v>264</v>
       </c>
       <c r="G55" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H55" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
@@ -8644,10 +8644,10 @@
         <v>269</v>
       </c>
       <c r="G56" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H56" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="57">
@@ -8658,16 +8658,16 @@
         <v>271</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1">
         <v>10.0</v>
@@ -8678,48 +8678,48 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G58" s="1">
         <v>10.0</v>
       </c>
       <c r="H58" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G59" s="1">
         <v>10.0</v>
@@ -8730,65 +8730,65 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G60" s="1">
         <v>10.0</v>
       </c>
       <c r="H60" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G61" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H61" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>295</v>
@@ -8800,10 +8800,10 @@
         <v>296</v>
       </c>
       <c r="G62" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H62" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="63">
@@ -8814,33 +8814,33 @@
         <v>298</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G63" s="1">
         <v>9.0</v>
       </c>
       <c r="H63" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>304</v>
@@ -8855,7 +8855,7 @@
         <v>9.0</v>
       </c>
       <c r="H64" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -8881,7 +8881,7 @@
         <v>9.0</v>
       </c>
       <c r="H65" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -8907,7 +8907,7 @@
         <v>9.0</v>
       </c>
       <c r="H66" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="67">
@@ -8956,10 +8956,10 @@
         <v>324</v>
       </c>
       <c r="G68" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H68" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -8970,85 +8970,85 @@
         <v>326</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G69" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H69" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G70" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H70" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
       </c>
       <c r="H71" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>341</v>
@@ -9063,7 +9063,7 @@
         <v>8.0</v>
       </c>
       <c r="H72" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -9089,7 +9089,7 @@
         <v>8.0</v>
       </c>
       <c r="H73" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -9100,16 +9100,16 @@
         <v>349</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G74" s="1">
         <v>8.0</v>
@@ -9120,13 +9120,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>355</v>
@@ -9141,7 +9141,7 @@
         <v>8.0</v>
       </c>
       <c r="H75" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="76">
@@ -9167,7 +9167,7 @@
         <v>8.0</v>
       </c>
       <c r="H76" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -9204,33 +9204,33 @@
         <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G78" s="1">
         <v>8.0</v>
       </c>
       <c r="H78" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>373</v>
+        <v>16</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>374</v>
@@ -9245,7 +9245,7 @@
         <v>8.0</v>
       </c>
       <c r="H79" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="80">
@@ -9271,7 +9271,7 @@
         <v>8.0</v>
       </c>
       <c r="H80" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="81">
@@ -9308,111 +9308,111 @@
         <v>386</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="G82" s="1">
         <v>8.0</v>
       </c>
       <c r="H82" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="G83" s="1">
         <v>8.0</v>
       </c>
       <c r="H83" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="G84" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="G85" s="1">
         <v>7.0</v>
       </c>
       <c r="H85" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>407</v>
@@ -9427,7 +9427,7 @@
         <v>7.0</v>
       </c>
       <c r="H86" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -9438,59 +9438,59 @@
         <v>410</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G87" s="1">
         <v>7.0</v>
       </c>
       <c r="H87" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G88" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H88" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H88" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>420</v>
@@ -9505,7 +9505,7 @@
         <v>6.0</v>
       </c>
       <c r="H89" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
@@ -9531,7 +9531,7 @@
         <v>6.0</v>
       </c>
       <c r="H90" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -9542,120 +9542,120 @@
         <v>428</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>429</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G91" s="1">
         <v>6.0</v>
       </c>
       <c r="H91" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G92" s="1">
         <v>6.0</v>
       </c>
       <c r="H92" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>16</v>
+        <v>439</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G93" s="1">
         <v>6.0</v>
       </c>
       <c r="H93" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G94" s="1">
         <v>6.0</v>
       </c>
       <c r="H94" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G95" s="1">
         <v>6.0</v>
@@ -9666,22 +9666,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G96" s="1">
         <v>6.0</v>
@@ -9692,13 +9692,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>455</v>
+        <v>75</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>456</v>
@@ -9713,7 +9713,7 @@
         <v>6.0</v>
       </c>
       <c r="H97" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -9736,7 +9736,7 @@
         <v>462</v>
       </c>
       <c r="G98" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H98" s="1">
         <v>5.0</v>
@@ -9762,10 +9762,10 @@
         <v>467</v>
       </c>
       <c r="G99" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H99" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="100">
@@ -9791,7 +9791,7 @@
         <v>5.0</v>
       </c>
       <c r="H100" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="101">
@@ -9802,59 +9802,59 @@
         <v>474</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>257</v>
+        <v>475</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
       </c>
       <c r="H101" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G102" s="1">
         <v>5.0</v>
       </c>
       <c r="H102" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>483</v>
+        <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>484</v>
@@ -9869,7 +9869,7 @@
         <v>5.0</v>
       </c>
       <c r="H103" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="104">
@@ -9895,7 +9895,7 @@
         <v>5.0</v>
       </c>
       <c r="H104" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="105">
@@ -9906,85 +9906,85 @@
         <v>492</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G105" s="1">
         <v>5.0</v>
       </c>
       <c r="H105" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G106" s="1">
         <v>5.0</v>
       </c>
       <c r="H106" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G107" s="1">
         <v>5.0</v>
       </c>
       <c r="H107" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>505</v>
+        <v>75</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>506</v>
@@ -9999,7 +9999,7 @@
         <v>5.0</v>
       </c>
       <c r="H108" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -10025,7 +10025,7 @@
         <v>5.0</v>
       </c>
       <c r="H109" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
@@ -10036,16 +10036,16 @@
         <v>514</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G110" s="1">
         <v>5.0</v>
@@ -10056,39 +10056,39 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G111" s="1">
         <v>5.0</v>
       </c>
       <c r="H111" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>523</v>
+        <v>75</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>524</v>
@@ -10100,10 +10100,10 @@
         <v>525</v>
       </c>
       <c r="G112" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H112" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H112" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="113">
@@ -10129,7 +10129,7 @@
         <v>4.0</v>
       </c>
       <c r="H113" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
@@ -10244,19 +10244,19 @@
         <v>550</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="G118" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H118" s="1">
         <v>3.0</v>
@@ -10264,169 +10264,169 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="G119" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H119" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H119" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="G120" s="1">
         <v>3.0</v>
       </c>
       <c r="H120" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
       </c>
       <c r="H121" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="G122" s="1">
         <v>3.0</v>
       </c>
       <c r="H122" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="G123" s="1">
         <v>3.0</v>
       </c>
       <c r="H123" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="G124" s="1">
         <v>3.0</v>
       </c>
       <c r="H124" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>583</v>
@@ -10441,7 +10441,7 @@
         <v>3.0</v>
       </c>
       <c r="H125" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
@@ -10467,7 +10467,7 @@
         <v>3.0</v>
       </c>
       <c r="H126" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="127">
@@ -10493,27 +10493,27 @@
         <v>3.0</v>
       </c>
       <c r="H127" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G128" s="1">
         <v>3.0</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>598</v>
+        <v>454</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>599</v>
@@ -10545,7 +10545,7 @@
         <v>3.0</v>
       </c>
       <c r="H129" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
@@ -10568,10 +10568,10 @@
         <v>607</v>
       </c>
       <c r="G130" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H130" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
@@ -10608,16 +10608,16 @@
         <v>614</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>130</v>
+        <v>615</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G132" s="1">
         <v>2.0</v>
@@ -10628,22 +10628,22 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G133" s="1">
         <v>2.0</v>
@@ -10654,13 +10654,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>623</v>
+        <v>200</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>624</v>
@@ -10701,7 +10701,7 @@
         <v>2.0</v>
       </c>
       <c r="H135" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -10738,16 +10738,16 @@
         <v>637</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>257</v>
+        <v>638</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G137" s="1">
         <v>2.0</v>
@@ -10758,22 +10758,22 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
@@ -10784,13 +10784,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>646</v>
+        <v>16</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>647</v>
@@ -10816,33 +10816,33 @@
         <v>650</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>402</v>
+        <v>651</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G140" s="1">
         <v>2.0</v>
       </c>
       <c r="H140" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>655</v>
+        <v>411</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>656</v>
@@ -10857,7 +10857,7 @@
         <v>2.0</v>
       </c>
       <c r="H141" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="142">
@@ -10868,16 +10868,16 @@
         <v>659</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>16</v>
+        <v>660</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
@@ -10888,13 +10888,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>664</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>665</v>
@@ -10909,7 +10909,7 @@
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -10961,7 +10961,7 @@
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="146">
@@ -11039,7 +11039,7 @@
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
@@ -11050,33 +11050,33 @@
         <v>693</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G149" s="1">
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>698</v>
+        <v>633</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>699</v>
@@ -11117,7 +11117,7 @@
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -11154,7 +11154,7 @@
         <v>712</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>713</v>
@@ -11180,7 +11180,7 @@
         <v>716</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>717</v>
@@ -11642,22 +11642,22 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>495</v>
+        <v>795</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G172" s="1">
         <v>1.0</v>
@@ -11668,22 +11668,22 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>798</v>
+        <v>500</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>799</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="G173" s="1">
         <v>1.0</v>
@@ -11694,22 +11694,22 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="G174" s="1">
         <v>1.0</v>
@@ -11720,13 +11720,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>810</v>
@@ -11741,7 +11741,7 @@
         <v>1.0</v>
       </c>
       <c r="H175" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -11752,59 +11752,59 @@
         <v>813</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="G176" s="1">
         <v>1.0</v>
       </c>
       <c r="H176" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="G177" s="1">
         <v>1.0</v>
       </c>
       <c r="H177" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>824</v>
@@ -11830,33 +11830,33 @@
         <v>827</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="G179" s="1">
         <v>1.0</v>
       </c>
       <c r="H179" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>833</v>
@@ -11882,16 +11882,16 @@
         <v>836</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="G181" s="1">
         <v>1.0</v>
@@ -11902,13 +11902,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>842</v>
@@ -11934,16 +11934,16 @@
         <v>845</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="G183" s="1">
         <v>1.0</v>
@@ -11954,39 +11954,39 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="G184" s="1">
         <v>1.0</v>
       </c>
       <c r="H184" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>856</v>
@@ -12001,7 +12001,7 @@
         <v>1.0</v>
       </c>
       <c r="H185" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -12012,16 +12012,16 @@
         <v>859</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="G186" s="1">
         <v>1.0</v>
@@ -12032,22 +12032,22 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="G187" s="1">
         <v>1.0</v>
@@ -12058,22 +12058,22 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="G188" s="1">
         <v>1.0</v>
@@ -12084,13 +12084,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>875</v>
@@ -12116,7 +12116,7 @@
         <v>878</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>16</v>
+        <v>596</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>879</v>
@@ -12157,7 +12157,7 @@
         <v>1.0</v>
       </c>
       <c r="H191" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -12168,7 +12168,7 @@
         <v>886</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>591</v>
+        <v>16</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>887</v>
@@ -12183,7 +12183,7 @@
         <v>1.0</v>
       </c>
       <c r="H192" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="193">
@@ -12194,16 +12194,16 @@
         <v>890</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="G193" s="1">
         <v>1.0</v>
@@ -12214,13 +12214,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>896</v>
@@ -12235,7 +12235,7 @@
         <v>1.0</v>
       </c>
       <c r="H194" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -12246,16 +12246,16 @@
         <v>899</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="G195" s="1">
         <v>1.0</v>
@@ -12266,13 +12266,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>905</v>
@@ -12287,7 +12287,7 @@
         <v>1.0</v>
       </c>
       <c r="H196" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
@@ -12298,7 +12298,7 @@
         <v>908</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>805</v>
+        <v>16</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>909</v>
@@ -12313,7 +12313,7 @@
         <v>1.0</v>
       </c>
       <c r="H197" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
@@ -12324,42 +12324,42 @@
         <v>912</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="G198" s="1">
         <v>1.0</v>
       </c>
       <c r="H198" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="G199" s="1">
         <v>1.0</v>
@@ -12370,22 +12370,22 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="G200" s="1">
         <v>1.0</v>
@@ -12396,22 +12396,22 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="G201" s="1">
         <v>1.0</v>
@@ -12422,13 +12422,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>933</v>
@@ -12454,16 +12454,16 @@
         <v>936</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="G203" s="1">
         <v>1.0</v>
@@ -12474,22 +12474,22 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>944</v>
       </c>
       <c r="G204" s="1">
         <v>1.0</v>
@@ -12500,22 +12500,22 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="G205" s="1">
         <v>1.0</v>
@@ -12526,91 +12526,91 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="G206" s="1">
         <v>1.0</v>
       </c>
       <c r="H206" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="G207" s="1">
         <v>1.0</v>
       </c>
       <c r="H207" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="G208" s="1">
         <v>1.0</v>
       </c>
       <c r="H208" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>967</v>
@@ -12625,7 +12625,7 @@
         <v>1.0</v>
       </c>
       <c r="H209" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="210">
@@ -12636,16 +12636,16 @@
         <v>970</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="G210" s="1">
         <v>1.0</v>
@@ -12656,39 +12656,39 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="G211" s="1">
         <v>1.0</v>
       </c>
       <c r="H211" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>981</v>
@@ -12714,42 +12714,42 @@
         <v>984</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="G213" s="1">
         <v>1.0</v>
       </c>
       <c r="H213" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>840</v>
+        <v>987</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>988</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>655</v>
+        <v>989</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G214" s="1">
         <v>1.0</v>
@@ -12760,13 +12760,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>991</v>
+        <v>844</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>16</v>
+        <v>660</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>993</v>
@@ -12792,16 +12792,16 @@
         <v>996</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="G216" s="1">
         <v>1.0</v>
@@ -12812,13 +12812,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1002</v>
@@ -12844,7 +12844,7 @@
         <v>1005</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>1006</v>
@@ -12859,7 +12859,7 @@
         <v>1.0</v>
       </c>
       <c r="H218" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
@@ -12870,7 +12870,7 @@
         <v>1009</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1010</v>
@@ -12882,10 +12882,10 @@
         <v>1011</v>
       </c>
       <c r="G219" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H219" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
@@ -12896,16 +12896,16 @@
         <v>1013</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>1016</v>
       </c>
       <c r="G220" s="1">
         <v>0.0</v>
@@ -12916,22 +12916,22 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="G221" s="1">
         <v>0.0</v>
@@ -12942,13 +12942,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>1024</v>
@@ -12974,7 +12974,7 @@
         <v>1027</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>1028</v>
@@ -13046,22 +13046,22 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G226" s="1">
         <v>0.0</v>
@@ -13072,13 +13072,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>1043</v>
@@ -13104,7 +13104,7 @@
         <v>1046</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>16</v>
+        <v>753</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>1047</v>
@@ -13228,13 +13228,13 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>1067</v>
@@ -13364,7 +13364,7 @@
         <v>1090</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1091</v>
@@ -13390,7 +13390,7 @@
         <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1095</v>
@@ -13416,7 +13416,7 @@
         <v>1098</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1099</v>
@@ -13520,7 +13520,7 @@
         <v>1116</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1117</v>
@@ -13572,7 +13572,7 @@
         <v>1125</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1126</v>
@@ -13592,13 +13592,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1129</v>
@@ -13780,7 +13780,7 @@
         <v>1161</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1162</v>
@@ -13800,13 +13800,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1165</v>
@@ -13832,7 +13832,7 @@
         <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1169</v>
@@ -13858,7 +13858,7 @@
         <v>1172</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1173</v>
@@ -13884,7 +13884,7 @@
         <v>1177</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1178</v>
@@ -13936,7 +13936,7 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13962,7 +13962,7 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1190</v>
@@ -14014,7 +14014,7 @@
         <v>1198</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1199</v>
@@ -14066,7 +14066,7 @@
         <v>1207</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1208</v>
@@ -14092,7 +14092,7 @@
         <v>1211</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1212</v>
@@ -14144,7 +14144,7 @@
         <v>1220</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1221</v>
@@ -14242,13 +14242,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1238</v>
@@ -14534,7 +14534,7 @@
         <v>1285</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1286</v>
@@ -14664,7 +14664,7 @@
         <v>1306</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1307</v>
@@ -14846,7 +14846,7 @@
         <v>1337</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>1338</v>
@@ -14898,7 +14898,7 @@
         <v>1346</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1347</v>
@@ -14924,7 +14924,7 @@
         <v>1350</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1351</v>
@@ -14944,13 +14944,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>1353</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1354</v>
@@ -15132,7 +15132,7 @@
         <v>1383</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1384</v>
@@ -15314,7 +15314,7 @@
         <v>1413</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1414</v>
@@ -15340,7 +15340,7 @@
         <v>1417</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1418</v>
@@ -15418,7 +15418,7 @@
         <v>1430</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1431</v>
@@ -15470,7 +15470,7 @@
         <v>1438</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1439</v>
@@ -15678,7 +15678,7 @@
         <v>1473</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1474</v>
@@ -15704,7 +15704,7 @@
         <v>1477</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1478</v>
@@ -15776,13 +15776,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1490</v>
@@ -15860,7 +15860,7 @@
         <v>1503</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1504</v>
@@ -15964,7 +15964,7 @@
         <v>1522</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1523</v>
@@ -16270,7 +16270,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1574</v>
@@ -16380,7 +16380,7 @@
         <v>1591</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>1592</v>
@@ -16458,7 +16458,7 @@
         <v>1603</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1604</v>
@@ -16562,7 +16562,7 @@
         <v>1622</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1623</v>
@@ -16614,7 +16614,7 @@
         <v>1630</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>1631</v>
@@ -16770,7 +16770,7 @@
         <v>1657</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>1658</v>
@@ -17108,7 +17108,7 @@
         <v>1718</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1719</v>
@@ -17134,7 +17134,7 @@
         <v>1722</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1723</v>
@@ -17238,7 +17238,7 @@
         <v>1740</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1741</v>
@@ -17342,7 +17342,7 @@
         <v>1758</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1759</v>
@@ -17362,7 +17362,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1761</v>
@@ -17706,7 +17706,7 @@
         <v>1820</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1821</v>
@@ -17758,7 +17758,7 @@
         <v>1829</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1830</v>
@@ -18044,7 +18044,7 @@
         <v>1877</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1878</v>
@@ -18278,7 +18278,7 @@
         <v>1914</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1915</v>
@@ -18324,13 +18324,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1921</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1922</v>
@@ -18668,7 +18668,7 @@
         <v>1978</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>1979</v>
@@ -18876,7 +18876,7 @@
         <v>2013</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>2014</v>
@@ -19162,7 +19162,7 @@
         <v>2065</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>2066</v>
@@ -19396,7 +19396,7 @@
         <v>2107</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>2108</v>
@@ -19448,7 +19448,7 @@
         <v>2116</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2117</v>
@@ -19500,7 +19500,7 @@
         <v>2124</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>2125</v>
@@ -19578,7 +19578,7 @@
         <v>2138</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>2139</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19630,7 +19630,7 @@
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19682,7 +19682,7 @@
         <v>2155</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>2156</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19760,7 +19760,7 @@
         <v>2167</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>2168</v>
@@ -19890,7 +19890,7 @@
         <v>2190</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2191</v>
@@ -19916,7 +19916,7 @@
         <v>2194</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2195</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2210</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20254,7 +20254,7 @@
         <v>2247</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>2248</v>
@@ -20332,7 +20332,7 @@
         <v>2260</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>2261</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20436,7 +20436,7 @@
         <v>2276</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>2277</v>
@@ -20540,7 +20540,7 @@
         <v>2294</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>2295</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -55,7 +55,7 @@
     <t>https://google.qwiklabs.com/public_profiles/e74ad896-e486-43c3-9b18-a7eb0adf370d</t>
   </si>
   <si>
-    <t>MD EQURAM ANSARI</t>
+    <t>EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -205,6 +205,21 @@
     <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
   </si>
   <si>
+    <t>Prateek Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Prateeksharma0112@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Mahavir Swami Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
+  </si>
+  <si>
     <t>Harshit Goyal</t>
   </si>
   <si>
@@ -274,19 +289,19 @@
     <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
   </si>
   <si>
-    <t>Prateek Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Prateeksharma0112@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Mahavir Swami Institute Of Technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
+    <t>Ayan Pal</t>
+  </si>
+  <si>
+    <t>pal.ayan712304@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Narula Institute of Technology</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
   </si>
   <si>
     <t>Tanmoyee Roy</t>
@@ -358,21 +373,6 @@
     <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
   </si>
   <si>
-    <t>Ayan Pal</t>
-  </si>
-  <si>
-    <t>pal.ayan712304@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Narula Institute of Technology</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:01:50 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
-  </si>
-  <si>
     <t>Prachi Kumari</t>
   </si>
   <si>
@@ -415,6 +415,36 @@
     <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
   </si>
   <si>
+    <t>Debarghya Chowdhury</t>
+  </si>
+  <si>
+    <t>joshchowdhury204@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
+  </si>
+  <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
     <t>Arunima Maiti</t>
   </si>
   <si>
@@ -427,36 +457,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
   </si>
   <si>
-    <t>Debarghya Chowdhury</t>
-  </si>
-  <si>
-    <t>joshchowdhury204@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
-  </si>
-  <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
-  </si>
-  <si>
     <t>Kishan Biswakarma</t>
   </si>
   <si>
@@ -472,6 +472,18 @@
     <t>https://google.qwiklabs.com/public_profiles/13368c0d-aa0e-447e-a4bf-bd19c8506323</t>
   </si>
   <si>
+    <t>Utsav Vora</t>
+  </si>
+  <si>
+    <t>utsavvora2407@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+  </si>
+  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -499,18 +511,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
-    <t>Utsav Vora</t>
-  </si>
-  <si>
-    <t>utsavvora2407@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
-  </si>
-  <si>
     <t>Manan Hemani</t>
   </si>
   <si>
@@ -526,6 +526,21 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
+    <t>Rupankar Basak</t>
+  </si>
+  <si>
+    <t>rblearning69@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
+  </si>
+  <si>
     <t>Adarsh Kumar</t>
   </si>
   <si>
@@ -541,6 +556,48 @@
     <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
   </si>
   <si>
+    <t>Sayan Sengupta</t>
+  </si>
+  <si>
+    <t>sayansengupta2001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of engineering and management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+  </si>
+  <si>
+    <t>Sandipa Jana</t>
+  </si>
+  <si>
+    <t>janasandipa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+  </si>
+  <si>
+    <t>Srishti Pal</t>
+  </si>
+  <si>
+    <t>srishti.pal.11@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Siliguri Institute of Technology</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+  </si>
+  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -565,19 +622,19 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
-    <t>Sayan Sengupta</t>
-  </si>
-  <si>
-    <t>sayansengupta2001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of engineering and management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+    <t>Anom Chakravorty</t>
+  </si>
+  <si>
+    <t>anomchakravorty3008@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 20:29:41 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
     <t>Saurav Kumar</t>
@@ -595,48 +652,6 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
-    <t>Sandipa Jana</t>
-  </si>
-  <si>
-    <t>janasandipa@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
-  </si>
-  <si>
-    <t>Anom Chakravorty</t>
-  </si>
-  <si>
-    <t>anomchakravorty3008@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 20:29:41 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
-  </si>
-  <si>
-    <t>Rupankar Basak</t>
-  </si>
-  <si>
-    <t>rblearning69@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
-  </si>
-  <si>
     <t>ANUVAB DUTTA</t>
   </si>
   <si>
@@ -667,19 +682,19 @@
     <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
-    <t>Srishti Pal</t>
-  </si>
-  <si>
-    <t>srishti.pal.11@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Siliguri Institute of Technology</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
     <t>Santanu Biswas</t>
@@ -718,6 +733,66 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
+    <t>Anuja Singh</t>
+  </si>
+  <si>
+    <t>anujasingh2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
+  </si>
+  <si>
+    <t>SANDIP DAS</t>
+  </si>
+  <si>
+    <t>das770515@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
+  </si>
+  <si>
+    <t>Sayan Poddar</t>
+  </si>
+  <si>
+    <t>leosayan7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash engineering college</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 23:27:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
+  </si>
+  <si>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+  </si>
+  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -733,79 +808,19 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Anuja Singh</t>
-  </si>
-  <si>
-    <t>anujasingh2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
-  </si>
-  <si>
-    <t>SANDIP DAS</t>
-  </si>
-  <si>
-    <t>das770515@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
-  </si>
-  <si>
-    <t>Sayan Poddar</t>
-  </si>
-  <si>
-    <t>leosayan7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash engineering college</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 23:27:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
-  </si>
-  <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
-  </si>
-  <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
   </si>
   <si>
     <t>Harshit Parwal</t>
@@ -823,6 +838,18 @@
     <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
   </si>
   <si>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+  </si>
+  <si>
     <t>Subhayu Kumar Bala</t>
   </si>
   <si>
@@ -853,19 +880,31 @@
     <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+    <t>Rahul Debnath</t>
+  </si>
+  <si>
+    <t>mtemporary7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
+  </si>
+  <si>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
   </si>
   <si>
     <t>Kesher Gupta</t>
@@ -892,6 +931,18 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
+    <t>Ushasi Das</t>
+  </si>
+  <si>
+    <t>ushasidas05@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 21:15:30 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
+  </si>
+  <si>
     <t>Mufaddal Vadnagarwala</t>
   </si>
   <si>
@@ -904,18 +955,6 @@
     <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
   </si>
   <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
-  </si>
-  <si>
     <t>Arkarup Saha</t>
   </si>
   <si>
@@ -946,33 +985,6 @@
     <t>https://www.qwiklabs.com/public_profiles/369db3ea-6e75-4f14-b861-4ee6f5738269</t>
   </si>
   <si>
-    <t>Rahul Debnath</t>
-  </si>
-  <si>
-    <t>mtemporary7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
-  </si>
-  <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Rishav Chakraborty</t>
   </si>
   <si>
@@ -1003,16 +1015,19 @@
     <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
-    <t>Ushasi Das</t>
-  </si>
-  <si>
-    <t>ushasidas05@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 21:15:30 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
+    <t>Sayantan Kuila</t>
+  </si>
+  <si>
+    <t>sayantankuila@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno Main SaltLake , Kolkata</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 14:38:46 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
     <t>Rajesh Paswan</t>
@@ -1042,6 +1057,21 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+  </si>
+  <si>
     <t>Sudipta Halder</t>
   </si>
   <si>
@@ -1180,21 +1210,6 @@
     <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
   </si>
   <si>
-    <t>Sayantan Kuila</t>
-  </si>
-  <si>
-    <t>sayantankuila@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno Main SaltLake , Kolkata</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 14:38:46 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
-  </si>
-  <si>
     <t>MEGHADRI KOLEY</t>
   </si>
   <si>
@@ -1210,6 +1225,36 @@
     <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
+    <t>Supritha Ravishankar</t>
+  </si>
+  <si>
+    <t>supri161@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.AIT</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
+  </si>
+  <si>
+    <t>Raveena Bhasin</t>
+  </si>
+  <si>
+    <t>raveenabhasin15@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Jabalpur Engineering College</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
+  </si>
+  <si>
     <t>Arunima Dhar</t>
   </si>
   <si>
@@ -1267,6 +1312,21 @@
     <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
   </si>
   <si>
+    <t>Pralipto Ghosh</t>
+  </si>
+  <si>
+    <t>deep29.4.99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute Of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:55:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
+  </si>
+  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1294,51 +1354,6 @@
     <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
-  </si>
-  <si>
-    <t>Supritha Ravishankar</t>
-  </si>
-  <si>
-    <t>supri161@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.AIT</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
-  </si>
-  <si>
-    <t>Raveena Bhasin</t>
-  </si>
-  <si>
-    <t>raveenabhasin15@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Jabalpur Engineering College</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
-  </si>
-  <si>
     <t>Praneet Chakraborty</t>
   </si>
   <si>
@@ -1387,19 +1402,19 @@
     <t>https://google.qwiklabs.com/public_profiles/d9903919-6296-40ce-99f4-0db8330263dc</t>
   </si>
   <si>
-    <t>Pralipto Ghosh</t>
-  </si>
-  <si>
-    <t>deep29.4.99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute Of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:55:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
+    <t>Riju Sharma</t>
+  </si>
+  <si>
+    <t>rijushm@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Batanagar</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 11:40:30 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6572bc8d-dfd5-415c-a901-8d89b605b1fe</t>
   </si>
   <si>
     <t>RIDDHI CHAKRABORTY</t>
@@ -1417,6 +1432,21 @@
     <t>https://google.qwiklabs.com/public_profiles/68d997a9-2ed7-4008-8472-7ba8f499ff23</t>
   </si>
   <si>
+    <t>Sneha M</t>
+  </si>
+  <si>
+    <t>sneha24102000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management , Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 16:19:45 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
+  </si>
+  <si>
     <t>RAHUL LAHA</t>
   </si>
   <si>
@@ -1432,6 +1462,21 @@
     <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
   </si>
   <si>
+    <t>Riya Teri</t>
+  </si>
+  <si>
+    <t>riyateri01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kalinga Institute of Industrial Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
+  </si>
+  <si>
     <t>Abhinandan Patra</t>
   </si>
   <si>
@@ -1471,21 +1516,6 @@
     <t>https://google.qwiklabs.com/public_profiles/03b213db-e327-4a96-8f1e-be17b689997b</t>
   </si>
   <si>
-    <t>Riju Sharma</t>
-  </si>
-  <si>
-    <t>rijushm@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Batanagar</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 11:40:30 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6572bc8d-dfd5-415c-a901-8d89b605b1fe</t>
-  </si>
-  <si>
     <t>Souvik Pal</t>
   </si>
   <si>
@@ -1537,6 +1567,21 @@
     <t>https://google.qwiklabs.com/public_profiles/75f26a61-84d0-46cd-b8a9-2ee95da3da05</t>
   </si>
   <si>
+    <t>ANUSHA CHATTERJEE</t>
+  </si>
+  <si>
+    <t>b.146.anushachatterjee@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Institute of Engineering and management, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 20:10:14 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/e79e9cb2-b654-42c1-bdde-f6c2cb9c477f</t>
+  </si>
+  <si>
     <t>Susmita Banerjee</t>
   </si>
   <si>
@@ -1579,6 +1624,18 @@
     <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
   </si>
   <si>
+    <t>Mrinmoy Polley</t>
+  </si>
+  <si>
+    <t>mrinmoypolley35@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 08:35:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
+  </si>
+  <si>
     <t>Ankit Kumar Shaw</t>
   </si>
   <si>
@@ -1591,21 +1648,6 @@
     <t>https://google.qwiklabs.com/public_profiles/0673429e-9f55-4010-862d-7d4c76862e61</t>
   </si>
   <si>
-    <t>Sneha M</t>
-  </si>
-  <si>
-    <t>sneha24102000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management , Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 16:19:45 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
-  </si>
-  <si>
     <t>Subhasis Das</t>
   </si>
   <si>
@@ -1621,21 +1663,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
   </si>
   <si>
-    <t>ANUSHA CHATTERJEE</t>
-  </si>
-  <si>
-    <t>b.146.anushachatterjee@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Institute of Engineering and management, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 20:10:14 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/e79e9cb2-b654-42c1-bdde-f6c2cb9c477f</t>
-  </si>
-  <si>
     <t>Vibhu Pandey</t>
   </si>
   <si>
@@ -1648,16 +1675,19 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
-    <t>Mrinmoy Polley</t>
-  </si>
-  <si>
-    <t>mrinmoypolley35@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 08:35:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
+    <t>Harini Dhanasekaran</t>
+  </si>
+  <si>
+    <t>harinirdhanasekaran@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Anna university</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 10:08:37 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/dd1c5508-f6b9-4aed-b7dc-c17f04743822</t>
   </si>
   <si>
     <t>Aditya Navya Shukla</t>
@@ -1726,21 +1756,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
   </si>
   <si>
-    <t>Riya Teri</t>
-  </si>
-  <si>
-    <t>riyateri01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kalinga Institute of Industrial Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
-  </si>
-  <si>
     <t>SHAMS TABREZ</t>
   </si>
   <si>
@@ -1921,6 +1936,18 @@
     <t>https://google.qwiklabs.com/public_profiles/cce3aee2-73c9-4f55-bdd1-06bf43d50bdb</t>
   </si>
   <si>
+    <t>Anirudh Jalan</t>
+  </si>
+  <si>
+    <t>anirudhjalan2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 20:17:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/edaabff6-9898-40aa-abdb-507e8ad519dc</t>
+  </si>
+  <si>
     <t>Bihan Chakraborty</t>
   </si>
   <si>
@@ -2251,21 +2278,6 @@
     <t>https://google.qwiklabs.com/public_profiles/8322635b-7c50-43ee-b032-b60171f6d8e7</t>
   </si>
   <si>
-    <t>Harini Dhanasekaran</t>
-  </si>
-  <si>
-    <t>harinirdhanasekaran@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Anna university</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 10:08:37 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/dd1c5508-f6b9-4aed-b7dc-c17f04743822</t>
-  </si>
-  <si>
     <t>Apratim Mahata</t>
   </si>
   <si>
@@ -2447,18 +2459,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/04c4e192-4add-4762-9bfb-518362f8834a</t>
-  </si>
-  <si>
-    <t>Anirudh Jalan</t>
-  </si>
-  <si>
-    <t>anirudhjalan2001@gmail.com</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 20:17:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/edaabff6-9898-40aa-abdb-507e8ad519dc</t>
   </si>
   <si>
     <t>Juhi Shivkumar Tomar</t>
@@ -7422,10 +7422,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H9" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
@@ -7526,10 +7526,10 @@
         <v>68</v>
       </c>
       <c r="G13" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H13" s="1">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
@@ -7540,33 +7540,33 @@
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H14" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
@@ -7592,16 +7592,16 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1">
         <v>24.0</v>
@@ -7612,13 +7612,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>85</v>
@@ -7682,10 +7682,10 @@
         <v>96</v>
       </c>
       <c r="G19" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H19" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="20">
@@ -7696,33 +7696,33 @@
         <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1">
         <v>23.0</v>
       </c>
       <c r="H20" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>104</v>
@@ -7760,10 +7760,10 @@
         <v>110</v>
       </c>
       <c r="G22" s="1">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -7774,33 +7774,33 @@
         <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1">
         <v>21.0</v>
       </c>
       <c r="H23" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>118</v>
@@ -7815,7 +7815,7 @@
         <v>21.0</v>
       </c>
       <c r="H24" s="1">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
@@ -7904,59 +7904,59 @@
         <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G28" s="1">
         <v>18.0</v>
       </c>
       <c r="H28" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G29" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H29" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>146</v>
@@ -7968,10 +7968,10 @@
         <v>147</v>
       </c>
       <c r="G30" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H30" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="31">
@@ -8008,33 +8008,33 @@
         <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G32" s="1">
         <v>17.0</v>
       </c>
       <c r="H32" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>160</v>
@@ -8046,7 +8046,7 @@
         <v>161</v>
       </c>
       <c r="G33" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H33" s="1">
         <v>8.0</v>
@@ -8060,7 +8060,7 @@
         <v>163</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>164</v>
@@ -8127,7 +8127,7 @@
         <v>15.0</v>
       </c>
       <c r="H36" s="1">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
@@ -8138,137 +8138,137 @@
         <v>177</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G37" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H37" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G38" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H38" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G39" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H39" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H40" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G41" s="1">
         <v>14.0</v>
       </c>
       <c r="H41" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>201</v>
@@ -8280,10 +8280,10 @@
         <v>202</v>
       </c>
       <c r="G42" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H42" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="43">
@@ -8306,10 +8306,10 @@
         <v>207</v>
       </c>
       <c r="G43" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H43" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
@@ -8332,10 +8332,10 @@
         <v>212</v>
       </c>
       <c r="G44" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H44" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="45">
@@ -8361,7 +8361,7 @@
         <v>13.0</v>
       </c>
       <c r="H45" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="46">
@@ -8398,16 +8398,16 @@
         <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G47" s="1">
         <v>13.0</v>
@@ -8418,22 +8418,22 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G48" s="1">
         <v>13.0</v>
@@ -8444,39 +8444,39 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G49" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H49" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>238</v>
@@ -8488,10 +8488,10 @@
         <v>239</v>
       </c>
       <c r="G50" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H50" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
@@ -8514,7 +8514,7 @@
         <v>244</v>
       </c>
       <c r="G51" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H51" s="1">
         <v>8.0</v>
@@ -8540,7 +8540,7 @@
         <v>249</v>
       </c>
       <c r="G52" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H52" s="1">
         <v>8.0</v>
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="G53" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H53" s="1">
         <v>1.0</v>
@@ -8592,10 +8592,10 @@
         <v>259</v>
       </c>
       <c r="G54" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H54" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="55">
@@ -8621,7 +8621,7 @@
         <v>11.0</v>
       </c>
       <c r="H55" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -8647,7 +8647,7 @@
         <v>11.0</v>
       </c>
       <c r="H56" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
@@ -8670,10 +8670,10 @@
         <v>274</v>
       </c>
       <c r="G57" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H57" s="1">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="58">
@@ -8684,59 +8684,59 @@
         <v>276</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="G58" s="1">
         <v>10.0</v>
       </c>
       <c r="H58" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G59" s="1">
         <v>10.0</v>
       </c>
       <c r="H59" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>287</v>
@@ -8751,7 +8751,7 @@
         <v>10.0</v>
       </c>
       <c r="H60" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -8762,85 +8762,85 @@
         <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G61" s="1">
         <v>10.0</v>
       </c>
       <c r="H61" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G62" s="1">
         <v>10.0</v>
       </c>
       <c r="H62" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G63" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H63" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>304</v>
@@ -8852,10 +8852,10 @@
         <v>305</v>
       </c>
       <c r="G64" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H64" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -8866,45 +8866,45 @@
         <v>307</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="G65" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H65" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="G66" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H66" s="1">
         <v>7.0</v>
@@ -8912,74 +8912,74 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="G67" s="1">
         <v>9.0</v>
       </c>
       <c r="H67" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="G68" s="1">
         <v>9.0</v>
       </c>
       <c r="H68" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="G69" s="1">
         <v>9.0</v>
@@ -8990,13 +8990,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>332</v>
@@ -9034,10 +9034,10 @@
         <v>338</v>
       </c>
       <c r="G71" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H71" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -9048,33 +9048,33 @@
         <v>340</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G72" s="1">
         <v>8.0</v>
       </c>
       <c r="H72" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>346</v>
@@ -9089,7 +9089,7 @@
         <v>8.0</v>
       </c>
       <c r="H73" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
@@ -9115,7 +9115,7 @@
         <v>8.0</v>
       </c>
       <c r="H74" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -9126,59 +9126,59 @@
         <v>354</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G75" s="1">
         <v>8.0</v>
       </c>
       <c r="H75" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G76" s="1">
         <v>8.0</v>
       </c>
       <c r="H76" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>365</v>
@@ -9193,7 +9193,7 @@
         <v>8.0</v>
       </c>
       <c r="H77" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="78">
@@ -9219,7 +9219,7 @@
         <v>8.0</v>
       </c>
       <c r="H78" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -9230,42 +9230,42 @@
         <v>373</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G79" s="1">
         <v>8.0</v>
       </c>
       <c r="H79" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G80" s="1">
         <v>8.0</v>
@@ -9276,74 +9276,74 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G81" s="1">
         <v>8.0</v>
       </c>
       <c r="H81" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G82" s="1">
         <v>8.0</v>
       </c>
       <c r="H82" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G83" s="1">
         <v>8.0</v>
@@ -9354,13 +9354,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>397</v>
@@ -9375,7 +9375,7 @@
         <v>8.0</v>
       </c>
       <c r="H84" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
@@ -9398,10 +9398,10 @@
         <v>403</v>
       </c>
       <c r="G85" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H85" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -9427,7 +9427,7 @@
         <v>7.0</v>
       </c>
       <c r="H86" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -9453,7 +9453,7 @@
         <v>7.0</v>
       </c>
       <c r="H87" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="88">
@@ -9464,137 +9464,137 @@
         <v>415</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G88" s="1">
         <v>7.0</v>
       </c>
       <c r="H88" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>421</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G89" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H89" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G90" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H90" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>429</v>
+        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G91" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H91" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G92" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H92" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>439</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>440</v>
@@ -9609,7 +9609,7 @@
         <v>6.0</v>
       </c>
       <c r="H93" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
@@ -9620,111 +9620,111 @@
         <v>443</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G94" s="1">
         <v>6.0</v>
       </c>
       <c r="H94" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G95" s="1">
         <v>6.0</v>
       </c>
       <c r="H95" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G96" s="1">
         <v>6.0</v>
       </c>
       <c r="H96" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G97" s="1">
         <v>6.0</v>
       </c>
       <c r="H97" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>461</v>
@@ -9739,7 +9739,7 @@
         <v>6.0</v>
       </c>
       <c r="H98" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -9765,7 +9765,7 @@
         <v>6.0</v>
       </c>
       <c r="H99" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="100">
@@ -9788,10 +9788,10 @@
         <v>472</v>
       </c>
       <c r="G100" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H100" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="101">
@@ -9817,7 +9817,7 @@
         <v>5.0</v>
       </c>
       <c r="H101" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="102">
@@ -9828,42 +9828,42 @@
         <v>479</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G102" s="1">
         <v>5.0</v>
       </c>
       <c r="H102" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>16</v>
+        <v>485</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G103" s="1">
         <v>5.0</v>
@@ -9874,126 +9874,126 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
       </c>
       <c r="H104" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>493</v>
+        <v>281</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G105" s="1">
         <v>5.0</v>
       </c>
       <c r="H105" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G106" s="1">
         <v>5.0</v>
       </c>
       <c r="H106" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>220</v>
+        <v>503</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G107" s="1">
         <v>5.0</v>
       </c>
       <c r="H107" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G108" s="1">
         <v>5.0</v>
@@ -10004,39 +10004,39 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>510</v>
+        <v>192</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G109" s="1">
         <v>5.0</v>
       </c>
       <c r="H109" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>516</v>
@@ -10051,7 +10051,7 @@
         <v>5.0</v>
       </c>
       <c r="H110" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -10062,16 +10062,16 @@
         <v>519</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G111" s="1">
         <v>5.0</v>
@@ -10082,51 +10082,51 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G112" s="1">
         <v>5.0</v>
       </c>
       <c r="H112" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G113" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H113" s="1">
         <v>3.0</v>
@@ -10134,25 +10134,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G114" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H114" s="1">
         <v>3.0</v>
@@ -10160,13 +10160,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>538</v>
+        <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>539</v>
@@ -10178,7 +10178,7 @@
         <v>540</v>
       </c>
       <c r="G115" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H115" s="1">
         <v>3.0</v>
@@ -10192,7 +10192,7 @@
         <v>542</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>543</v>
@@ -10204,10 +10204,10 @@
         <v>544</v>
       </c>
       <c r="G116" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H116" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -10218,16 +10218,16 @@
         <v>546</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>16</v>
+        <v>547</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G117" s="1">
         <v>4.0</v>
@@ -10238,77 +10238,77 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G118" s="1">
         <v>4.0</v>
       </c>
       <c r="H118" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G119" s="1">
         <v>4.0</v>
       </c>
       <c r="H119" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>559</v>
+        <v>159</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G120" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H120" s="1">
         <v>3.0</v>
@@ -10316,65 +10316,65 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G121" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H121" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H121" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G122" s="1">
         <v>3.0</v>
       </c>
       <c r="H122" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>573</v>
+        <v>16</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>574</v>
@@ -10389,7 +10389,7 @@
         <v>3.0</v>
       </c>
       <c r="H123" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -10400,33 +10400,33 @@
         <v>577</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>16</v>
+        <v>578</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G124" s="1">
         <v>3.0</v>
       </c>
       <c r="H124" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>582</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>583</v>
@@ -10441,7 +10441,7 @@
         <v>3.0</v>
       </c>
       <c r="H125" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
@@ -10452,33 +10452,33 @@
         <v>586</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G126" s="1">
         <v>3.0</v>
       </c>
       <c r="H126" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>591</v>
+        <v>16</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>592</v>
@@ -10519,27 +10519,27 @@
         <v>3.0</v>
       </c>
       <c r="H128" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G129" s="1">
         <v>3.0</v>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>603</v>
+        <v>459</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>604</v>
@@ -10571,7 +10571,7 @@
         <v>3.0</v>
       </c>
       <c r="H130" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -10594,10 +10594,10 @@
         <v>612</v>
       </c>
       <c r="G131" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H131" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
@@ -10634,16 +10634,16 @@
         <v>619</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>126</v>
+        <v>620</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G133" s="1">
         <v>2.0</v>
@@ -10654,22 +10654,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G134" s="1">
         <v>2.0</v>
@@ -10680,13 +10680,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>628</v>
+        <v>205</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>629</v>
@@ -10727,7 +10727,7 @@
         <v>2.0</v>
       </c>
       <c r="H136" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -10764,7 +10764,7 @@
         <v>642</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>643</v>
@@ -10790,16 +10790,16 @@
         <v>646</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>16</v>
+        <v>647</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G139" s="1">
         <v>2.0</v>
@@ -10810,13 +10810,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>651</v>
+        <v>281</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>652</v>
@@ -10842,7 +10842,7 @@
         <v>655</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>656</v>
@@ -10857,7 +10857,7 @@
         <v>2.0</v>
       </c>
       <c r="H141" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142">
@@ -10883,7 +10883,7 @@
         <v>2.0</v>
       </c>
       <c r="H142" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
@@ -10894,7 +10894,7 @@
         <v>664</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>665</v>
@@ -10909,7 +10909,7 @@
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="144">
@@ -10935,7 +10935,7 @@
         <v>2.0</v>
       </c>
       <c r="H144" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -10946,94 +10946,94 @@
         <v>673</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="G145" s="1">
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="G146" s="1">
         <v>2.0</v>
       </c>
       <c r="H146" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="G147" s="1">
         <v>2.0</v>
       </c>
       <c r="H147" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
@@ -11044,39 +11044,39 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="G149" s="1">
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>699</v>
@@ -11117,7 +11117,7 @@
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
@@ -11128,33 +11128,33 @@
         <v>707</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="G152" s="1">
         <v>2.0</v>
       </c>
       <c r="H152" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>713</v>
@@ -11169,7 +11169,7 @@
         <v>2.0</v>
       </c>
       <c r="H153" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -11180,16 +11180,16 @@
         <v>716</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>493</v>
+        <v>717</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G154" s="1">
         <v>2.0</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>721</v>
+        <v>369</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>722</v>
@@ -11221,7 +11221,7 @@
         <v>2.0</v>
       </c>
       <c r="H155" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="156">
@@ -11232,7 +11232,7 @@
         <v>725</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>726</v>
@@ -11247,7 +11247,7 @@
         <v>2.0</v>
       </c>
       <c r="H156" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="157">
@@ -11273,7 +11273,7 @@
         <v>2.0</v>
       </c>
       <c r="H157" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -11336,7 +11336,7 @@
         <v>743</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>739</v>
+        <v>16</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>744</v>
@@ -11351,7 +11351,7 @@
         <v>2.0</v>
       </c>
       <c r="H160" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
@@ -11388,42 +11388,42 @@
         <v>752</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="G162" s="1">
         <v>2.0</v>
       </c>
       <c r="H162" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="G163" s="1">
         <v>2.0</v>
@@ -11434,13 +11434,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>763</v>
@@ -11466,59 +11466,59 @@
         <v>766</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="G165" s="1">
         <v>2.0</v>
       </c>
       <c r="H165" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="G166" s="1">
         <v>2.0</v>
       </c>
       <c r="H166" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>777</v>
@@ -11544,7 +11544,7 @@
         <v>780</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>781</v>
@@ -11556,7 +11556,7 @@
         <v>782</v>
       </c>
       <c r="G168" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H168" s="1">
         <v>0.0</v>
@@ -11668,22 +11668,22 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>500</v>
+        <v>799</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G173" s="1">
         <v>1.0</v>
@@ -11694,22 +11694,22 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>802</v>
+        <v>510</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>803</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="G174" s="1">
         <v>1.0</v>
@@ -11720,22 +11720,22 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="G175" s="1">
         <v>1.0</v>
@@ -11746,13 +11746,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>814</v>
@@ -11767,7 +11767,7 @@
         <v>1.0</v>
       </c>
       <c r="H176" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -11830,7 +11830,7 @@
         <v>827</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>828</v>
@@ -11882,7 +11882,7 @@
         <v>836</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>837</v>
@@ -11934,7 +11934,7 @@
         <v>845</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>846</v>
@@ -12012,7 +12012,7 @@
         <v>859</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>860</v>
@@ -12116,7 +12116,7 @@
         <v>878</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>879</v>
@@ -12194,7 +12194,7 @@
         <v>890</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>891</v>
@@ -12246,7 +12246,7 @@
         <v>899</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>900</v>
@@ -12324,7 +12324,7 @@
         <v>912</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>913</v>
@@ -12454,7 +12454,7 @@
         <v>936</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>937</v>
@@ -12636,7 +12636,7 @@
         <v>970</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>971</v>
@@ -12714,7 +12714,7 @@
         <v>984</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>985</v>
@@ -12766,7 +12766,7 @@
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>993</v>
@@ -12974,7 +12974,7 @@
         <v>1027</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>1028</v>
@@ -13104,7 +13104,7 @@
         <v>1046</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>1047</v>
@@ -13228,7 +13228,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1066</v>
@@ -13364,7 +13364,7 @@
         <v>1090</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1091</v>
@@ -13390,7 +13390,7 @@
         <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1095</v>
@@ -13416,7 +13416,7 @@
         <v>1098</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1099</v>
@@ -13520,7 +13520,7 @@
         <v>1116</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1117</v>
@@ -13592,13 +13592,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1129</v>
@@ -13780,7 +13780,7 @@
         <v>1161</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1162</v>
@@ -13800,13 +13800,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1165</v>
@@ -13832,7 +13832,7 @@
         <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1169</v>
@@ -13936,7 +13936,7 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
@@ -13962,7 +13962,7 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1190</v>
@@ -14092,7 +14092,7 @@
         <v>1211</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1212</v>
@@ -14248,7 +14248,7 @@
         <v>1237</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1238</v>
@@ -14352,7 +14352,7 @@
         <v>1255</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1256</v>
@@ -14534,7 +14534,7 @@
         <v>1285</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1286</v>
@@ -14664,7 +14664,7 @@
         <v>1306</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1307</v>
@@ -14898,7 +14898,7 @@
         <v>1346</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>573</v>
+        <v>485</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1347</v>
@@ -14924,7 +14924,7 @@
         <v>1350</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1351</v>
@@ -15080,7 +15080,7 @@
         <v>1376</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1377</v>
@@ -15132,7 +15132,7 @@
         <v>1383</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1384</v>
@@ -15314,7 +15314,7 @@
         <v>1413</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1414</v>
@@ -15340,7 +15340,7 @@
         <v>1417</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1418</v>
@@ -15418,7 +15418,7 @@
         <v>1430</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1431</v>
@@ -15678,7 +15678,7 @@
         <v>1473</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1474</v>
@@ -15704,7 +15704,7 @@
         <v>1477</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1478</v>
@@ -15776,13 +15776,13 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1490</v>
@@ -15860,7 +15860,7 @@
         <v>1503</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1504</v>
@@ -15964,7 +15964,7 @@
         <v>1522</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1523</v>
@@ -16380,7 +16380,7 @@
         <v>1591</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>1592</v>
@@ -16458,7 +16458,7 @@
         <v>1603</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1604</v>
@@ -16562,7 +16562,7 @@
         <v>1622</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1623</v>
@@ -16614,7 +16614,7 @@
         <v>1630</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>1631</v>
@@ -17108,7 +17108,7 @@
         <v>1718</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1719</v>
@@ -17134,7 +17134,7 @@
         <v>1722</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1723</v>
@@ -17238,7 +17238,7 @@
         <v>1740</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1741</v>
@@ -17342,7 +17342,7 @@
         <v>1758</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1759</v>
@@ -17362,13 +17362,13 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1761</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1762</v>
@@ -17414,13 +17414,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1769</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1770</v>
@@ -17466,7 +17466,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1777</v>
@@ -17758,7 +17758,7 @@
         <v>1829</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1830</v>
@@ -17862,7 +17862,7 @@
         <v>1845</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>1846</v>
@@ -18044,7 +18044,7 @@
         <v>1877</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1878</v>
@@ -18278,7 +18278,7 @@
         <v>1914</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1915</v>
@@ -18324,13 +18324,13 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>1921</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1922</v>
@@ -18382,7 +18382,7 @@
         <v>1930</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1931</v>
@@ -18512,7 +18512,7 @@
         <v>1951</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>1952</v>
@@ -18746,7 +18746,7 @@
         <v>1991</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>1992</v>
@@ -18876,7 +18876,7 @@
         <v>2013</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>2014</v>
@@ -19162,7 +19162,7 @@
         <v>2065</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>2066</v>
@@ -19396,7 +19396,7 @@
         <v>2107</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>2108</v>
@@ -19474,7 +19474,7 @@
         <v>2120</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>2121</v>
@@ -19500,7 +19500,7 @@
         <v>2124</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>2125</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19630,7 +19630,7 @@
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19682,7 +19682,7 @@
         <v>2155</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>2156</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19760,7 +19760,7 @@
         <v>2167</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>2168</v>
@@ -19890,7 +19890,7 @@
         <v>2190</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2191</v>
@@ -19916,7 +19916,7 @@
         <v>2194</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2195</v>
@@ -19994,7 +19994,7 @@
         <v>2207</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>2208</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20254,7 +20254,7 @@
         <v>2247</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>2248</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20540,7 +20540,7 @@
         <v>2294</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>2295</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -130,6 +130,21 @@
     <t>https://google.qwiklabs.com/public_profiles/a4e66ae5-4f29-4774-bbae-1cf7d2a6112c</t>
   </si>
   <si>
+    <t>Gursharan Kaur</t>
+  </si>
+  <si>
+    <t>gursharankaur8031@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MAIT</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
+  </si>
+  <si>
     <t>Vishwas Tyagi</t>
   </si>
   <si>
@@ -145,19 +160,19 @@
     <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
   </si>
   <si>
-    <t>Gursharan Kaur</t>
-  </si>
-  <si>
-    <t>gursharankaur8031@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MAIT</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 01:09:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/cfe44b35-b0bd-44bf-be58-630690451339</t>
+    <t>Prateek Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Prateeksharma0112@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Mahavir Swami Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
     <t>Rohit Das</t>
@@ -205,21 +220,6 @@
     <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
   </si>
   <si>
-    <t>Prateek Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Prateeksharma0112@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Mahavir Swami Institute Of Technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
-  </si>
-  <si>
     <t>Harshit Goyal</t>
   </si>
   <si>
@@ -346,6 +346,18 @@
     <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
   </si>
   <si>
+    <t>Raktim Roy</t>
+  </si>
+  <si>
+    <t>deepjoydrx@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
+  </si>
+  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -361,16 +373,19 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>Raktim Roy</t>
-  </si>
-  <si>
-    <t>deepjoydrx@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
   </si>
   <si>
     <t>Prachi Kumari</t>
@@ -430,21 +445,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
   </si>
   <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
-  </si>
-  <si>
     <t>Arunima Maiti</t>
   </si>
   <si>
@@ -457,6 +457,21 @@
     <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
   </si>
   <si>
+    <t>Sayan Sengupta</t>
+  </si>
+  <si>
+    <t>sayansengupta2001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of engineering and management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+  </si>
+  <si>
     <t>Kishan Biswakarma</t>
   </si>
   <si>
@@ -511,6 +526,36 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
+    <t>Rupankar Basak</t>
+  </si>
+  <si>
+    <t>rblearning69@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
+  </si>
+  <si>
+    <t>Adarsh Kumar</t>
+  </si>
+  <si>
+    <t>ak47adarsh01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Coochbehar Government Engineering College</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+  </si>
+  <si>
     <t>Manan Hemani</t>
   </si>
   <si>
@@ -526,51 +571,6 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>Rupankar Basak</t>
-  </si>
-  <si>
-    <t>rblearning69@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
-  </si>
-  <si>
-    <t>Adarsh Kumar</t>
-  </si>
-  <si>
-    <t>ak47adarsh01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Coochbehar Government Engineering College</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
-  </si>
-  <si>
-    <t>Sayan Sengupta</t>
-  </si>
-  <si>
-    <t>sayansengupta2001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of engineering and management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
-  </si>
-  <si>
     <t>Sandipa Jana</t>
   </si>
   <si>
@@ -652,6 +652,21 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
+    <t>SANDIP DAS</t>
+  </si>
+  <si>
+    <t>das770515@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
+  </si>
+  <si>
     <t>ANUVAB DUTTA</t>
   </si>
   <si>
@@ -667,6 +682,72 @@
     <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
+  </si>
+  <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+  </si>
+  <si>
+    <t>Anuja Singh</t>
+  </si>
+  <si>
+    <t>anujasingh2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
+  </si>
+  <si>
     <t>Radadiya Mohit</t>
   </si>
   <si>
@@ -682,45 +763,6 @@
     <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
     <t>Hritik Kumar Singh</t>
   </si>
   <si>
@@ -733,34 +775,19 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Anuja Singh</t>
-  </si>
-  <si>
-    <t>anujasingh2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
-  </si>
-  <si>
-    <t>SANDIP DAS</t>
-  </si>
-  <si>
-    <t>das770515@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
+    <t>Rahul Debnath</t>
+  </si>
+  <si>
+    <t>mtemporary7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
   </si>
   <si>
     <t>Sayan Poddar</t>
@@ -793,6 +820,21 @@
     <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
   </si>
   <si>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+  </si>
+  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -808,19 +850,28 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
+  </si>
+  <si>
+    <t>Samrat Ganguly</t>
+  </si>
+  <si>
+    <t>samratganguly37@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
   </si>
   <si>
     <t>Harshit Parwal</t>
@@ -838,16 +889,19 @@
     <t>https://google.qwiklabs.com/public_profiles/ceecb7c7-fcb6-46d3-bba3-77c1e2a141e0</t>
   </si>
   <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
   </si>
   <si>
     <t>Subhayu Kumar Bala</t>
@@ -880,33 +934,6 @@
     <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
   </si>
   <si>
-    <t>Rahul Debnath</t>
-  </si>
-  <si>
-    <t>mtemporary7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
-  </si>
-  <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Kesher Gupta</t>
   </si>
   <si>
@@ -931,6 +958,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
+    <t>Sayantan Kuila</t>
+  </si>
+  <si>
+    <t>sayantankuila@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno Main SaltLake , Kolkata</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 14:38:46 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
+  </si>
+  <si>
     <t>Ushasi Das</t>
   </si>
   <si>
@@ -955,6 +997,21 @@
     <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
   </si>
   <si>
+    <t>Supritha Ravishankar</t>
+  </si>
+  <si>
+    <t>supri161@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.AIT</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
+  </si>
+  <si>
     <t>Arkarup Saha</t>
   </si>
   <si>
@@ -1015,21 +1072,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
   </si>
   <si>
-    <t>Sayantan Kuila</t>
-  </si>
-  <si>
-    <t>sayantankuila@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno Main SaltLake , Kolkata</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 14:38:46 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
-  </si>
-  <si>
     <t>Rajesh Paswan</t>
   </si>
   <si>
@@ -1057,21 +1099,6 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
-  </si>
-  <si>
     <t>Sudipta Halder</t>
   </si>
   <si>
@@ -1087,6 +1114,21 @@
     <t>https://google.qwiklabs.com/public_profiles/00551988-5a4e-4a7c-b2b1-bb33be2bd8bb</t>
   </si>
   <si>
+    <t>Raveena Bhasin</t>
+  </si>
+  <si>
+    <t>raveenabhasin15@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Jabalpur Engineering College</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
+  </si>
+  <si>
     <t>Aman Chowdhury</t>
   </si>
   <si>
@@ -1186,18 +1228,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2061f808-65c0-4416-a21c-ce8f30ff65b8</t>
   </si>
   <si>
-    <t>Samrat Ganguly</t>
-  </si>
-  <si>
-    <t>samratganguly37@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
-  </si>
-  <si>
     <t>Anwesha Ghosh</t>
   </si>
   <si>
@@ -1210,6 +1240,18 @@
     <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
   </si>
   <si>
+    <t>Aditya Navya Shukla</t>
+  </si>
+  <si>
+    <t>adityanavya2@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 10:16:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/4f112305-5c13-449b-87d1-e44c2498a06c</t>
+  </si>
+  <si>
     <t>MEGHADRI KOLEY</t>
   </si>
   <si>
@@ -1225,34 +1267,19 @@
     <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
-    <t>Supritha Ravishankar</t>
-  </si>
-  <si>
-    <t>supri161@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.AIT</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 23:14:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/07a17352-9bcd-4409-8384-5be092b29647</t>
-  </si>
-  <si>
-    <t>Raveena Bhasin</t>
-  </si>
-  <si>
-    <t>raveenabhasin15@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Jabalpur Engineering College</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:56:42 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
+    <t>RAHUL LAHA</t>
+  </si>
+  <si>
+    <t>laharahul6@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:45:44 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
   </si>
   <si>
     <t>Arunima Dhar</t>
@@ -1432,6 +1459,18 @@
     <t>https://google.qwiklabs.com/public_profiles/68d997a9-2ed7-4008-8472-7ba8f499ff23</t>
   </si>
   <si>
+    <t>PRIYAM CHATTORAJ</t>
+  </si>
+  <si>
+    <t>priyamchattoraj1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
+  </si>
+  <si>
     <t>Sneha M</t>
   </si>
   <si>
@@ -1447,19 +1486,19 @@
     <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
   </si>
   <si>
-    <t>RAHUL LAHA</t>
-  </si>
-  <si>
-    <t>laharahul6@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:45:44 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
+    <t>Subhasis Das</t>
+  </si>
+  <si>
+    <t>subhasis.dnt2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Aditya College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
   </si>
   <si>
     <t>Riya Teri</t>
@@ -1612,18 +1651,6 @@
     <t>https://google.qwiklabs.com/public_profiles/e6fa8039-1f69-41ef-98b7-9d8a6121c754</t>
   </si>
   <si>
-    <t>PRIYAM CHATTORAJ</t>
-  </si>
-  <si>
-    <t>priyamchattoraj1234@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
-  </si>
-  <si>
     <t>Mrinmoy Polley</t>
   </si>
   <si>
@@ -1636,6 +1663,21 @@
     <t>https://google.qwiklabs.com/public_profiles/b2625b75-e698-4200-9ad0-7bb63d63cf86</t>
   </si>
   <si>
+    <t>Harini Dhanasekaran</t>
+  </si>
+  <si>
+    <t>harinirdhanasekaran@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Anna university</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 10:08:37 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/dd1c5508-f6b9-4aed-b7dc-c17f04743822</t>
+  </si>
+  <si>
     <t>Ankit Kumar Shaw</t>
   </si>
   <si>
@@ -1648,19 +1690,19 @@
     <t>https://google.qwiklabs.com/public_profiles/0673429e-9f55-4010-862d-7d4c76862e61</t>
   </si>
   <si>
-    <t>Subhasis Das</t>
-  </si>
-  <si>
-    <t>subhasis.dnt2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Aditya College of Engineering and Technology</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
+    <t>Rishabh Shrivastava</t>
+  </si>
+  <si>
+    <t>rs0857536@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Medicaps University(Indore)</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 22:16:40 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
   </si>
   <si>
     <t>Vibhu Pandey</t>
@@ -1675,33 +1717,6 @@
     <t>https://google.qwiklabs.com/public_profiles/166fc5d7-ebb9-47b5-80ef-30e7e6b14e72</t>
   </si>
   <si>
-    <t>Harini Dhanasekaran</t>
-  </si>
-  <si>
-    <t>harinirdhanasekaran@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Anna university</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 10:08:37 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/dd1c5508-f6b9-4aed-b7dc-c17f04743822</t>
-  </si>
-  <si>
-    <t>Aditya Navya Shukla</t>
-  </si>
-  <si>
-    <t>adityanavya2@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 10:16:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/4f112305-5c13-449b-87d1-e44c2498a06c</t>
-  </si>
-  <si>
     <t>Riddhith Banerjee</t>
   </si>
   <si>
@@ -1714,19 +1729,19 @@
     <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
   </si>
   <si>
-    <t>Rishabh Shrivastava</t>
-  </si>
-  <si>
-    <t>rs0857536@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Medicaps University(Indore)</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 22:16:40 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
+    <t>MD ENAM ANSARI</t>
+  </si>
+  <si>
+    <t>equram786ansari12@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NIT DURGAPUR</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 18:40:20 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/382968db-4883-47bf-bb77-6336d06870c8</t>
   </si>
   <si>
     <t>Shashwat Pandey</t>
@@ -2335,21 +2350,6 @@
     <t>https://google.qwiklabs.com/public_profiles/bd883a43-673b-4d09-95f6-ba44597ac4d4</t>
   </si>
   <si>
-    <t>MD ENAM ANSARI</t>
-  </si>
-  <si>
-    <t>equram786ansari12@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NIT DURGAPUR</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 18:40:20 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/382968db-4883-47bf-bb77-6336d06870c8</t>
-  </si>
-  <si>
     <t>Aman Malakar</t>
   </si>
   <si>
@@ -3010,6 +3010,18 @@
     <t>https://google.qwiklabs.com/public_profiles/297dfc78-5dbd-40f6-af52-959fbdaf5dee</t>
   </si>
   <si>
+    <t>SRINJOY BANERJEE</t>
+  </si>
+  <si>
+    <t>srinjoybanerjee12@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 21:08:39 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/c157440c-1327-4738-b043-22d6696f4d2c</t>
+  </si>
+  <si>
     <t>Vishal Choubey</t>
   </si>
   <si>
@@ -6629,18 +6641,6 @@
   </si>
   <si>
     <t>https://www.google.com/url?q=https://www.qwiklabs.com/public_profiles/PROFILE_ID&amp;sa=D&amp;source=editors&amp;ust=1617985308436000&amp;usg=AFQjCNFMyf3Es2IgHGV_xC_SoVPv7uXS2A</t>
-  </si>
-  <si>
-    <t>SRINJOY BANERJEE</t>
-  </si>
-  <si>
-    <t>srinjoybanerjee12@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 21:08:39 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/c157440c-1327-4738-b043-22d6696f4d2c</t>
   </si>
   <si>
     <t>business.pratikchakraborty@gmail.com</t>
@@ -7422,7 +7422,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="1">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H9" s="1">
         <v>15.0</v>
@@ -7448,7 +7448,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="1">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H10" s="1">
         <v>13.0</v>
@@ -7477,7 +7477,7 @@
         <v>27.0</v>
       </c>
       <c r="H11" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
@@ -7500,7 +7500,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H12" s="1">
         <v>12.0</v>
@@ -7529,7 +7529,7 @@
         <v>26.0</v>
       </c>
       <c r="H13" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
@@ -7566,7 +7566,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
@@ -7722,7 +7722,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>104</v>
@@ -7774,33 +7774,33 @@
         <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G23" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H23" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>118</v>
@@ -7815,7 +7815,7 @@
         <v>21.0</v>
       </c>
       <c r="H24" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
@@ -7826,33 +7826,33 @@
         <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G25" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H25" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>127</v>
@@ -7864,10 +7864,10 @@
         <v>128</v>
       </c>
       <c r="G26" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H26" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="27">
@@ -7890,7 +7890,7 @@
         <v>133</v>
       </c>
       <c r="G27" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H27" s="1">
         <v>11.0</v>
@@ -7916,7 +7916,7 @@
         <v>138</v>
       </c>
       <c r="G28" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H28" s="1">
         <v>11.0</v>
@@ -7942,10 +7942,10 @@
         <v>143</v>
       </c>
       <c r="G29" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H29" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30">
@@ -7997,7 +7997,7 @@
         <v>17.0</v>
       </c>
       <c r="H31" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
@@ -8008,33 +8008,33 @@
         <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G32" s="1">
         <v>17.0</v>
       </c>
       <c r="H32" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>160</v>
@@ -8049,7 +8049,7 @@
         <v>17.0</v>
       </c>
       <c r="H33" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="34">
@@ -8060,19 +8060,19 @@
         <v>163</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H34" s="1">
         <v>8.0</v>
@@ -8080,13 +8080,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>169</v>
@@ -8124,10 +8124,10 @@
         <v>175</v>
       </c>
       <c r="G36" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H36" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="37">
@@ -8150,7 +8150,7 @@
         <v>180</v>
       </c>
       <c r="G37" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H37" s="1">
         <v>6.0</v>
@@ -8176,10 +8176,10 @@
         <v>185</v>
       </c>
       <c r="G38" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H38" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -8358,10 +8358,10 @@
         <v>217</v>
       </c>
       <c r="G45" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H45" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="46">
@@ -8384,10 +8384,10 @@
         <v>222</v>
       </c>
       <c r="G46" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H46" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="47">
@@ -8410,7 +8410,7 @@
         <v>227</v>
       </c>
       <c r="G47" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H47" s="1">
         <v>10.0</v>
@@ -8436,7 +8436,7 @@
         <v>231</v>
       </c>
       <c r="G48" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H48" s="1">
         <v>10.0</v>
@@ -8462,7 +8462,7 @@
         <v>235</v>
       </c>
       <c r="G49" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H49" s="1">
         <v>10.0</v>
@@ -8476,7 +8476,7 @@
         <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>238</v>
@@ -8488,10 +8488,10 @@
         <v>239</v>
       </c>
       <c r="G50" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H50" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="51">
@@ -8514,7 +8514,7 @@
         <v>244</v>
       </c>
       <c r="G51" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H51" s="1">
         <v>8.0</v>
@@ -8540,10 +8540,10 @@
         <v>249</v>
       </c>
       <c r="G52" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H52" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="53">
@@ -8554,137 +8554,137 @@
         <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="G53" s="1">
         <v>12.0</v>
       </c>
       <c r="H53" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="G54" s="1">
         <v>12.0</v>
       </c>
       <c r="H54" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="G55" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H55" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="G56" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H56" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="G57" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H57" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>277</v>
@@ -8696,10 +8696,10 @@
         <v>278</v>
       </c>
       <c r="G58" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H58" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -8710,111 +8710,111 @@
         <v>280</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="G59" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H59" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="G60" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H60" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="G61" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H61" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="G62" s="1">
         <v>10.0</v>
       </c>
       <c r="H62" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>300</v>
@@ -8840,111 +8840,111 @@
         <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G64" s="1">
         <v>10.0</v>
       </c>
       <c r="H64" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G65" s="1">
         <v>10.0</v>
       </c>
       <c r="H65" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G66" s="1">
         <v>10.0</v>
       </c>
       <c r="H66" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G67" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H67" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>322</v>
@@ -8956,10 +8956,10 @@
         <v>323</v>
       </c>
       <c r="G68" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H68" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -8970,42 +8970,42 @@
         <v>325</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="G69" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H69" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="G70" s="1">
         <v>9.0</v>
@@ -9016,65 +9016,65 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="G71" s="1">
         <v>9.0</v>
       </c>
       <c r="H71" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="G72" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H72" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>346</v>
@@ -9086,7 +9086,7 @@
         <v>347</v>
       </c>
       <c r="G73" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H73" s="1">
         <v>4.0</v>
@@ -9112,10 +9112,10 @@
         <v>352</v>
       </c>
       <c r="G74" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H74" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -9141,7 +9141,7 @@
         <v>8.0</v>
       </c>
       <c r="H75" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="76">
@@ -9152,33 +9152,33 @@
         <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G76" s="1">
         <v>8.0</v>
       </c>
       <c r="H76" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>365</v>
@@ -9193,7 +9193,7 @@
         <v>8.0</v>
       </c>
       <c r="H77" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -9219,7 +9219,7 @@
         <v>8.0</v>
       </c>
       <c r="H78" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="79">
@@ -9245,7 +9245,7 @@
         <v>8.0</v>
       </c>
       <c r="H79" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="80">
@@ -9256,33 +9256,33 @@
         <v>378</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="G80" s="1">
         <v>8.0</v>
       </c>
       <c r="H80" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>384</v>
@@ -9297,7 +9297,7 @@
         <v>8.0</v>
       </c>
       <c r="H81" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -9334,16 +9334,16 @@
         <v>392</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G83" s="1">
         <v>8.0</v>
@@ -9354,65 +9354,65 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G84" s="1">
         <v>8.0</v>
       </c>
       <c r="H84" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G85" s="1">
         <v>8.0</v>
       </c>
       <c r="H85" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>407</v>
@@ -9424,10 +9424,10 @@
         <v>408</v>
       </c>
       <c r="G86" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H86" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="87">
@@ -9438,111 +9438,111 @@
         <v>410</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="G87" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H87" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="G88" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H88" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="G89" s="1">
         <v>7.0</v>
       </c>
       <c r="H89" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="G90" s="1">
         <v>7.0</v>
       </c>
       <c r="H90" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>431</v>
@@ -9557,7 +9557,7 @@
         <v>7.0</v>
       </c>
       <c r="H91" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -9583,7 +9583,7 @@
         <v>7.0</v>
       </c>
       <c r="H92" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="93">
@@ -9606,10 +9606,10 @@
         <v>441</v>
       </c>
       <c r="G93" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H93" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="94">
@@ -9632,10 +9632,10 @@
         <v>446</v>
       </c>
       <c r="G94" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H94" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -9661,7 +9661,7 @@
         <v>6.0</v>
       </c>
       <c r="H95" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
@@ -9672,16 +9672,16 @@
         <v>452</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G96" s="1">
         <v>6.0</v>
@@ -9692,22 +9692,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G97" s="1">
         <v>6.0</v>
@@ -9718,22 +9718,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G98" s="1">
         <v>6.0</v>
@@ -9744,13 +9744,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>466</v>
@@ -9776,97 +9776,97 @@
         <v>469</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="G100" s="1">
         <v>6.0</v>
       </c>
       <c r="H100" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="G101" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H101" s="1">
         <v>5.0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="G102" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H102" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="G103" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H103" s="1">
         <v>4.0</v>
@@ -9874,65 +9874,65 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
       </c>
       <c r="H104" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="G105" s="1">
         <v>5.0</v>
       </c>
       <c r="H105" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>499</v>
@@ -9973,7 +9973,7 @@
         <v>5.0</v>
       </c>
       <c r="H107" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -9984,7 +9984,7 @@
         <v>507</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>508</v>
@@ -9999,7 +9999,7 @@
         <v>5.0</v>
       </c>
       <c r="H108" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="109">
@@ -10010,7 +10010,7 @@
         <v>511</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>512</v>
@@ -10025,7 +10025,7 @@
         <v>5.0</v>
       </c>
       <c r="H109" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
@@ -10036,33 +10036,33 @@
         <v>515</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G110" s="1">
         <v>5.0</v>
       </c>
       <c r="H110" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>520</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>521</v>
@@ -10077,7 +10077,7 @@
         <v>5.0</v>
       </c>
       <c r="H111" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -10088,68 +10088,68 @@
         <v>524</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="G112" s="1">
         <v>5.0</v>
       </c>
       <c r="H112" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="G113" s="1">
         <v>5.0</v>
       </c>
       <c r="H113" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="G114" s="1">
         <v>5.0</v>
@@ -10160,13 +10160,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>539</v>
@@ -10181,7 +10181,7 @@
         <v>5.0</v>
       </c>
       <c r="H115" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -10192,33 +10192,33 @@
         <v>542</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G116" s="1">
         <v>5.0</v>
       </c>
       <c r="H116" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>547</v>
+        <v>16</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>548</v>
@@ -10230,10 +10230,10 @@
         <v>549</v>
       </c>
       <c r="G117" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H117" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="118">
@@ -10244,33 +10244,33 @@
         <v>551</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
+        <v>552</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G118" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H118" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>557</v>
@@ -10282,7 +10282,7 @@
         <v>558</v>
       </c>
       <c r="G119" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H119" s="1">
         <v>4.0</v>
@@ -10296,59 +10296,59 @@
         <v>560</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>159</v>
+        <v>561</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G120" s="1">
         <v>4.0</v>
       </c>
       <c r="H120" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G121" s="1">
         <v>4.0</v>
       </c>
       <c r="H121" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>569</v>
+        <v>16</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>570</v>
@@ -10360,7 +10360,7 @@
         <v>571</v>
       </c>
       <c r="G122" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H122" s="1">
         <v>3.0</v>
@@ -10374,33 +10374,33 @@
         <v>573</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>16</v>
+        <v>574</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G123" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H123" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>578</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>579</v>
@@ -10415,7 +10415,7 @@
         <v>3.0</v>
       </c>
       <c r="H124" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -10426,33 +10426,33 @@
         <v>582</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>16</v>
+        <v>583</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G125" s="1">
         <v>3.0</v>
       </c>
       <c r="H125" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>587</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>588</v>
@@ -10467,7 +10467,7 @@
         <v>3.0</v>
       </c>
       <c r="H126" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -10478,33 +10478,33 @@
         <v>591</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>16</v>
+        <v>592</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G127" s="1">
         <v>3.0</v>
       </c>
       <c r="H127" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>596</v>
+        <v>16</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>597</v>
@@ -10545,27 +10545,27 @@
         <v>3.0</v>
       </c>
       <c r="H129" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>459</v>
+        <v>604</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G130" s="1">
         <v>3.0</v>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>608</v>
+        <v>468</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>609</v>
@@ -10597,7 +10597,7 @@
         <v>3.0</v>
       </c>
       <c r="H131" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
@@ -10620,10 +10620,10 @@
         <v>617</v>
       </c>
       <c r="G132" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H132" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="133">
@@ -10660,16 +10660,16 @@
         <v>624</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>126</v>
+        <v>625</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G134" s="1">
         <v>2.0</v>
@@ -10680,22 +10680,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G135" s="1">
         <v>2.0</v>
@@ -10706,13 +10706,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>633</v>
+        <v>205</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>634</v>
@@ -10753,7 +10753,7 @@
         <v>2.0</v>
       </c>
       <c r="H137" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -10764,16 +10764,16 @@
         <v>642</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>16</v>
+        <v>643</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
@@ -10784,13 +10784,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>647</v>
+        <v>16</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>648</v>
@@ -10805,7 +10805,7 @@
         <v>2.0</v>
       </c>
       <c r="H139" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="140">
@@ -10816,16 +10816,16 @@
         <v>651</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>281</v>
+        <v>652</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G140" s="1">
         <v>2.0</v>
@@ -10836,22 +10836,22 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
@@ -10862,13 +10862,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>660</v>
+        <v>16</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>661</v>
@@ -10894,33 +10894,33 @@
         <v>664</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>426</v>
+        <v>665</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G143" s="1">
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>669</v>
+        <v>435</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>670</v>
@@ -10935,7 +10935,7 @@
         <v>2.0</v>
       </c>
       <c r="H144" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="145">
@@ -10946,16 +10946,16 @@
         <v>673</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>16</v>
+        <v>674</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G145" s="1">
         <v>2.0</v>
@@ -10966,13 +10966,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>678</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>679</v>
@@ -10987,7 +10987,7 @@
         <v>2.0</v>
       </c>
       <c r="H146" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
@@ -11039,7 +11039,7 @@
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -11117,7 +11117,7 @@
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -11128,33 +11128,33 @@
         <v>707</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G152" s="1">
         <v>2.0</v>
       </c>
       <c r="H152" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>712</v>
+        <v>643</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>713</v>
@@ -11195,7 +11195,7 @@
         <v>2.0</v>
       </c>
       <c r="H154" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -11206,16 +11206,16 @@
         <v>721</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>369</v>
+        <v>722</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G155" s="1">
         <v>2.0</v>
@@ -11226,22 +11226,22 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G156" s="1">
         <v>2.0</v>
@@ -11252,13 +11252,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>730</v>
+        <v>516</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>731</v>
@@ -11273,7 +11273,7 @@
         <v>2.0</v>
       </c>
       <c r="H157" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
@@ -11284,33 +11284,33 @@
         <v>734</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>16</v>
+        <v>735</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G158" s="1">
         <v>2.0</v>
       </c>
       <c r="H158" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>739</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>740</v>
@@ -11325,7 +11325,7 @@
         <v>2.0</v>
       </c>
       <c r="H159" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -11336,33 +11336,33 @@
         <v>743</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>16</v>
+        <v>744</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G160" s="1">
         <v>2.0</v>
       </c>
       <c r="H160" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>748</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>749</v>
@@ -11377,7 +11377,7 @@
         <v>2.0</v>
       </c>
       <c r="H161" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
@@ -11388,16 +11388,16 @@
         <v>752</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G162" s="1">
         <v>2.0</v>
@@ -11408,13 +11408,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>758</v>
@@ -11429,7 +11429,7 @@
         <v>2.0</v>
       </c>
       <c r="H163" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="164">
@@ -11466,16 +11466,16 @@
         <v>766</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>16</v>
+        <v>767</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G165" s="1">
         <v>2.0</v>
@@ -11486,13 +11486,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>771</v>
+        <v>16</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>772</v>
@@ -11507,7 +11507,7 @@
         <v>2.0</v>
       </c>
       <c r="H166" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -11533,7 +11533,7 @@
         <v>2.0</v>
       </c>
       <c r="H167" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
@@ -11544,7 +11544,7 @@
         <v>780</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>781</v>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>803</v>
@@ -11934,7 +11934,7 @@
         <v>845</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>846</v>
@@ -12116,7 +12116,7 @@
         <v>878</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>879</v>
@@ -12194,7 +12194,7 @@
         <v>890</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>891</v>
@@ -12246,7 +12246,7 @@
         <v>899</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>900</v>
@@ -12636,7 +12636,7 @@
         <v>970</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>971</v>
@@ -12714,7 +12714,7 @@
         <v>984</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>985</v>
@@ -12766,7 +12766,7 @@
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>993</v>
@@ -12818,16 +12818,16 @@
         <v>1000</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="G217" s="1">
         <v>1.0</v>
@@ -12838,13 +12838,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>1006</v>
@@ -12870,7 +12870,7 @@
         <v>1009</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1010</v>
@@ -12885,7 +12885,7 @@
         <v>1.0</v>
       </c>
       <c r="H219" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -12896,7 +12896,7 @@
         <v>1013</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>1014</v>
@@ -12908,10 +12908,10 @@
         <v>1015</v>
       </c>
       <c r="G220" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H220" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="221">
@@ -12922,16 +12922,16 @@
         <v>1017</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>1020</v>
       </c>
       <c r="G221" s="1">
         <v>0.0</v>
@@ -12942,22 +12942,22 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="G222" s="1">
         <v>0.0</v>
@@ -12968,13 +12968,13 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>1028</v>
@@ -13000,7 +13000,7 @@
         <v>1031</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>1032</v>
@@ -13072,22 +13072,22 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G227" s="1">
         <v>0.0</v>
@@ -13098,13 +13098,13 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>757</v>
+        <v>16</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>1047</v>
@@ -13130,7 +13130,7 @@
         <v>1050</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>16</v>
+        <v>762</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1051</v>
@@ -13182,16 +13182,16 @@
         <v>1058</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="G231" s="1">
         <v>0.0</v>
@@ -13202,13 +13202,13 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>1064</v>
@@ -13228,22 +13228,22 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>298</v>
+        <v>1066</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>850</v>
+        <v>16</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G233" s="1">
         <v>0.0</v>
@@ -13254,22 +13254,22 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>1069</v>
+        <v>307</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>1073</v>
       </c>
       <c r="G234" s="1">
         <v>0.0</v>
@@ -13280,22 +13280,22 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>1078</v>
       </c>
       <c r="G235" s="1">
         <v>0.0</v>
@@ -13306,22 +13306,22 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>1082</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>1083</v>
       </c>
       <c r="G236" s="1">
         <v>0.0</v>
@@ -13332,22 +13332,22 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="G237" s="1">
         <v>0.0</v>
@@ -13358,13 +13358,13 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1091</v>
@@ -13390,7 +13390,7 @@
         <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>813</v>
+        <v>393</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1095</v>
@@ -13416,7 +13416,7 @@
         <v>1098</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>633</v>
+        <v>813</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1099</v>
@@ -13442,7 +13442,7 @@
         <v>1102</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>16</v>
+        <v>638</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1103</v>
@@ -13468,16 +13468,16 @@
         <v>1106</v>
       </c>
       <c r="C242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>1108</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="G242" s="1">
         <v>0.0</v>
@@ -13488,22 +13488,22 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>1113</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>1114</v>
       </c>
       <c r="G243" s="1">
         <v>0.0</v>
@@ -13514,13 +13514,13 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1117</v>
@@ -13546,16 +13546,16 @@
         <v>1120</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="G245" s="1">
         <v>0.0</v>
@@ -13566,13 +13566,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1126</v>
@@ -13592,22 +13592,22 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>650</v>
+        <v>1128</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>647</v>
+        <v>215</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G247" s="1">
         <v>0.0</v>
@@ -13618,22 +13618,22 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>1131</v>
+        <v>655</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="G248" s="1">
         <v>0.0</v>
@@ -13644,22 +13644,22 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="G249" s="1">
         <v>0.0</v>
@@ -13670,13 +13670,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1143</v>
@@ -13702,16 +13702,16 @@
         <v>1146</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="G251" s="1">
         <v>0.0</v>
@@ -13722,22 +13722,22 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>1153</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>1154</v>
       </c>
       <c r="G252" s="1">
         <v>0.0</v>
@@ -13748,22 +13748,22 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="G253" s="1">
         <v>0.0</v>
@@ -13774,13 +13774,13 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1162</v>
@@ -13800,22 +13800,22 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>97</v>
+        <v>1164</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G255" s="1">
         <v>0.0</v>
@@ -13826,13 +13826,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>1167</v>
+        <v>97</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>647</v>
+        <v>99</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1169</v>
@@ -13858,16 +13858,16 @@
         <v>1172</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>850</v>
+        <v>652</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="E257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="G257" s="1">
         <v>0.0</v>
@@ -13878,19 +13878,19 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>1179</v>
@@ -13910,7 +13910,7 @@
         <v>1181</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>16</v>
+        <v>823</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1182</v>
@@ -13936,13 +13936,13 @@
         <v>1185</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1174</v>
+        <v>12</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>1187</v>
@@ -13962,13 +13962,13 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>1191</v>
@@ -13988,16 +13988,16 @@
         <v>1193</v>
       </c>
       <c r="C262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>1196</v>
       </c>
       <c r="G262" s="1">
         <v>0.0</v>
@@ -14008,13 +14008,13 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1199</v>
@@ -14040,16 +14040,16 @@
         <v>1202</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>1205</v>
       </c>
       <c r="G264" s="1">
         <v>0.0</v>
@@ -14060,13 +14060,13 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1208</v>
@@ -14092,7 +14092,7 @@
         <v>1211</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>281</v>
+        <v>850</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1212</v>
@@ -14118,16 +14118,16 @@
         <v>1215</v>
       </c>
       <c r="C267" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>1218</v>
       </c>
       <c r="G267" s="1">
         <v>0.0</v>
@@ -14138,13 +14138,13 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1221</v>
@@ -14170,16 +14170,16 @@
         <v>1224</v>
       </c>
       <c r="C269" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="G269" s="1">
         <v>0.0</v>
@@ -14190,22 +14190,22 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>1232</v>
       </c>
       <c r="G270" s="1">
         <v>0.0</v>
@@ -14216,19 +14216,19 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1174</v>
+        <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>1236</v>
@@ -14242,22 +14242,22 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>853</v>
+        <v>1237</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G272" s="1">
         <v>0.0</v>
@@ -14268,22 +14268,22 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>1240</v>
+        <v>853</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F273" s="2" t="s">
         <v>1243</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>1244</v>
       </c>
       <c r="G273" s="1">
         <v>0.0</v>
@@ -14294,22 +14294,22 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="G274" s="1">
         <v>0.0</v>
@@ -14320,13 +14320,13 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1252</v>
@@ -14352,7 +14352,7 @@
         <v>1255</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>757</v>
+        <v>16</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1256</v>
@@ -14378,7 +14378,7 @@
         <v>1259</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>16</v>
+        <v>762</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1260</v>
@@ -14404,16 +14404,16 @@
         <v>1263</v>
       </c>
       <c r="C278" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>1265</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>1266</v>
       </c>
       <c r="G278" s="1">
         <v>0.0</v>
@@ -14424,22 +14424,22 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="G279" s="1">
         <v>0.0</v>
@@ -14450,13 +14450,13 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>1273</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1274</v>
@@ -14534,7 +14534,7 @@
         <v>1285</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>326</v>
+        <v>16</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1286</v>
@@ -14560,16 +14560,16 @@
         <v>1289</v>
       </c>
       <c r="C284" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="2" t="s">
         <v>1291</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>1236</v>
       </c>
       <c r="G284" s="1">
         <v>0.0</v>
@@ -14586,16 +14586,16 @@
         <v>1293</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>16</v>
+        <v>1294</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1295</v>
+        <v>1240</v>
       </c>
       <c r="G285" s="1">
         <v>0.0</v>
@@ -14612,16 +14612,16 @@
         <v>1297</v>
       </c>
       <c r="C286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="2" t="s">
         <v>1299</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>1300</v>
       </c>
       <c r="G286" s="1">
         <v>0.0</v>
@@ -14632,13 +14632,13 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1303</v>
@@ -14664,7 +14664,7 @@
         <v>1306</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>369</v>
+        <v>16</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1307</v>
@@ -14690,16 +14690,16 @@
         <v>1310</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>1313</v>
       </c>
       <c r="G289" s="1">
         <v>0.0</v>
@@ -14710,22 +14710,22 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>1318</v>
       </c>
       <c r="G290" s="1">
         <v>0.0</v>
@@ -14736,13 +14736,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>1320</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1321</v>
@@ -14794,16 +14794,16 @@
         <v>1328</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>1331</v>
       </c>
       <c r="G293" s="1">
         <v>0.0</v>
@@ -14814,19 +14814,19 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>1335</v>
@@ -14846,7 +14846,7 @@
         <v>1337</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>895</v>
+        <v>16</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>1338</v>
@@ -14872,16 +14872,16 @@
         <v>1341</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>1344</v>
       </c>
       <c r="G296" s="1">
         <v>0.0</v>
@@ -14892,13 +14892,13 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>1347</v>
@@ -14924,7 +14924,7 @@
         <v>1350</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>281</v>
+        <v>498</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1351</v>
@@ -14944,22 +14944,22 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>250</v>
+        <v>1353</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G299" s="1">
         <v>0.0</v>
@@ -14970,13 +14970,13 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>1356</v>
+        <v>259</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>1358</v>
@@ -15002,16 +15002,16 @@
         <v>1361</v>
       </c>
       <c r="C301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F301" s="2" t="s">
-        <v>1364</v>
       </c>
       <c r="G301" s="1">
         <v>0.0</v>
@@ -15022,22 +15022,22 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>1369</v>
       </c>
       <c r="G302" s="1">
         <v>0.0</v>
@@ -15048,22 +15048,22 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>1374</v>
       </c>
       <c r="G303" s="1">
         <v>0.0</v>
@@ -15074,13 +15074,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1377</v>
@@ -15100,22 +15100,22 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1372</v>
+        <v>80</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G305" s="1">
         <v>0.0</v>
@@ -15126,13 +15126,13 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>360</v>
+        <v>1376</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>1384</v>
@@ -15158,16 +15158,16 @@
         <v>1387</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="G307" s="1">
         <v>0.0</v>
@@ -15178,13 +15178,13 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1393</v>
@@ -15288,16 +15288,16 @@
         <v>1408</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312" s="2" t="s">
         <v>1410</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>1411</v>
       </c>
       <c r="G312" s="1">
         <v>0.0</v>
@@ -15308,19 +15308,19 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>1415</v>
@@ -15340,7 +15340,7 @@
         <v>1417</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1418</v>
@@ -15366,7 +15366,7 @@
         <v>1421</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1422</v>
@@ -15392,16 +15392,16 @@
         <v>1425</v>
       </c>
       <c r="C316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316" s="2" t="s">
         <v>1427</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>1428</v>
       </c>
       <c r="G316" s="1">
         <v>0.0</v>
@@ -15412,13 +15412,13 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1431</v>
@@ -15444,7 +15444,7 @@
         <v>1434</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>16</v>
+        <v>703</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1435</v>
@@ -15470,7 +15470,7 @@
         <v>1438</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1439</v>
@@ -15496,16 +15496,16 @@
         <v>1442</v>
       </c>
       <c r="C320" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="2" t="s">
         <v>1444</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>1445</v>
       </c>
       <c r="G320" s="1">
         <v>0.0</v>
@@ -15516,13 +15516,13 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>1448</v>
@@ -15626,16 +15626,16 @@
         <v>1463</v>
       </c>
       <c r="C325" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>1466</v>
       </c>
       <c r="G325" s="1">
         <v>0.0</v>
@@ -15646,22 +15646,22 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="2" t="s">
         <v>1470</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>1471</v>
       </c>
       <c r="G326" s="1">
         <v>0.0</v>
@@ -15672,13 +15672,13 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>1474</v>
@@ -15704,7 +15704,7 @@
         <v>1477</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1478</v>
@@ -15730,7 +15730,7 @@
         <v>1481</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>16</v>
+        <v>415</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>1482</v>
@@ -15756,16 +15756,16 @@
         <v>1485</v>
       </c>
       <c r="C330" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>1488</v>
       </c>
       <c r="G330" s="1">
         <v>0.0</v>
@@ -15776,22 +15776,22 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>424</v>
+        <v>1488</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>426</v>
+        <v>1490</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="G331" s="1">
         <v>0.0</v>
@@ -15802,22 +15802,22 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>1492</v>
+        <v>433</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="E332" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>1496</v>
       </c>
       <c r="G332" s="1">
         <v>0.0</v>
@@ -15828,22 +15828,22 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F333" s="2" t="s">
         <v>1500</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>1501</v>
       </c>
       <c r="G333" s="1">
         <v>0.0</v>
@@ -15854,13 +15854,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1504</v>
@@ -15886,16 +15886,16 @@
         <v>1507</v>
       </c>
       <c r="C335" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" s="2" t="s">
         <v>1509</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>1510</v>
       </c>
       <c r="G335" s="1">
         <v>0.0</v>
@@ -15906,22 +15906,22 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F336" s="2" t="s">
         <v>1514</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>1515</v>
       </c>
       <c r="G336" s="1">
         <v>0.0</v>
@@ -15932,22 +15932,22 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337" s="2" t="s">
         <v>1519</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>1520</v>
       </c>
       <c r="G337" s="1">
         <v>0.0</v>
@@ -15958,13 +15958,13 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>1522</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>1523</v>
@@ -15990,16 +15990,16 @@
         <v>1526</v>
       </c>
       <c r="C339" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" s="2" t="s">
         <v>1528</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>1529</v>
       </c>
       <c r="G339" s="1">
         <v>0.0</v>
@@ -16010,13 +16010,13 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>1532</v>
@@ -16042,16 +16042,16 @@
         <v>1535</v>
       </c>
       <c r="C341" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F341" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>1538</v>
       </c>
       <c r="G341" s="1">
         <v>0.0</v>
@@ -16062,13 +16062,13 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>1541</v>
@@ -16094,16 +16094,16 @@
         <v>1544</v>
       </c>
       <c r="C343" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F343" s="2" t="s">
         <v>1546</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>1547</v>
       </c>
       <c r="G343" s="1">
         <v>0.0</v>
@@ -16114,19 +16114,19 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>1549</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1174</v>
+        <v>12</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>1551</v>
@@ -16152,7 +16152,7 @@
         <v>1554</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>1555</v>
@@ -16172,16 +16172,16 @@
         <v>1557</v>
       </c>
       <c r="C346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="E346" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F346" s="2" t="s">
         <v>1559</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>1560</v>
       </c>
       <c r="G346" s="1">
         <v>0.0</v>
@@ -16192,13 +16192,13 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>1562</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>1563</v>
@@ -16224,16 +16224,16 @@
         <v>1566</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="E348" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F348" s="2" t="s">
         <v>1568</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>1569</v>
       </c>
       <c r="G348" s="1">
         <v>0.0</v>
@@ -16244,13 +16244,13 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>1572</v>
@@ -16270,22 +16270,22 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>1030</v>
+        <v>1574</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="G350" s="1">
         <v>0.0</v>
@@ -16296,16 +16296,16 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>1577</v>
+        <v>1034</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="C351" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D351" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1575</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>12</v>
@@ -16328,10 +16328,10 @@
         <v>1582</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>16</v>
+        <v>1583</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>12</v>
@@ -16354,16 +16354,16 @@
         <v>1586</v>
       </c>
       <c r="C353" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="E353" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F353" s="2" t="s">
         <v>1588</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>1589</v>
       </c>
       <c r="G353" s="1">
         <v>0.0</v>
@@ -16374,13 +16374,13 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>1591</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>1592</v>
@@ -16406,7 +16406,7 @@
         <v>1595</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>26</v>
+        <v>813</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>1596</v>
@@ -16432,7 +16432,7 @@
         <v>1599</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>1600</v>
@@ -16458,7 +16458,7 @@
         <v>1603</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1604</v>
@@ -16484,16 +16484,16 @@
         <v>1607</v>
       </c>
       <c r="C358" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F358" s="2" t="s">
         <v>1609</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>1610</v>
       </c>
       <c r="G358" s="1">
         <v>0.0</v>
@@ -16504,22 +16504,22 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F359" s="2" t="s">
         <v>1614</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>1615</v>
       </c>
       <c r="G359" s="1">
         <v>0.0</v>
@@ -16530,22 +16530,22 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F360" s="2" t="s">
         <v>1619</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>1620</v>
       </c>
       <c r="G360" s="1">
         <v>0.0</v>
@@ -16556,13 +16556,13 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>1622</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1623</v>
@@ -16588,7 +16588,7 @@
         <v>1626</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1627</v>
@@ -16614,7 +16614,7 @@
         <v>1630</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>1631</v>
@@ -16640,7 +16640,7 @@
         <v>1634</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>1635</v>
@@ -16666,16 +16666,16 @@
         <v>1638</v>
       </c>
       <c r="C365" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="E365" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F365" s="2" t="s">
         <v>1640</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>1641</v>
       </c>
       <c r="G365" s="1">
         <v>0.0</v>
@@ -16686,22 +16686,22 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F366" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>1646</v>
       </c>
       <c r="G366" s="1">
         <v>0.0</v>
@@ -16712,22 +16712,22 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F367" s="2" t="s">
         <v>1650</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>1651</v>
       </c>
       <c r="G367" s="1">
         <v>0.0</v>
@@ -16738,22 +16738,22 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F368" s="2" t="s">
         <v>1655</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>1656</v>
       </c>
       <c r="G368" s="1">
         <v>0.0</v>
@@ -16764,22 +16764,22 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>1171</v>
+        <v>1656</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="G369" s="1">
         <v>0.0</v>
@@ -16790,22 +16790,22 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>1660</v>
+        <v>1175</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>1661</v>
       </c>
       <c r="C370" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F370" s="2" t="s">
         <v>1663</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>1664</v>
       </c>
       <c r="G370" s="1">
         <v>0.0</v>
@@ -16816,22 +16816,22 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F371" s="2" t="s">
         <v>1668</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F371" s="2" t="s">
-        <v>1669</v>
       </c>
       <c r="G371" s="1">
         <v>0.0</v>
@@ -16842,13 +16842,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>1671</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>1662</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1672</v>
@@ -16874,16 +16874,16 @@
         <v>1675</v>
       </c>
       <c r="C373" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F373" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F373" s="2" t="s">
-        <v>1678</v>
       </c>
       <c r="G373" s="1">
         <v>0.0</v>
@@ -16894,13 +16894,13 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>1662</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>1681</v>
@@ -16926,16 +16926,16 @@
         <v>1684</v>
       </c>
       <c r="C375" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F375" s="2" t="s">
         <v>1686</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>1687</v>
       </c>
       <c r="G375" s="1">
         <v>0.0</v>
@@ -16946,22 +16946,22 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C376" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F376" s="2" t="s">
         <v>1691</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>1692</v>
       </c>
       <c r="G376" s="1">
         <v>0.0</v>
@@ -16972,22 +16972,22 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="C377" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D377" s="1" t="s">
+      <c r="E377" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F377" s="2" t="s">
         <v>1696</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F377" s="2" t="s">
-        <v>1697</v>
       </c>
       <c r="G377" s="1">
         <v>0.0</v>
@@ -16998,22 +16998,22 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F378" s="2" t="s">
         <v>1701</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>1702</v>
       </c>
       <c r="G378" s="1">
         <v>0.0</v>
@@ -17024,22 +17024,22 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F379" s="2" t="s">
         <v>1706</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F379" s="2" t="s">
-        <v>1707</v>
       </c>
       <c r="G379" s="1">
         <v>0.0</v>
@@ -17050,13 +17050,13 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>1709</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1710</v>
@@ -17082,16 +17082,16 @@
         <v>1713</v>
       </c>
       <c r="C381" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D381" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F381" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F381" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="G381" s="1">
         <v>0.0</v>
@@ -17102,13 +17102,13 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="C382" s="1" t="s">
         <v>1718</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>1719</v>
@@ -17134,7 +17134,7 @@
         <v>1722</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1723</v>
@@ -17160,7 +17160,7 @@
         <v>1726</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1727</v>
@@ -17186,16 +17186,16 @@
         <v>1730</v>
       </c>
       <c r="C385" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F385" s="2" t="s">
         <v>1732</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>1733</v>
       </c>
       <c r="G385" s="1">
         <v>0.0</v>
@@ -17206,22 +17206,22 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="E386" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F386" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F386" s="2" t="s">
-        <v>1738</v>
       </c>
       <c r="G386" s="1">
         <v>0.0</v>
@@ -17232,13 +17232,13 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>1740</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>1741</v>
@@ -17264,16 +17264,16 @@
         <v>1744</v>
       </c>
       <c r="C388" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="E388" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F388" s="2" t="s">
         <v>1746</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>1747</v>
       </c>
       <c r="G388" s="1">
         <v>0.0</v>
@@ -17284,13 +17284,13 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>1749</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>1649</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>1750</v>
@@ -17316,16 +17316,16 @@
         <v>1753</v>
       </c>
       <c r="C390" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="E390" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390" s="2" t="s">
         <v>1755</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F390" s="2" t="s">
-        <v>1756</v>
       </c>
       <c r="G390" s="1">
         <v>0.0</v>
@@ -17336,13 +17336,13 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>1758</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>1759</v>
@@ -17362,22 +17362,22 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>541</v>
+        <v>1761</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="G392" s="1">
         <v>0.0</v>
@@ -17388,22 +17388,22 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>1764</v>
+        <v>555</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1765</v>
       </c>
       <c r="C393" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D393" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="E393" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F393" s="2" t="s">
         <v>1767</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>1768</v>
       </c>
       <c r="G393" s="1">
         <v>0.0</v>
@@ -17414,22 +17414,22 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>751</v>
+        <v>1768</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1769</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>748</v>
+        <v>1770</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="G394" s="1">
         <v>0.0</v>
@@ -17440,22 +17440,22 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>1772</v>
+        <v>756</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1773</v>
       </c>
       <c r="C395" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D395" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="E395" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F395" s="2" t="s">
         <v>1775</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F395" s="2" t="s">
-        <v>1776</v>
       </c>
       <c r="G395" s="1">
         <v>0.0</v>
@@ -17466,7 +17466,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>765</v>
+        <v>1776</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1777</v>
@@ -17492,22 +17492,22 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="E397" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F397" s="2" t="s">
         <v>1784</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>1785</v>
       </c>
       <c r="G397" s="1">
         <v>0.0</v>
@@ -17518,22 +17518,22 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="C398" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="E398" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F398" s="2" t="s">
         <v>1789</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>1790</v>
       </c>
       <c r="G398" s="1">
         <v>0.0</v>
@@ -17544,22 +17544,22 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="C399" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="D399" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="E399" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F399" s="2" t="s">
         <v>1794</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F399" s="2" t="s">
-        <v>1795</v>
       </c>
       <c r="G399" s="1">
         <v>0.0</v>
@@ -17570,13 +17570,13 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="C400" s="1" t="s">
         <v>1797</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>1793</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1798</v>
@@ -17602,16 +17602,16 @@
         <v>1801</v>
       </c>
       <c r="C401" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="E401" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F401" s="2" t="s">
         <v>1803</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>1804</v>
       </c>
       <c r="G401" s="1">
         <v>0.0</v>
@@ -17622,22 +17622,22 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="C402" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="E402" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F402" s="2" t="s">
         <v>1808</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F402" s="2" t="s">
-        <v>1809</v>
       </c>
       <c r="G402" s="1">
         <v>0.0</v>
@@ -17648,13 +17648,13 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="C403" s="1" t="s">
         <v>1811</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>1812</v>
@@ -17680,16 +17680,16 @@
         <v>1815</v>
       </c>
       <c r="C404" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="E404" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F404" s="2" t="s">
         <v>1817</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F404" s="2" t="s">
-        <v>1818</v>
       </c>
       <c r="G404" s="1">
         <v>0.0</v>
@@ -17700,13 +17700,13 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="C405" s="1" t="s">
         <v>1820</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>1821</v>
@@ -17732,16 +17732,16 @@
         <v>1824</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="E406" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F406" s="2" t="s">
         <v>1826</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>1827</v>
       </c>
       <c r="G406" s="1">
         <v>0.0</v>
@@ -17752,13 +17752,13 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="C407" s="1" t="s">
         <v>1829</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1830</v>
@@ -17778,22 +17778,22 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>1365</v>
+        <v>1832</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1367</v>
+        <v>94</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="G408" s="1">
         <v>0.0</v>
@@ -17804,13 +17804,13 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>1835</v>
+        <v>1369</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1836</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>16</v>
+        <v>1371</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>1837</v>
@@ -17836,16 +17836,16 @@
         <v>1840</v>
       </c>
       <c r="C410" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D410" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="D410" s="1" t="s">
+      <c r="E410" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F410" s="2" t="s">
         <v>1842</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F410" s="2" t="s">
-        <v>1843</v>
       </c>
       <c r="G410" s="1">
         <v>0.0</v>
@@ -17856,13 +17856,13 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="C411" s="1" t="s">
         <v>1845</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>1846</v>
@@ -17888,16 +17888,16 @@
         <v>1849</v>
       </c>
       <c r="C412" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="D412" s="1" t="s">
+      <c r="E412" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F412" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>1852</v>
       </c>
       <c r="G412" s="1">
         <v>0.0</v>
@@ -17908,13 +17908,13 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="C413" s="1" t="s">
         <v>1854</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>1855</v>
@@ -17940,16 +17940,16 @@
         <v>1858</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D414" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="D414" s="1" t="s">
+      <c r="E414" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F414" s="2" t="s">
         <v>1860</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>1861</v>
       </c>
       <c r="G414" s="1">
         <v>0.0</v>
@@ -17960,22 +17960,22 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="C415" s="1" t="s">
+      <c r="D415" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="D415" s="1" t="s">
+      <c r="E415" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F415" s="2" t="s">
         <v>1865</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F415" s="2" t="s">
-        <v>1866</v>
       </c>
       <c r="G415" s="1">
         <v>0.0</v>
@@ -17986,13 +17986,13 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="C416" s="1" t="s">
         <v>1868</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>1869</v>
@@ -18018,16 +18018,16 @@
         <v>1872</v>
       </c>
       <c r="C417" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D417" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="D417" s="1" t="s">
+      <c r="E417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F417" s="2" t="s">
         <v>1874</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>1875</v>
       </c>
       <c r="G417" s="1">
         <v>0.0</v>
@@ -18038,19 +18038,19 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="C418" s="1" t="s">
         <v>1877</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>1878</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>1879</v>
@@ -18070,7 +18070,7 @@
         <v>1881</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>16</v>
+        <v>813</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>1882</v>
@@ -18174,16 +18174,16 @@
         <v>1897</v>
       </c>
       <c r="C423" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D423" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="D423" s="1" t="s">
+      <c r="E423" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F423" s="2" t="s">
         <v>1899</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>1900</v>
       </c>
       <c r="G423" s="1">
         <v>0.0</v>
@@ -18194,13 +18194,13 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="C424" s="1" t="s">
         <v>1902</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>1903</v>
@@ -18278,7 +18278,7 @@
         <v>1914</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>1915</v>
@@ -18304,7 +18304,7 @@
         <v>1918</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1919</v>
@@ -18324,22 +18324,22 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>463</v>
+        <v>1921</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G429" s="1">
         <v>0.0</v>
@@ -18350,22 +18350,22 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>1924</v>
+        <v>472</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="C430" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="D430" s="1" t="s">
+      <c r="E430" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F430" s="2" t="s">
         <v>1927</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>1928</v>
       </c>
       <c r="G430" s="1">
         <v>0.0</v>
@@ -18376,13 +18376,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C431" s="1" t="s">
         <v>1930</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1931</v>
@@ -18408,7 +18408,7 @@
         <v>1934</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>16</v>
+        <v>722</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>1935</v>
@@ -18434,16 +18434,16 @@
         <v>1938</v>
       </c>
       <c r="C433" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D433" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="D433" s="1" t="s">
+      <c r="E433" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F433" s="2" t="s">
         <v>1940</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>1941</v>
       </c>
       <c r="G433" s="1">
         <v>0.0</v>
@@ -18454,13 +18454,13 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="C434" s="1" t="s">
         <v>1943</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>1944</v>
@@ -18512,7 +18512,7 @@
         <v>1951</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>1952</v>
@@ -18538,7 +18538,7 @@
         <v>1955</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>1956</v>
@@ -18564,16 +18564,16 @@
         <v>1959</v>
       </c>
       <c r="C438" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D438" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="D438" s="1" t="s">
+      <c r="E438" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F438" s="2" t="s">
         <v>1961</v>
-      </c>
-      <c r="E438" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F438" s="2" t="s">
-        <v>1962</v>
       </c>
       <c r="G438" s="1">
         <v>0.0</v>
@@ -18584,22 +18584,22 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>1963</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="D439" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="D439" s="1" t="s">
+      <c r="E439" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F439" s="2" t="s">
         <v>1966</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>1967</v>
       </c>
       <c r="G439" s="1">
         <v>0.0</v>
@@ -18610,13 +18610,13 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>1968</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>1969</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>1970</v>
@@ -18642,16 +18642,16 @@
         <v>1973</v>
       </c>
       <c r="C441" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D441" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="D441" s="1" t="s">
+      <c r="E441" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F441" s="2" t="s">
         <v>1975</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>1976</v>
       </c>
       <c r="G441" s="1">
         <v>0.0</v>
@@ -18662,13 +18662,13 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>1978</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>1979</v>
@@ -18694,7 +18694,7 @@
         <v>1982</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>16</v>
+        <v>989</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>1983</v>
@@ -18720,16 +18720,16 @@
         <v>1986</v>
       </c>
       <c r="C444" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="D444" s="1" t="s">
+      <c r="E444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F444" s="2" t="s">
         <v>1988</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F444" s="2" t="s">
-        <v>1989</v>
       </c>
       <c r="G444" s="1">
         <v>0.0</v>
@@ -18740,19 +18740,19 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="C445" s="1" t="s">
         <v>1991</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>1992</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>1993</v>
@@ -18772,7 +18772,7 @@
         <v>1995</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>1996</v>
@@ -18798,16 +18798,16 @@
         <v>1999</v>
       </c>
       <c r="C447" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D447" s="1" t="s">
         <v>2000</v>
       </c>
-      <c r="D447" s="1" t="s">
+      <c r="E447" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F447" s="2" t="s">
         <v>2001</v>
-      </c>
-      <c r="E447" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>2002</v>
       </c>
       <c r="G447" s="1">
         <v>0.0</v>
@@ -18818,13 +18818,13 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="C448" s="1" t="s">
         <v>2004</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>2005</v>
@@ -18850,16 +18850,16 @@
         <v>2008</v>
       </c>
       <c r="C449" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D449" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="D449" s="1" t="s">
+      <c r="E449" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F449" s="2" t="s">
         <v>2010</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F449" s="2" t="s">
-        <v>2011</v>
       </c>
       <c r="G449" s="1">
         <v>0.0</v>
@@ -18870,13 +18870,13 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="C450" s="1" t="s">
         <v>2013</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>2014</v>
@@ -18902,16 +18902,16 @@
         <v>2017</v>
       </c>
       <c r="C451" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D451" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="D451" s="1" t="s">
+      <c r="E451" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F451" s="2" t="s">
         <v>2019</v>
-      </c>
-      <c r="E451" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F451" s="2" t="s">
-        <v>2020</v>
       </c>
       <c r="G451" s="1">
         <v>0.0</v>
@@ -18922,22 +18922,22 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>2021</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="C452" s="1" t="s">
         <v>2022</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="D452" s="1" t="s">
         <v>2023</v>
       </c>
-      <c r="D452" s="1" t="s">
+      <c r="E452" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F452" s="2" t="s">
         <v>2024</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F452" s="2" t="s">
-        <v>2025</v>
       </c>
       <c r="G452" s="1">
         <v>0.0</v>
@@ -18948,13 +18948,13 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>2026</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>2027</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>2028</v>
@@ -18980,16 +18980,16 @@
         <v>2031</v>
       </c>
       <c r="C454" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D454" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="D454" s="1" t="s">
+      <c r="E454" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F454" s="2" t="s">
         <v>2033</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F454" s="2" t="s">
-        <v>2034</v>
       </c>
       <c r="G454" s="1">
         <v>0.0</v>
@@ -19000,22 +19000,22 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C455" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="D455" s="1" t="s">
         <v>2037</v>
       </c>
-      <c r="D455" s="1" t="s">
+      <c r="E455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F455" s="2" t="s">
         <v>2038</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F455" s="2" t="s">
-        <v>2039</v>
       </c>
       <c r="G455" s="1">
         <v>0.0</v>
@@ -19026,22 +19026,22 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="C456" s="1" t="s">
         <v>2041</v>
       </c>
-      <c r="C456" s="1" t="s">
+      <c r="D456" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="D456" s="1" t="s">
+      <c r="E456" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F456" s="2" t="s">
         <v>2043</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F456" s="2" t="s">
-        <v>2044</v>
       </c>
       <c r="G456" s="1">
         <v>0.0</v>
@@ -19052,22 +19052,22 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>2045</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="C457" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="C457" s="1" t="s">
+      <c r="D457" s="1" t="s">
         <v>2047</v>
       </c>
-      <c r="D457" s="1" t="s">
+      <c r="E457" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F457" s="2" t="s">
         <v>2048</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>2049</v>
       </c>
       <c r="G457" s="1">
         <v>0.0</v>
@@ -19078,13 +19078,13 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>2050</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="C458" s="1" t="s">
         <v>2051</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>2052</v>
@@ -19110,59 +19110,59 @@
         <v>2055</v>
       </c>
       <c r="C459" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D459" s="1" t="s">
         <v>2056</v>
       </c>
-      <c r="D459" s="1" t="s">
+      <c r="E459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F459" s="2" t="s">
         <v>2057</v>
       </c>
-      <c r="E459" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F459" s="2" t="s">
-        <v>2058</v>
-      </c>
       <c r="G459" s="1">
         <v>0.0</v>
       </c>
       <c r="H459" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="C460" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="C460" s="1" t="s">
+      <c r="D460" s="1" t="s">
         <v>2061</v>
       </c>
-      <c r="D460" s="1" t="s">
+      <c r="E460" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F460" s="2" t="s">
         <v>2062</v>
       </c>
-      <c r="E460" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F460" s="2" t="s">
-        <v>2063</v>
-      </c>
       <c r="G460" s="1">
         <v>0.0</v>
       </c>
       <c r="H460" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="C461" s="1" t="s">
         <v>2065</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>2066</v>
@@ -19188,16 +19188,16 @@
         <v>2069</v>
       </c>
       <c r="C462" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D462" s="1" t="s">
         <v>2070</v>
       </c>
-      <c r="D462" s="1" t="s">
+      <c r="E462" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F462" s="2" t="s">
         <v>2071</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F462" s="2" t="s">
-        <v>2072</v>
       </c>
       <c r="G462" s="1">
         <v>0.0</v>
@@ -19208,22 +19208,22 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>2073</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="C463" s="1" t="s">
         <v>2074</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="D463" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="D463" s="1" t="s">
+      <c r="E463" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F463" s="2" t="s">
         <v>2076</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F463" s="2" t="s">
-        <v>2077</v>
       </c>
       <c r="G463" s="1">
         <v>0.0</v>
@@ -19234,13 +19234,13 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B464" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="C464" s="1" t="s">
         <v>2079</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>2080</v>
@@ -19266,16 +19266,16 @@
         <v>2083</v>
       </c>
       <c r="C465" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D465" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="D465" s="1" t="s">
+      <c r="E465" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F465" s="2" t="s">
         <v>2085</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F465" s="2" t="s">
-        <v>2086</v>
       </c>
       <c r="G465" s="1">
         <v>0.0</v>
@@ -19286,22 +19286,22 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>2087</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
         <v>2088</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="D466" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="D466" s="1" t="s">
+      <c r="E466" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F466" s="2" t="s">
         <v>2090</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F466" s="2" t="s">
-        <v>2091</v>
       </c>
       <c r="G466" s="1">
         <v>0.0</v>
@@ -19312,22 +19312,22 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B467" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="C467" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="D467" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="D467" s="1" t="s">
+      <c r="E467" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F467" s="2" t="s">
         <v>2095</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F467" s="2" t="s">
-        <v>2096</v>
       </c>
       <c r="G467" s="1">
         <v>0.0</v>
@@ -19338,22 +19338,22 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>2097</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="C468" s="1" t="s">
         <v>2098</v>
       </c>
-      <c r="C468" s="1" t="s">
+      <c r="D468" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="D468" s="1" t="s">
+      <c r="E468" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F468" s="2" t="s">
         <v>2100</v>
-      </c>
-      <c r="E468" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F468" s="2" t="s">
-        <v>2101</v>
       </c>
       <c r="G468" s="1">
         <v>0.0</v>
@@ -19364,13 +19364,13 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="C469" s="1" t="s">
         <v>2103</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>2104</v>
@@ -19396,7 +19396,7 @@
         <v>2107</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>2108</v>
@@ -19422,16 +19422,16 @@
         <v>2111</v>
       </c>
       <c r="C471" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D471" s="1" t="s">
         <v>2112</v>
       </c>
-      <c r="D471" s="1" t="s">
+      <c r="E471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F471" s="2" t="s">
         <v>2113</v>
-      </c>
-      <c r="E471" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F471" s="2" t="s">
-        <v>2114</v>
       </c>
       <c r="G471" s="1">
         <v>0.0</v>
@@ -19442,13 +19442,13 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="C472" s="1" t="s">
         <v>2116</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2117</v>
@@ -19474,7 +19474,7 @@
         <v>2120</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>717</v>
+        <v>989</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>2121</v>
@@ -19500,7 +19500,7 @@
         <v>2124</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>2125</v>
@@ -19526,16 +19526,16 @@
         <v>2128</v>
       </c>
       <c r="C475" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D475" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="D475" s="1" t="s">
+      <c r="E475" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F475" s="2" t="s">
         <v>2130</v>
-      </c>
-      <c r="E475" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F475" s="2" t="s">
-        <v>2131</v>
       </c>
       <c r="G475" s="1">
         <v>0.0</v>
@@ -19546,22 +19546,22 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="C476" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="D476" s="1" t="s">
         <v>2134</v>
       </c>
-      <c r="D476" s="1" t="s">
+      <c r="E476" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F476" s="2" t="s">
         <v>2135</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F476" s="2" t="s">
-        <v>2136</v>
       </c>
       <c r="G476" s="1">
         <v>0.0</v>
@@ -19572,13 +19572,13 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="C477" s="1" t="s">
         <v>2138</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>2139</v>
@@ -19604,7 +19604,7 @@
         <v>2142</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>159</v>
+        <v>951</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>2143</v>
@@ -19630,7 +19630,7 @@
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>615</v>
+        <v>164</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19656,16 +19656,16 @@
         <v>2150</v>
       </c>
       <c r="C480" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D480" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="D480" s="1" t="s">
+      <c r="E480" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F480" s="2" t="s">
         <v>2152</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F480" s="2" t="s">
-        <v>2153</v>
       </c>
       <c r="G480" s="1">
         <v>0.0</v>
@@ -19676,13 +19676,13 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>2154</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="C481" s="1" t="s">
         <v>2155</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>2156</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19760,7 +19760,7 @@
         <v>2167</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>615</v>
+        <v>415</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>2168</v>
@@ -19786,16 +19786,16 @@
         <v>2171</v>
       </c>
       <c r="C485" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D485" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="D485" s="1" t="s">
+      <c r="E485" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F485" s="2" t="s">
         <v>2173</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F485" s="2" t="s">
-        <v>2174</v>
       </c>
       <c r="G485" s="1">
         <v>0.0</v>
@@ -19806,13 +19806,13 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="C486" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>2177</v>
@@ -19838,16 +19838,16 @@
         <v>2180</v>
       </c>
       <c r="C487" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D487" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="D487" s="1" t="s">
+      <c r="E487" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F487" s="2" t="s">
         <v>2182</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F487" s="2" t="s">
-        <v>2183</v>
       </c>
       <c r="G487" s="1">
         <v>0.0</v>
@@ -19858,22 +19858,22 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>2184</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="C488" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="D488" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="D488" s="1" t="s">
+      <c r="E488" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F488" s="2" t="s">
         <v>2187</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F488" s="2" t="s">
-        <v>2188</v>
       </c>
       <c r="G488" s="1">
         <v>0.0</v>
@@ -19884,13 +19884,13 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="C489" s="1" t="s">
         <v>2190</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>2191</v>
@@ -19916,7 +19916,7 @@
         <v>2194</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2195</v>
@@ -19942,16 +19942,16 @@
         <v>2198</v>
       </c>
       <c r="C491" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D491" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="D491" s="1" t="s">
+      <c r="E491" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F491" s="2" t="s">
         <v>2200</v>
-      </c>
-      <c r="E491" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F491" s="2" t="s">
-        <v>2201</v>
       </c>
       <c r="G491" s="1">
         <v>0.0</v>
@@ -19962,19 +19962,19 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="C492" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>2204</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>2205</v>
@@ -19994,13 +19994,13 @@
         <v>2207</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>2208</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>12</v>
+        <v>1178</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>2209</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2210</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20254,7 +20254,7 @@
         <v>2247</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>2248</v>
@@ -20332,7 +20332,7 @@
         <v>2260</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>2261</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20436,7 +20436,7 @@
         <v>2276</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>2277</v>
@@ -20494,7 +20494,7 @@
         <v>2286</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>2287</v>
@@ -20540,7 +20540,7 @@
         <v>2294</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>2295</v>
@@ -20618,7 +20618,7 @@
         <v>2308</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>2309</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20832,7 +20832,7 @@
         <v>2341</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>2342</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>
@@ -20988,10 +20988,10 @@
         <v>2368</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="G531" s="1">
         <v>0.0</v>
@@ -21319,8 +21319,8 @@
     <hyperlink r:id="rId289" ref="F290"/>
     <hyperlink r:id="rId290" ref="F291"/>
     <hyperlink r:id="rId291" ref="F292"/>
-    <hyperlink r:id="rId292" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F293"/>
-    <hyperlink r:id="rId293" ref="F294"/>
+    <hyperlink r:id="rId292" ref="F293"/>
+    <hyperlink r:id="rId293" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F294"/>
     <hyperlink r:id="rId294" ref="F295"/>
     <hyperlink r:id="rId295" ref="F296"/>
     <hyperlink r:id="rId296" ref="F297"/>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -55,7 +55,7 @@
     <t>https://google.qwiklabs.com/public_profiles/e74ad896-e486-43c3-9b18-a7eb0adf370d</t>
   </si>
   <si>
-    <t>EQURAM ANSARI</t>
+    <t>MD EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -115,6 +115,21 @@
     <t>https://google.qwiklabs.com/public_profiles/7382acdb-11d5-497d-b4d4-802ebb589e74</t>
   </si>
   <si>
+    <t>Prateek Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Prateeksharma0112@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Mahavir Swami Institute Of Technology</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
+  </si>
+  <si>
     <t>KAUSIK PAL</t>
   </si>
   <si>
@@ -160,19 +175,19 @@
     <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
   </si>
   <si>
-    <t>Prateek Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Prateeksharma0112@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Mahavir Swami Institute Of Technology</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 19:33:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
+    <t>Harshit Goyal</t>
+  </si>
+  <si>
+    <t>harshitgoyal923@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Bharati Vidyapeeth's Institute of Computer Applications and Management (BVICAM)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:28:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
   </si>
   <si>
     <t>Rohit Das</t>
@@ -220,19 +235,16 @@
     <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
   </si>
   <si>
-    <t>Harshit Goyal</t>
-  </si>
-  <si>
-    <t>harshitgoyal923@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Bharati Vidyapeeth's Institute of Computer Applications and Management (BVICAM)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:28:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
+    <t>Raktim Roy</t>
+  </si>
+  <si>
+    <t>deepjoydrx@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
   </si>
   <si>
     <t>SRINJOY PAL</t>
@@ -304,6 +316,33 @@
     <t>https://google.qwiklabs.com/public_profiles/51db390c-0883-499c-baf3-47f60597d6d3</t>
   </si>
   <si>
+    <t>SUDIPTA ROY</t>
+  </si>
+  <si>
+    <t>sudipta01roy@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
+  </si>
+  <si>
+    <t>PRACHI PURVA</t>
+  </si>
+  <si>
+    <t>prachipurva7142@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
+  </si>
+  <si>
     <t>Tanmoyee Roy</t>
   </si>
   <si>
@@ -319,45 +358,6 @@
     <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
   </si>
   <si>
-    <t>SUDIPTA ROY</t>
-  </si>
-  <si>
-    <t>sudipta01roy@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d17f18c9-21b2-4b8a-a9bb-2f36410e99b1</t>
-  </si>
-  <si>
-    <t>PRACHI PURVA</t>
-  </si>
-  <si>
-    <t>prachipurva7142@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Netaji Subhash Engineering College, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:15:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
-  </si>
-  <si>
-    <t>Raktim Roy</t>
-  </si>
-  <si>
-    <t>deepjoydrx@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:07:08 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/8d7fad7e-0dfe-459a-9c5a-2a65689dc63a</t>
-  </si>
-  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -388,6 +388,36 @@
     <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
   </si>
   <si>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
+  </si>
+  <si>
+    <t>Soham Saha</t>
+  </si>
+  <si>
+    <t>sahasoham01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
+  </si>
+  <si>
     <t>Prachi Kumari</t>
   </si>
   <si>
@@ -400,36 +430,6 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
-    <t>Soham Saha</t>
-  </si>
-  <si>
-    <t>sahasoham01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering &amp; Management ,Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:34:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9677e738-ce85-4cff-a823-10013cd10bf9</t>
-  </si>
-  <si>
     <t>Debarghya Chowdhury</t>
   </si>
   <si>
@@ -457,6 +457,21 @@
     <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
   </si>
   <si>
+    <t>Rupankar Basak</t>
+  </si>
+  <si>
+    <t>rblearning69@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
+  </si>
+  <si>
     <t>Sayan Sengupta</t>
   </si>
   <si>
@@ -526,19 +541,19 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
-    <t>Rupankar Basak</t>
-  </si>
-  <si>
-    <t>rblearning69@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
+    <t>ARNAB DEB</t>
+  </si>
+  <si>
+    <t>arnabdeb800@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
   </si>
   <si>
     <t>Adarsh Kumar</t>
@@ -556,33 +571,45 @@
     <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
   </si>
   <si>
+    <t>Sandipa Jana</t>
+  </si>
+  <si>
+    <t>janasandipa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+  </si>
+  <si>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
+  </si>
+  <si>
     <t>Manan Hemani</t>
   </si>
   <si>
     <t>mananhemani1000@gmail.com</t>
   </si>
   <si>
-    <t>[Referred] Techno India University</t>
-  </si>
-  <si>
     <t>Fri Apr 09 2021 23:00:16 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>Sandipa Jana</t>
-  </si>
-  <si>
-    <t>janasandipa@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
-  </si>
-  <si>
     <t>Srishti Pal</t>
   </si>
   <si>
@@ -598,6 +625,30 @@
     <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
   </si>
   <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -682,57 +733,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
-    <t>ARNAB DEB</t>
-  </si>
-  <si>
-    <t>arnabdeb800@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 00:29:25 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
-  </si>
-  <si>
     <t>Anuja Singh</t>
   </si>
   <si>
@@ -748,6 +748,51 @@
     <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
   </si>
   <si>
+    <t>Rahul Debnath</t>
+  </si>
+  <si>
+    <t>mtemporary7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
+  </si>
+  <si>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+  </si>
+  <si>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+  </si>
+  <si>
     <t>Radadiya Mohit</t>
   </si>
   <si>
@@ -775,19 +820,16 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Rahul Debnath</t>
-  </si>
-  <si>
-    <t>mtemporary7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
   </si>
   <si>
     <t>Sayan Poddar</t>
@@ -805,34 +847,31 @@
     <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
   </si>
   <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
-  </si>
-  <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+    <t>Samrat Ganguly</t>
+  </si>
+  <si>
+    <t>samratganguly37@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
+  </si>
+  <si>
+    <t>Sayantan Kuila</t>
+  </si>
+  <si>
+    <t>sayantankuila@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno Main SaltLake , Kolkata</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 14:38:46 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
     <t>Swarnali Saha</t>
@@ -850,30 +889,6 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
-    <t>Samrat Ganguly</t>
-  </si>
-  <si>
-    <t>samratganguly37@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
-  </si>
-  <si>
     <t>Harshit Parwal</t>
   </si>
   <si>
@@ -958,21 +973,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
-    <t>Sayantan Kuila</t>
-  </si>
-  <si>
-    <t>sayantankuila@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno Main SaltLake , Kolkata</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 14:38:46 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
-  </si>
-  <si>
     <t>Ushasi Das</t>
   </si>
   <si>
@@ -1099,6 +1099,21 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
+    <t>RAHUL LAHA</t>
+  </si>
+  <si>
+    <t>laharahul6@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:45:44 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
+  </si>
+  <si>
     <t>Sudipta Halder</t>
   </si>
   <si>
@@ -1267,21 +1282,6 @@
     <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
-    <t>RAHUL LAHA</t>
-  </si>
-  <si>
-    <t>laharahul6@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:45:44 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
-  </si>
-  <si>
     <t>Arunima Dhar</t>
   </si>
   <si>
@@ -1381,6 +1381,21 @@
     <t>https://www.qwiklabs.com/public_profiles/a273fdd2-2883-4232-a622-1e51da5811a7</t>
   </si>
   <si>
+    <t>Riya Teri</t>
+  </si>
+  <si>
+    <t>riyateri01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kalinga Institute of Industrial Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
+  </si>
+  <si>
     <t>Praneet Chakraborty</t>
   </si>
   <si>
@@ -1444,6 +1459,18 @@
     <t>https://google.qwiklabs.com/public_profiles/6572bc8d-dfd5-415c-a901-8d89b605b1fe</t>
   </si>
   <si>
+    <t>Aman Kumar</t>
+  </si>
+  <si>
+    <t>aman.kumar.official7@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 00:54:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/277907ee-a444-4c1e-a089-66975fa5c78c</t>
+  </si>
+  <si>
     <t>RIDDHI CHAKRABORTY</t>
   </si>
   <si>
@@ -1471,6 +1498,21 @@
     <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
   </si>
   <si>
+    <t>Rishabh Shrivastava</t>
+  </si>
+  <si>
+    <t>rs0857536@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Medicaps University(Indore)</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 22:16:40 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
+  </si>
+  <si>
     <t>Sneha M</t>
   </si>
   <si>
@@ -1501,21 +1543,6 @@
     <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
   </si>
   <si>
-    <t>Riya Teri</t>
-  </si>
-  <si>
-    <t>riyateri01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kalinga Institute of Industrial Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
-  </si>
-  <si>
     <t>Abhinandan Patra</t>
   </si>
   <si>
@@ -1582,18 +1609,6 @@
     <t>https://google.qwiklabs.com/public_profiles/70d3a6e7-3c38-48c8-b73c-27543661f597</t>
   </si>
   <si>
-    <t>Aman Kumar</t>
-  </si>
-  <si>
-    <t>aman.kumar.official7@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 00:54:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/277907ee-a444-4c1e-a089-66975fa5c78c</t>
-  </si>
-  <si>
     <t>Anik Halder</t>
   </si>
   <si>
@@ -1690,19 +1705,16 @@
     <t>https://google.qwiklabs.com/public_profiles/0673429e-9f55-4010-862d-7d4c76862e61</t>
   </si>
   <si>
-    <t>Rishabh Shrivastava</t>
-  </si>
-  <si>
-    <t>rs0857536@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Medicaps University(Indore)</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 22:16:40 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/f2a9f54c-84dd-4d9c-9e3f-dde09ae3bf23</t>
+    <t>SHAMS TABREZ</t>
+  </si>
+  <si>
+    <t>tabrejmdsams786@gmail.com</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 15:55:39 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2fbf708a-7627-4a75-8328-f881b5908826</t>
   </si>
   <si>
     <t>Vibhu Pandey</t>
@@ -1771,16 +1783,19 @@
     <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
   </si>
   <si>
-    <t>SHAMS TABREZ</t>
-  </si>
-  <si>
-    <t>tabrejmdsams786@gmail.com</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 15:55:39 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2fbf708a-7627-4a75-8328-f881b5908826</t>
+    <t>Tanisha Singh</t>
+  </si>
+  <si>
+    <t>stanishas78@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Banasthali Vidyapith</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:40:06 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4ee4a892-a907-4c26-b477-acd92964a209</t>
   </si>
   <si>
     <t>Shadab Ahmad</t>
@@ -2114,21 +2129,6 @@
   </si>
   <si>
     <t>https://www.qwiklabs.com/public_profiles/34eefee9-8a16-4d44-839c-856010874af8</t>
-  </si>
-  <si>
-    <t>Tanisha Singh</t>
-  </si>
-  <si>
-    <t>stanishas78@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Banasthali Vidyapith</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:40:06 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4ee4a892-a907-4c26-b477-acd92964a209</t>
   </si>
   <si>
     <t>Niket Ranjan</t>
@@ -7373,7 +7373,7 @@
         <v>30.0</v>
       </c>
       <c r="H7" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -7448,10 +7448,10 @@
         <v>53</v>
       </c>
       <c r="G10" s="1">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H10" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -7474,10 +7474,10 @@
         <v>58</v>
       </c>
       <c r="G11" s="1">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="H11" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -7503,7 +7503,7 @@
         <v>27.0</v>
       </c>
       <c r="H12" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
@@ -7526,7 +7526,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="H13" s="1">
         <v>12.0</v>
@@ -7552,10 +7552,10 @@
         <v>73</v>
       </c>
       <c r="G14" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="H14" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -7566,7 +7566,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>76</v>
@@ -7578,10 +7578,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="1">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="H15" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -7592,16 +7592,16 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G16" s="1">
         <v>24.0</v>
@@ -7612,13 +7612,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>85</v>
@@ -7644,16 +7644,16 @@
         <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G18" s="1">
         <v>24.0</v>
@@ -7664,22 +7664,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G19" s="1">
         <v>24.0</v>
@@ -7690,91 +7690,91 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G20" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H20" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G21" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H21" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G22" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H22" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>113</v>
@@ -7786,10 +7786,10 @@
         <v>114</v>
       </c>
       <c r="G23" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H23" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
@@ -7838,7 +7838,7 @@
         <v>124</v>
       </c>
       <c r="G25" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H25" s="1">
         <v>10.0</v>
@@ -7852,45 +7852,45 @@
         <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H26" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H27" s="1">
         <v>11.0</v>
@@ -7898,13 +7898,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>137</v>
@@ -7919,7 +7919,7 @@
         <v>19.0</v>
       </c>
       <c r="H28" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="29">
@@ -7956,7 +7956,7 @@
         <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>146</v>
@@ -7997,7 +7997,7 @@
         <v>17.0</v>
       </c>
       <c r="H31" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="32">
@@ -8023,7 +8023,7 @@
         <v>17.0</v>
       </c>
       <c r="H32" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
@@ -8034,16 +8034,16 @@
         <v>159</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33" s="1">
         <v>17.0</v>
@@ -8054,13 +8054,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>165</v>
@@ -8075,7 +8075,7 @@
         <v>17.0</v>
       </c>
       <c r="H34" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="35">
@@ -8086,19 +8086,19 @@
         <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G35" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H35" s="1">
         <v>8.0</v>
@@ -8106,13 +8106,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>174</v>
@@ -8127,7 +8127,7 @@
         <v>16.0</v>
       </c>
       <c r="H36" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="37">
@@ -8153,7 +8153,7 @@
         <v>16.0</v>
       </c>
       <c r="H37" s="1">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="38">
@@ -8179,7 +8179,7 @@
         <v>16.0</v>
       </c>
       <c r="H38" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
@@ -8202,7 +8202,7 @@
         <v>189</v>
       </c>
       <c r="G39" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H39" s="1">
         <v>7.0</v>
@@ -8228,10 +8228,10 @@
         <v>194</v>
       </c>
       <c r="G40" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H40" s="1">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="41">
@@ -8242,7 +8242,7 @@
         <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>197</v>
@@ -8254,10 +8254,10 @@
         <v>198</v>
       </c>
       <c r="G41" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H41" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
@@ -8268,33 +8268,33 @@
         <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G42" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H42" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>206</v>
@@ -8306,10 +8306,10 @@
         <v>207</v>
       </c>
       <c r="G43" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H43" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
@@ -8320,163 +8320,163 @@
         <v>209</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="G44" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H44" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G45" s="1">
         <v>14.0</v>
       </c>
       <c r="H45" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G46" s="1">
         <v>14.0</v>
       </c>
       <c r="H46" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="G47" s="1">
         <v>14.0</v>
       </c>
       <c r="H47" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
       </c>
       <c r="H48" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G49" s="1">
         <v>14.0</v>
       </c>
       <c r="H49" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>238</v>
@@ -8488,10 +8488,10 @@
         <v>239</v>
       </c>
       <c r="G50" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H50" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
@@ -8543,7 +8543,7 @@
         <v>13.0</v>
       </c>
       <c r="H52" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="53">
@@ -8554,85 +8554,85 @@
         <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G53" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H53" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G54" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H54" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G55" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H55" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>267</v>
@@ -8647,7 +8647,7 @@
         <v>12.0</v>
       </c>
       <c r="H56" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="57">
@@ -8658,71 +8658,71 @@
         <v>270</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="G57" s="1">
         <v>12.0</v>
       </c>
       <c r="H57" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="G58" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H58" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G59" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H59" s="1">
         <v>4.0</v>
@@ -8730,13 +8730,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>285</v>
@@ -8748,10 +8748,10 @@
         <v>286</v>
       </c>
       <c r="G60" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H60" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="61">
@@ -8777,7 +8777,7 @@
         <v>11.0</v>
       </c>
       <c r="H61" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
@@ -8800,10 +8800,10 @@
         <v>296</v>
       </c>
       <c r="G62" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H62" s="1">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
@@ -8829,7 +8829,7 @@
         <v>10.0</v>
       </c>
       <c r="H63" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
@@ -8855,7 +8855,7 @@
         <v>10.0</v>
       </c>
       <c r="H64" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -8866,59 +8866,59 @@
         <v>308</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G65" s="1">
         <v>10.0</v>
       </c>
       <c r="H65" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G66" s="1">
         <v>10.0</v>
       </c>
       <c r="H66" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>318</v>
@@ -8933,7 +8933,7 @@
         <v>10.0</v>
       </c>
       <c r="H67" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -8970,7 +8970,7 @@
         <v>325</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>326</v>
@@ -9193,7 +9193,7 @@
         <v>8.0</v>
       </c>
       <c r="H77" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
@@ -9219,7 +9219,7 @@
         <v>8.0</v>
       </c>
       <c r="H78" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
@@ -9245,7 +9245,7 @@
         <v>8.0</v>
       </c>
       <c r="H79" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="80">
@@ -9256,16 +9256,16 @@
         <v>378</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G80" s="1">
         <v>8.0</v>
@@ -9276,13 +9276,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>384</v>
@@ -9297,7 +9297,7 @@
         <v>8.0</v>
       </c>
       <c r="H81" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="82">
@@ -9323,7 +9323,7 @@
         <v>8.0</v>
       </c>
       <c r="H82" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -9360,33 +9360,33 @@
         <v>397</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G84" s="1">
         <v>8.0</v>
       </c>
       <c r="H84" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>402</v>
+        <v>16</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>403</v>
@@ -9401,7 +9401,7 @@
         <v>8.0</v>
       </c>
       <c r="H85" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="86">
@@ -9412,16 +9412,16 @@
         <v>406</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G86" s="1">
         <v>8.0</v>
@@ -9432,39 +9432,39 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G87" s="1">
         <v>8.0</v>
       </c>
       <c r="H87" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>415</v>
+        <v>169</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>416</v>
@@ -9479,7 +9479,7 @@
         <v>8.0</v>
       </c>
       <c r="H88" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="89">
@@ -9502,10 +9502,10 @@
         <v>422</v>
       </c>
       <c r="G89" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H89" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
@@ -9698,111 +9698,111 @@
         <v>457</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G97" s="1">
         <v>6.0</v>
       </c>
       <c r="H97" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G98" s="1">
         <v>6.0</v>
       </c>
       <c r="H98" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G99" s="1">
         <v>6.0</v>
       </c>
       <c r="H99" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G100" s="1">
         <v>6.0</v>
       </c>
       <c r="H100" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>474</v>
+        <v>84</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>475</v>
@@ -9817,7 +9817,7 @@
         <v>6.0</v>
       </c>
       <c r="H101" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -9843,7 +9843,7 @@
         <v>6.0</v>
       </c>
       <c r="H102" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="103">
@@ -9854,7 +9854,7 @@
         <v>483</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>479</v>
+        <v>201</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>484</v>
@@ -9869,7 +9869,7 @@
         <v>6.0</v>
       </c>
       <c r="H103" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="104">
@@ -9892,10 +9892,10 @@
         <v>490</v>
       </c>
       <c r="G104" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H104" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="105">
@@ -9906,19 +9906,19 @@
         <v>492</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="G105" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H105" s="1">
         <v>4.0</v>
@@ -9926,22 +9926,22 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="G106" s="1">
         <v>5.0</v>
@@ -9952,39 +9952,39 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G107" s="1">
         <v>5.0</v>
       </c>
       <c r="H107" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>508</v>
@@ -9999,7 +9999,7 @@
         <v>5.0</v>
       </c>
       <c r="H108" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="109">
@@ -10010,33 +10010,33 @@
         <v>511</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G109" s="1">
         <v>5.0</v>
       </c>
       <c r="H109" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>516</v>
+        <v>304</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>517</v>
@@ -10051,7 +10051,7 @@
         <v>5.0</v>
       </c>
       <c r="H110" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -10077,7 +10077,7 @@
         <v>5.0</v>
       </c>
       <c r="H111" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
@@ -10088,42 +10088,42 @@
         <v>524</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>192</v>
+        <v>525</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G112" s="1">
         <v>5.0</v>
       </c>
       <c r="H112" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G113" s="1">
         <v>5.0</v>
@@ -10134,13 +10134,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>533</v>
+        <v>84</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>534</v>
@@ -10155,7 +10155,7 @@
         <v>5.0</v>
       </c>
       <c r="H114" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -10181,7 +10181,7 @@
         <v>5.0</v>
       </c>
       <c r="H115" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -10207,7 +10207,7 @@
         <v>5.0</v>
       </c>
       <c r="H116" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="117">
@@ -10218,33 +10218,33 @@
         <v>547</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>16</v>
+        <v>548</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G117" s="1">
         <v>5.0</v>
       </c>
       <c r="H117" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>552</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>553</v>
@@ -10270,33 +10270,33 @@
         <v>556</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G119" s="1">
         <v>5.0</v>
       </c>
       <c r="H119" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>561</v>
+        <v>84</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>562</v>
@@ -10308,7 +10308,7 @@
         <v>563</v>
       </c>
       <c r="G120" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H120" s="1">
         <v>4.0</v>
@@ -10337,7 +10337,7 @@
         <v>4.0</v>
       </c>
       <c r="H121" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
@@ -10363,7 +10363,7 @@
         <v>4.0</v>
       </c>
       <c r="H122" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -10374,33 +10374,33 @@
         <v>573</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="G123" s="1">
         <v>4.0</v>
       </c>
       <c r="H123" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>579</v>
@@ -10412,10 +10412,10 @@
         <v>580</v>
       </c>
       <c r="G124" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H124" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
@@ -10426,33 +10426,33 @@
         <v>582</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="G125" s="1">
         <v>3.0</v>
       </c>
       <c r="H125" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>588</v>
@@ -10467,7 +10467,7 @@
         <v>3.0</v>
       </c>
       <c r="H126" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -10504,33 +10504,33 @@
         <v>596</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>16</v>
+        <v>597</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G128" s="1">
         <v>3.0</v>
       </c>
       <c r="H128" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>601</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>602</v>
@@ -10571,27 +10571,27 @@
         <v>3.0</v>
       </c>
       <c r="H130" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>468</v>
+        <v>609</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G131" s="1">
         <v>3.0</v>
@@ -10602,7 +10602,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>613</v>
+        <v>473</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>614</v>
@@ -10623,7 +10623,7 @@
         <v>3.0</v>
       </c>
       <c r="H132" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -10646,10 +10646,10 @@
         <v>622</v>
       </c>
       <c r="G133" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H133" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
@@ -10686,16 +10686,16 @@
         <v>629</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>131</v>
+        <v>630</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G135" s="1">
         <v>2.0</v>
@@ -10706,22 +10706,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G136" s="1">
         <v>2.0</v>
@@ -10732,13 +10732,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>638</v>
+        <v>222</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>639</v>
@@ -10779,7 +10779,7 @@
         <v>2.0</v>
       </c>
       <c r="H138" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
@@ -10790,33 +10790,33 @@
         <v>647</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>16</v>
+        <v>648</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G139" s="1">
         <v>2.0</v>
       </c>
       <c r="H139" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>652</v>
+        <v>16</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>653</v>
@@ -10831,7 +10831,7 @@
         <v>2.0</v>
       </c>
       <c r="H140" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
@@ -10842,16 +10842,16 @@
         <v>656</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>299</v>
+        <v>657</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
@@ -10862,22 +10862,22 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
@@ -10888,13 +10888,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>665</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>666</v>
@@ -10920,33 +10920,33 @@
         <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>435</v>
+        <v>670</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G144" s="1">
         <v>2.0</v>
       </c>
       <c r="H144" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>674</v>
+        <v>435</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>675</v>
@@ -10961,7 +10961,7 @@
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
@@ -10972,16 +10972,16 @@
         <v>678</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>16</v>
+        <v>679</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G146" s="1">
         <v>2.0</v>
@@ -10992,13 +10992,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>683</v>
+        <v>16</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>684</v>
@@ -11013,7 +11013,7 @@
         <v>2.0</v>
       </c>
       <c r="H147" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
@@ -11065,7 +11065,7 @@
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -11154,7 +11154,7 @@
         <v>712</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>713</v>
@@ -11232,7 +11232,7 @@
         <v>726</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>727</v>
@@ -11258,7 +11258,7 @@
         <v>730</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>731</v>
@@ -11544,7 +11544,7 @@
         <v>780</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>781</v>
@@ -11694,13 +11694,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>803</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>804</v>
@@ -11882,7 +11882,7 @@
         <v>836</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>837</v>
@@ -11934,7 +11934,7 @@
         <v>845</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>846</v>
@@ -12116,7 +12116,7 @@
         <v>878</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>879</v>
@@ -12194,7 +12194,7 @@
         <v>890</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>891</v>
@@ -12246,7 +12246,7 @@
         <v>899</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>900</v>
@@ -12443,7 +12443,7 @@
         <v>1.0</v>
       </c>
       <c r="H202" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="203">
@@ -12636,7 +12636,7 @@
         <v>970</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>971</v>
@@ -12714,7 +12714,7 @@
         <v>984</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>985</v>
@@ -12766,7 +12766,7 @@
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>993</v>
@@ -12818,7 +12818,7 @@
         <v>1000</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>1001</v>
@@ -12833,7 +12833,7 @@
         <v>1.0</v>
       </c>
       <c r="H217" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="218">
@@ -12870,7 +12870,7 @@
         <v>1009</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1010</v>
@@ -12896,7 +12896,7 @@
         <v>1013</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>1014</v>
@@ -13000,7 +13000,7 @@
         <v>1031</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>1032</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1070</v>
@@ -13390,7 +13390,7 @@
         <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1095</v>
@@ -13442,7 +13442,7 @@
         <v>1102</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1103</v>
@@ -13546,7 +13546,7 @@
         <v>1120</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1121</v>
@@ -13598,7 +13598,7 @@
         <v>1129</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1130</v>
@@ -13618,13 +13618,13 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1133</v>
@@ -13806,7 +13806,7 @@
         <v>1165</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1166</v>
@@ -13826,13 +13826,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1169</v>
@@ -13858,7 +13858,7 @@
         <v>1172</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1173</v>
@@ -13962,7 +13962,7 @@
         <v>1189</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1190</v>
@@ -13988,7 +13988,7 @@
         <v>1193</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1194</v>
@@ -14040,7 +14040,7 @@
         <v>1202</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1203</v>
@@ -14118,7 +14118,7 @@
         <v>1215</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1216</v>
@@ -14274,7 +14274,7 @@
         <v>1241</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1242</v>
@@ -14690,7 +14690,7 @@
         <v>1310</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1311</v>
@@ -14924,7 +14924,7 @@
         <v>1350</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>1351</v>
@@ -14950,7 +14950,7 @@
         <v>1354</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1355</v>
@@ -14970,13 +14970,13 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>1357</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>1358</v>
@@ -15106,7 +15106,7 @@
         <v>1380</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>1381</v>
@@ -15158,7 +15158,7 @@
         <v>1387</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>1388</v>
@@ -15340,7 +15340,7 @@
         <v>1417</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>1418</v>
@@ -15366,7 +15366,7 @@
         <v>1421</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1422</v>
@@ -15444,7 +15444,7 @@
         <v>1434</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>703</v>
+        <v>592</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1435</v>
@@ -15496,7 +15496,7 @@
         <v>1442</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>1443</v>
@@ -15704,7 +15704,7 @@
         <v>1477</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>1478</v>
@@ -15730,7 +15730,7 @@
         <v>1481</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>1482</v>
@@ -15886,7 +15886,7 @@
         <v>1507</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>1508</v>
@@ -15990,7 +15990,7 @@
         <v>1526</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>1527</v>
@@ -16484,7 +16484,7 @@
         <v>1607</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>1608</v>
@@ -16588,7 +16588,7 @@
         <v>1626</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1627</v>
@@ -16640,7 +16640,7 @@
         <v>1634</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>1635</v>
@@ -16796,7 +16796,7 @@
         <v>1661</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>1662</v>
@@ -17160,7 +17160,7 @@
         <v>1726</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1727</v>
@@ -17264,7 +17264,7 @@
         <v>1744</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>1745</v>
@@ -17368,7 +17368,7 @@
         <v>1762</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>1763</v>
@@ -17388,13 +17388,13 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1765</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>1766</v>
@@ -17784,7 +17784,7 @@
         <v>1833</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>1834</v>
@@ -18304,7 +18304,7 @@
         <v>1918</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>1919</v>
@@ -18350,13 +18350,13 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>1926</v>
@@ -18538,7 +18538,7 @@
         <v>1955</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>1956</v>
@@ -18772,7 +18772,7 @@
         <v>1995</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>1996</v>
@@ -18798,7 +18798,7 @@
         <v>1999</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>2000</v>
@@ -18902,7 +18902,7 @@
         <v>2017</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>2018</v>
@@ -19188,7 +19188,7 @@
         <v>2069</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>2070</v>
@@ -19422,7 +19422,7 @@
         <v>2111</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D471" s="1" t="s">
         <v>2112</v>
@@ -19526,7 +19526,7 @@
         <v>2128</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>2129</v>
@@ -19630,7 +19630,7 @@
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19656,7 +19656,7 @@
         <v>2150</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>2151</v>
@@ -19708,7 +19708,7 @@
         <v>2159</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>2160</v>
@@ -19760,7 +19760,7 @@
         <v>2167</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>2168</v>
@@ -19786,7 +19786,7 @@
         <v>2171</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>2172</v>
@@ -19838,7 +19838,7 @@
         <v>2180</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>2181</v>
@@ -19916,7 +19916,7 @@
         <v>2194</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2195</v>
@@ -19942,7 +19942,7 @@
         <v>2198</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>2199</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20254,7 +20254,7 @@
         <v>2247</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>2248</v>
@@ -20332,7 +20332,7 @@
         <v>2260</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>2261</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20436,7 +20436,7 @@
         <v>2276</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>2277</v>
@@ -20540,7 +20540,7 @@
         <v>2294</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>2295</v>
@@ -20618,7 +20618,7 @@
         <v>2308</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>2309</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -70,7 +70,7 @@
     <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
   </si>
   <si>
-    <t>MD EQURAM ANSARI</t>
+    <t>EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -202,6 +202,36 @@
     <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
   </si>
   <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
+    <t>DEBOSMITA BOSE</t>
+  </si>
+  <si>
+    <t>bdb459@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 10:27:27 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
+  </si>
+  <si>
     <t>Rohit Das</t>
   </si>
   <si>
@@ -232,34 +262,19 @@
     <t>https://google.qwiklabs.com/public_profiles/2c915a5f-a868-4dbe-bbe5-8eff68124015</t>
   </si>
   <si>
-    <t>DEBOSMITA BOSE</t>
-  </si>
-  <si>
-    <t>bdb459@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 10:27:27 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/513ebb6b-1600-43ba-a6d3-3bf355b8ec7f</t>
-  </si>
-  <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+    <t>Rohit Tewari</t>
+  </si>
+  <si>
+    <t>rtewari056@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, West Bengal</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
   </si>
   <si>
     <t>SRINJOY PAL</t>
@@ -301,21 +316,6 @@
     <t>https://www.qwiklabs.com/public_profiles/151fbf5b-403e-4027-8dc6-32e5de62e688</t>
   </si>
   <si>
-    <t>Rohit Tewari</t>
-  </si>
-  <si>
-    <t>rtewari056@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, West Bengal</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:37:17 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
-  </si>
-  <si>
     <t>Soham Saha</t>
   </si>
   <si>
@@ -361,6 +361,21 @@
     <t>https://google.qwiklabs.com/public_profiles/2b522672-9f34-4645-9224-b366aa601c56</t>
   </si>
   <si>
+    <t>Tanmoyee Roy</t>
+  </si>
+  <si>
+    <t>tanmoyeeroy041999@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Institute of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:43:56 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
+  </si>
+  <si>
     <t>Ayan Pal</t>
   </si>
   <si>
@@ -418,19 +433,19 @@
     <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
   </si>
   <si>
-    <t>Tanmoyee Roy</t>
-  </si>
-  <si>
-    <t>tanmoyeeroy041999@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Institute of Engineering &amp; Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:43:56 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/34678992-6d15-4c9e-9c6d-27a1cdeed91d</t>
+    <t>Sayan Sengupta</t>
+  </si>
+  <si>
+    <t>sayansengupta2001@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of engineering and management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
   </si>
   <si>
     <t>Debjit Chatterjee</t>
@@ -448,19 +463,19 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>Sayan Sengupta</t>
-  </si>
-  <si>
-    <t>sayansengupta2001@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of engineering and management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
     <t>Prachi Kumari</t>
@@ -490,6 +505,30 @@
     <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
   </si>
   <si>
+    <t>Arunima Maiti</t>
+  </si>
+  <si>
+    <t>arunimamaity190@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:16:49 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
+  </si>
+  <si>
+    <t>Utsav Vora</t>
+  </si>
+  <si>
+    <t>utsavvora2407@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+  </si>
+  <si>
     <t>Kingshuk Roy</t>
   </si>
   <si>
@@ -505,33 +544,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ec0ca601-10f8-41e4-8774-fc4397dfe664</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
-    <t>Arunima Maiti</t>
-  </si>
-  <si>
-    <t>arunimamaity190@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:16:49 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a4ac500d-35fc-40d1-875f-9c18b0f611b5</t>
-  </si>
-  <si>
     <t>Sandipa Jana</t>
   </si>
   <si>
@@ -544,16 +556,19 @@
     <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
   </si>
   <si>
-    <t>Utsav Vora</t>
-  </si>
-  <si>
-    <t>utsavvora2407@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 15:31:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2e0edfb8-26f6-4bc5-9257-ee3ad6fb79a2</t>
+    <t>Srishti Pal</t>
+  </si>
+  <si>
+    <t>srishti.pal.11@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Siliguri Institute of Technology</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
   </si>
   <si>
     <t>Adarsh Kumar</t>
@@ -586,19 +601,28 @@
     <t>https://google.qwiklabs.com/public_profiles/13368c0d-aa0e-447e-a4bf-bd19c8506323</t>
   </si>
   <si>
-    <t>Srishti Pal</t>
-  </si>
-  <si>
-    <t>srishti.pal.11@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Siliguri Institute of Technology</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:26:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
   </si>
   <si>
     <t>Anup Choudhury</t>
@@ -613,6 +637,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ef417579-655e-4e0f-90f4-3a0da7510bfc</t>
   </si>
   <si>
+    <t>Anom Chakravorty</t>
+  </si>
+  <si>
+    <t>anomchakravorty3008@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 20:29:41 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
+  </si>
+  <si>
     <t>Anuja Singh</t>
   </si>
   <si>
@@ -655,43 +694,19 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
-    <t>Anom Chakravorty</t>
-  </si>
-  <si>
-    <t>anomchakravorty3008@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 20:29:41 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
+    <t>Rahul Debnath</t>
+  </si>
+  <si>
+    <t>mtemporary7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
   </si>
   <si>
     <t>SANDIP DAS</t>
@@ -724,6 +739,21 @@
     <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
   </si>
   <si>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+  </si>
+  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -748,21 +778,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
-    <t>Rahul Debnath</t>
-  </si>
-  <si>
-    <t>mtemporary7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
-  </si>
-  <si>
     <t>Saurav Kumar</t>
   </si>
   <si>
@@ -778,19 +793,31 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+  </si>
+  <si>
+    <t>Samrat Ganguly</t>
+  </si>
+  <si>
+    <t>samratganguly37@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
   </si>
   <si>
     <t>Radadiya Mohit</t>
@@ -808,6 +835,21 @@
     <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
+    <t>Raunak Kumar Sah</t>
+  </si>
+  <si>
+    <t>itisraunak@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+  </si>
+  <si>
     <t>Aamrin Islam</t>
   </si>
   <si>
@@ -835,33 +877,6 @@
     <t>https://google.qwiklabs.com/public_profiles/3400b99d-b61f-4597-bb09-a6544ccf862a</t>
   </si>
   <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
-  </si>
-  <si>
-    <t>Samrat Ganguly</t>
-  </si>
-  <si>
-    <t>samratganguly37@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 17:32:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://run.qwiklabs.com/public_profiles/315d8f4c-1893-47ee-bf51-9ad5a809dfdf</t>
-  </si>
-  <si>
     <t>Sayantan Kuila</t>
   </si>
   <si>
@@ -916,6 +931,36 @@
     <t>https://google.qwiklabs.com/public_profiles/341afaff-dcfc-43ec-b392-5096f4ff6fe6</t>
   </si>
   <si>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+  </si>
+  <si>
+    <t>Riya Teri</t>
+  </si>
+  <si>
+    <t>riyateri01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kalinga Institute of Industrial Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
+  </si>
+  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -931,6 +976,21 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
+    <t>Manisha Bhowmik</t>
+  </si>
+  <si>
+    <t>manishabhowmik08@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:18:40 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
+  </si>
+  <si>
     <t>Aditya Navya Shukla</t>
   </si>
   <si>
@@ -955,49 +1015,49 @@
     <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
-  </si>
-  <si>
-    <t>Riya Teri</t>
-  </si>
-  <si>
-    <t>riyateri01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kalinga Institute of Industrial Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
-  </si>
-  <si>
-    <t>Raunak Kumar Sah</t>
-  </si>
-  <si>
-    <t>itisraunak@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+    <t>Rajesh Paswan</t>
+  </si>
+  <si>
+    <t>rk.paswan5458@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] OP Jindal University, Raigarh Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:27:44 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/b033bccb-e643-478f-9999-605b4390c8a6</t>
+  </si>
+  <si>
+    <t>RAHUL LAHA</t>
+  </si>
+  <si>
+    <t>laharahul6@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Of Engineering and Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:45:44 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
+  </si>
+  <si>
+    <t>Aman Chowdhury</t>
+  </si>
+  <si>
+    <t>amanchowdhury046@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
   </si>
   <si>
     <t>Rishav Chakraborty</t>
@@ -1039,21 +1099,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
-    <t>Rajesh Paswan</t>
-  </si>
-  <si>
-    <t>rk.paswan5458@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] OP Jindal University, Raigarh Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:27:44 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/b033bccb-e643-478f-9999-605b4390c8a6</t>
-  </si>
-  <si>
     <t>Supritha Ravishankar</t>
   </si>
   <si>
@@ -1126,21 +1171,6 @@
     <t>https://google.qwiklabs.com/public_profiles/fc495ebd-5d33-486f-be3e-c35bd6096b4d</t>
   </si>
   <si>
-    <t>RAHUL LAHA</t>
-  </si>
-  <si>
-    <t>laharahul6@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Of Engineering and Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:45:44 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/5bc601a6-47d0-45af-b5b4-6b7ce0811142</t>
-  </si>
-  <si>
     <t>Sudipta Halder</t>
   </si>
   <si>
@@ -1171,21 +1201,6 @@
     <t>https://google.qwiklabs.com/public_profiles/d26f503b-cb59-4746-8d57-30aa8fcf101b</t>
   </si>
   <si>
-    <t>Aman Chowdhury</t>
-  </si>
-  <si>
-    <t>amanchowdhury046@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute of Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 11:45:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
-  </si>
-  <si>
     <t>Sourjya Pal</t>
   </si>
   <si>
@@ -1198,21 +1213,6 @@
     <t>https://www.qwiklabs.com/public_profiles/2b1dd0e2-5573-46cf-a0b2-ec8ae8ea1e7b</t>
   </si>
   <si>
-    <t>Manisha Bhowmik</t>
-  </si>
-  <si>
-    <t>manishabhowmik08@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering &amp; Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:18:40 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
-  </si>
-  <si>
     <t>Arpan Kumar</t>
   </si>
   <si>
@@ -1243,6 +1243,21 @@
     <t>https://www.qwiklabs.com/public_profiles/0e0cd2f2-ed67-4c64-95ff-259699b273ce</t>
   </si>
   <si>
+    <t>Geetika Sethi</t>
+  </si>
+  <si>
+    <t>geetikasethi1723@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Banasthali Vidyapeeth</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:58:05 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
+  </si>
+  <si>
     <t>Daita sur</t>
   </si>
   <si>
@@ -1270,6 +1285,18 @@
     <t>https://google.qwiklabs.com/public_profiles/2061f808-65c0-4416-a21c-ce8f30ff65b8</t>
   </si>
   <si>
+    <t>Biswarup Roy</t>
+  </si>
+  <si>
+    <t>biswaruproy000@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 19:07:36 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
+  </si>
+  <si>
     <t>Anwesha Ghosh</t>
   </si>
   <si>
@@ -1282,6 +1309,21 @@
     <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
   </si>
   <si>
+    <t>PRIYAM CHATTORAJ</t>
+  </si>
+  <si>
+    <t>priyamchattoraj1234@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Academy of Technology</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
+  </si>
+  <si>
     <t>Harini Dhanasekaran</t>
   </si>
   <si>
@@ -1312,6 +1354,18 @@
     <t>https://www.qwiklabs.com/public_profiles/de8b7d3f-578b-4341-91f7-f819a9402e4f</t>
   </si>
   <si>
+    <t>Riddhith Banerjee</t>
+  </si>
+  <si>
+    <t>riddhith04@gmail.com</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 18:04:59 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
+  </si>
+  <si>
     <t>Arunima Dhar</t>
   </si>
   <si>
@@ -1327,21 +1381,6 @@
     <t>https://www.qwiklabs.com/public_profiles/ae69f93e-9ddf-4e52-97fe-1e942e6e76a2</t>
   </si>
   <si>
-    <t>Geetika Sethi</t>
-  </si>
-  <si>
-    <t>geetikasethi1723@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Banasthali Vidyapeeth</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:58:05 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
-  </si>
-  <si>
     <t>Sweta Upadhyay</t>
   </si>
   <si>
@@ -1357,18 +1396,6 @@
     <t>https://www.qwiklabs.com/public_profiles/2f22c574-3778-40bb-992f-0f35b5617ffd</t>
   </si>
   <si>
-    <t>Biswarup Roy</t>
-  </si>
-  <si>
-    <t>biswaruproy000@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 19:07:36 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
-  </si>
-  <si>
     <t>Aman Kumar</t>
   </si>
   <si>
@@ -1396,21 +1423,6 @@
     <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
   </si>
   <si>
-    <t>PRIYAM CHATTORAJ</t>
-  </si>
-  <si>
-    <t>priyamchattoraj1234@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Academy of Technology</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1543,18 +1555,6 @@
     <t>https://google.qwiklabs.com/public_profiles/68d997a9-2ed7-4008-8472-7ba8f499ff23</t>
   </si>
   <si>
-    <t>Riddhith Banerjee</t>
-  </si>
-  <si>
-    <t>riddhith04@gmail.com</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 18:04:59 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/187ed572-761f-4d78-b020-1c5ff7db699e</t>
-  </si>
-  <si>
     <t>Subhasis Das</t>
   </si>
   <si>
@@ -1882,6 +1882,21 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
+    <t>Sukanya Bhattacharya</t>
+  </si>
+  <si>
+    <t>sukanyabhattacharya99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
+  </si>
+  <si>
     <t>Jayprakash Shadanan Bhure</t>
   </si>
   <si>
@@ -2056,6 +2071,21 @@
     <t>https://google.qwiklabs.com/public_profiles/21703a9a-6cb5-4ac3-85f6-9c4b7d494bd2</t>
   </si>
   <si>
+    <t>Palash Das</t>
+  </si>
+  <si>
+    <t>palashdas0076@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute Of Technology,Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 14:53:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/87e44214-6324-41b2-829c-addaf097b1c1</t>
+  </si>
+  <si>
     <t>Arkya Santra</t>
   </si>
   <si>
@@ -2098,6 +2128,21 @@
     <t>https://google.qwiklabs.com/public_profiles/b228079e-de0f-462b-ade0-fc43a0e240b1</t>
   </si>
   <si>
+    <t>Satyaki Kesh</t>
+  </si>
+  <si>
+    <t>keshsatyaki2002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Manipal Institute of Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:22:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/683d2e3f-960a-4eb3-ad83-255b05aefbe0</t>
+  </si>
+  <si>
     <t>Omeshwar Chowdhury</t>
   </si>
   <si>
@@ -2215,21 +2260,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ee39e23e-6ddf-4aaf-8ba3-68672fc603d5</t>
   </si>
   <si>
-    <t>Sukanya Bhattacharya</t>
-  </si>
-  <si>
-    <t>sukanyabhattacharya99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
-  </si>
-  <si>
     <t>Sachin Yadav</t>
   </si>
   <si>
@@ -2626,21 +2656,6 @@
     <t>https://www.qwiklabs.com/public_profiles/277593df-8d7a-4227-94a7-9508c1e8e367</t>
   </si>
   <si>
-    <t>Palash Das</t>
-  </si>
-  <si>
-    <t>palashdas0076@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute Of Technology,Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 14:53:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/87e44214-6324-41b2-829c-addaf097b1c1</t>
-  </si>
-  <si>
     <t>Deeptendu Chiki</t>
   </si>
   <si>
@@ -2653,21 +2668,6 @@
     <t>https://google.qwiklabs.com/public_profiles/46478216-8cfb-4d7f-9900-6e790ab0738e</t>
   </si>
   <si>
-    <t>Satyaki Kesh</t>
-  </si>
-  <si>
-    <t>keshsatyaki2002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Manipal Institute of Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:22:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/683d2e3f-960a-4eb3-ad83-255b05aefbe0</t>
-  </si>
-  <si>
     <t>Sparsh Goyal</t>
   </si>
   <si>
@@ -2773,6 +2773,21 @@
     <t>https://google.qwiklabs.com/public_profiles/b24cc77a-ef3e-4c9c-a1ec-e706bdb66ed8</t>
   </si>
   <si>
+    <t>SAGNIK GHOSH</t>
+  </si>
+  <si>
+    <t>drsagnikghosh1@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] KALYANI GOVERNMENT ENGINEERING COLLEGE</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a2ae655e-f1c2-40c7-91a0-dbdccf2d0be7</t>
+  </si>
+  <si>
     <t>Rahul Mohta</t>
   </si>
   <si>
@@ -4322,21 +4337,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/9d645ce8-c463-42d6-b1c1-1039117d5b9d</t>
-  </si>
-  <si>
-    <t>SAGNIK GHOSH</t>
-  </si>
-  <si>
-    <t>drsagnikghosh1@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] KALYANI GOVERNMENT ENGINEERING COLLEGE</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a2ae655e-f1c2-40c7-91a0-dbdccf2d0be7</t>
   </si>
   <si>
     <t>Rupal Agarwal</t>
@@ -7526,10 +7526,10 @@
         <v>67</v>
       </c>
       <c r="G13" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H13" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
@@ -7555,7 +7555,7 @@
         <v>28.0</v>
       </c>
       <c r="H14" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -7578,10 +7578,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="1">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="H15" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -7604,10 +7604,10 @@
         <v>82</v>
       </c>
       <c r="G16" s="1">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="H16" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
@@ -7618,33 +7618,33 @@
         <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H17" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>90</v>
@@ -7670,16 +7670,16 @@
         <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1">
         <v>24.0</v>
@@ -7690,13 +7690,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>99</v>
@@ -7815,7 +7815,7 @@
         <v>24.0</v>
       </c>
       <c r="H24" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
@@ -7826,16 +7826,16 @@
         <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1">
         <v>24.0</v>
@@ -7846,13 +7846,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>128</v>
@@ -7890,7 +7890,7 @@
         <v>134</v>
       </c>
       <c r="G27" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H27" s="1">
         <v>12.0</v>
@@ -7919,7 +7919,7 @@
         <v>23.0</v>
       </c>
       <c r="H28" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="29">
@@ -7942,10 +7942,10 @@
         <v>144</v>
       </c>
       <c r="G29" s="1">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="H29" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="30">
@@ -7968,10 +7968,10 @@
         <v>149</v>
       </c>
       <c r="G30" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H30" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="31">
@@ -7982,33 +7982,33 @@
         <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G31" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H31" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>157</v>
@@ -8023,7 +8023,7 @@
         <v>19.0</v>
       </c>
       <c r="H32" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="33">
@@ -8049,7 +8049,7 @@
         <v>19.0</v>
       </c>
       <c r="H33" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="34">
@@ -8060,59 +8060,59 @@
         <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="G34" s="1">
         <v>19.0</v>
       </c>
       <c r="H34" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="G35" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H35" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>175</v>
@@ -8124,7 +8124,7 @@
         <v>176</v>
       </c>
       <c r="G36" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H36" s="1">
         <v>8.0</v>
@@ -8153,7 +8153,7 @@
         <v>18.0</v>
       </c>
       <c r="H37" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
@@ -8176,10 +8176,10 @@
         <v>185</v>
       </c>
       <c r="G38" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H38" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -8205,7 +8205,7 @@
         <v>17.0</v>
       </c>
       <c r="H39" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -8231,7 +8231,7 @@
         <v>17.0</v>
       </c>
       <c r="H40" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
@@ -8242,7 +8242,7 @@
         <v>197</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>198</v>
@@ -8254,10 +8254,10 @@
         <v>199</v>
       </c>
       <c r="G41" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H41" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="42">
@@ -8268,68 +8268,68 @@
         <v>201</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="G42" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H42" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="G43" s="1">
         <v>16.0</v>
       </c>
       <c r="H43" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="G44" s="1">
         <v>16.0</v>
@@ -8340,13 +8340,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>216</v>
@@ -8361,7 +8361,7 @@
         <v>16.0</v>
       </c>
       <c r="H45" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="46">
@@ -8372,16 +8372,16 @@
         <v>219</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G46" s="1">
         <v>16.0</v>
@@ -8392,13 +8392,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>225</v>
@@ -8410,7 +8410,7 @@
         <v>226</v>
       </c>
       <c r="G47" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H47" s="1">
         <v>8.0</v>
@@ -8439,7 +8439,7 @@
         <v>15.0</v>
       </c>
       <c r="H48" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="49">
@@ -8465,7 +8465,7 @@
         <v>15.0</v>
       </c>
       <c r="H49" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
@@ -8476,85 +8476,85 @@
         <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G50" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H50" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G51" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H51" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
       </c>
       <c r="H52" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>253</v>
@@ -8595,7 +8595,7 @@
         <v>14.0</v>
       </c>
       <c r="H54" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="55">
@@ -8621,7 +8621,7 @@
         <v>14.0</v>
       </c>
       <c r="H55" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
@@ -8644,7 +8644,7 @@
         <v>268</v>
       </c>
       <c r="G56" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H56" s="1">
         <v>4.0</v>
@@ -8670,10 +8670,10 @@
         <v>273</v>
       </c>
       <c r="G57" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H57" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="58">
@@ -8699,7 +8699,7 @@
         <v>13.0</v>
       </c>
       <c r="H58" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="59">
@@ -8751,7 +8751,7 @@
         <v>13.0</v>
       </c>
       <c r="H60" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -8762,59 +8762,59 @@
         <v>289</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G61" s="1">
         <v>13.0</v>
       </c>
       <c r="H61" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G62" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H62" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>299</v>
@@ -8826,10 +8826,10 @@
         <v>300</v>
       </c>
       <c r="G63" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H63" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
@@ -8852,10 +8852,10 @@
         <v>305</v>
       </c>
       <c r="G64" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H64" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -8866,137 +8866,137 @@
         <v>307</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G65" s="1">
         <v>11.0</v>
       </c>
       <c r="H65" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G66" s="1">
         <v>11.0</v>
       </c>
       <c r="H66" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G67" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H67" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G68" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H68" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G69" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H69" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>332</v>
@@ -9008,10 +9008,10 @@
         <v>333</v>
       </c>
       <c r="G70" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H70" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="71">
@@ -9022,97 +9022,97 @@
         <v>335</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G71" s="1">
         <v>10.0</v>
       </c>
       <c r="H71" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>341</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G72" s="1">
         <v>10.0</v>
       </c>
       <c r="H72" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G73" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H73" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G74" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H74" s="1">
         <v>4.0</v>
@@ -9120,39 +9120,39 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G75" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H75" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>359</v>
+        <v>94</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>360</v>
@@ -9164,10 +9164,10 @@
         <v>361</v>
       </c>
       <c r="G76" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H76" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
@@ -9204,85 +9204,85 @@
         <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G78" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H78" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G79" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H79" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G80" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H80" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>384</v>
@@ -9297,7 +9297,7 @@
         <v>8.0</v>
       </c>
       <c r="H81" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
@@ -9323,7 +9323,7 @@
         <v>8.0</v>
       </c>
       <c r="H82" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -9334,33 +9334,33 @@
         <v>392</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G83" s="1">
         <v>8.0</v>
       </c>
       <c r="H83" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>398</v>
@@ -9375,7 +9375,7 @@
         <v>8.0</v>
       </c>
       <c r="H84" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="85">
@@ -9438,33 +9438,33 @@
         <v>411</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G87" s="1">
         <v>8.0</v>
       </c>
       <c r="H87" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>416</v>
+        <v>21</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>417</v>
@@ -9479,7 +9479,7 @@
         <v>8.0</v>
       </c>
       <c r="H88" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="89">
@@ -9490,16 +9490,16 @@
         <v>420</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>89</v>
+        <v>421</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G89" s="1">
         <v>8.0</v>
@@ -9510,13 +9510,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>425</v>
+        <v>21</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>426</v>
@@ -9531,7 +9531,7 @@
         <v>8.0</v>
       </c>
       <c r="H90" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="91">
@@ -9542,16 +9542,16 @@
         <v>429</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="G91" s="1">
         <v>8.0</v>
@@ -9562,117 +9562,117 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="G92" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H92" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="G93" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H93" s="1">
         <v>7.0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="G94" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H94" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G95" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H95" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>454</v>
@@ -9687,7 +9687,7 @@
         <v>7.0</v>
       </c>
       <c r="H96" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -9724,33 +9724,33 @@
         <v>462</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="G98" s="1">
         <v>7.0</v>
       </c>
       <c r="H98" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>468</v>
@@ -9762,10 +9762,10 @@
         <v>469</v>
       </c>
       <c r="G99" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H99" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -9776,85 +9776,85 @@
         <v>471</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="G100" s="1">
         <v>6.0</v>
       </c>
       <c r="H100" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="G101" s="1">
         <v>6.0</v>
       </c>
       <c r="H101" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="G102" s="1">
         <v>6.0</v>
       </c>
       <c r="H102" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>487</v>
@@ -9869,7 +9869,7 @@
         <v>6.0</v>
       </c>
       <c r="H103" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="104">
@@ -9895,7 +9895,7 @@
         <v>6.0</v>
       </c>
       <c r="H104" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="105">
@@ -9921,7 +9921,7 @@
         <v>6.0</v>
       </c>
       <c r="H105" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -9932,7 +9932,7 @@
         <v>498</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>499</v>
@@ -9947,7 +9947,7 @@
         <v>6.0</v>
       </c>
       <c r="H106" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="107">
@@ -9958,33 +9958,33 @@
         <v>502</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G107" s="1">
         <v>6.0</v>
       </c>
       <c r="H107" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>508</v>
@@ -9999,7 +9999,7 @@
         <v>6.0</v>
       </c>
       <c r="H108" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="109">
@@ -10010,7 +10010,7 @@
         <v>511</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>21</v>
+        <v>434</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>512</v>
@@ -10025,7 +10025,7 @@
         <v>6.0</v>
       </c>
       <c r="H109" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="110">
@@ -10088,7 +10088,7 @@
         <v>525</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>526</v>
@@ -10192,7 +10192,7 @@
         <v>542</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>543</v>
@@ -10322,7 +10322,7 @@
         <v>565</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>566</v>
@@ -10441,7 +10441,7 @@
         <v>4.0</v>
       </c>
       <c r="H125" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="126">
@@ -10675,27 +10675,27 @@
         <v>3.0</v>
       </c>
       <c r="H134" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>497</v>
+        <v>628</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G135" s="1">
         <v>3.0</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>632</v>
+        <v>501</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>633</v>
@@ -10724,7 +10724,7 @@
         <v>636</v>
       </c>
       <c r="G136" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H136" s="1">
         <v>0.0</v>
@@ -10764,16 +10764,16 @@
         <v>643</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>98</v>
+        <v>644</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G138" s="1">
         <v>2.0</v>
@@ -10784,22 +10784,22 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G139" s="1">
         <v>2.0</v>
@@ -10810,13 +10810,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>652</v>
+        <v>210</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>653</v>
@@ -10842,59 +10842,59 @@
         <v>656</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>578</v>
+        <v>657</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G141" s="1">
         <v>2.0</v>
       </c>
       <c r="H141" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>21</v>
+        <v>578</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G142" s="1">
         <v>2.0</v>
       </c>
       <c r="H142" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>665</v>
+        <v>21</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>666</v>
@@ -10909,7 +10909,7 @@
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="144">
@@ -10920,16 +10920,16 @@
         <v>669</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>298</v>
+        <v>670</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G144" s="1">
         <v>2.0</v>
@@ -10940,22 +10940,22 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G145" s="1">
         <v>2.0</v>
@@ -10966,13 +10966,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>678</v>
+        <v>21</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>679</v>
@@ -10998,59 +10998,59 @@
         <v>682</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>445</v>
+        <v>683</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G147" s="1">
         <v>2.0</v>
       </c>
       <c r="H147" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>692</v>
+        <v>458</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>693</v>
@@ -11065,7 +11065,7 @@
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
@@ -11091,7 +11091,7 @@
         <v>2.0</v>
       </c>
       <c r="H150" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -11117,7 +11117,7 @@
         <v>2.0</v>
       </c>
       <c r="H151" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
@@ -11143,7 +11143,7 @@
         <v>2.0</v>
       </c>
       <c r="H152" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -11169,7 +11169,7 @@
         <v>2.0</v>
       </c>
       <c r="H153" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="154">
@@ -11221,7 +11221,7 @@
         <v>2.0</v>
       </c>
       <c r="H155" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -11258,42 +11258,42 @@
         <v>731</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>397</v>
+        <v>732</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G157" s="1">
         <v>2.0</v>
       </c>
       <c r="H157" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G158" s="1">
         <v>2.0</v>
@@ -11304,22 +11304,22 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>534</v>
+        <v>742</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G159" s="1">
         <v>2.0</v>
@@ -11330,22 +11330,22 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>745</v>
+        <v>323</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G160" s="1">
         <v>2.0</v>
@@ -11356,48 +11356,48 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>21</v>
+        <v>534</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G161" s="1">
         <v>2.0</v>
       </c>
       <c r="H161" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G162" s="1">
         <v>2.0</v>
@@ -11408,22 +11408,22 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G163" s="1">
         <v>2.0</v>
@@ -11434,22 +11434,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G164" s="1">
         <v>2.0</v>
@@ -11460,65 +11460,65 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>763</v>
+        <v>21</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G165" s="1">
         <v>2.0</v>
       </c>
       <c r="H165" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G166" s="1">
         <v>2.0</v>
       </c>
       <c r="H166" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>778</v>
@@ -11533,7 +11533,7 @@
         <v>2.0</v>
       </c>
       <c r="H167" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
@@ -11544,16 +11544,16 @@
         <v>781</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>21</v>
+        <v>782</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G168" s="1">
         <v>2.0</v>
@@ -11564,48 +11564,48 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G169" s="1">
         <v>2.0</v>
       </c>
       <c r="H169" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G170" s="1">
         <v>2.0</v>
@@ -11616,22 +11616,22 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>89</v>
+        <v>796</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G171" s="1">
         <v>2.0</v>
@@ -11642,22 +11642,22 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G172" s="1">
         <v>2.0</v>
@@ -11668,51 +11668,51 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G173" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H173" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G174" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H174" s="1">
         <v>0.0</v>
@@ -11720,22 +11720,22 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G175" s="1">
         <v>1.0</v>
@@ -11746,22 +11746,22 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G176" s="1">
         <v>1.0</v>
@@ -11772,22 +11772,22 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G177" s="1">
         <v>1.0</v>
@@ -11798,22 +11798,22 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>452</v>
+        <v>823</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="G178" s="1">
         <v>1.0</v>
@@ -11824,22 +11824,22 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>826</v>
+        <v>21</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G179" s="1">
         <v>1.0</v>
@@ -11850,13 +11850,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>829</v>
+        <v>461</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>831</v>
+        <v>183</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>832</v>
@@ -11923,7 +11923,7 @@
         <v>1.0</v>
       </c>
       <c r="H182" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -11934,94 +11934,94 @@
         <v>845</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G183" s="1">
         <v>1.0</v>
       </c>
       <c r="H183" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G184" s="1">
         <v>1.0</v>
       </c>
       <c r="H184" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>137</v>
+        <v>841</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G185" s="1">
         <v>1.0</v>
       </c>
       <c r="H185" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G186" s="1">
         <v>1.0</v>
@@ -12032,22 +12032,22 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>687</v>
+        <v>118</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G187" s="1">
         <v>1.0</v>
@@ -12058,22 +12058,22 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G188" s="1">
         <v>1.0</v>
@@ -12084,13 +12084,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>873</v>
+        <v>697</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>874</v>
@@ -12105,7 +12105,7 @@
         <v>1.0</v>
       </c>
       <c r="H189" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -12116,16 +12116,16 @@
         <v>877</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G190" s="1">
         <v>1.0</v>
@@ -12136,13 +12136,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>882</v>
+        <v>841</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>883</v>
@@ -12157,7 +12157,7 @@
         <v>1.0</v>
       </c>
       <c r="H191" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -12272,7 +12272,7 @@
         <v>905</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>906</v>
@@ -12350,7 +12350,7 @@
         <v>917</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>918</v>
@@ -12391,7 +12391,7 @@
         <v>1.0</v>
       </c>
       <c r="H200" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
@@ -12402,33 +12402,33 @@
         <v>926</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>303</v>
+        <v>927</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G201" s="1">
         <v>1.0</v>
       </c>
       <c r="H201" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>931</v>
+        <v>318</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>932</v>
@@ -12454,59 +12454,59 @@
         <v>935</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>21</v>
+        <v>936</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G203" s="1">
         <v>1.0</v>
       </c>
       <c r="H203" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>831</v>
+        <v>21</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G204" s="1">
         <v>1.0</v>
       </c>
       <c r="H204" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>944</v>
+        <v>841</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>945</v>
@@ -12521,7 +12521,7 @@
         <v>1.0</v>
       </c>
       <c r="H205" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
@@ -12610,16 +12610,16 @@
         <v>963</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>831</v>
+        <v>964</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G209" s="1">
         <v>1.0</v>
@@ -12630,13 +12630,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>968</v>
+        <v>841</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>969</v>
@@ -12703,7 +12703,7 @@
         <v>1.0</v>
       </c>
       <c r="H212" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
@@ -12729,7 +12729,7 @@
         <v>1.0</v>
       </c>
       <c r="H213" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="214">
@@ -12755,7 +12755,7 @@
         <v>1.0</v>
       </c>
       <c r="H214" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -12766,33 +12766,33 @@
         <v>992</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>503</v>
+        <v>993</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G215" s="1">
         <v>1.0</v>
       </c>
       <c r="H215" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>997</v>
+        <v>507</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>998</v>
@@ -12833,7 +12833,7 @@
         <v>1.0</v>
       </c>
       <c r="H217" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="218">
@@ -12844,16 +12844,16 @@
         <v>1006</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>463</v>
+        <v>1007</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G218" s="1">
         <v>1.0</v>
@@ -12864,13 +12864,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1011</v>
+        <v>434</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1012</v>
@@ -12885,27 +12885,27 @@
         <v>1.0</v>
       </c>
       <c r="H219" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>862</v>
+        <v>1014</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>687</v>
+        <v>1016</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G220" s="1">
         <v>1.0</v>
@@ -12916,22 +12916,22 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>1017</v>
+        <v>872</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>21</v>
+        <v>697</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="G221" s="1">
         <v>1.0</v>
@@ -12942,13 +12942,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1023</v>
+        <v>21</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>1024</v>
@@ -12974,16 +12974,16 @@
         <v>1027</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>70</v>
+        <v>1028</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G223" s="1">
         <v>1.0</v>
@@ -12994,65 +12994,65 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G224" s="1">
         <v>1.0</v>
       </c>
       <c r="H224" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G225" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H225" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1040</v>
+        <v>21</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>1041</v>
@@ -13104,16 +13104,16 @@
         <v>1049</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>193</v>
+        <v>1050</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G228" s="1">
         <v>0.0</v>
@@ -13124,22 +13124,22 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G229" s="1">
         <v>0.0</v>
@@ -13150,22 +13150,22 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G230" s="1">
         <v>0.0</v>
@@ -13176,22 +13176,22 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G231" s="1">
         <v>0.0</v>
@@ -13202,22 +13202,22 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G232" s="1">
         <v>0.0</v>
@@ -13228,22 +13228,22 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G233" s="1">
         <v>0.0</v>
@@ -13254,22 +13254,22 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>21</v>
+        <v>782</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G234" s="1">
         <v>0.0</v>
@@ -13280,22 +13280,22 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G235" s="1">
         <v>0.0</v>
@@ -13306,13 +13306,13 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1081</v>
+        <v>21</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1082</v>
@@ -13338,16 +13338,16 @@
         <v>1085</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>21</v>
+        <v>1086</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G237" s="1">
         <v>0.0</v>
@@ -13358,22 +13358,22 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>334</v>
+        <v>1089</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>868</v>
+        <v>21</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G238" s="1">
         <v>0.0</v>
@@ -13384,13 +13384,13 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>1091</v>
+        <v>354</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1093</v>
+        <v>878</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1094</v>
@@ -13494,16 +13494,16 @@
         <v>1112</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>407</v>
+        <v>1113</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G243" s="1">
         <v>0.0</v>
@@ -13514,22 +13514,22 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>831</v>
+        <v>407</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G244" s="1">
         <v>0.0</v>
@@ -13540,22 +13540,22 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>652</v>
+        <v>841</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G245" s="1">
         <v>0.0</v>
@@ -13566,22 +13566,22 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>21</v>
+        <v>657</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G246" s="1">
         <v>0.0</v>
@@ -13592,13 +13592,13 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1129</v>
+        <v>21</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1130</v>
@@ -13650,16 +13650,16 @@
         <v>1138</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>156</v>
+        <v>1139</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G249" s="1">
         <v>0.0</v>
@@ -13670,13 +13670,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1143</v>
+        <v>161</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1144</v>
@@ -13702,16 +13702,16 @@
         <v>1147</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>229</v>
+        <v>1148</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G251" s="1">
         <v>0.0</v>
@@ -13722,22 +13722,22 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>668</v>
+        <v>1151</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>665</v>
+        <v>234</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G252" s="1">
         <v>0.0</v>
@@ -13748,13 +13748,13 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>1153</v>
+        <v>673</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1155</v>
+        <v>670</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1156</v>
@@ -13806,16 +13806,16 @@
         <v>1164</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>21</v>
+        <v>1165</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G255" s="1">
         <v>0.0</v>
@@ -13826,13 +13826,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1169</v>
+        <v>21</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1170</v>
@@ -13910,16 +13910,16 @@
         <v>1183</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>298</v>
+        <v>1184</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G259" s="1">
         <v>0.0</v>
@@ -13930,22 +13930,22 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>135</v>
+        <v>1187</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G260" s="1">
         <v>0.0</v>
@@ -13956,22 +13956,22 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>1189</v>
+        <v>116</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>665</v>
+        <v>118</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G261" s="1">
         <v>0.0</v>
@@ -13982,19 +13982,19 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>868</v>
+        <v>670</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>1197</v>
@@ -14014,16 +14014,16 @@
         <v>1199</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1200</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G263" s="1">
         <v>0.0</v>
@@ -14034,22 +14034,22 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>21</v>
+        <v>851</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G264" s="1">
         <v>0.0</v>
@@ -14060,22 +14060,22 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G265" s="1">
         <v>0.0</v>
@@ -14086,22 +14086,22 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G266" s="1">
         <v>0.0</v>
@@ -14112,13 +14112,13 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1216</v>
+        <v>118</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1217</v>
@@ -14144,16 +14144,16 @@
         <v>1220</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>229</v>
+        <v>1221</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G268" s="1">
         <v>0.0</v>
@@ -14164,13 +14164,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1225</v>
+        <v>234</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1226</v>
@@ -14196,16 +14196,16 @@
         <v>1229</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>868</v>
+        <v>1230</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G270" s="1">
         <v>0.0</v>
@@ -14216,22 +14216,22 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>298</v>
+        <v>878</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G271" s="1">
         <v>0.0</v>
@@ -14242,13 +14242,13 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1238</v>
+        <v>303</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1239</v>
@@ -14274,16 +14274,16 @@
         <v>1242</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>859</v>
+        <v>1243</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="G273" s="1">
         <v>0.0</v>
@@ -14294,19 +14294,19 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1247</v>
+        <v>869</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1248</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>1249</v>
@@ -14332,7 +14332,7 @@
         <v>1253</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>1254</v>
@@ -14352,16 +14352,16 @@
         <v>1256</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>21</v>
+        <v>1257</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="G276" s="1">
         <v>0.0</v>
@@ -14372,22 +14372,22 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>871</v>
+        <v>1260</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="G277" s="1">
         <v>0.0</v>
@@ -14398,19 +14398,19 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>1262</v>
+        <v>686</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1264</v>
+        <v>132</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>1266</v>
@@ -14456,16 +14456,16 @@
         <v>1273</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>21</v>
+        <v>1274</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G280" s="1">
         <v>0.0</v>
@@ -14476,22 +14476,22 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>772</v>
+        <v>21</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G281" s="1">
         <v>0.0</v>
@@ -14502,22 +14502,22 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>21</v>
+        <v>782</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="G282" s="1">
         <v>0.0</v>
@@ -14528,13 +14528,13 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1286</v>
+        <v>21</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1287</v>
@@ -14560,16 +14560,16 @@
         <v>1290</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>21</v>
+        <v>1291</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G284" s="1">
         <v>0.0</v>
@@ -14580,22 +14580,22 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G285" s="1">
         <v>0.0</v>
@@ -14606,22 +14606,22 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G286" s="1">
         <v>0.0</v>
@@ -14632,22 +14632,22 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G287" s="1">
         <v>0.0</v>
@@ -14658,22 +14658,22 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1307</v>
+        <v>351</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>1258</v>
+        <v>1309</v>
       </c>
       <c r="G288" s="1">
         <v>0.0</v>
@@ -14684,22 +14684,22 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>21</v>
+        <v>1312</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>1312</v>
+        <v>1263</v>
       </c>
       <c r="G289" s="1">
         <v>0.0</v>
@@ -14710,13 +14710,13 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1315</v>
+        <v>21</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1316</v>
@@ -14742,16 +14742,16 @@
         <v>1319</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>21</v>
+        <v>1320</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="G291" s="1">
         <v>0.0</v>
@@ -14762,22 +14762,22 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G292" s="1">
         <v>0.0</v>
@@ -14788,13 +14788,13 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1328</v>
+        <v>323</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1329</v>
@@ -14846,16 +14846,16 @@
         <v>1337</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>21</v>
+        <v>1338</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G295" s="1">
         <v>0.0</v>
@@ -14866,19 +14866,19 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1342</v>
+        <v>21</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>1344</v>
@@ -14898,16 +14898,16 @@
         <v>1346</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>21</v>
+        <v>1347</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G297" s="1">
         <v>0.0</v>
@@ -14918,22 +14918,22 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>922</v>
+        <v>21</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G298" s="1">
         <v>0.0</v>
@@ -14944,13 +14944,13 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1355</v>
+        <v>927</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1356</v>
@@ -14976,16 +14976,16 @@
         <v>1359</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>321</v>
+        <v>1360</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G300" s="1">
         <v>0.0</v>
@@ -14996,22 +14996,22 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G301" s="1">
         <v>0.0</v>
@@ -15022,22 +15022,22 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>269</v>
+        <v>1367</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G302" s="1">
         <v>0.0</v>
@@ -15048,22 +15048,22 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>1369</v>
+        <v>283</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G303" s="1">
         <v>0.0</v>
@@ -15074,13 +15074,13 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1375</v>
+        <v>21</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1376</v>
@@ -15158,16 +15158,16 @@
         <v>1389</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>89</v>
+        <v>1390</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G307" s="1">
         <v>0.0</v>
@@ -15178,22 +15178,22 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>1383</v>
+        <v>1393</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1385</v>
+        <v>94</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G308" s="1">
         <v>0.0</v>
@@ -15204,22 +15204,22 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G309" s="1">
         <v>0.0</v>
@@ -15230,13 +15230,13 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1401</v>
+        <v>346</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1402</v>
@@ -15262,16 +15262,16 @@
         <v>1405</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>21</v>
+        <v>1406</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G311" s="1">
         <v>0.0</v>
@@ -15282,22 +15282,22 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G312" s="1">
         <v>0.0</v>
@@ -15308,22 +15308,22 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G313" s="1">
         <v>0.0</v>
@@ -15334,22 +15334,22 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G314" s="1">
         <v>0.0</v>
@@ -15360,19 +15360,19 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1422</v>
+        <v>21</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>1424</v>
@@ -15392,16 +15392,16 @@
         <v>1426</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>298</v>
+        <v>1427</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>12</v>
+        <v>1201</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G316" s="1">
         <v>0.0</v>
@@ -15412,22 +15412,22 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G317" s="1">
         <v>0.0</v>
@@ -15438,22 +15438,22 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G318" s="1">
         <v>0.0</v>
@@ -15464,13 +15464,13 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1439</v>
+        <v>21</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>1440</v>
@@ -15548,7 +15548,7 @@
         <v>1451</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>1452</v>
@@ -15756,7 +15756,7 @@
         <v>1486</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1487</v>
@@ -15782,7 +15782,7 @@
         <v>1490</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1491</v>
@@ -15854,13 +15854,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1503</v>
@@ -15938,7 +15938,7 @@
         <v>1516</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1517</v>
@@ -16042,7 +16042,7 @@
         <v>1535</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>1536</v>
@@ -16204,7 +16204,7 @@
         <v>1563</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>1564</v>
@@ -16348,7 +16348,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1587</v>
@@ -16458,7 +16458,7 @@
         <v>1604</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1605</v>
@@ -16536,7 +16536,7 @@
         <v>1616</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1617</v>
@@ -16640,7 +16640,7 @@
         <v>1635</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>1636</v>
@@ -16692,7 +16692,7 @@
         <v>1643</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>1644</v>
@@ -16842,13 +16842,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1670</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1671</v>
@@ -17160,7 +17160,7 @@
         <v>1726</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1727</v>
@@ -17186,7 +17186,7 @@
         <v>1730</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>1731</v>
@@ -17394,7 +17394,7 @@
         <v>1766</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>1767</v>
@@ -17420,7 +17420,7 @@
         <v>1769</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1770</v>
@@ -17466,13 +17466,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1777</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1778</v>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1785</v>
@@ -17660,7 +17660,7 @@
         <v>1811</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>1812</v>
@@ -17758,7 +17758,7 @@
         <v>1828</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1829</v>
@@ -17810,7 +17810,7 @@
         <v>1837</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>1838</v>
@@ -17830,13 +17830,13 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1840</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>1841</v>
@@ -17914,7 +17914,7 @@
         <v>1853</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>1854</v>
@@ -17998,7 +17998,7 @@
         <v>1868</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>1869</v>
@@ -18076,7 +18076,7 @@
         <v>1882</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>1883</v>
@@ -18096,7 +18096,7 @@
         <v>1885</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>1886</v>
@@ -18330,7 +18330,7 @@
         <v>1922</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>1923</v>
@@ -18376,13 +18376,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1930</v>
@@ -18434,7 +18434,7 @@
         <v>1938</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>1939</v>
@@ -18564,7 +18564,7 @@
         <v>1959</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>1960</v>
@@ -18720,7 +18720,7 @@
         <v>1986</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1987</v>
@@ -18778,7 +18778,7 @@
         <v>1996</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>1997</v>
@@ -18798,7 +18798,7 @@
         <v>1999</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>2000</v>
@@ -18928,7 +18928,7 @@
         <v>2021</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>2022</v>
@@ -19214,7 +19214,7 @@
         <v>2073</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>2074</v>
@@ -19448,7 +19448,7 @@
         <v>2115</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2116</v>
@@ -19500,7 +19500,7 @@
         <v>2124</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>2125</v>
@@ -19526,7 +19526,7 @@
         <v>2128</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>2129</v>
@@ -19552,7 +19552,7 @@
         <v>2132</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2133</v>
@@ -19630,7 +19630,7 @@
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19656,7 +19656,7 @@
         <v>2150</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>2151</v>
@@ -19682,7 +19682,7 @@
         <v>2154</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>2155</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19786,7 +19786,7 @@
         <v>2171</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>2172</v>
@@ -19812,7 +19812,7 @@
         <v>2175</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>2176</v>
@@ -19916,7 +19916,7 @@
         <v>2194</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2195</v>
@@ -19942,7 +19942,7 @@
         <v>2198</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>2199</v>
@@ -19974,7 +19974,7 @@
         <v>2204</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>2205</v>
@@ -20000,7 +20000,7 @@
         <v>2208</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>2209</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2210</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20254,7 +20254,7 @@
         <v>2247</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>2248</v>
@@ -20332,7 +20332,7 @@
         <v>2260</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>2261</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20436,7 +20436,7 @@
         <v>2276</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>2277</v>
@@ -20494,7 +20494,7 @@
         <v>2286</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>2287</v>
@@ -20540,7 +20540,7 @@
         <v>2294</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>2295</v>
@@ -20618,7 +20618,7 @@
         <v>2308</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>2309</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20832,7 +20832,7 @@
         <v>2341</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>2342</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>
@@ -20988,10 +20988,10 @@
         <v>2368</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="G531" s="1">
         <v>0.0</v>
@@ -21322,8 +21322,8 @@
     <hyperlink r:id="rId292" ref="F293"/>
     <hyperlink r:id="rId293" ref="F294"/>
     <hyperlink r:id="rId294" ref="F295"/>
-    <hyperlink r:id="rId295" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F296"/>
-    <hyperlink r:id="rId296" ref="F297"/>
+    <hyperlink r:id="rId295" ref="F296"/>
+    <hyperlink r:id="rId296" location=":~:text=your%20profile%20public.-,Make%20your%20profile%20public,box,%20click%20Make%20Profile%20Public." ref="F297"/>
     <hyperlink r:id="rId297" ref="F298"/>
     <hyperlink r:id="rId298" ref="F299"/>
     <hyperlink r:id="rId299" ref="F300"/>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -277,6 +277,36 @@
     <t>https://google.qwiklabs.com/public_profiles/d1b1234a-ac83-4ecb-9356-33ea70dd352e</t>
   </si>
   <si>
+    <t>Debarghya Chowdhury</t>
+  </si>
+  <si>
+    <t>joshchowdhury204@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
+  </si>
+  <si>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
+  </si>
+  <si>
     <t>SRINJOY PAL</t>
   </si>
   <si>
@@ -346,6 +376,21 @@
     <t>https://google.qwiklabs.com/public_profiles/135c705b-c08c-439e-bc0c-4e044cbba451</t>
   </si>
   <si>
+    <t>Rupankar Basak</t>
+  </si>
+  <si>
+    <t>rblearning69@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
+  </si>
+  <si>
     <t>ARNAB DEB</t>
   </si>
   <si>
@@ -418,21 +463,6 @@
     <t>https://google.qwiklabs.com/public_profiles/acb10b39-215c-4b87-8ac7-62a25e16e2b9</t>
   </si>
   <si>
-    <t>Debarghya Chowdhury</t>
-  </si>
-  <si>
-    <t>joshchowdhury204@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 13:12:47 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
-  </si>
-  <si>
     <t>Sayan Sengupta</t>
   </si>
   <si>
@@ -463,19 +493,16 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
+    <t>Sandipa Jana</t>
+  </si>
+  <si>
+    <t>janasandipa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
   </si>
   <si>
     <t>Prachi Kumari</t>
@@ -490,21 +517,6 @@
     <t>https://google.qwiklabs.com/public_profiles/f9d22fe0-c0bd-4c5a-8b27-a9d30f4ea73a</t>
   </si>
   <si>
-    <t>Rupankar Basak</t>
-  </si>
-  <si>
-    <t>rblearning69@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] UNIVERSITY OF ENGINEERING AND MANAGEMENT KOLKATA</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:59:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4a209ef8-5c03-4917-8683-f1e80de75218</t>
-  </si>
-  <si>
     <t>Arunima Maiti</t>
   </si>
   <si>
@@ -544,18 +556,6 @@
     <t>https://google.qwiklabs.com/public_profiles/ec0ca601-10f8-41e4-8774-fc4397dfe664</t>
   </si>
   <si>
-    <t>Sandipa Jana</t>
-  </si>
-  <si>
-    <t>janasandipa@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
-  </si>
-  <si>
     <t>Srishti Pal</t>
   </si>
   <si>
@@ -586,6 +586,30 @@
     <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
   </si>
   <si>
+    <t>Santanu Biswas</t>
+  </si>
+  <si>
+    <t>debanshubis@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
+  </si>
+  <si>
+    <t>Debasmita Samadder</t>
+  </si>
+  <si>
+    <t>debasmita25032000@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
+  </si>
+  <si>
     <t>Kishan Biswakarma</t>
   </si>
   <si>
@@ -601,30 +625,6 @@
     <t>https://google.qwiklabs.com/public_profiles/13368c0d-aa0e-447e-a4bf-bd19c8506323</t>
   </si>
   <si>
-    <t>Santanu Biswas</t>
-  </si>
-  <si>
-    <t>debanshubis@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:04:00 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/d566008a-211f-4498-8341-d3fee6388fed</t>
-  </si>
-  <si>
-    <t>Debasmita Samadder</t>
-  </si>
-  <si>
-    <t>debasmita25032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 23:07:21 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
-  </si>
-  <si>
     <t>Anup Choudhury</t>
   </si>
   <si>
@@ -667,6 +667,66 @@
     <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
   </si>
   <si>
+    <t>Manisha Bhowmik</t>
+  </si>
+  <si>
+    <t>manishabhowmik08@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:18:40 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
+  </si>
+  <si>
+    <t>Rahul Debnath</t>
+  </si>
+  <si>
+    <t>mtemporary7@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
+  </si>
+  <si>
+    <t>ANUVAB DUTTA</t>
+  </si>
+  <si>
+    <t>anuvabduttaatwork@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] VIT Vellore</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
+  </si>
+  <si>
+    <t>Tanmoy Das</t>
+  </si>
+  <si>
+    <t>tanmoy021997@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+  </si>
+  <si>
     <t>Harshit Parwal</t>
   </si>
   <si>
@@ -694,21 +754,6 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>Rahul Debnath</t>
-  </si>
-  <si>
-    <t>mtemporary7@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Calcutta,Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 21:42:22 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
-  </si>
-  <si>
     <t>SANDIP DAS</t>
   </si>
   <si>
@@ -724,34 +769,19 @@
     <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
   </si>
   <si>
-    <t>ANUVAB DUTTA</t>
-  </si>
-  <si>
-    <t>anuvabduttaatwork@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] VIT Vellore</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:08:01 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d4e0507d-5104-4ae6-acd8-37ea9db51430</t>
-  </si>
-  <si>
-    <t>Tanmoy Das</t>
-  </si>
-  <si>
-    <t>tanmoy021997@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno India University, Kolkata, West Bengal</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 16:05:51 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/6c3ca4d2-ff40-425c-a685-04358be5dd95</t>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
   </si>
   <si>
     <t>Sourav Bhunia</t>
@@ -778,6 +808,18 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
+    <t>Aamrin Islam</t>
+  </si>
+  <si>
+    <t>aamrinislam0@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
+  </si>
+  <si>
     <t>Saurav Kumar</t>
   </si>
   <si>
@@ -793,21 +835,6 @@
     <t>https://google.qwiklabs.com/public_profiles/aa2367e7-a00f-4bb8-99fb-9bc7f2b8e0e6</t>
   </si>
   <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
-  </si>
-  <si>
     <t>Samrat Ganguly</t>
   </si>
   <si>
@@ -835,6 +862,18 @@
     <t>https://google.qwiklabs.com/public_profiles/942bda3f-5ace-4051-8356-425106f9d1d4</t>
   </si>
   <si>
+    <t>Mufaddal Vadnagarwala</t>
+  </si>
+  <si>
+    <t>mufaddalv@live.in</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 22:20:34 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
+  </si>
+  <si>
     <t>Raunak Kumar Sah</t>
   </si>
   <si>
@@ -850,18 +889,6 @@
     <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
   </si>
   <si>
-    <t>Aamrin Islam</t>
-  </si>
-  <si>
-    <t>aamrinislam0@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:57:04 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2b049299-62d9-4313-8376-e65930b88504</t>
-  </si>
-  <si>
     <t>Sayan Poddar</t>
   </si>
   <si>
@@ -892,18 +919,6 @@
     <t>https://google.qwiklabs.com/public_profiles/1208c7d3-ddca-4f2d-8c46-f4561fca73ef</t>
   </si>
   <si>
-    <t>Mufaddal Vadnagarwala</t>
-  </si>
-  <si>
-    <t>mufaddalv@live.in</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 22:20:34 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
-  </si>
-  <si>
     <t>Hritik Kumar Singh</t>
   </si>
   <si>
@@ -916,6 +931,21 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+  </si>
+  <si>
     <t>Subhayu Kumar Bala</t>
   </si>
   <si>
@@ -931,19 +961,16 @@
     <t>https://google.qwiklabs.com/public_profiles/341afaff-dcfc-43ec-b392-5096f4ff6fe6</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+    <t>Ushasi Das</t>
+  </si>
+  <si>
+    <t>ushasidas05@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 21:15:30 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
   </si>
   <si>
     <t>Riya Teri</t>
@@ -976,21 +1003,6 @@
     <t>https://www.qwiklabs.com/public_profiles/c17a608a-1f05-4926-947c-36fe5d488430</t>
   </si>
   <si>
-    <t>Manisha Bhowmik</t>
-  </si>
-  <si>
-    <t>manishabhowmik08@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering &amp; Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:18:40 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
-  </si>
-  <si>
     <t>Aditya Navya Shukla</t>
   </si>
   <si>
@@ -1003,18 +1015,6 @@
     <t>https://www.qwiklabs.com/public_profiles/4f112305-5c13-449b-87d1-e44c2498a06c</t>
   </si>
   <si>
-    <t>Ushasi Das</t>
-  </si>
-  <si>
-    <t>ushasidas05@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 21:15:30 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
-  </si>
-  <si>
     <t>Rajesh Paswan</t>
   </si>
   <si>
@@ -1060,6 +1060,18 @@
     <t>https://www.qwiklabs.com/public_profiles/f65fd5a4-97f0-477a-878f-e0f3423e34e9</t>
   </si>
   <si>
+    <t>Daita sur</t>
+  </si>
+  <si>
+    <t>daitasur49078@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 09:00:09 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
+  </si>
+  <si>
     <t>Rishav Chakraborty</t>
   </si>
   <si>
@@ -1144,6 +1156,21 @@
     <t>https://www.qwiklabs.com/public_profiles/369db3ea-6e75-4f14-b861-4ee6f5738269</t>
   </si>
   <si>
+    <t>PRIYAM CHATTORAJ</t>
+  </si>
+  <si>
+    <t>priyamchattoraj1234@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Academy of Technology</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
+  </si>
+  <si>
     <t>Subhodeep Basak</t>
   </si>
   <si>
@@ -1258,18 +1285,6 @@
     <t>https://google.qwiklabs.com/public_profiles/94d02321-f5bd-4c1c-bece-b1cb8e22a30a</t>
   </si>
   <si>
-    <t>Daita sur</t>
-  </si>
-  <si>
-    <t>daitasur49078@gmail.com</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 09:00:09 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d921ac90-98d7-4f3d-a691-6be0b84ffb74</t>
-  </si>
-  <si>
     <t>Manshi Shaw</t>
   </si>
   <si>
@@ -1297,6 +1312,21 @@
     <t>https://www.qwiklabs.com/public_profiles/46a8649f-5d62-4f70-adaf-156f838b75ae</t>
   </si>
   <si>
+    <t>Pralipto Ghosh</t>
+  </si>
+  <si>
+    <t>deep29.4.99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Meghnad Saha Institute Of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 12:55:13 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
+  </si>
+  <si>
     <t>Anwesha Ghosh</t>
   </si>
   <si>
@@ -1309,21 +1339,6 @@
     <t>https://google.qwiklabs.com/public_profiles/359e7ec5-cd5a-49ea-818a-4aa50459c048</t>
   </si>
   <si>
-    <t>PRIYAM CHATTORAJ</t>
-  </si>
-  <si>
-    <t>priyamchattoraj1234@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Academy of Technology</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 11:12:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
-  </si>
-  <si>
     <t>Harini Dhanasekaran</t>
   </si>
   <si>
@@ -1408,21 +1423,6 @@
     <t>https://www.qwiklabs.com/public_profiles/277907ee-a444-4c1e-a089-66975fa5c78c</t>
   </si>
   <si>
-    <t>Pralipto Ghosh</t>
-  </si>
-  <si>
-    <t>deep29.4.99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Meghnad Saha Institute Of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 12:55:13 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/9180b8d4-ce06-4f28-aafe-85458d012d52</t>
-  </si>
-  <si>
     <t>Tanmoy Saha</t>
   </si>
   <si>
@@ -1516,6 +1516,21 @@
     <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
   </si>
   <si>
+    <t>Suvechha Mukherjee</t>
+  </si>
+  <si>
+    <t>suviie08@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management,Kolkata</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 11:10:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1f905fe5-64c8-463d-bb94-71654427d7ec</t>
+  </si>
+  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -1693,6 +1708,21 @@
     <t>https://google.qwiklabs.com/public_profiles/e6fa8039-1f69-41ef-98b7-9d8a6121c754</t>
   </si>
   <si>
+    <t>Sukanya Bhattacharya</t>
+  </si>
+  <si>
+    <t>sukanyabhattacharya99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
+  </si>
+  <si>
     <t>Mrinmoy Polley</t>
   </si>
   <si>
@@ -1741,19 +1771,19 @@
     <t>https://google.qwiklabs.com/public_profiles/ea408506-563a-4d52-9e0b-9230c80d0bae</t>
   </si>
   <si>
-    <t>Suvechha Mukherjee</t>
-  </si>
-  <si>
-    <t>suviie08@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management,Kolkata</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 11:10:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1f905fe5-64c8-463d-bb94-71654427d7ec</t>
+    <t>SAGNIK GHOSH</t>
+  </si>
+  <si>
+    <t>drsagnikghosh1@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] KALYANI GOVERNMENT ENGINEERING COLLEGE</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a2ae655e-f1c2-40c7-91a0-dbdccf2d0be7</t>
   </si>
   <si>
     <t>Vidhi Vijayvergiya</t>
@@ -1840,6 +1870,18 @@
     <t>https://google.qwiklabs.com/public_profiles/2bfee5ec-6dd4-4f42-8ea6-3e266bd32b98</t>
   </si>
   <si>
+    <t>Anirban Modak</t>
+  </si>
+  <si>
+    <t>anirbanmodak959@gmail.com</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:16:19 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/bf94d330-b7aa-4388-b3de-3f36c9319aa4</t>
+  </si>
+  <si>
     <t>Tanisha Singh</t>
   </si>
   <si>
@@ -1882,21 +1924,6 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
-    <t>Sukanya Bhattacharya</t>
-  </si>
-  <si>
-    <t>sukanyabhattacharya99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
-  </si>
-  <si>
     <t>Jayprakash Shadanan Bhure</t>
   </si>
   <si>
@@ -2032,6 +2059,21 @@
     <t>https://google.qwiklabs.com/public_profiles/7d092a43-f2aa-4b4a-aa13-b335fec3c304</t>
   </si>
   <si>
+    <t>Juhi Shivkumar Tomar</t>
+  </si>
+  <si>
+    <t>juhitomar08@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Government college of engineering chandrapur</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 21:39:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/6ff8ebdd-1c90-4594-86d3-c68a2fe5b5b1</t>
+  </si>
+  <si>
     <t>Hasibul Islam</t>
   </si>
   <si>
@@ -2056,6 +2098,21 @@
     <t>https://google.qwiklabs.com/public_profiles/e6f89737-b8a5-438e-aa30-3f30f4a6d6ff</t>
   </si>
   <si>
+    <t>AVULA ANIL KUMAR</t>
+  </si>
+  <si>
+    <t>anilavulaowk@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Rajiv Gandhi University of Knowledge Technologies - IIIT RK Valley,</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 15:13:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
+  </si>
+  <si>
     <t>Abhinay Singh</t>
   </si>
   <si>
@@ -2545,21 +2602,6 @@
     <t>https://google.qwiklabs.com/public_profiles/04c4e192-4add-4762-9bfb-518362f8834a</t>
   </si>
   <si>
-    <t>Juhi Shivkumar Tomar</t>
-  </si>
-  <si>
-    <t>juhitomar08@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Government college of engineering chandrapur</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 21:39:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/6ff8ebdd-1c90-4594-86d3-c68a2fe5b5b1</t>
-  </si>
-  <si>
     <t>Suryadipta Sarkar</t>
   </si>
   <si>
@@ -2587,21 +2629,6 @@
     <t>https://www.qwiklabs.com/public_profiles/48655e4e-78af-474c-82b1-55497c7dfc9e</t>
   </si>
   <si>
-    <t>AVULA ANIL KUMAR</t>
-  </si>
-  <si>
-    <t>anilavulaowk@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Rajiv Gandhi University of Knowledge Technologies - IIIT RK Valley,</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 15:13:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
-  </si>
-  <si>
     <t>Shubhajit Chakraborty</t>
   </si>
   <si>
@@ -2773,21 +2800,6 @@
     <t>https://google.qwiklabs.com/public_profiles/b24cc77a-ef3e-4c9c-a1ec-e706bdb66ed8</t>
   </si>
   <si>
-    <t>SAGNIK GHOSH</t>
-  </si>
-  <si>
-    <t>drsagnikghosh1@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] KALYANI GOVERNMENT ENGINEERING COLLEGE</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a2ae655e-f1c2-40c7-91a0-dbdccf2d0be7</t>
-  </si>
-  <si>
     <t>Rahul Mohta</t>
   </si>
   <si>
@@ -3992,18 +4004,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/198712dd-45fd-4f1b-a82d-bd76a347c4f8</t>
-  </si>
-  <si>
-    <t>Anirban Modak</t>
-  </si>
-  <si>
-    <t>anirbanmodak959@gmail.com</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:16:19 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/bf94d330-b7aa-4388-b3de-3f36c9319aa4</t>
   </si>
   <si>
     <t>Ranajit Chandra</t>
@@ -7529,7 +7529,7 @@
         <v>29.0</v>
       </c>
       <c r="H13" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
@@ -7644,19 +7644,19 @@
         <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H18" s="1">
         <v>12.0</v>
@@ -7664,48 +7664,48 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="H19" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1">
         <v>24.0</v>
@@ -7716,22 +7716,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1">
         <v>24.0</v>
@@ -7742,13 +7742,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>109</v>
@@ -7815,7 +7815,7 @@
         <v>24.0</v>
       </c>
       <c r="H24" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="25">
@@ -7852,16 +7852,16 @@
         <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1">
         <v>24.0</v>
@@ -7872,22 +7872,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1">
         <v>24.0</v>
@@ -7898,25 +7898,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H28" s="1">
         <v>12.0</v>
@@ -7924,13 +7924,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>143</v>
@@ -7942,10 +7942,10 @@
         <v>144</v>
       </c>
       <c r="G29" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="H29" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="30">
@@ -7968,10 +7968,10 @@
         <v>149</v>
       </c>
       <c r="G30" s="1">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="H30" s="1">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="31">
@@ -7994,10 +7994,10 @@
         <v>154</v>
       </c>
       <c r="G31" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="H31" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
@@ -8008,33 +8008,33 @@
         <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G32" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H32" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>162</v>
@@ -8046,10 +8046,10 @@
         <v>163</v>
       </c>
       <c r="G33" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H33" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
@@ -8060,7 +8060,7 @@
         <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>166</v>
@@ -8086,7 +8086,7 @@
         <v>169</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>170</v>
@@ -8101,7 +8101,7 @@
         <v>19.0</v>
       </c>
       <c r="H35" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="36">
@@ -8112,33 +8112,33 @@
         <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G36" s="1">
         <v>19.0</v>
       </c>
       <c r="H36" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>179</v>
@@ -8150,7 +8150,7 @@
         <v>180</v>
       </c>
       <c r="G37" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H37" s="1">
         <v>8.0</v>
@@ -8176,7 +8176,7 @@
         <v>185</v>
       </c>
       <c r="G38" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H38" s="1">
         <v>8.0</v>
@@ -8202,10 +8202,10 @@
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H39" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
@@ -8216,45 +8216,45 @@
         <v>192</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G40" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H40" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="G41" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H41" s="1">
         <v>11.0</v>
@@ -8262,13 +8262,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>202</v>
@@ -8283,7 +8283,7 @@
         <v>17.0</v>
       </c>
       <c r="H42" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="43">
@@ -8294,7 +8294,7 @@
         <v>205</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>206</v>
@@ -8387,7 +8387,7 @@
         <v>16.0</v>
       </c>
       <c r="H46" s="1">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -8398,45 +8398,45 @@
         <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G47" s="1">
         <v>16.0</v>
       </c>
       <c r="H47" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G48" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H48" s="1">
         <v>10.0</v>
@@ -8444,25 +8444,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G49" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H49" s="1">
         <v>9.0</v>
@@ -8470,39 +8470,39 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G50" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H50" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>245</v>
@@ -8514,10 +8514,10 @@
         <v>246</v>
       </c>
       <c r="G51" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H51" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="52">
@@ -8528,85 +8528,85 @@
         <v>248</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G52" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H52" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G53" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H53" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G54" s="1">
         <v>14.0</v>
       </c>
       <c r="H54" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>263</v>
@@ -8621,7 +8621,7 @@
         <v>14.0</v>
       </c>
       <c r="H55" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
@@ -8684,33 +8684,33 @@
         <v>275</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="G58" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H58" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>281</v>
@@ -8722,10 +8722,10 @@
         <v>282</v>
       </c>
       <c r="G59" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H59" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="60">
@@ -8736,59 +8736,59 @@
         <v>284</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="G60" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H60" s="1">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="G61" s="1">
         <v>13.0</v>
       </c>
       <c r="H61" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>295</v>
@@ -8803,7 +8803,7 @@
         <v>13.0</v>
       </c>
       <c r="H62" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -8814,33 +8814,33 @@
         <v>298</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G63" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H63" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>304</v>
@@ -8855,7 +8855,7 @@
         <v>12.0</v>
       </c>
       <c r="H64" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
@@ -8878,7 +8878,7 @@
         <v>310</v>
       </c>
       <c r="G65" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H65" s="1">
         <v>6.0</v>
@@ -8904,10 +8904,10 @@
         <v>315</v>
       </c>
       <c r="G66" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H66" s="1">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
@@ -8918,59 +8918,59 @@
         <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="G67" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H67" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G68" s="1">
         <v>11.0</v>
       </c>
       <c r="H68" s="1">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>328</v>
@@ -8985,7 +8985,7 @@
         <v>11.0</v>
       </c>
       <c r="H69" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -8996,7 +8996,7 @@
         <v>331</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>332</v>
@@ -9011,7 +9011,7 @@
         <v>11.0</v>
       </c>
       <c r="H70" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
@@ -9037,7 +9037,7 @@
         <v>10.0</v>
       </c>
       <c r="H71" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="72">
@@ -9063,7 +9063,7 @@
         <v>10.0</v>
       </c>
       <c r="H72" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="73">
@@ -9100,33 +9100,33 @@
         <v>350</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="G74" s="1">
         <v>10.0</v>
       </c>
       <c r="H74" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>356</v>
@@ -9141,7 +9141,7 @@
         <v>10.0</v>
       </c>
       <c r="H75" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
@@ -9152,7 +9152,7 @@
         <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>360</v>
@@ -9167,7 +9167,7 @@
         <v>10.0</v>
       </c>
       <c r="H76" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
@@ -9178,111 +9178,111 @@
         <v>363</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="G77" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H77" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="G78" s="1">
         <v>9.0</v>
       </c>
       <c r="H78" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="G79" s="1">
         <v>9.0</v>
       </c>
       <c r="H79" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="G80" s="1">
         <v>9.0</v>
       </c>
       <c r="H80" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>384</v>
@@ -9294,10 +9294,10 @@
         <v>385</v>
       </c>
       <c r="G81" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H81" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="82">
@@ -9320,10 +9320,10 @@
         <v>390</v>
       </c>
       <c r="G82" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H82" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="83">
@@ -9334,33 +9334,33 @@
         <v>392</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="G83" s="1">
         <v>8.0</v>
       </c>
       <c r="H83" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>398</v>
@@ -9375,7 +9375,7 @@
         <v>8.0</v>
       </c>
       <c r="H84" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
@@ -9401,7 +9401,7 @@
         <v>8.0</v>
       </c>
       <c r="H85" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
@@ -9412,59 +9412,59 @@
         <v>406</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="G86" s="1">
         <v>8.0</v>
       </c>
       <c r="H86" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="G87" s="1">
         <v>8.0</v>
       </c>
       <c r="H87" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>417</v>
@@ -9516,85 +9516,85 @@
         <v>425</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G90" s="1">
         <v>8.0</v>
       </c>
       <c r="H90" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G91" s="1">
         <v>8.0</v>
       </c>
       <c r="H91" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G92" s="1">
         <v>8.0</v>
       </c>
       <c r="H92" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>439</v>
+        <v>104</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>440</v>
@@ -9609,7 +9609,7 @@
         <v>8.0</v>
       </c>
       <c r="H93" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
@@ -9635,7 +9635,7 @@
         <v>8.0</v>
       </c>
       <c r="H94" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="95">
@@ -9646,33 +9646,33 @@
         <v>448</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>21</v>
+        <v>449</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G95" s="1">
         <v>8.0</v>
       </c>
       <c r="H95" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>454</v>
@@ -9684,10 +9684,10 @@
         <v>455</v>
       </c>
       <c r="G96" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H96" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
@@ -9713,7 +9713,7 @@
         <v>7.0</v>
       </c>
       <c r="H97" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -9724,16 +9724,16 @@
         <v>462</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G98" s="1">
         <v>7.0</v>
@@ -9744,13 +9744,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>467</v>
+        <v>183</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>468</v>
@@ -9958,16 +9958,16 @@
         <v>502</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>94</v>
+        <v>503</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G107" s="1">
         <v>6.0</v>
@@ -9978,13 +9978,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>508</v>
@@ -9999,7 +9999,7 @@
         <v>6.0</v>
       </c>
       <c r="H108" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -10010,33 +10010,33 @@
         <v>511</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G109" s="1">
         <v>6.0</v>
       </c>
       <c r="H109" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>516</v>
+        <v>383</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>517</v>
@@ -10048,7 +10048,7 @@
         <v>518</v>
       </c>
       <c r="G110" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H110" s="1">
         <v>4.0</v>
@@ -10077,7 +10077,7 @@
         <v>5.0</v>
       </c>
       <c r="H111" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
@@ -10088,59 +10088,59 @@
         <v>525</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>303</v>
+        <v>526</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G112" s="1">
         <v>5.0</v>
       </c>
       <c r="H112" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G113" s="1">
         <v>5.0</v>
       </c>
       <c r="H113" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>534</v>
+        <v>21</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>535</v>
@@ -10166,42 +10166,42 @@
         <v>538</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G115" s="1">
         <v>5.0</v>
       </c>
       <c r="H115" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G116" s="1">
         <v>5.0</v>
@@ -10212,13 +10212,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>547</v>
+        <v>104</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>548</v>
@@ -10233,7 +10233,7 @@
         <v>5.0</v>
       </c>
       <c r="H117" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -10259,7 +10259,7 @@
         <v>5.0</v>
       </c>
       <c r="H118" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
@@ -10285,7 +10285,7 @@
         <v>5.0</v>
       </c>
       <c r="H119" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="120">
@@ -10296,137 +10296,137 @@
         <v>561</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>21</v>
+        <v>562</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G120" s="1">
         <v>5.0</v>
       </c>
       <c r="H120" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>94</v>
+        <v>567</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G121" s="1">
         <v>5.0</v>
       </c>
       <c r="H121" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G122" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H122" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G123" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H123" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H123" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>578</v>
+        <v>21</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G124" s="1">
         <v>4.0</v>
       </c>
       <c r="H124" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>583</v>
+        <v>21</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>584</v>
@@ -10441,7 +10441,7 @@
         <v>4.0</v>
       </c>
       <c r="H125" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
@@ -10452,59 +10452,59 @@
         <v>587</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>588</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G126" s="1">
         <v>4.0</v>
       </c>
       <c r="H126" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G127" s="1">
         <v>4.0</v>
       </c>
       <c r="H127" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>597</v>
+        <v>21</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>598</v>
@@ -10519,7 +10519,7 @@
         <v>4.0</v>
       </c>
       <c r="H128" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -10530,59 +10530,59 @@
         <v>601</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>21</v>
+        <v>602</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G129" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H129" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G130" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H130" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H130" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>611</v>
+        <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>612</v>
@@ -10597,7 +10597,7 @@
         <v>3.0</v>
       </c>
       <c r="H131" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -10634,7 +10634,7 @@
         <v>620</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>621</v>
@@ -10649,7 +10649,7 @@
         <v>3.0</v>
       </c>
       <c r="H133" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -10675,7 +10675,7 @@
         <v>3.0</v>
       </c>
       <c r="H134" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
@@ -10706,13 +10706,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>501</v>
+        <v>633</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>634</v>
+        <v>21</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>635</v>
@@ -10727,7 +10727,7 @@
         <v>3.0</v>
       </c>
       <c r="H136" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="137">
@@ -10750,7 +10750,7 @@
         <v>641</v>
       </c>
       <c r="G137" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H137" s="1">
         <v>0.0</v>
@@ -10758,25 +10758,25 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="G138" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H138" s="1">
         <v>0.0</v>
@@ -10784,13 +10784,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>649</v>
@@ -10816,16 +10816,16 @@
         <v>652</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>210</v>
+        <v>653</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G140" s="1">
         <v>2.0</v>
@@ -10836,13 +10836,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>657</v>
+        <v>85</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>658</v>
@@ -10868,7 +10868,7 @@
         <v>661</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>578</v>
+        <v>210</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>662</v>
@@ -10883,7 +10883,7 @@
         <v>2.0</v>
       </c>
       <c r="H142" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -10894,33 +10894,33 @@
         <v>665</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>21</v>
+        <v>666</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G143" s="1">
         <v>2.0</v>
       </c>
       <c r="H143" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>670</v>
+        <v>503</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>671</v>
@@ -10946,7 +10946,7 @@
         <v>674</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>675</v>
@@ -10961,7 +10961,7 @@
         <v>2.0</v>
       </c>
       <c r="H145" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
@@ -10972,16 +10972,16 @@
         <v>678</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>21</v>
+        <v>679</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G146" s="1">
         <v>2.0</v>
@@ -10992,39 +10992,39 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G147" s="1">
         <v>2.0</v>
       </c>
       <c r="H147" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>688</v>
+        <v>313</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>689</v>
@@ -11039,7 +11039,7 @@
         <v>2.0</v>
       </c>
       <c r="H148" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -11050,7 +11050,7 @@
         <v>692</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>693</v>
@@ -11065,7 +11065,7 @@
         <v>2.0</v>
       </c>
       <c r="H149" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150">
@@ -11154,42 +11154,42 @@
         <v>711</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="G153" s="1">
         <v>2.0</v>
       </c>
       <c r="H153" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="G154" s="1">
         <v>2.0</v>
@@ -11200,48 +11200,48 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="G155" s="1">
         <v>2.0</v>
       </c>
       <c r="H155" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="G156" s="1">
         <v>2.0</v>
@@ -11252,91 +11252,91 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="G157" s="1">
         <v>2.0</v>
       </c>
       <c r="H157" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="G158" s="1">
         <v>2.0</v>
       </c>
       <c r="H158" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="G159" s="1">
         <v>2.0</v>
       </c>
       <c r="H159" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>747</v>
@@ -11362,42 +11362,42 @@
         <v>750</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>534</v>
+        <v>751</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G161" s="1">
         <v>2.0</v>
       </c>
       <c r="H161" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G162" s="1">
         <v>2.0</v>
@@ -11408,48 +11408,48 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>21</v>
+        <v>761</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G163" s="1">
         <v>2.0</v>
       </c>
       <c r="H163" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>764</v>
+        <v>220</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G164" s="1">
         <v>2.0</v>
@@ -11460,48 +11460,48 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G165" s="1">
         <v>2.0</v>
       </c>
       <c r="H165" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G166" s="1">
         <v>2.0</v>
@@ -11512,65 +11512,65 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>773</v>
+        <v>21</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G167" s="1">
         <v>2.0</v>
       </c>
       <c r="H167" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G168" s="1">
         <v>2.0</v>
       </c>
       <c r="H168" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>787</v>
+        <v>21</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>788</v>
@@ -11596,33 +11596,33 @@
         <v>791</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>21</v>
+        <v>792</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G170" s="1">
         <v>2.0</v>
       </c>
       <c r="H170" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>797</v>
@@ -11648,16 +11648,16 @@
         <v>800</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>70</v>
+        <v>801</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G172" s="1">
         <v>2.0</v>
@@ -11668,48 +11668,48 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>94</v>
+        <v>806</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G173" s="1">
         <v>2.0</v>
       </c>
       <c r="H173" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G174" s="1">
         <v>2.0</v>
@@ -11720,51 +11720,51 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>21</v>
+        <v>815</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G175" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H175" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="G176" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H176" s="1">
         <v>0.0</v>
@@ -11772,51 +11772,51 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G177" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H177" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="G178" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H178" s="1">
         <v>0.0</v>
@@ -11824,22 +11824,22 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="G179" s="1">
         <v>1.0</v>
@@ -11850,22 +11850,22 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>461</v>
+        <v>834</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="G180" s="1">
         <v>1.0</v>
@@ -11876,22 +11876,22 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>836</v>
+        <v>21</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="G181" s="1">
         <v>1.0</v>
@@ -11902,22 +11902,22 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>841</v>
+        <v>21</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G182" s="1">
         <v>1.0</v>
@@ -11928,22 +11928,22 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>846</v>
+        <v>21</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G183" s="1">
         <v>1.0</v>
@@ -11954,39 +11954,39 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>849</v>
+        <v>466</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>850</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="G184" s="1">
         <v>1.0</v>
       </c>
       <c r="H184" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>856</v>
@@ -12001,7 +12001,7 @@
         <v>1.0</v>
       </c>
       <c r="H185" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -12038,33 +12038,33 @@
         <v>864</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>118</v>
+        <v>865</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G187" s="1">
         <v>1.0</v>
       </c>
       <c r="H187" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>870</v>
@@ -12079,7 +12079,7 @@
         <v>1.0</v>
       </c>
       <c r="H188" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="189">
@@ -12090,7 +12090,7 @@
         <v>873</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>697</v>
+        <v>133</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>874</v>
@@ -12142,7 +12142,7 @@
         <v>882</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>841</v>
+        <v>716</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>883</v>
@@ -12194,16 +12194,16 @@
         <v>891</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="G193" s="1">
         <v>1.0</v>
@@ -12214,13 +12214,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>897</v>
@@ -12272,7 +12272,7 @@
         <v>905</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>630</v>
+        <v>21</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>906</v>
@@ -12298,16 +12298,16 @@
         <v>909</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>21</v>
+        <v>910</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G197" s="1">
         <v>1.0</v>
@@ -12318,48 +12318,48 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>21</v>
+        <v>639</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G198" s="1">
         <v>1.0</v>
       </c>
       <c r="H198" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>630</v>
+        <v>21</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G199" s="1">
         <v>1.0</v>
@@ -12370,13 +12370,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>922</v>
+        <v>21</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>923</v>
@@ -12402,16 +12402,16 @@
         <v>926</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="G201" s="1">
         <v>1.0</v>
@@ -12422,13 +12422,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>932</v>
@@ -12443,7 +12443,7 @@
         <v>1.0</v>
       </c>
       <c r="H202" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
@@ -12454,16 +12454,16 @@
         <v>935</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="G203" s="1">
         <v>1.0</v>
@@ -12474,13 +12474,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>941</v>
@@ -12495,7 +12495,7 @@
         <v>1.0</v>
       </c>
       <c r="H204" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -12506,7 +12506,7 @@
         <v>944</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>841</v>
+        <v>21</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>945</v>
@@ -12521,7 +12521,7 @@
         <v>1.0</v>
       </c>
       <c r="H205" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
@@ -12532,42 +12532,42 @@
         <v>948</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>951</v>
       </c>
       <c r="G206" s="1">
         <v>1.0</v>
       </c>
       <c r="H206" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="G207" s="1">
         <v>1.0</v>
@@ -12578,22 +12578,22 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>961</v>
       </c>
       <c r="G208" s="1">
         <v>1.0</v>
@@ -12604,22 +12604,22 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="G209" s="1">
         <v>1.0</v>
@@ -12630,13 +12630,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>969</v>
@@ -12662,16 +12662,16 @@
         <v>972</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>975</v>
       </c>
       <c r="G211" s="1">
         <v>1.0</v>
@@ -12682,22 +12682,22 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="G212" s="1">
         <v>1.0</v>
@@ -12708,91 +12708,91 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="G213" s="1">
         <v>1.0</v>
       </c>
       <c r="H213" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="G214" s="1">
         <v>1.0</v>
       </c>
       <c r="H214" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="G215" s="1">
         <v>1.0</v>
       </c>
       <c r="H215" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>998</v>
@@ -12807,7 +12807,7 @@
         <v>1.0</v>
       </c>
       <c r="H216" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="217">
@@ -12818,16 +12818,16 @@
         <v>1001</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="G217" s="1">
         <v>1.0</v>
@@ -12838,39 +12838,39 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>1009</v>
       </c>
       <c r="G218" s="1">
         <v>1.0</v>
       </c>
       <c r="H218" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>1012</v>
@@ -12896,42 +12896,42 @@
         <v>1015</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="G220" s="1">
         <v>1.0</v>
       </c>
       <c r="H220" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>872</v>
+        <v>1018</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>697</v>
+        <v>1020</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G221" s="1">
         <v>1.0</v>
@@ -12942,13 +12942,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>1022</v>
+        <v>881</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>1024</v>
@@ -12974,16 +12974,16 @@
         <v>1027</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="G223" s="1">
         <v>1.0</v>
@@ -12994,13 +12994,13 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>1033</v>
@@ -13026,7 +13026,7 @@
         <v>1036</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>1037</v>
@@ -13041,7 +13041,7 @@
         <v>1.0</v>
       </c>
       <c r="H225" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
@@ -13052,7 +13052,7 @@
         <v>1040</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>1041</v>
@@ -13064,10 +13064,10 @@
         <v>1042</v>
       </c>
       <c r="G226" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H226" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="227">
@@ -13078,16 +13078,16 @@
         <v>1044</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="G227" s="1">
         <v>0.0</v>
@@ -13098,22 +13098,22 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>1052</v>
       </c>
       <c r="G228" s="1">
         <v>0.0</v>
@@ -13124,13 +13124,13 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>1055</v>
@@ -13156,7 +13156,7 @@
         <v>1058</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>1059</v>
@@ -13228,22 +13228,22 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G233" s="1">
         <v>0.0</v>
@@ -13254,13 +13254,13 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>782</v>
+        <v>21</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>1074</v>
@@ -13286,7 +13286,7 @@
         <v>1077</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>21</v>
+        <v>801</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>1078</v>
@@ -13338,16 +13338,16 @@
         <v>1085</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="G237" s="1">
         <v>0.0</v>
@@ -13358,13 +13358,13 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1091</v>
@@ -13384,22 +13384,22 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>354</v>
+        <v>1093</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>878</v>
+        <v>21</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G239" s="1">
         <v>0.0</v>
@@ -13410,22 +13410,22 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>1096</v>
+        <v>358</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="G240" s="1">
         <v>0.0</v>
@@ -13436,22 +13436,22 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="G241" s="1">
         <v>0.0</v>
@@ -13462,22 +13462,22 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="G242" s="1">
         <v>0.0</v>
@@ -13488,22 +13488,22 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>1115</v>
       </c>
       <c r="G243" s="1">
         <v>0.0</v>
@@ -13514,13 +13514,13 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1118</v>
@@ -13546,7 +13546,7 @@
         <v>1121</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>841</v>
+        <v>416</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1122</v>
@@ -13572,7 +13572,7 @@
         <v>1125</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>657</v>
+        <v>860</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1126</v>
@@ -13598,7 +13598,7 @@
         <v>1129</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>21</v>
+        <v>666</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1130</v>
@@ -13624,16 +13624,16 @@
         <v>1133</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="G248" s="1">
         <v>0.0</v>
@@ -13644,22 +13644,22 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>1141</v>
       </c>
       <c r="G249" s="1">
         <v>0.0</v>
@@ -13670,13 +13670,13 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1144</v>
@@ -13702,16 +13702,16 @@
         <v>1147</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="G251" s="1">
         <v>0.0</v>
@@ -13722,13 +13722,13 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1153</v>
@@ -13748,22 +13748,22 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>673</v>
+        <v>1155</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>670</v>
+        <v>249</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="G253" s="1">
         <v>0.0</v>
@@ -13774,22 +13774,22 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>1158</v>
+        <v>687</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="G254" s="1">
         <v>0.0</v>
@@ -13800,22 +13800,22 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="G255" s="1">
         <v>0.0</v>
@@ -13826,13 +13826,13 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1170</v>
@@ -13858,16 +13858,16 @@
         <v>1173</v>
       </c>
       <c r="C257" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>1176</v>
       </c>
       <c r="G257" s="1">
         <v>0.0</v>
@@ -13878,22 +13878,22 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="G258" s="1">
         <v>0.0</v>
@@ -13904,22 +13904,22 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259" s="2" t="s">
         <v>1185</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>1186</v>
       </c>
       <c r="G259" s="1">
         <v>0.0</v>
@@ -13930,13 +13930,13 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>1189</v>
@@ -13956,22 +13956,22 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>116</v>
+        <v>1191</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G261" s="1">
         <v>0.0</v>
@@ -13982,13 +13982,13 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>1194</v>
+        <v>131</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>670</v>
+        <v>133</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1196</v>
@@ -14014,16 +14014,16 @@
         <v>1199</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>878</v>
+        <v>679</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1200</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="G263" s="1">
         <v>0.0</v>
@@ -14034,19 +14034,19 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>1206</v>
@@ -14066,7 +14066,7 @@
         <v>1208</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>21</v>
+        <v>865</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1209</v>
@@ -14092,13 +14092,13 @@
         <v>1212</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1201</v>
+        <v>12</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>1214</v>
@@ -14118,13 +14118,13 @@
         <v>1216</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>118</v>
+        <v>327</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>12</v>
+        <v>1205</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>1218</v>
@@ -14144,16 +14144,16 @@
         <v>1220</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="G268" s="1">
         <v>0.0</v>
@@ -14164,13 +14164,13 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1226</v>
@@ -14196,16 +14196,16 @@
         <v>1229</v>
       </c>
       <c r="C270" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>1232</v>
       </c>
       <c r="G270" s="1">
         <v>0.0</v>
@@ -14216,13 +14216,13 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1235</v>
@@ -14248,7 +14248,7 @@
         <v>1238</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>303</v>
+        <v>887</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1239</v>
@@ -14274,16 +14274,16 @@
         <v>1242</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="G273" s="1">
         <v>0.0</v>
@@ -14294,13 +14294,13 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1248</v>
@@ -14326,16 +14326,16 @@
         <v>1251</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>1254</v>
       </c>
       <c r="G275" s="1">
         <v>0.0</v>
@@ -14346,22 +14346,22 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F276" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>1259</v>
       </c>
       <c r="G276" s="1">
         <v>0.0</v>
@@ -14372,19 +14372,19 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1201</v>
+        <v>12</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>1263</v>
@@ -14398,22 +14398,22 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>686</v>
+        <v>1264</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G278" s="1">
         <v>0.0</v>
@@ -14424,22 +14424,22 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>1267</v>
+        <v>705</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F279" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="G279" s="1">
         <v>0.0</v>
@@ -14450,22 +14450,22 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" s="2" t="s">
         <v>1275</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="G280" s="1">
         <v>0.0</v>
@@ -14476,13 +14476,13 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1279</v>
@@ -14508,7 +14508,7 @@
         <v>1282</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>782</v>
+        <v>21</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1283</v>
@@ -14534,7 +14534,7 @@
         <v>1286</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>21</v>
+        <v>801</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1287</v>
@@ -14560,16 +14560,16 @@
         <v>1290</v>
       </c>
       <c r="C284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>1293</v>
       </c>
       <c r="G284" s="1">
         <v>0.0</v>
@@ -14580,13 +14580,13 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1296</v>
@@ -14664,7 +14664,7 @@
         <v>1307</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1308</v>
@@ -14690,16 +14690,16 @@
         <v>1311</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="G289" s="1">
         <v>0.0</v>
@@ -14716,16 +14716,16 @@
         <v>1315</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>21</v>
+        <v>1316</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>12</v>
+        <v>1205</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1317</v>
+        <v>1267</v>
       </c>
       <c r="G290" s="1">
         <v>0.0</v>
@@ -14742,16 +14742,16 @@
         <v>1319</v>
       </c>
       <c r="C291" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" s="2" t="s">
         <v>1321</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>1322</v>
       </c>
       <c r="G291" s="1">
         <v>0.0</v>
@@ -14762,13 +14762,13 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>1325</v>
@@ -14794,7 +14794,7 @@
         <v>1328</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>1329</v>
@@ -14904,7 +14904,7 @@
         <v>1348</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>1349</v>
@@ -14950,7 +14950,7 @@
         <v>1355</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>1356</v>
@@ -15002,7 +15002,7 @@
         <v>1364</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1365</v>
@@ -15028,7 +15028,7 @@
         <v>1368</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>1369</v>
@@ -15048,13 +15048,13 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>1372</v>
@@ -15184,7 +15184,7 @@
         <v>1394</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>1395</v>
@@ -15398,7 +15398,7 @@
         <v>1428</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>1429</v>
@@ -15418,7 +15418,7 @@
         <v>1431</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>1432</v>
@@ -15444,7 +15444,7 @@
         <v>1435</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>1436</v>
@@ -15496,7 +15496,7 @@
         <v>1443</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>1444</v>
@@ -15548,7 +15548,7 @@
         <v>1451</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>1452</v>
@@ -15756,7 +15756,7 @@
         <v>1486</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1487</v>
@@ -15782,7 +15782,7 @@
         <v>1490</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>1491</v>
@@ -15854,13 +15854,13 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>1503</v>
@@ -15938,7 +15938,7 @@
         <v>1516</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>1517</v>
@@ -16042,7 +16042,7 @@
         <v>1535</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>1536</v>
@@ -16204,7 +16204,7 @@
         <v>1563</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>1564</v>
@@ -16348,7 +16348,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1587</v>
@@ -16458,7 +16458,7 @@
         <v>1604</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>1605</v>
@@ -16536,7 +16536,7 @@
         <v>1616</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1617</v>
@@ -16842,13 +16842,13 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1670</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1671</v>
@@ -17160,7 +17160,7 @@
         <v>1726</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>1727</v>
@@ -17290,7 +17290,7 @@
         <v>1748</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>1749</v>
@@ -17414,13 +17414,13 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1769</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1770</v>
@@ -17466,13 +17466,13 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1777</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1778</v>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>1785</v>
@@ -17660,7 +17660,7 @@
         <v>1811</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>1812</v>
@@ -17758,7 +17758,7 @@
         <v>1828</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>1829</v>
@@ -17810,7 +17810,7 @@
         <v>1837</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>1838</v>
@@ -17914,7 +17914,7 @@
         <v>1853</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>1854</v>
@@ -17998,7 +17998,7 @@
         <v>1868</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>1869</v>
@@ -18076,7 +18076,7 @@
         <v>1882</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>1883</v>
@@ -18096,7 +18096,7 @@
         <v>1885</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>1886</v>
@@ -18376,13 +18376,13 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>1930</v>
@@ -18434,7 +18434,7 @@
         <v>1938</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>1939</v>
@@ -18564,7 +18564,7 @@
         <v>1959</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>1960</v>
@@ -18720,7 +18720,7 @@
         <v>1986</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>1987</v>
@@ -18778,7 +18778,7 @@
         <v>1996</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>1997</v>
@@ -18798,7 +18798,7 @@
         <v>1999</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>2000</v>
@@ -18824,7 +18824,7 @@
         <v>2003</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>2004</v>
@@ -18928,7 +18928,7 @@
         <v>2021</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>2022</v>
@@ -19214,7 +19214,7 @@
         <v>2073</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>2074</v>
@@ -19448,7 +19448,7 @@
         <v>2115</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>2116</v>
@@ -19500,7 +19500,7 @@
         <v>2124</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>2125</v>
@@ -19526,7 +19526,7 @@
         <v>2128</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>2129</v>
@@ -19552,7 +19552,7 @@
         <v>2132</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>2133</v>
@@ -19630,7 +19630,7 @@
         <v>2146</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>2147</v>
@@ -19656,7 +19656,7 @@
         <v>2150</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>2151</v>
@@ -19682,7 +19682,7 @@
         <v>2154</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>2155</v>
@@ -19734,7 +19734,7 @@
         <v>2163</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>2164</v>
@@ -19786,7 +19786,7 @@
         <v>2171</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>2172</v>
@@ -19812,7 +19812,7 @@
         <v>2175</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>2176</v>
@@ -19916,7 +19916,7 @@
         <v>2194</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>2195</v>
@@ -19942,7 +19942,7 @@
         <v>2198</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>2199</v>
@@ -19974,7 +19974,7 @@
         <v>2204</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>2205</v>
@@ -20000,7 +20000,7 @@
         <v>2208</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>2209</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>2210</v>
@@ -20228,7 +20228,7 @@
         <v>2243</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>2244</v>
@@ -20254,7 +20254,7 @@
         <v>2247</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>2248</v>
@@ -20332,7 +20332,7 @@
         <v>2260</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>2261</v>
@@ -20410,7 +20410,7 @@
         <v>2272</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>2273</v>
@@ -20494,7 +20494,7 @@
         <v>2286</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>2287</v>
@@ -20540,7 +20540,7 @@
         <v>2294</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>2295</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>2311</v>
@@ -20670,7 +20670,7 @@
         <v>2315</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>2316</v>
@@ -20748,7 +20748,7 @@
         <v>2327</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>2328</v>
@@ -20832,7 +20832,7 @@
         <v>2341</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>2342</v>
@@ -20878,7 +20878,7 @@
         <v>2348</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>2349</v>
@@ -20988,10 +20988,10 @@
         <v>2368</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="G531" s="1">
         <v>0.0</v>

--- a/gc.xlsx
+++ b/gc.xlsx
@@ -70,7 +70,7 @@
     <t>https://google.qwiklabs.com/public_profiles/41b05756-07fa-436f-9667-9beda7739863</t>
   </si>
   <si>
-    <t>EQURAM ANSARI</t>
+    <t>MD EQURAM ANSARI</t>
   </si>
   <si>
     <t>equram786ansari@gmail.com</t>
@@ -145,6 +145,21 @@
     <t>https://www.qwiklabs.com/public_profiles/3c8da359-3288-41cb-a148-88c418b36f65</t>
   </si>
   <si>
+    <t>Barnita Sarkar</t>
+  </si>
+  <si>
+    <t>sarkarbarnita22@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Techno International Newtown, Kolkata.</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+  </si>
+  <si>
     <t>KAUSIK PAL</t>
   </si>
   <si>
@@ -202,19 +217,19 @@
     <t>https://google.qwiklabs.com/public_profiles/80be2ab6-dd5f-4acb-87ac-7ee3688035f7</t>
   </si>
   <si>
-    <t>Barnita Sarkar</t>
-  </si>
-  <si>
-    <t>sarkarbarnita22@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Techno International Newtown, Kolkata.</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:05:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5ed170b-13e9-4c57-890c-f750c6ab31f7</t>
+    <t>ROHIT DEY</t>
+  </si>
+  <si>
+    <t>rohitdey8477@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] MCKV Institution of Engineering</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
   </si>
   <si>
     <t>DEBOSMITA BOSE</t>
@@ -292,21 +307,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a1288cea-14be-4a16-9d49-327281cf5a57</t>
   </si>
   <si>
-    <t>ROHIT DEY</t>
-  </si>
-  <si>
-    <t>rohitdey8477@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] MCKV Institution of Engineering</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 17:05:48 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/1f59c17c-134b-4c2b-8a53-4506e4968800</t>
-  </si>
-  <si>
     <t>SRINJOY PAL</t>
   </si>
   <si>
@@ -478,6 +478,33 @@
     <t>https://google.qwiklabs.com/public_profiles/7cf76d42-3bd3-4314-bbd3-625bd6660bcc</t>
   </si>
   <si>
+    <t>Adarsh Kumar</t>
+  </si>
+  <si>
+    <t>ak47adarsh01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Coochbehar Government Engineering College</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+  </si>
+  <si>
+    <t>Sandipa Jana</t>
+  </si>
+  <si>
+    <t>janasandipa@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+  </si>
+  <si>
     <t>Debjit Chatterjee</t>
   </si>
   <si>
@@ -493,16 +520,19 @@
     <t>https://google.qwiklabs.com/public_profiles/2a152e9b-a492-4e93-b68a-7256b42d9100</t>
   </si>
   <si>
-    <t>Sandipa Jana</t>
-  </si>
-  <si>
-    <t>janasandipa@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 15:46:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/e71c413e-3734-4f90-bd44-4f6cb0fd63cd</t>
+    <t>Manisha Bhowmik</t>
+  </si>
+  <si>
+    <t>manishabhowmik08@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:18:40 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
   </si>
   <si>
     <t>Prachi Kumari</t>
@@ -571,19 +601,19 @@
     <t>https://google.qwiklabs.com/public_profiles/1816730b-445b-4849-9885-b8f1b82cefee</t>
   </si>
   <si>
-    <t>Adarsh Kumar</t>
-  </si>
-  <si>
-    <t>ak47adarsh01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Coochbehar Government Engineering College</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 20:40:20 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d5cb2247-d1bf-4bac-b6b2-9016f01c5daa</t>
+    <t>Anuja Singh</t>
+  </si>
+  <si>
+    <t>anujasingh2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
   </si>
   <si>
     <t>Santanu Biswas</t>
@@ -610,6 +640,21 @@
     <t>https://www.qwiklabs.com/public_profiles/345764e6-2922-45dd-9ac6-232b58c2c05d</t>
   </si>
   <si>
+    <t>AKANSHU KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>akanshusingh0002@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
+  </si>
+  <si>
     <t>Kishan Biswakarma</t>
   </si>
   <si>
@@ -652,36 +697,6 @@
     <t>https://google.qwiklabs.com/public_profiles/a192c0e0-2180-431b-9337-3a4abe1415fe</t>
   </si>
   <si>
-    <t>Anuja Singh</t>
-  </si>
-  <si>
-    <t>anujasingh2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Dr.Sudhir Chandra Sur Institute of Technology &amp; Sports Complex</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 18:59:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/3323b457-25c0-4361-abb9-219b975bd293</t>
-  </si>
-  <si>
-    <t>Manisha Bhowmik</t>
-  </si>
-  <si>
-    <t>manishabhowmik08@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering &amp; Management, Kolkata</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:18:40 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/5e386f52-43b2-46ff-bcd5-88ec88e598e9</t>
-  </si>
-  <si>
     <t>Rahul Debnath</t>
   </si>
   <si>
@@ -697,6 +712,21 @@
     <t>https://google.qwiklabs.com/public_profiles/61dc4edd-6b02-41dd-aea4-7e31d0c67690</t>
   </si>
   <si>
+    <t>SANDIP DAS</t>
+  </si>
+  <si>
+    <t>das770515@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
+  </si>
+  <si>
     <t>ANUVAB DUTTA</t>
   </si>
   <si>
@@ -754,36 +784,6 @@
     <t>https://www.qwiklabs.com/public_profiles/37ba1aba-928a-41f3-87c8-3f96e7132b1d</t>
   </si>
   <si>
-    <t>SANDIP DAS</t>
-  </si>
-  <si>
-    <t>das770515@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 21:50:58 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/0de89f93-723f-420e-9434-e7dde197d040</t>
-  </si>
-  <si>
-    <t>AKANSHU KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>akanshusingh0002@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] NETAJI SUBHASH ENGINEERING COLLEGE, GARIA, KOLKATA</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 11:35:52 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/631c792d-d6d8-4606-babc-ad32ddfe594d</t>
-  </si>
-  <si>
     <t>Sourav Bhunia</t>
   </si>
   <si>
@@ -808,6 +808,21 @@
     <t>https://google.qwiklabs.com/public_profiles/1ed4768d-8428-4640-9fd4-eb58c0a5be52</t>
   </si>
   <si>
+    <t>Raunak Kumar Sah</t>
+  </si>
+  <si>
+    <t>itisraunak@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+  </si>
+  <si>
     <t>Aamrin Islam</t>
   </si>
   <si>
@@ -874,19 +889,34 @@
     <t>https://google.qwiklabs.com/public_profiles/b168bf0f-0ae0-4480-bc20-13b1890548f3</t>
   </si>
   <si>
-    <t>Raunak Kumar Sah</t>
-  </si>
-  <si>
-    <t>itisraunak@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University Institute of Technology, The University of Burdwan</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 18:30:57 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/6ebd9a0b-b29d-419f-ba96-56b71652e064</t>
+    <t>Rajesh Paswan</t>
+  </si>
+  <si>
+    <t>rk.paswan5458@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] OP Jindal University, Raigarh Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Fri Apr 02 2021 23:27:44 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/b033bccb-e643-478f-9999-605b4390c8a6</t>
+  </si>
+  <si>
+    <t>Rajib Tewari</t>
+  </si>
+  <si>
+    <t>rajib192178@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
   </si>
   <si>
     <t>Sayan Poddar</t>
@@ -931,19 +961,19 @@
     <t>https://www.qwiklabs.com/public_profiles/d20de16c-ded1-4f1a-9d6b-7ab5dd9c39d0</t>
   </si>
   <si>
-    <t>Rajib Tewari</t>
-  </si>
-  <si>
-    <t>rajib192178@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Symbiosis Center of Distance Learning (Pune)</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 17:15:23 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/db9a29b5-a009-4bb3-9a60-e360e3c499f7</t>
+    <t>Riya Teri</t>
+  </si>
+  <si>
+    <t>riyateri01@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Kalinga Institute of Industrial Technology</t>
+  </si>
+  <si>
+    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
   </si>
   <si>
     <t>Subhayu Kumar Bala</t>
@@ -973,21 +1003,6 @@
     <t>https://google.qwiklabs.com/public_profiles/58e9017f-f6ff-4869-9d1a-4837b7b261c5</t>
   </si>
   <si>
-    <t>Riya Teri</t>
-  </si>
-  <si>
-    <t>riyateri01@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Kalinga Institute of Industrial Technology</t>
-  </si>
-  <si>
-    <t>Sun Apr 04 2021 10:52:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/7cfecde2-39d0-44fa-aee4-a25e63d0fa41</t>
-  </si>
-  <si>
     <t>Swarnali Saha</t>
   </si>
   <si>
@@ -1015,21 +1030,6 @@
     <t>https://www.qwiklabs.com/public_profiles/4f112305-5c13-449b-87d1-e44c2498a06c</t>
   </si>
   <si>
-    <t>Rajesh Paswan</t>
-  </si>
-  <si>
-    <t>rk.paswan5458@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] OP Jindal University, Raigarh Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Fri Apr 02 2021 23:27:44 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/b033bccb-e643-478f-9999-605b4390c8a6</t>
-  </si>
-  <si>
     <t>RAHUL LAHA</t>
   </si>
   <si>
@@ -1111,6 +1111,21 @@
     <t>https://google.qwiklabs.com/public_profiles/ef5ba0c6-3755-4d1a-bb68-597dffbecfc7</t>
   </si>
   <si>
+    <t>Subhodeep Basak</t>
+  </si>
+  <si>
+    <t>subhodeepbasak14@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] St Paul's Cathedral Misson College</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 23:46:11 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
+  </si>
+  <si>
     <t>Supritha Ravishankar</t>
   </si>
   <si>
@@ -1171,21 +1186,6 @@
     <t>https://www.qwiklabs.com/public_profiles/7dd43913-12a2-447c-b2ac-e060e137c0b1</t>
   </si>
   <si>
-    <t>Subhodeep Basak</t>
-  </si>
-  <si>
-    <t>subhodeepbasak14@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] St Paul's Cathedral Misson College</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 23:46:11 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/d0d2ccaf-5b04-4296-b202-45bcbb124387</t>
-  </si>
-  <si>
     <t>Shiwangi Jaiswal</t>
   </si>
   <si>
@@ -1396,6 +1396,36 @@
     <t>https://www.qwiklabs.com/public_profiles/ae69f93e-9ddf-4e52-97fe-1e942e6e76a2</t>
   </si>
   <si>
+    <t>SAGNIK GHOSH</t>
+  </si>
+  <si>
+    <t>drsagnikghosh1@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] KALYANI GOVERNMENT ENGINEERING COLLEGE</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 00:49:38 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/a2ae655e-f1c2-40c7-91a0-dbdccf2d0be7</t>
+  </si>
+  <si>
+    <t>Suvechha Mukherjee</t>
+  </si>
+  <si>
+    <t>suviie08@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] University of Engineering and Management,Kolkata</t>
+  </si>
+  <si>
+    <t>Tue Apr 06 2021 11:10:35 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/1f905fe5-64c8-463d-bb94-71654427d7ec</t>
+  </si>
+  <si>
     <t>Sweta Upadhyay</t>
   </si>
   <si>
@@ -1480,6 +1510,21 @@
     <t>https://google.qwiklabs.com/public_profiles/291d11bd-fc79-4d5b-8936-01afa25be026</t>
   </si>
   <si>
+    <t>Subhasis Das</t>
+  </si>
+  <si>
+    <t>subhasis.dnt2000@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Aditya College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
+  </si>
+  <si>
     <t>Praneet Chakraborty</t>
   </si>
   <si>
@@ -1516,21 +1561,6 @@
     <t>https://google.qwiklabs.com/public_profiles/582ce5f1-f3d7-4388-a94e-b4a4e5ac9934</t>
   </si>
   <si>
-    <t>Suvechha Mukherjee</t>
-  </si>
-  <si>
-    <t>suviie08@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] University of Engineering and Management,Kolkata</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 11:10:35 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/1f905fe5-64c8-463d-bb94-71654427d7ec</t>
-  </si>
-  <si>
     <t>Debanjana Saha</t>
   </si>
   <si>
@@ -1570,19 +1600,19 @@
     <t>https://google.qwiklabs.com/public_profiles/68d997a9-2ed7-4008-8472-7ba8f499ff23</t>
   </si>
   <si>
-    <t>Subhasis Das</t>
-  </si>
-  <si>
-    <t>subhasis.dnt2000@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Aditya College of Engineering and Technology</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 22:00:10 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/2007c450-4ad8-4af3-9ad5-0e73dfe5ac9c</t>
+    <t>Sukanya Bhattacharya</t>
+  </si>
+  <si>
+    <t>sukanyabhattacharya99@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
+  </si>
+  <si>
+    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
   </si>
   <si>
     <t>Abhinandan Patra</t>
@@ -1708,21 +1738,6 @@
     <t>https://google.qwiklabs.com/public_profiles/e6fa8039-1f69-41ef-98b7-9d8a6121c754</t>
   </si>
   <si>
-    <t>Sukanya Bhattacharya</t>
-  </si>
-  <si>
-    <t>sukanyabhattacharya99@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Guru Nanak Institute of Technology, Kolkata</t>
-  </si>
-  <si>
-    <t>Thu Apr 08 2021 12:04:41 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4ce24e10-a2ef-4b33-b2bf-77ffc48e679b</t>
-  </si>
-  <si>
     <t>Mrinmoy Polley</t>
   </si>
   <si>
@@ -1771,19 +1786,19 @@
     <t>https://google.qwiklabs.com/public_profiles/ea408506-563a-4d52-9e0b-9230c80d0bae</t>
   </si>
   <si>
-    <t>SAGNIK GHOSH</t>
-  </si>
-  <si>
-    <t>drsagnikghosh1@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] KALYANI GOVERNMENT ENGINEERING COLLEGE</t>
-  </si>
-  <si>
-    <t>Tue Apr 06 2021 00:49:38 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/a2ae655e-f1c2-40c7-91a0-dbdccf2d0be7</t>
+    <t>Tanisha Singh</t>
+  </si>
+  <si>
+    <t>stanishas78@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Banasthali Vidyapith</t>
+  </si>
+  <si>
+    <t>Mon Apr 05 2021 22:40:06 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/4ee4a892-a907-4c26-b477-acd92964a209</t>
   </si>
   <si>
     <t>Vidhi Vijayvergiya</t>
@@ -1855,6 +1870,21 @@
     <t>https://google.qwiklabs.com/public_profiles/789dc16a-62df-4489-96ba-f8a0139cdfc8</t>
   </si>
   <si>
+    <t>AVULA ANIL KUMAR</t>
+  </si>
+  <si>
+    <t>anilavulaowk@gmail.com</t>
+  </si>
+  <si>
+    <t>[Referred] Rajiv Gandhi University of Knowledge Technologies - IIIT RK Valley,</t>
+  </si>
+  <si>
+    <t>Sat Apr 03 2021 15:13:32 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
+  </si>
+  <si>
     <t>Sahib pratap singh</t>
   </si>
   <si>
@@ -1882,21 +1912,6 @@
     <t>https://www.qwiklabs.com/public_profiles/bf94d330-b7aa-4388-b3de-3f36c9319aa4</t>
   </si>
   <si>
-    <t>Tanisha Singh</t>
-  </si>
-  <si>
-    <t>stanishas78@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Banasthali Vidyapith</t>
-  </si>
-  <si>
-    <t>Mon Apr 05 2021 22:40:06 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/4ee4a892-a907-4c26-b477-acd92964a209</t>
-  </si>
-  <si>
     <t>Shadab Ahmad</t>
   </si>
   <si>
@@ -1924,6 +1939,18 @@
     <t>https://run.qwiklabs.com/public_profiles/ac29be15-83c8-461f-bf2d-601e283263ea</t>
   </si>
   <si>
+    <t>SRINJOY BANERJEE</t>
+  </si>
+  <si>
+    <t>srinjoybanerjee12@gmail.com</t>
+  </si>
+  <si>
+    <t>Fri Apr 09 2021 21:08:39 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google.qwiklabs.com/public_profiles/c157440c-1327-4738-b043-22d6696f4d2c</t>
+  </si>
+  <si>
     <t>Jayprakash Shadanan Bhure</t>
   </si>
   <si>
@@ -2098,21 +2125,6 @@
     <t>https://google.qwiklabs.com/public_profiles/e6f89737-b8a5-438e-aa30-3f30f4a6d6ff</t>
   </si>
   <si>
-    <t>AVULA ANIL KUMAR</t>
-  </si>
-  <si>
-    <t>anilavulaowk@gmail.com</t>
-  </si>
-  <si>
-    <t>[Referred] Rajiv Gandhi University of Knowledge Technologies - IIIT RK Valley,</t>
-  </si>
-  <si>
-    <t>Sat Apr 03 2021 15:13:32 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://www.qwiklabs.com/public_profiles/009b50a6-0743-471e-92f6-b5af0f0c22f4</t>
-  </si>
-  <si>
     <t>Abhinay Singh</t>
   </si>
   <si>
@@ -2479,18 +2491,6 @@
     <t>https://google.qwiklabs.com/public_profiles/4dfa95cf-06c3-437c-84dd-856e794cd151</t>
   </si>
   <si>
-    <t>SRINJOY BANERJEE</t>
-  </si>
-  <si>
-    <t>srinjoybanerjee12@gmail.com</t>
-  </si>
-  <si>
-    <t>Fri Apr 09 2021 21:08:39 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google.qwiklabs.com/public_profiles/c157440c-1327-4738-b043-22d6696f4d2c</t>
-  </si>
-  <si>
     <t>Aman Malakar</t>
   </si>
   <si>
@@ -2827,6 +2827,18 @@
     <t>https://google.qwiklabs.com/public_profiles/85a645ff-5094-49df-907a-5f09e384b788</t>
   </si>
   <si>
+    <t>HARSHITA TAPARIA</t>
+  </si>
+  <si>
+    <t>harshitataparia2972@gmail.com</t>
+  </si>
+  <si>
+    <t>Wed Apr 07 2021 00:21:46 GMT+0530 (India Standard Time)</t>
+  </si>
+  <si>
+    <t>https://google-run.qwiklabs.com/public_profiles/c95373b6-885a-470d-8d5c-32cc5d362401</t>
+  </si>
+  <si>
     <t>Swaraj Khan</t>
   </si>
   <si>
@@ -4820,18 +4832,6 @@
   </si>
   <si>
     <t>https://google.qwiklabs.com/public_profiles/82ae5936-c50a-4e93-b57e-f924bbba5c7f</t>
-  </si>
-  <si>
-    <t>HARSHITA TAPARIA</t>
-  </si>
-  <si>
-    <t>harshitataparia2972@gmail.com</t>
-  </si>
-  <si>
-    <t>Wed Apr 07 2021 00:21:46 GMT+0530 (India Standard Time)</t>
-  </si>
-  <si>
-    <t>https://google-run.qwiklabs.com/public_profiles/c95373b6-885a-470d-8d5c-32cc5d362401</t>
   </si>
   <si>
     <t>DIBYENDU MAHATA</t>
@@ -7436,16 +7436,16 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>30.0</v>
@@ -7456,13 +7456,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -7526,10 +7526,10 @@
         <v>67</v>
       </c>
       <c r="G13" s="1">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="H13" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -7552,10 +7552,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="1">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="H14" s="1">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
@@ -7578,10 +7578,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H15" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
@@ -7604,10 +7604,10 @@
         <v>82</v>
       </c>
       <c r="G16" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="H16" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
@@ -7630,10 +7630,10 @@
         <v>87</v>
       </c>
       <c r="G17" s="1">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="H17" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
@@ -7659,7 +7659,7 @@
         <v>25.0</v>
       </c>
       <c r="H18" s="1">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
@@ -7685,7 +7685,7 @@
         <v>25.0</v>
       </c>
       <c r="H19" s="1">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="20">
@@ -7696,7 +7696,7 @@
         <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>100</v>
@@ -7930,7 +7930,7 @@
         <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>143</v>
@@ -8020,10 +8020,10 @@
         <v>159</v>
       </c>
       <c r="G32" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H32" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="33">
@@ -8046,7 +8046,7 @@
         <v>163</v>
       </c>
       <c r="G33" s="1">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="H33" s="1">
         <v>8.0</v>
@@ -8060,94 +8060,94 @@
         <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G34" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="H34" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H35" s="1">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G36" s="1">
         <v>19.0</v>
       </c>
       <c r="H36" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G37" s="1">
         <v>19.0</v>
@@ -8158,13 +8158,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>184</v>
@@ -8179,7 +8179,7 @@
         <v>19.0</v>
       </c>
       <c r="H38" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="39">
@@ -8202,7 +8202,7 @@
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H39" s="1">
         <v>8.0</v>
@@ -8216,163 +8216,163 @@
         <v>192</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G40" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H40" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G41" s="1">
         <v>18.0</v>
       </c>
       <c r="H41" s="1">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G42" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H42" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G43" s="1">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H43" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G44" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H44" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G45" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H45" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>221</v>
@@ -8387,7 +8387,7 @@
         <v>16.0</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="47">
@@ -8413,7 +8413,7 @@
         <v>16.0</v>
       </c>
       <c r="H47" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="48">
@@ -8491,7 +8491,7 @@
         <v>16.0</v>
       </c>
       <c r="H50" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
@@ -8502,59 +8502,59 @@
         <v>244</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G51" s="1">
         <v>16.0</v>
       </c>
       <c r="H51" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G52" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H52" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>255</v>
@@ -8566,10 +8566,10 @@
         <v>256</v>
       </c>
       <c r="G53" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H53" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="54">
@@ -8632,33 +8632,33 @@
         <v>266</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G56" s="1">
         <v>14.0</v>
       </c>
       <c r="H56" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>272</v>
@@ -8673,7 +8673,7 @@
         <v>14.0</v>
       </c>
       <c r="H57" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
@@ -8684,33 +8684,33 @@
         <v>275</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G58" s="1">
         <v>14.0</v>
       </c>
       <c r="H58" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>281</v>
@@ -8725,7 +8725,7 @@
         <v>14.0</v>
       </c>
       <c r="H59" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
@@ -8736,33 +8736,33 @@
         <v>284</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G60" s="1">
         <v>14.0</v>
       </c>
       <c r="H60" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>290</v>
@@ -8774,10 +8774,10 @@
         <v>291</v>
       </c>
       <c r="G61" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H61" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
@@ -8803,7 +8803,7 @@
         <v>13.0</v>
       </c>
       <c r="H62" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="63">
@@ -8829,7 +8829,7 @@
         <v>13.0</v>
       </c>
       <c r="H63" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
@@ -8840,59 +8840,59 @@
         <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G64" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H64" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G65" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H65" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>314</v>
@@ -8907,7 +8907,7 @@
         <v>12.0</v>
       </c>
       <c r="H66" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
@@ -8918,59 +8918,59 @@
         <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G67" s="1">
         <v>12.0</v>
       </c>
       <c r="H67" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G68" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H68" s="1">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>328</v>
@@ -8982,10 +8982,10 @@
         <v>329</v>
       </c>
       <c r="G69" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H69" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="70">
@@ -8996,33 +8996,33 @@
         <v>331</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G70" s="1">
         <v>11.0</v>
       </c>
       <c r="H70" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>337</v>
@@ -9034,10 +9034,10 @@
         <v>338</v>
       </c>
       <c r="G71" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H71" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -9152,7 +9152,7 @@
         <v>359</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>360</v>
@@ -9216,7 +9216,7 @@
         <v>370</v>
       </c>
       <c r="G78" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H78" s="1">
         <v>4.0</v>
@@ -9245,7 +9245,7 @@
         <v>9.0</v>
       </c>
       <c r="H79" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
@@ -9271,7 +9271,7 @@
         <v>9.0</v>
       </c>
       <c r="H80" s="1">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -9323,7 +9323,7 @@
         <v>9.0</v>
       </c>
       <c r="H82" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="83">
@@ -9505,7 +9505,7 @@
         <v>8.0</v>
       </c>
       <c r="H89" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="90">
@@ -9661,7 +9661,7 @@
         <v>8.0</v>
       </c>
       <c r="H95" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="96">
@@ -9687,7 +9687,7 @@
         <v>8.0</v>
       </c>
       <c r="H96" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="97">
@@ -9739,7 +9739,7 @@
         <v>7.0</v>
       </c>
       <c r="H98" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="99">
@@ -9750,85 +9750,85 @@
         <v>467</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>183</v>
+        <v>468</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G99" s="1">
         <v>7.0</v>
       </c>
       <c r="H99" s="1">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>21</v>
+        <v>473</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G100" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H100" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>3.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>476</v>
+        <v>193</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G101" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H101" s="1">
         <v>6.0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>4.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>482</v>
@@ -9843,7 +9843,7 @@
         <v>6.0</v>
       </c>
       <c r="H102" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="103">
@@ -9880,215 +9880,215 @@
         <v>490</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>21</v>
+        <v>491</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G104" s="1">
         <v>6.0</v>
       </c>
       <c r="H104" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>21</v>
+        <v>496</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
       </c>
       <c r="H105" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>21</v>
+        <v>501</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G106" s="1">
         <v>6.0</v>
       </c>
       <c r="H106" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>503</v>
+        <v>21</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G107" s="1">
         <v>6.0</v>
       </c>
       <c r="H107" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G108" s="1">
         <v>6.0</v>
       </c>
       <c r="H108" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G109" s="1">
         <v>6.0</v>
       </c>
       <c r="H109" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>383</v>
+        <v>104</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G110" s="1">
         <v>6.0</v>
       </c>
       <c r="H110" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G111" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H111" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>526</v>
+        <v>388</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>527</v>
@@ -10100,10 +10100,10 @@
         <v>528</v>
       </c>
       <c r="G112" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H112" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
@@ -10114,163 +10114,163 @@
         <v>530</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>313</v>
+        <v>531</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G113" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H113" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>21</v>
+        <v>536</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G114" s="1">
         <v>5.0</v>
       </c>
       <c r="H114" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>539</v>
+        <v>323</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G115" s="1">
         <v>5.0</v>
       </c>
       <c r="H115" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G116" s="1">
         <v>5.0</v>
       </c>
       <c r="H116" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>104</v>
+        <v>549</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G117" s="1">
         <v>5.0</v>
       </c>
       <c r="H117" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>552</v>
+        <v>21</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G118" s="1">
         <v>5.0</v>
       </c>
       <c r="H118" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>557</v>
+        <v>104</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>558</v>
@@ -10285,7 +10285,7 @@
         <v>5.0</v>
       </c>
       <c r="H119" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
@@ -10337,7 +10337,7 @@
         <v>5.0</v>
       </c>
       <c r="H121" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
@@ -10348,111 +10348,111 @@
         <v>571</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>21</v>
+        <v>572</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G122" s="1">
         <v>5.0</v>
       </c>
       <c r="H122" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G123" s="1">
         <v>5.0</v>
       </c>
       <c r="H123" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G124" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H124" s="1">
         <v>4.0</v>
-      </c>
-      <c r="H124" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G125" s="1">
         <v>4.0</v>
       </c>
       <c r="H125" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>589</v>
@@ -10467,7 +10467,7 @@
         <v>4.0</v>
       </c>
       <c r="H126" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -10493,7 +10493,7 @@
         <v>4.0</v>
       </c>
       <c r="H127" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -10504,33 +10504,33 @@
         <v>597</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>21</v>
+        <v>598</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G128" s="1">
         <v>4.0</v>
       </c>
       <c r="H128" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>602</v>
+        <v>21</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>603</v>
@@ -10571,7 +10571,7 @@
         <v>4.0</v>
       </c>
       <c r="H130" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -10582,33 +10582,33 @@
         <v>611</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>21</v>
+        <v>612</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G131" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H131" s="1">
         <v>3.0</v>
-      </c>
-      <c r="H131" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>616</v>
+        <v>21</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>617</v>
@@ -10623,7 +10623,7 @@
         <v>3.0</v>
       </c>
       <c r="H132" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -10634,16 +10634,16 @@
         <v>620</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>220</v>
+        <v>621</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G133" s="1">
         <v>3.0</v>
@@ -10654,22 +10654,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G134" s="1">
         <v>3.0</v>
@@ -10680,13 +10680,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>630</v>
+        <v>171</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>631</v>
@@ -10712,33 +10712,33 @@
         <v>634</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>21</v>
+        <v>635</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G136" s="1">
         <v>3.0</v>
       </c>
       <c r="H136" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>639</v>
+        <v>21</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>640</v>
@@ -10753,18 +10753,18 @@
         <v>3.0</v>
       </c>
       <c r="H137" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>506</v>
+        <v>642</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>643</v>
+        <v>104</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>644</v>
@@ -10779,7 +10779,7 @@
         <v>3.0</v>
       </c>
       <c r="H138" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="139">
@@ -10802,7 +10802,7 @@
         <v>650</v>
       </c>
       <c r="G139" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H139" s="1">
         <v>0.0</v>
@@ -10810,39 +10810,39 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C140" s="1" t="s"